--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,339 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>14.05.202414</t>
-  </si>
-  <si>
-    <t>14.05.202415</t>
-  </si>
-  <si>
-    <t>14.05.202416</t>
-  </si>
-  <si>
-    <t>14.05.202417</t>
-  </si>
-  <si>
-    <t>14.05.202418</t>
-  </si>
-  <si>
-    <t>14.05.202419</t>
-  </si>
-  <si>
-    <t>14.05.202420</t>
-  </si>
-  <si>
-    <t>14.05.202421</t>
-  </si>
-  <si>
-    <t>14.05.202422</t>
-  </si>
-  <si>
-    <t>14.05.202423</t>
-  </si>
-  <si>
-    <t>15.05.20240</t>
-  </si>
-  <si>
-    <t>15.05.20241</t>
-  </si>
-  <si>
-    <t>15.05.20242</t>
-  </si>
-  <si>
-    <t>15.05.20243</t>
-  </si>
-  <si>
-    <t>15.05.20244</t>
-  </si>
-  <si>
-    <t>15.05.20245</t>
-  </si>
-  <si>
-    <t>15.05.20246</t>
-  </si>
-  <si>
-    <t>15.05.20247</t>
-  </si>
-  <si>
-    <t>15.05.20248</t>
-  </si>
-  <si>
-    <t>15.05.20249</t>
-  </si>
-  <si>
-    <t>15.05.202410</t>
-  </si>
-  <si>
-    <t>15.05.202411</t>
-  </si>
-  <si>
-    <t>15.05.202412</t>
-  </si>
-  <si>
-    <t>15.05.202413</t>
-  </si>
-  <si>
-    <t>15.05.202414</t>
-  </si>
-  <si>
-    <t>15.05.202415</t>
-  </si>
-  <si>
-    <t>15.05.202416</t>
-  </si>
-  <si>
-    <t>15.05.202417</t>
-  </si>
-  <si>
-    <t>15.05.202418</t>
-  </si>
-  <si>
-    <t>15.05.202419</t>
-  </si>
-  <si>
-    <t>15.05.202420</t>
-  </si>
-  <si>
-    <t>15.05.202421</t>
-  </si>
-  <si>
-    <t>15.05.202422</t>
-  </si>
-  <si>
-    <t>15.05.202423</t>
-  </si>
-  <si>
-    <t>16.05.20240</t>
-  </si>
-  <si>
-    <t>16.05.20241</t>
-  </si>
-  <si>
-    <t>16.05.20242</t>
-  </si>
-  <si>
-    <t>16.05.20243</t>
-  </si>
-  <si>
-    <t>16.05.20244</t>
-  </si>
-  <si>
-    <t>16.05.20245</t>
-  </si>
-  <si>
-    <t>16.05.20246</t>
-  </si>
-  <si>
-    <t>16.05.20247</t>
-  </si>
-  <si>
-    <t>16.05.20248</t>
-  </si>
-  <si>
-    <t>16.05.20249</t>
-  </si>
-  <si>
-    <t>16.05.202410</t>
-  </si>
-  <si>
-    <t>16.05.202411</t>
-  </si>
-  <si>
-    <t>16.05.202412</t>
-  </si>
-  <si>
-    <t>16.05.202413</t>
-  </si>
-  <si>
-    <t>16.05.202414</t>
-  </si>
-  <si>
-    <t>16.05.202415</t>
-  </si>
-  <si>
-    <t>16.05.202416</t>
-  </si>
-  <si>
-    <t>16.05.202417</t>
-  </si>
-  <si>
-    <t>16.05.202418</t>
-  </si>
-  <si>
-    <t>16.05.202419</t>
-  </si>
-  <si>
-    <t>16.05.202420</t>
-  </si>
-  <si>
-    <t>16.05.202421</t>
-  </si>
-  <si>
-    <t>16.05.202422</t>
-  </si>
-  <si>
-    <t>16.05.202423</t>
-  </si>
-  <si>
-    <t>17.05.20240</t>
-  </si>
-  <si>
-    <t>17.05.20241</t>
-  </si>
-  <si>
-    <t>17.05.20242</t>
-  </si>
-  <si>
-    <t>17.05.20243</t>
-  </si>
-  <si>
-    <t>17.05.20244</t>
-  </si>
-  <si>
-    <t>17.05.20245</t>
-  </si>
-  <si>
-    <t>17.05.20246</t>
-  </si>
-  <si>
-    <t>17.05.20247</t>
-  </si>
-  <si>
-    <t>17.05.20248</t>
-  </si>
-  <si>
-    <t>17.05.20249</t>
-  </si>
-  <si>
-    <t>17.05.202410</t>
-  </si>
-  <si>
-    <t>17.05.202411</t>
-  </si>
-  <si>
-    <t>17.05.202412</t>
-  </si>
-  <si>
-    <t>17.05.202413</t>
-  </si>
-  <si>
-    <t>17.05.202414</t>
-  </si>
-  <si>
-    <t>17.05.202415</t>
-  </si>
-  <si>
-    <t>17.05.202416</t>
-  </si>
-  <si>
-    <t>17.05.202417</t>
-  </si>
-  <si>
-    <t>17.05.202418</t>
-  </si>
-  <si>
-    <t>17.05.202419</t>
-  </si>
-  <si>
-    <t>17.05.202420</t>
-  </si>
-  <si>
-    <t>17.05.202421</t>
-  </si>
-  <si>
-    <t>17.05.202422</t>
-  </si>
-  <si>
-    <t>17.05.202423</t>
-  </si>
-  <si>
-    <t>18.05.20240</t>
-  </si>
-  <si>
-    <t>18.05.20241</t>
-  </si>
-  <si>
-    <t>18.05.20242</t>
-  </si>
-  <si>
-    <t>18.05.20243</t>
-  </si>
-  <si>
-    <t>18.05.20244</t>
-  </si>
-  <si>
-    <t>18.05.20245</t>
-  </si>
-  <si>
-    <t>18.05.20246</t>
-  </si>
-  <si>
-    <t>18.05.20247</t>
-  </si>
-  <si>
-    <t>18.05.20248</t>
-  </si>
-  <si>
-    <t>18.05.20249</t>
-  </si>
-  <si>
-    <t>18.05.202410</t>
-  </si>
-  <si>
-    <t>18.05.202411</t>
-  </si>
-  <si>
-    <t>18.05.202412</t>
-  </si>
-  <si>
-    <t>18.05.202413</t>
-  </si>
-  <si>
-    <t>18.05.202414</t>
-  </si>
-  <si>
-    <t>18.05.202415</t>
-  </si>
-  <si>
-    <t>18.05.202416</t>
-  </si>
-  <si>
-    <t>18.05.202417</t>
-  </si>
-  <si>
-    <t>18.05.202418</t>
-  </si>
-  <si>
-    <t>18.05.202419</t>
-  </si>
-  <si>
-    <t>18.05.202420</t>
-  </si>
-  <si>
-    <t>18.05.202421</t>
-  </si>
-  <si>
-    <t>18.05.202422</t>
-  </si>
-  <si>
-    <t>18.05.202423</t>
-  </si>
-  <si>
-    <t>19.05.20240</t>
-  </si>
-  <si>
-    <t>19.05.20241</t>
-  </si>
-  <si>
-    <t>19.05.20242</t>
-  </si>
-  <si>
-    <t>19.05.20243</t>
-  </si>
-  <si>
-    <t>19.05.20244</t>
-  </si>
-  <si>
     <t>19.05.20245</t>
   </si>
   <si>
@@ -542,6 +209,339 @@
   </si>
   <si>
     <t>21.05.202414</t>
+  </si>
+  <si>
+    <t>21.05.202415</t>
+  </si>
+  <si>
+    <t>21.05.202416</t>
+  </si>
+  <si>
+    <t>21.05.202417</t>
+  </si>
+  <si>
+    <t>21.05.202418</t>
+  </si>
+  <si>
+    <t>21.05.202419</t>
+  </si>
+  <si>
+    <t>21.05.202420</t>
+  </si>
+  <si>
+    <t>21.05.202421</t>
+  </si>
+  <si>
+    <t>21.05.202422</t>
+  </si>
+  <si>
+    <t>21.05.202423</t>
+  </si>
+  <si>
+    <t>22.05.20240</t>
+  </si>
+  <si>
+    <t>22.05.20241</t>
+  </si>
+  <si>
+    <t>22.05.20242</t>
+  </si>
+  <si>
+    <t>22.05.20243</t>
+  </si>
+  <si>
+    <t>22.05.20244</t>
+  </si>
+  <si>
+    <t>22.05.20245</t>
+  </si>
+  <si>
+    <t>22.05.20246</t>
+  </si>
+  <si>
+    <t>22.05.20247</t>
+  </si>
+  <si>
+    <t>22.05.20248</t>
+  </si>
+  <si>
+    <t>22.05.20249</t>
+  </si>
+  <si>
+    <t>22.05.202410</t>
+  </si>
+  <si>
+    <t>22.05.202411</t>
+  </si>
+  <si>
+    <t>22.05.202412</t>
+  </si>
+  <si>
+    <t>22.05.202413</t>
+  </si>
+  <si>
+    <t>22.05.202414</t>
+  </si>
+  <si>
+    <t>22.05.202415</t>
+  </si>
+  <si>
+    <t>22.05.202416</t>
+  </si>
+  <si>
+    <t>22.05.202417</t>
+  </si>
+  <si>
+    <t>22.05.202418</t>
+  </si>
+  <si>
+    <t>22.05.202419</t>
+  </si>
+  <si>
+    <t>22.05.202420</t>
+  </si>
+  <si>
+    <t>22.05.202421</t>
+  </si>
+  <si>
+    <t>22.05.202422</t>
+  </si>
+  <si>
+    <t>22.05.202423</t>
+  </si>
+  <si>
+    <t>23.05.20240</t>
+  </si>
+  <si>
+    <t>23.05.20241</t>
+  </si>
+  <si>
+    <t>23.05.20242</t>
+  </si>
+  <si>
+    <t>23.05.20243</t>
+  </si>
+  <si>
+    <t>23.05.20244</t>
+  </si>
+  <si>
+    <t>23.05.20245</t>
+  </si>
+  <si>
+    <t>23.05.20246</t>
+  </si>
+  <si>
+    <t>23.05.20247</t>
+  </si>
+  <si>
+    <t>23.05.20248</t>
+  </si>
+  <si>
+    <t>23.05.20249</t>
+  </si>
+  <si>
+    <t>23.05.202410</t>
+  </si>
+  <si>
+    <t>23.05.202411</t>
+  </si>
+  <si>
+    <t>23.05.202412</t>
+  </si>
+  <si>
+    <t>23.05.202413</t>
+  </si>
+  <si>
+    <t>23.05.202414</t>
+  </si>
+  <si>
+    <t>23.05.202415</t>
+  </si>
+  <si>
+    <t>23.05.202416</t>
+  </si>
+  <si>
+    <t>23.05.202417</t>
+  </si>
+  <si>
+    <t>23.05.202418</t>
+  </si>
+  <si>
+    <t>23.05.202419</t>
+  </si>
+  <si>
+    <t>23.05.202420</t>
+  </si>
+  <si>
+    <t>23.05.202421</t>
+  </si>
+  <si>
+    <t>23.05.202422</t>
+  </si>
+  <si>
+    <t>23.05.202423</t>
+  </si>
+  <si>
+    <t>24.05.20240</t>
+  </si>
+  <si>
+    <t>24.05.20241</t>
+  </si>
+  <si>
+    <t>24.05.20242</t>
+  </si>
+  <si>
+    <t>24.05.20243</t>
+  </si>
+  <si>
+    <t>24.05.20244</t>
+  </si>
+  <si>
+    <t>24.05.20245</t>
+  </si>
+  <si>
+    <t>24.05.20246</t>
+  </si>
+  <si>
+    <t>24.05.20247</t>
+  </si>
+  <si>
+    <t>24.05.20248</t>
+  </si>
+  <si>
+    <t>24.05.20249</t>
+  </si>
+  <si>
+    <t>24.05.202410</t>
+  </si>
+  <si>
+    <t>24.05.202411</t>
+  </si>
+  <si>
+    <t>24.05.202412</t>
+  </si>
+  <si>
+    <t>24.05.202413</t>
+  </si>
+  <si>
+    <t>24.05.202414</t>
+  </si>
+  <si>
+    <t>24.05.202415</t>
+  </si>
+  <si>
+    <t>24.05.202416</t>
+  </si>
+  <si>
+    <t>24.05.202417</t>
+  </si>
+  <si>
+    <t>24.05.202418</t>
+  </si>
+  <si>
+    <t>24.05.202419</t>
+  </si>
+  <si>
+    <t>24.05.202420</t>
+  </si>
+  <si>
+    <t>24.05.202421</t>
+  </si>
+  <si>
+    <t>24.05.202422</t>
+  </si>
+  <si>
+    <t>24.05.202423</t>
+  </si>
+  <si>
+    <t>25.05.20240</t>
+  </si>
+  <si>
+    <t>25.05.20241</t>
+  </si>
+  <si>
+    <t>25.05.20242</t>
+  </si>
+  <si>
+    <t>25.05.20243</t>
+  </si>
+  <si>
+    <t>25.05.20244</t>
+  </si>
+  <si>
+    <t>25.05.20245</t>
+  </si>
+  <si>
+    <t>25.05.20246</t>
+  </si>
+  <si>
+    <t>25.05.20247</t>
+  </si>
+  <si>
+    <t>25.05.20248</t>
+  </si>
+  <si>
+    <t>25.05.20249</t>
+  </si>
+  <si>
+    <t>25.05.202410</t>
+  </si>
+  <si>
+    <t>25.05.202411</t>
+  </si>
+  <si>
+    <t>25.05.202412</t>
+  </si>
+  <si>
+    <t>25.05.202413</t>
+  </si>
+  <si>
+    <t>25.05.202414</t>
+  </si>
+  <si>
+    <t>25.05.202415</t>
+  </si>
+  <si>
+    <t>25.05.202416</t>
+  </si>
+  <si>
+    <t>25.05.202417</t>
+  </si>
+  <si>
+    <t>25.05.202418</t>
+  </si>
+  <si>
+    <t>25.05.202419</t>
+  </si>
+  <si>
+    <t>25.05.202420</t>
+  </si>
+  <si>
+    <t>25.05.202421</t>
+  </si>
+  <si>
+    <t>25.05.202422</t>
+  </si>
+  <si>
+    <t>25.05.202423</t>
+  </si>
+  <si>
+    <t>26.05.20240</t>
+  </si>
+  <si>
+    <t>26.05.20241</t>
+  </si>
+  <si>
+    <t>26.05.20242</t>
+  </si>
+  <si>
+    <t>26.05.20243</t>
+  </si>
+  <si>
+    <t>26.05.20244</t>
+  </si>
+  <si>
+    <t>26.05.20245</t>
   </si>
 </sst>
 </file>
@@ -934,10 +934,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>668</v>
+        <v>205</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>2.631</v>
+        <v>0.416</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>512</v>
+        <v>334</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>2.029</v>
+        <v>1.021</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="D6">
         <v>16</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>1.161</v>
+        <v>1.649</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>148</v>
+        <v>650</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
+        <v>2.161</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>820</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.037</v>
+        <v>2.994</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3.123</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>844</v>
+      </c>
+      <c r="D10">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
       <c r="E10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.901</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45426</v>
+        <v>45431</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.779</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.788</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.431</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -1233,22 +1233,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.944</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -1256,22 +1256,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.379</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -1279,22 +1279,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>17</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -1302,22 +1302,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>16</v>
       </c>
       <c r="F19">
-        <v>0.414</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>16</v>
       </c>
       <c r="F21">
-        <v>1.598</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>2.015</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>758</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F23">
-        <v>2.805</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>12</v>
       </c>
-      <c r="C24">
-        <v>820</v>
-      </c>
-      <c r="D24">
-        <v>14</v>
-      </c>
       <c r="E24">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F24">
-        <v>3.001</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>3.143</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F26">
-        <v>3.108</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>2.903</v>
+        <v>0.076</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>590</v>
+        <v>148</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F28">
-        <v>2.217</v>
+        <v>0.392</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>462</v>
+        <v>270</v>
       </c>
       <c r="D29">
         <v>15</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F29">
-        <v>1.919</v>
+        <v>0.77</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F30">
-        <v>1.215</v>
+        <v>1.186</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>147</v>
+        <v>520</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F31">
-        <v>0.398</v>
+        <v>1.834</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>635</v>
+      </c>
+      <c r="D32">
         <v>20</v>
       </c>
-      <c r="C32">
-        <v>24</v>
-      </c>
-      <c r="D32">
-        <v>11</v>
-      </c>
       <c r="E32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>0.037</v>
+        <v>2.122</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>719</v>
+      </c>
+      <c r="D33">
         <v>21</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
       <c r="E33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2.537</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>748</v>
+      </c>
+      <c r="D34">
         <v>22</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
       <c r="E34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2.622</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>718</v>
+      </c>
+      <c r="D35">
         <v>23</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
       <c r="E35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2.604</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2.307</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1.298</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E39">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.701</v>
       </c>
       <c r="G39" t="s">
         <v>44</v>
@@ -1808,22 +1808,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.237</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -1854,22 +1854,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F42">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F43">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
         <v>48</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C44">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F44">
-        <v>1.026</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F45">
-        <v>1.628</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>13</v>
       </c>
       <c r="E46">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F46">
-        <v>2.147</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>789</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F47">
-        <v>2.833</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>12</v>
       </c>
-      <c r="C48">
-        <v>804</v>
-      </c>
-      <c r="D48">
-        <v>15</v>
-      </c>
       <c r="E48">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>2.931</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F49">
-        <v>2.769</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>662</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F50">
-        <v>2.733</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>568</v>
+        <v>42</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F51">
-        <v>2.201</v>
+        <v>0.076</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>457</v>
+        <v>147</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F52">
-        <v>1.773</v>
+        <v>0.379</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F53">
-        <v>1.309</v>
+        <v>0.718</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>224</v>
+        <v>403</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F54">
-        <v>0.803</v>
+        <v>1.259</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>117</v>
+        <v>573</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>0.329</v>
+        <v>1.88</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>754</v>
+      </c>
+      <c r="D56">
         <v>20</v>
       </c>
-      <c r="C56">
-        <v>22</v>
-      </c>
-      <c r="D56">
-        <v>13</v>
-      </c>
       <c r="E56">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>0.037</v>
+        <v>2.789</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2.878</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>795</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2.806</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E59">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2.798</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E60">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E61">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1.787</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E62">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1.312</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
@@ -2337,22 +2337,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E63">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="G63" t="s">
         <v>68</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.256</v>
       </c>
       <c r="G64" t="s">
         <v>69</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F66">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
         <v>71</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C67">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>27</v>
       </c>
       <c r="F67">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
         <v>72</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C68">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E68">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F68">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E69">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F69">
-        <v>1.021</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E70">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F70">
-        <v>1.595</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F71">
-        <v>1.846</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F72">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F73">
-        <v>2.034</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C74">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F74">
-        <v>1.797</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E75">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>1.421</v>
+        <v>0.076</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C76">
-        <v>304</v>
+        <v>149</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E76">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F76">
-        <v>1.191</v>
+        <v>0.38</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C77">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F77">
-        <v>0.844</v>
+        <v>0.973</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>147</v>
+        <v>453</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F78">
-        <v>0.433</v>
+        <v>1.563</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F79">
-        <v>0.182</v>
+        <v>2.025</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C80">
-        <v>16</v>
+        <v>643</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E80">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F80">
-        <v>0.038</v>
+        <v>2.155</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="D81">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E81">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2.069</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>2.033</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E83">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>2.081</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E84">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1.611</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1.358</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E86">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.842</v>
       </c>
       <c r="G86" t="s">
         <v>91</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D87">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E87">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.472</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E88">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="G88" t="s">
         <v>93</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E89">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="G89" t="s">
         <v>94</v>
@@ -2958,22 +2958,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C90">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E90">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F90">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
         <v>95</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C91">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E91">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F91">
-        <v>0.387</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
         <v>96</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C92">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F92">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E93">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F93">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F94">
-        <v>1.753</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F95">
-        <v>2.045</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B96">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F96">
-        <v>2.307</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
         <v>13</v>
       </c>
-      <c r="C97">
-        <v>626</v>
-      </c>
-      <c r="D97">
-        <v>16</v>
-      </c>
       <c r="E97">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F97">
-        <v>2.376</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C98">
-        <v>573</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E98">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F98">
-        <v>2.143</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>515</v>
+        <v>50</v>
       </c>
       <c r="D99">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F99">
-        <v>2.012</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B100">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>442</v>
+        <v>150</v>
       </c>
       <c r="D100">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E100">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F100">
-        <v>1.782</v>
+        <v>0.413</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B101">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C101">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="D101">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F101">
-        <v>1.296</v>
+        <v>0.624</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B102">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C102">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="D102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F102">
-        <v>0.802</v>
+        <v>1.044</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B103">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C103">
-        <v>113</v>
+        <v>487</v>
       </c>
       <c r="D103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E103">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F103">
-        <v>0.277</v>
+        <v>1.742</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B104">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C104">
-        <v>21</v>
+        <v>631</v>
       </c>
       <c r="D104">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F104">
-        <v>0.037</v>
+        <v>2.234</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B105">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="D105">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E105">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>2.665</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B106">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>701</v>
+      </c>
+      <c r="D106">
+        <v>19</v>
+      </c>
+      <c r="E106">
         <v>22</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>11</v>
-      </c>
-      <c r="E106">
-        <v>19</v>
-      </c>
       <c r="F106">
-        <v>0</v>
+        <v>2.598</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45430</v>
+        <v>45435</v>
       </c>
       <c r="B107">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D107">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>2.472</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E108">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E109">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1.459</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
@@ -3418,22 +3418,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E110">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="G110" t="s">
         <v>115</v>
@@ -3441,22 +3441,22 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E111">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.468</v>
       </c>
       <c r="G111" t="s">
         <v>116</v>
@@ -3464,22 +3464,22 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E112">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.204</v>
       </c>
       <c r="G112" t="s">
         <v>117</v>
@@ -3487,22 +3487,22 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E113">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="G113" t="s">
         <v>118</v>
@@ -3510,22 +3510,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C114">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E114">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F114">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>119</v>
@@ -3533,22 +3533,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C115">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E115">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F115">
-        <v>0.401</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
         <v>120</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C116">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E116">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F116">
-        <v>0.984</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>14</v>
       </c>
       <c r="E117">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F117">
-        <v>1.573</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E118">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F118">
-        <v>1.961</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F119">
-        <v>2.969</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B120">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F120">
-        <v>3.016</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B121">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E121">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F121">
-        <v>3.039</v>
+        <v>0</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3694,22 +3694,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
         <v>14</v>
       </c>
-      <c r="C122">
-        <v>758</v>
-      </c>
-      <c r="D122">
-        <v>20</v>
-      </c>
       <c r="E122">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F122">
-        <v>2.851</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C123">
-        <v>669</v>
+        <v>40</v>
       </c>
       <c r="D123">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E123">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F123">
-        <v>2.503</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C124">
-        <v>535</v>
+        <v>114</v>
       </c>
       <c r="D124">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E124">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F124">
-        <v>1.963</v>
+        <v>0.309</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B125">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C125">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="D125">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E125">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F125">
-        <v>1.437</v>
+        <v>0.58</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B126">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C126">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="D126">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E126">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F126">
-        <v>0.906</v>
+        <v>1.06</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B127">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C127">
-        <v>110</v>
+        <v>395</v>
       </c>
       <c r="D127">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E127">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F127">
-        <v>0.258</v>
+        <v>1.341</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3832,22 +3832,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B128">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C128">
-        <v>20</v>
+        <v>498</v>
       </c>
       <c r="D128">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E128">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F128">
-        <v>0.036</v>
+        <v>1.797</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3855,22 +3855,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B129">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="D129">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E129">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1.957</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -3878,22 +3878,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B130">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="D130">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E130">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2.255</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45431</v>
+        <v>45436</v>
       </c>
       <c r="B131">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="D131">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E131">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>2.155</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -3924,22 +3924,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="D132">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E132">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>2.026</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -3947,22 +3947,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="D133">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E133">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1.725</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
@@ -3970,22 +3970,22 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="D134">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E134">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1.264</v>
       </c>
       <c r="G134" t="s">
         <v>139</v>
@@ -3993,22 +3993,22 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D135">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E135">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>0.794</v>
       </c>
       <c r="G135" t="s">
         <v>140</v>
@@ -4016,22 +4016,22 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E136">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="G136" t="s">
         <v>141</v>
@@ -4039,22 +4039,22 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B137">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D137">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E137">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G137" t="s">
         <v>142</v>
@@ -4062,22 +4062,22 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C138">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E138">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F138">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
         <v>143</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C139">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E139">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F139">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
         <v>144</v>
@@ -4108,22 +4108,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C140">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E140">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F140">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>145</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E141">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F141">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E142">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F142">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B143">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C143">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E143">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F143">
-        <v>1.042</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B144">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F144">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
         <v>13</v>
       </c>
-      <c r="C145">
-        <v>407</v>
-      </c>
-      <c r="D145">
-        <v>19</v>
-      </c>
       <c r="E145">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F145">
-        <v>1.402</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>12</v>
+      </c>
+      <c r="E146">
         <v>14</v>
       </c>
-      <c r="C146">
-        <v>391</v>
-      </c>
-      <c r="D146">
-        <v>20</v>
-      </c>
-      <c r="E146">
-        <v>52</v>
-      </c>
       <c r="F146">
-        <v>1.353</v>
+        <v>0</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B147">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C147">
-        <v>337</v>
+        <v>59</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E147">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F147">
-        <v>1.309</v>
+        <v>0.098</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4292,22 +4292,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B148">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C148">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E148">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="F148">
-        <v>1.102</v>
+        <v>0.395</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B149">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C149">
-        <v>210</v>
+        <v>373</v>
       </c>
       <c r="D149">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E149">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="F149">
-        <v>0.764</v>
+        <v>1.131</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4338,22 +4338,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B150">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>523</v>
+      </c>
+      <c r="D150">
         <v>18</v>
       </c>
-      <c r="C150">
-        <v>138</v>
-      </c>
-      <c r="D150">
-        <v>19</v>
-      </c>
       <c r="E150">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F150">
-        <v>0.433</v>
+        <v>1.827</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>672</v>
+      </c>
+      <c r="D151">
         <v>19</v>
       </c>
-      <c r="C151">
-        <v>76</v>
-      </c>
-      <c r="D151">
-        <v>17</v>
-      </c>
       <c r="E151">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F151">
-        <v>0.186</v>
+        <v>2.399</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B152">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C152">
-        <v>17</v>
+        <v>799</v>
       </c>
       <c r="D152">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E152">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.037</v>
+        <v>2.87</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B153">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="D153">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E153">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>2.809</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B154">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>834</v>
+      </c>
+      <c r="D154">
         <v>22</v>
       </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>14</v>
-      </c>
       <c r="E154">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>2.873</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45432</v>
+        <v>45437</v>
       </c>
       <c r="B155">
+        <v>14</v>
+      </c>
+      <c r="C155">
+        <v>835</v>
+      </c>
+      <c r="D155">
         <v>23</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>13</v>
-      </c>
       <c r="E155">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>2.792</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="D156">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E156">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>2.717</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="D157">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E157">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>2.033</v>
       </c>
       <c r="G157" t="s">
         <v>162</v>
@@ -4522,22 +4522,22 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="D158">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E158">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1.664</v>
       </c>
       <c r="G158" t="s">
         <v>163</v>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="D159">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E159">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>0.992</v>
       </c>
       <c r="G159" t="s">
         <v>164</v>
@@ -4568,22 +4568,22 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D160">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>0.379</v>
       </c>
       <c r="G160" t="s">
         <v>165</v>
@@ -4591,22 +4591,22 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E161">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="G161" t="s">
         <v>166</v>
@@ -4614,22 +4614,22 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="B162">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C162">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E162">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F162">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="G162" t="s">
         <v>167</v>
@@ -4637,22 +4637,22 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C163">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E163">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F163">
-        <v>0.412</v>
+        <v>0</v>
       </c>
       <c r="G163" t="s">
         <v>168</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C164">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <v>14</v>
       </c>
       <c r="E164">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F164">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="G164" t="s">
         <v>169</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45433</v>
+        <v>45438</v>
       </c>
       <c r="B165">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C165">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E165">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F165">
-        <v>1.236</v>
+        <v>0</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45433</v>
+        <v>45438</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C166">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="D166">
+        <v>13</v>
+      </c>
+      <c r="E166">
         <v>17</v>
       </c>
-      <c r="E166">
-        <v>25</v>
-      </c>
       <c r="F166">
-        <v>1.932</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45433</v>
+        <v>45438</v>
       </c>
       <c r="B167">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C167">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F167">
-        <v>2.308</v>
+        <v>0</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45433</v>
+        <v>45438</v>
       </c>
       <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
         <v>12</v>
       </c>
-      <c r="C168">
-        <v>707</v>
-      </c>
-      <c r="D168">
-        <v>20</v>
-      </c>
       <c r="E168">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F168">
-        <v>2.437</v>
+        <v>0</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45433</v>
+        <v>45438</v>
       </c>
       <c r="B169">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C169">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F169">
-        <v>2.585</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45433</v>
+        <v>45438</v>
       </c>
       <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>11</v>
+      </c>
+      <c r="E170">
         <v>14</v>
       </c>
-      <c r="C170">
-        <v>724</v>
-      </c>
-      <c r="D170">
-        <v>21</v>
-      </c>
-      <c r="E170">
-        <v>17</v>
-      </c>
       <c r="F170">
-        <v>2.678</v>
+        <v>0</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,511 +37,511 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.05.20245</t>
-  </si>
-  <si>
-    <t>19.05.20246</t>
-  </si>
-  <si>
-    <t>19.05.20247</t>
-  </si>
-  <si>
-    <t>19.05.20248</t>
-  </si>
-  <si>
-    <t>19.05.20249</t>
-  </si>
-  <si>
-    <t>19.05.202410</t>
-  </si>
-  <si>
-    <t>19.05.202411</t>
-  </si>
-  <si>
-    <t>19.05.202412</t>
-  </si>
-  <si>
-    <t>19.05.202413</t>
-  </si>
-  <si>
-    <t>19.05.202414</t>
-  </si>
-  <si>
-    <t>19.05.202415</t>
-  </si>
-  <si>
-    <t>19.05.202416</t>
-  </si>
-  <si>
-    <t>19.05.202417</t>
-  </si>
-  <si>
-    <t>19.05.202418</t>
-  </si>
-  <si>
-    <t>19.05.202419</t>
-  </si>
-  <si>
-    <t>19.05.202420</t>
-  </si>
-  <si>
-    <t>19.05.202421</t>
-  </si>
-  <si>
-    <t>19.05.202422</t>
-  </si>
-  <si>
-    <t>19.05.202423</t>
-  </si>
-  <si>
-    <t>20.05.20240</t>
-  </si>
-  <si>
-    <t>20.05.20241</t>
-  </si>
-  <si>
-    <t>20.05.20242</t>
-  </si>
-  <si>
-    <t>20.05.20243</t>
-  </si>
-  <si>
-    <t>20.05.20244</t>
-  </si>
-  <si>
-    <t>20.05.20245</t>
-  </si>
-  <si>
-    <t>20.05.20246</t>
-  </si>
-  <si>
-    <t>20.05.20247</t>
-  </si>
-  <si>
-    <t>20.05.20248</t>
-  </si>
-  <si>
-    <t>20.05.20249</t>
-  </si>
-  <si>
-    <t>20.05.202410</t>
-  </si>
-  <si>
-    <t>20.05.202411</t>
-  </si>
-  <si>
-    <t>20.05.202412</t>
-  </si>
-  <si>
-    <t>20.05.202413</t>
-  </si>
-  <si>
-    <t>20.05.202414</t>
-  </si>
-  <si>
-    <t>20.05.202415</t>
-  </si>
-  <si>
-    <t>20.05.202416</t>
-  </si>
-  <si>
-    <t>20.05.202417</t>
-  </si>
-  <si>
-    <t>20.05.202418</t>
-  </si>
-  <si>
-    <t>20.05.202419</t>
-  </si>
-  <si>
-    <t>20.05.202420</t>
-  </si>
-  <si>
-    <t>20.05.202421</t>
-  </si>
-  <si>
-    <t>20.05.202422</t>
-  </si>
-  <si>
-    <t>20.05.202423</t>
-  </si>
-  <si>
-    <t>21.05.20240</t>
-  </si>
-  <si>
-    <t>21.05.20241</t>
-  </si>
-  <si>
-    <t>21.05.20242</t>
-  </si>
-  <si>
-    <t>21.05.20243</t>
-  </si>
-  <si>
-    <t>21.05.20244</t>
-  </si>
-  <si>
-    <t>21.05.20245</t>
-  </si>
-  <si>
-    <t>21.05.20246</t>
-  </si>
-  <si>
-    <t>21.05.20247</t>
-  </si>
-  <si>
-    <t>21.05.20248</t>
-  </si>
-  <si>
-    <t>21.05.20249</t>
-  </si>
-  <si>
-    <t>21.05.202410</t>
-  </si>
-  <si>
-    <t>21.05.202411</t>
-  </si>
-  <si>
-    <t>21.05.202412</t>
-  </si>
-  <si>
-    <t>21.05.202413</t>
-  </si>
-  <si>
-    <t>21.05.202414</t>
-  </si>
-  <si>
-    <t>21.05.202415</t>
-  </si>
-  <si>
-    <t>21.05.202416</t>
-  </si>
-  <si>
-    <t>21.05.202417</t>
-  </si>
-  <si>
-    <t>21.05.202418</t>
-  </si>
-  <si>
-    <t>21.05.202419</t>
-  </si>
-  <si>
-    <t>21.05.202420</t>
-  </si>
-  <si>
-    <t>21.05.202421</t>
-  </si>
-  <si>
-    <t>21.05.202422</t>
-  </si>
-  <si>
-    <t>21.05.202423</t>
-  </si>
-  <si>
-    <t>22.05.20240</t>
-  </si>
-  <si>
-    <t>22.05.20241</t>
-  </si>
-  <si>
-    <t>22.05.20242</t>
-  </si>
-  <si>
-    <t>22.05.20243</t>
-  </si>
-  <si>
-    <t>22.05.20244</t>
-  </si>
-  <si>
-    <t>22.05.20245</t>
-  </si>
-  <si>
-    <t>22.05.20246</t>
-  </si>
-  <si>
-    <t>22.05.20247</t>
-  </si>
-  <si>
-    <t>22.05.20248</t>
-  </si>
-  <si>
-    <t>22.05.20249</t>
-  </si>
-  <si>
-    <t>22.05.202410</t>
-  </si>
-  <si>
-    <t>22.05.202411</t>
-  </si>
-  <si>
-    <t>22.05.202412</t>
-  </si>
-  <si>
-    <t>22.05.202413</t>
-  </si>
-  <si>
-    <t>22.05.202414</t>
-  </si>
-  <si>
-    <t>22.05.202415</t>
-  </si>
-  <si>
-    <t>22.05.202416</t>
-  </si>
-  <si>
-    <t>22.05.202417</t>
-  </si>
-  <si>
-    <t>22.05.202418</t>
-  </si>
-  <si>
-    <t>22.05.202419</t>
-  </si>
-  <si>
-    <t>22.05.202420</t>
-  </si>
-  <si>
-    <t>22.05.202421</t>
-  </si>
-  <si>
-    <t>22.05.202422</t>
-  </si>
-  <si>
-    <t>22.05.202423</t>
-  </si>
-  <si>
-    <t>23.05.20240</t>
-  </si>
-  <si>
-    <t>23.05.20241</t>
-  </si>
-  <si>
-    <t>23.05.20242</t>
-  </si>
-  <si>
-    <t>23.05.20243</t>
-  </si>
-  <si>
-    <t>23.05.20244</t>
-  </si>
-  <si>
-    <t>23.05.20245</t>
-  </si>
-  <si>
-    <t>23.05.20246</t>
-  </si>
-  <si>
-    <t>23.05.20247</t>
-  </si>
-  <si>
-    <t>23.05.20248</t>
-  </si>
-  <si>
-    <t>23.05.20249</t>
-  </si>
-  <si>
-    <t>23.05.202410</t>
-  </si>
-  <si>
-    <t>23.05.202411</t>
-  </si>
-  <si>
-    <t>23.05.202412</t>
-  </si>
-  <si>
-    <t>23.05.202413</t>
-  </si>
-  <si>
-    <t>23.05.202414</t>
-  </si>
-  <si>
-    <t>23.05.202415</t>
-  </si>
-  <si>
-    <t>23.05.202416</t>
-  </si>
-  <si>
-    <t>23.05.202417</t>
-  </si>
-  <si>
-    <t>23.05.202418</t>
-  </si>
-  <si>
-    <t>23.05.202419</t>
-  </si>
-  <si>
-    <t>23.05.202420</t>
-  </si>
-  <si>
-    <t>23.05.202421</t>
-  </si>
-  <si>
-    <t>23.05.202422</t>
-  </si>
-  <si>
-    <t>23.05.202423</t>
-  </si>
-  <si>
-    <t>24.05.20240</t>
-  </si>
-  <si>
-    <t>24.05.20241</t>
-  </si>
-  <si>
-    <t>24.05.20242</t>
-  </si>
-  <si>
-    <t>24.05.20243</t>
-  </si>
-  <si>
-    <t>24.05.20244</t>
-  </si>
-  <si>
-    <t>24.05.20245</t>
-  </si>
-  <si>
-    <t>24.05.20246</t>
-  </si>
-  <si>
-    <t>24.05.20247</t>
-  </si>
-  <si>
-    <t>24.05.20248</t>
-  </si>
-  <si>
-    <t>24.05.20249</t>
-  </si>
-  <si>
-    <t>24.05.202410</t>
-  </si>
-  <si>
-    <t>24.05.202411</t>
-  </si>
-  <si>
-    <t>24.05.202412</t>
-  </si>
-  <si>
-    <t>24.05.202413</t>
-  </si>
-  <si>
-    <t>24.05.202414</t>
-  </si>
-  <si>
-    <t>24.05.202415</t>
-  </si>
-  <si>
-    <t>24.05.202416</t>
-  </si>
-  <si>
-    <t>24.05.202417</t>
-  </si>
-  <si>
-    <t>24.05.202418</t>
-  </si>
-  <si>
-    <t>24.05.202419</t>
-  </si>
-  <si>
-    <t>24.05.202420</t>
-  </si>
-  <si>
-    <t>24.05.202421</t>
-  </si>
-  <si>
-    <t>24.05.202422</t>
-  </si>
-  <si>
-    <t>24.05.202423</t>
-  </si>
-  <si>
-    <t>25.05.20240</t>
-  </si>
-  <si>
-    <t>25.05.20241</t>
-  </si>
-  <si>
-    <t>25.05.20242</t>
-  </si>
-  <si>
-    <t>25.05.20243</t>
-  </si>
-  <si>
-    <t>25.05.20244</t>
-  </si>
-  <si>
-    <t>25.05.20245</t>
-  </si>
-  <si>
-    <t>25.05.20246</t>
-  </si>
-  <si>
-    <t>25.05.20247</t>
-  </si>
-  <si>
-    <t>25.05.20248</t>
-  </si>
-  <si>
-    <t>25.05.20249</t>
-  </si>
-  <si>
-    <t>25.05.202410</t>
-  </si>
-  <si>
-    <t>25.05.202411</t>
-  </si>
-  <si>
-    <t>25.05.202412</t>
-  </si>
-  <si>
-    <t>25.05.202413</t>
-  </si>
-  <si>
-    <t>25.05.202414</t>
-  </si>
-  <si>
-    <t>25.05.202415</t>
-  </si>
-  <si>
-    <t>25.05.202416</t>
-  </si>
-  <si>
-    <t>25.05.202417</t>
-  </si>
-  <si>
-    <t>25.05.202418</t>
-  </si>
-  <si>
-    <t>25.05.202419</t>
-  </si>
-  <si>
-    <t>25.05.202420</t>
-  </si>
-  <si>
-    <t>25.05.202421</t>
-  </si>
-  <si>
-    <t>25.05.202422</t>
-  </si>
-  <si>
-    <t>25.05.202423</t>
-  </si>
-  <si>
-    <t>26.05.20240</t>
-  </si>
-  <si>
-    <t>26.05.20241</t>
-  </si>
-  <si>
-    <t>26.05.20242</t>
-  </si>
-  <si>
-    <t>26.05.20243</t>
-  </si>
-  <si>
-    <t>26.05.20244</t>
-  </si>
-  <si>
-    <t>26.05.20245</t>
+    <t>30.05.202414</t>
+  </si>
+  <si>
+    <t>30.05.202415</t>
+  </si>
+  <si>
+    <t>30.05.202416</t>
+  </si>
+  <si>
+    <t>30.05.202417</t>
+  </si>
+  <si>
+    <t>30.05.202418</t>
+  </si>
+  <si>
+    <t>30.05.202419</t>
+  </si>
+  <si>
+    <t>30.05.202420</t>
+  </si>
+  <si>
+    <t>30.05.202421</t>
+  </si>
+  <si>
+    <t>30.05.202422</t>
+  </si>
+  <si>
+    <t>30.05.202423</t>
+  </si>
+  <si>
+    <t>31.05.20240</t>
+  </si>
+  <si>
+    <t>31.05.20241</t>
+  </si>
+  <si>
+    <t>31.05.20242</t>
+  </si>
+  <si>
+    <t>31.05.20243</t>
+  </si>
+  <si>
+    <t>31.05.20244</t>
+  </si>
+  <si>
+    <t>31.05.20245</t>
+  </si>
+  <si>
+    <t>31.05.20246</t>
+  </si>
+  <si>
+    <t>31.05.20247</t>
+  </si>
+  <si>
+    <t>31.05.20248</t>
+  </si>
+  <si>
+    <t>31.05.20249</t>
+  </si>
+  <si>
+    <t>31.05.202410</t>
+  </si>
+  <si>
+    <t>31.05.202411</t>
+  </si>
+  <si>
+    <t>31.05.202412</t>
+  </si>
+  <si>
+    <t>31.05.202413</t>
+  </si>
+  <si>
+    <t>31.05.202414</t>
+  </si>
+  <si>
+    <t>31.05.202415</t>
+  </si>
+  <si>
+    <t>31.05.202416</t>
+  </si>
+  <si>
+    <t>31.05.202417</t>
+  </si>
+  <si>
+    <t>31.05.202418</t>
+  </si>
+  <si>
+    <t>31.05.202419</t>
+  </si>
+  <si>
+    <t>31.05.202420</t>
+  </si>
+  <si>
+    <t>31.05.202421</t>
+  </si>
+  <si>
+    <t>31.05.202422</t>
+  </si>
+  <si>
+    <t>31.05.202423</t>
+  </si>
+  <si>
+    <t>01.06.20240</t>
+  </si>
+  <si>
+    <t>01.06.20241</t>
+  </si>
+  <si>
+    <t>01.06.20242</t>
+  </si>
+  <si>
+    <t>01.06.20243</t>
+  </si>
+  <si>
+    <t>01.06.20244</t>
+  </si>
+  <si>
+    <t>01.06.20245</t>
+  </si>
+  <si>
+    <t>01.06.20246</t>
+  </si>
+  <si>
+    <t>01.06.20247</t>
+  </si>
+  <si>
+    <t>01.06.20248</t>
+  </si>
+  <si>
+    <t>01.06.20249</t>
+  </si>
+  <si>
+    <t>01.06.202410</t>
+  </si>
+  <si>
+    <t>01.06.202411</t>
+  </si>
+  <si>
+    <t>01.06.202412</t>
+  </si>
+  <si>
+    <t>01.06.202413</t>
+  </si>
+  <si>
+    <t>01.06.202414</t>
+  </si>
+  <si>
+    <t>01.06.202415</t>
+  </si>
+  <si>
+    <t>01.06.202416</t>
+  </si>
+  <si>
+    <t>01.06.202417</t>
+  </si>
+  <si>
+    <t>01.06.202418</t>
+  </si>
+  <si>
+    <t>01.06.202419</t>
+  </si>
+  <si>
+    <t>01.06.202420</t>
+  </si>
+  <si>
+    <t>01.06.202421</t>
+  </si>
+  <si>
+    <t>01.06.202422</t>
+  </si>
+  <si>
+    <t>01.06.202423</t>
+  </si>
+  <si>
+    <t>02.06.20240</t>
+  </si>
+  <si>
+    <t>02.06.20241</t>
+  </si>
+  <si>
+    <t>02.06.20242</t>
+  </si>
+  <si>
+    <t>02.06.20243</t>
+  </si>
+  <si>
+    <t>02.06.20244</t>
+  </si>
+  <si>
+    <t>02.06.20245</t>
+  </si>
+  <si>
+    <t>02.06.20246</t>
+  </si>
+  <si>
+    <t>02.06.20247</t>
+  </si>
+  <si>
+    <t>02.06.20248</t>
+  </si>
+  <si>
+    <t>02.06.20249</t>
+  </si>
+  <si>
+    <t>02.06.202410</t>
+  </si>
+  <si>
+    <t>02.06.202411</t>
+  </si>
+  <si>
+    <t>02.06.202412</t>
+  </si>
+  <si>
+    <t>02.06.202413</t>
+  </si>
+  <si>
+    <t>02.06.202414</t>
+  </si>
+  <si>
+    <t>02.06.202415</t>
+  </si>
+  <si>
+    <t>02.06.202416</t>
+  </si>
+  <si>
+    <t>02.06.202417</t>
+  </si>
+  <si>
+    <t>02.06.202418</t>
+  </si>
+  <si>
+    <t>02.06.202419</t>
+  </si>
+  <si>
+    <t>02.06.202420</t>
+  </si>
+  <si>
+    <t>02.06.202421</t>
+  </si>
+  <si>
+    <t>02.06.202422</t>
+  </si>
+  <si>
+    <t>02.06.202423</t>
+  </si>
+  <si>
+    <t>03.06.20240</t>
+  </si>
+  <si>
+    <t>03.06.20241</t>
+  </si>
+  <si>
+    <t>03.06.20242</t>
+  </si>
+  <si>
+    <t>03.06.20243</t>
+  </si>
+  <si>
+    <t>03.06.20244</t>
+  </si>
+  <si>
+    <t>03.06.20245</t>
+  </si>
+  <si>
+    <t>03.06.20246</t>
+  </si>
+  <si>
+    <t>03.06.20247</t>
+  </si>
+  <si>
+    <t>03.06.20248</t>
+  </si>
+  <si>
+    <t>03.06.20249</t>
+  </si>
+  <si>
+    <t>03.06.202410</t>
+  </si>
+  <si>
+    <t>03.06.202411</t>
+  </si>
+  <si>
+    <t>03.06.202412</t>
+  </si>
+  <si>
+    <t>03.06.202413</t>
+  </si>
+  <si>
+    <t>03.06.202414</t>
+  </si>
+  <si>
+    <t>03.06.202415</t>
+  </si>
+  <si>
+    <t>03.06.202416</t>
+  </si>
+  <si>
+    <t>03.06.202417</t>
+  </si>
+  <si>
+    <t>03.06.202418</t>
+  </si>
+  <si>
+    <t>03.06.202419</t>
+  </si>
+  <si>
+    <t>03.06.202420</t>
+  </si>
+  <si>
+    <t>03.06.202421</t>
+  </si>
+  <si>
+    <t>03.06.202422</t>
+  </si>
+  <si>
+    <t>03.06.202423</t>
+  </si>
+  <si>
+    <t>04.06.20240</t>
+  </si>
+  <si>
+    <t>04.06.20241</t>
+  </si>
+  <si>
+    <t>04.06.20242</t>
+  </si>
+  <si>
+    <t>04.06.20243</t>
+  </si>
+  <si>
+    <t>04.06.20244</t>
+  </si>
+  <si>
+    <t>04.06.20245</t>
+  </si>
+  <si>
+    <t>04.06.20246</t>
+  </si>
+  <si>
+    <t>04.06.20247</t>
+  </si>
+  <si>
+    <t>04.06.20248</t>
+  </si>
+  <si>
+    <t>04.06.20249</t>
+  </si>
+  <si>
+    <t>04.06.202410</t>
+  </si>
+  <si>
+    <t>04.06.202411</t>
+  </si>
+  <si>
+    <t>04.06.202412</t>
+  </si>
+  <si>
+    <t>04.06.202413</t>
+  </si>
+  <si>
+    <t>04.06.202414</t>
+  </si>
+  <si>
+    <t>04.06.202415</t>
+  </si>
+  <si>
+    <t>04.06.202416</t>
+  </si>
+  <si>
+    <t>04.06.202417</t>
+  </si>
+  <si>
+    <t>04.06.202418</t>
+  </si>
+  <si>
+    <t>04.06.202419</t>
+  </si>
+  <si>
+    <t>04.06.202420</t>
+  </si>
+  <si>
+    <t>04.06.202421</t>
+  </si>
+  <si>
+    <t>04.06.202422</t>
+  </si>
+  <si>
+    <t>04.06.202423</t>
+  </si>
+  <si>
+    <t>05.06.20240</t>
+  </si>
+  <si>
+    <t>05.06.20241</t>
+  </si>
+  <si>
+    <t>05.06.20242</t>
+  </si>
+  <si>
+    <t>05.06.20243</t>
+  </si>
+  <si>
+    <t>05.06.20244</t>
+  </si>
+  <si>
+    <t>05.06.20245</t>
+  </si>
+  <si>
+    <t>05.06.20246</t>
+  </si>
+  <si>
+    <t>05.06.20247</t>
+  </si>
+  <si>
+    <t>05.06.20248</t>
+  </si>
+  <si>
+    <t>05.06.20249</t>
+  </si>
+  <si>
+    <t>05.06.202410</t>
+  </si>
+  <si>
+    <t>05.06.202411</t>
+  </si>
+  <si>
+    <t>05.06.202412</t>
+  </si>
+  <si>
+    <t>05.06.202413</t>
+  </si>
+  <si>
+    <t>05.06.202414</t>
+  </si>
+  <si>
+    <t>05.06.202415</t>
+  </si>
+  <si>
+    <t>05.06.202416</t>
+  </si>
+  <si>
+    <t>05.06.202417</t>
+  </si>
+  <si>
+    <t>05.06.202418</t>
+  </si>
+  <si>
+    <t>05.06.202419</t>
+  </si>
+  <si>
+    <t>05.06.202420</t>
+  </si>
+  <si>
+    <t>05.06.202421</t>
+  </si>
+  <si>
+    <t>05.06.202422</t>
+  </si>
+  <si>
+    <t>05.06.202423</t>
+  </si>
+  <si>
+    <t>06.06.20240</t>
+  </si>
+  <si>
+    <t>06.06.20241</t>
+  </si>
+  <si>
+    <t>06.06.20242</t>
+  </si>
+  <si>
+    <t>06.06.20243</t>
+  </si>
+  <si>
+    <t>06.06.20244</t>
+  </si>
+  <si>
+    <t>06.06.20245</t>
+  </si>
+  <si>
+    <t>06.06.20246</t>
+  </si>
+  <si>
+    <t>06.06.20247</t>
+  </si>
+  <si>
+    <t>06.06.20248</t>
+  </si>
+  <si>
+    <t>06.06.20249</t>
+  </si>
+  <si>
+    <t>06.06.202410</t>
+  </si>
+  <si>
+    <t>06.06.202411</t>
+  </si>
+  <si>
+    <t>06.06.202412</t>
+  </si>
+  <si>
+    <t>06.06.202413</t>
+  </si>
+  <si>
+    <t>06.06.202414</t>
   </si>
 </sst>
 </file>
@@ -934,10 +934,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>0.416</v>
+        <v>0.639</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>334</v>
+        <v>138</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>1.021</v>
+        <v>0.461</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F6">
-        <v>1.649</v>
+        <v>0.137</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>650</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>2.161</v>
+        <v>0.133</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>820</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>2.994</v>
+        <v>0.046</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>3.123</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>844</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>2.901</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45431</v>
+        <v>45442</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>773</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>2.779</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45431</v>
+        <v>45443</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45431</v>
+        <v>45443</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13">
-        <v>1.788</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45431</v>
+        <v>45443</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>1.431</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -1233,22 +1233,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45431</v>
+        <v>45443</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>0.944</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -1256,22 +1256,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45431</v>
+        <v>45443</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -1279,22 +1279,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45431</v>
+        <v>45443</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>17</v>
       </c>
       <c r="F17">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -1302,22 +1302,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45431</v>
+        <v>45443</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45431</v>
+        <v>45443</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D19">
         <v>14</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.376</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45431</v>
+        <v>45443</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.859</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.447</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>793</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <v>19</v>
-      </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.848</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.927</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.881</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>731</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.773</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>612</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27">
-        <v>0.076</v>
+        <v>2.317</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>148</v>
+        <v>451</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F28">
-        <v>0.392</v>
+        <v>1.791</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C29">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F29">
-        <v>0.77</v>
+        <v>1.369</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>398</v>
+        <v>224</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F30">
-        <v>1.186</v>
+        <v>0.804</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <v>520</v>
+        <v>109</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F31">
-        <v>1.834</v>
+        <v>0.299</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>635</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F32">
-        <v>2.122</v>
+        <v>0.046</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C33">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F33">
-        <v>2.537</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F34">
-        <v>2.622</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45432</v>
+        <v>45443</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C35">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F35">
-        <v>2.604</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>15</v>
       </c>
-      <c r="C36">
-        <v>649</v>
-      </c>
-      <c r="D36">
-        <v>23</v>
-      </c>
       <c r="E36">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F36">
-        <v>2.307</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F37">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F38">
-        <v>1.298</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F39">
-        <v>0.701</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
         <v>44</v>
@@ -1808,22 +1808,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F40">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -1854,22 +1854,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="B43">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.443</v>
       </c>
       <c r="G43" t="s">
         <v>48</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="B44">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.218</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.887</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2.184</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2.616</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="D49">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.631</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>731</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.707</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>42</v>
+        <v>709</v>
       </c>
       <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
         <v>12</v>
       </c>
-      <c r="E51">
-        <v>24</v>
-      </c>
       <c r="F51">
-        <v>0.076</v>
+        <v>2.342</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>147</v>
+        <v>603</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E52">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>0.379</v>
+        <v>2.043</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>267</v>
+        <v>478</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>0.718</v>
+        <v>1.613</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C54">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E54">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>1.259</v>
+        <v>1.117</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C55">
-        <v>573</v>
+        <v>177</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F55">
-        <v>1.88</v>
+        <v>0.475</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>754</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>2.789</v>
+        <v>0.074</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C57">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>2.878</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>2.806</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45433</v>
+        <v>45444</v>
       </c>
       <c r="B59">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
         <v>14</v>
       </c>
-      <c r="C59">
-        <v>775</v>
-      </c>
-      <c r="D59">
-        <v>22</v>
-      </c>
-      <c r="E59">
-        <v>8</v>
-      </c>
       <c r="F59">
-        <v>2.798</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45433</v>
+        <v>45445</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>15</v>
       </c>
-      <c r="C60">
-        <v>690</v>
-      </c>
-      <c r="D60">
-        <v>22</v>
-      </c>
       <c r="E60">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F60">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45433</v>
+        <v>45445</v>
       </c>
       <c r="B61">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F61">
-        <v>1.787</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45433</v>
+        <v>45445</v>
       </c>
       <c r="B62">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>1.312</v>
+        <v>0</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
@@ -2337,22 +2337,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45433</v>
+        <v>45445</v>
       </c>
       <c r="B63">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F63">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
         <v>68</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45433</v>
+        <v>45445</v>
       </c>
       <c r="B64">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
         <v>69</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45433</v>
+        <v>45445</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45433</v>
+        <v>45445</v>
       </c>
       <c r="B66">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G66" t="s">
         <v>71</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45433</v>
+        <v>45445</v>
       </c>
       <c r="B67">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D67">
         <v>16</v>
       </c>
       <c r="E67">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.489</v>
       </c>
       <c r="G67" t="s">
         <v>72</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45433</v>
+        <v>45445</v>
       </c>
       <c r="B68">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E68">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1.237</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E69">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>2.027</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E70">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="D71">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E71">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2.872</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="D72">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E72">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>2.849</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2.844</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2.822</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>41</v>
+        <v>741</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F75">
-        <v>0.076</v>
+        <v>2.62</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>149</v>
+        <v>611</v>
       </c>
       <c r="D76">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E76">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>0.38</v>
+        <v>2.082</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>296</v>
+        <v>485</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E77">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F77">
-        <v>0.973</v>
+        <v>1.649</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="D78">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E78">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F78">
-        <v>1.563</v>
+        <v>1.158</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>182</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
         <v>10</v>
       </c>
-      <c r="C79">
-        <v>585</v>
-      </c>
-      <c r="D79">
-        <v>18</v>
-      </c>
-      <c r="E79">
-        <v>14</v>
-      </c>
       <c r="F79">
-        <v>2.025</v>
+        <v>0.46</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C80">
-        <v>643</v>
+        <v>50</v>
       </c>
       <c r="D80">
         <v>19</v>
       </c>
       <c r="E80">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F80">
-        <v>2.155</v>
+        <v>0.076</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C81">
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F81">
-        <v>2.069</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B82">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+      <c r="E82">
         <v>13</v>
       </c>
-      <c r="C82">
-        <v>603</v>
-      </c>
-      <c r="D82">
-        <v>20</v>
-      </c>
-      <c r="E82">
-        <v>32</v>
-      </c>
       <c r="F82">
-        <v>2.033</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="B83">
+        <v>23</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>16</v>
+      </c>
+      <c r="E83">
         <v>14</v>
       </c>
-      <c r="C83">
-        <v>528</v>
-      </c>
-      <c r="D83">
-        <v>18</v>
-      </c>
-      <c r="E83">
-        <v>38</v>
-      </c>
       <c r="F83">
-        <v>2.081</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="B84">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>16</v>
       </c>
       <c r="E84">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F84">
-        <v>1.611</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="B85">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F85">
-        <v>1.358</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86">
         <v>17</v>
       </c>
-      <c r="C86">
-        <v>227</v>
-      </c>
-      <c r="D86">
-        <v>14</v>
-      </c>
-      <c r="E86">
-        <v>55</v>
-      </c>
       <c r="F86">
-        <v>0.842</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
         <v>91</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="B87">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>14</v>
       </c>
       <c r="E87">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F87">
-        <v>0.472</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="B88">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>14</v>
       </c>
       <c r="E88">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F88">
-        <v>0.236</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
         <v>93</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="B89">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D89">
         <v>14</v>
       </c>
       <c r="E89">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F89">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
         <v>94</v>
@@ -2958,22 +2958,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="B90">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D90">
         <v>14</v>
       </c>
       <c r="E90">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G90" t="s">
         <v>95</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="B91">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D91">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.441</v>
       </c>
       <c r="G91" t="s">
         <v>96</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45434</v>
+        <v>45446</v>
       </c>
       <c r="B92">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="D92">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E92">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.795</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E93">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1.572</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="D94">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E94">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1.924</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E95">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>2.619</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="D96">
+        <v>21</v>
+      </c>
+      <c r="E96">
         <v>13</v>
       </c>
-      <c r="E96">
-        <v>32</v>
-      </c>
       <c r="F96">
-        <v>0</v>
+        <v>2.675</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="D97">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E97">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2.715</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>634</v>
       </c>
       <c r="D98">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>2.318</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C99">
-        <v>50</v>
+        <v>522</v>
       </c>
       <c r="D99">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E99">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F99">
-        <v>0.08400000000000001</v>
+        <v>1.872</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B100">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C100">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="D100">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E100">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F100">
-        <v>0.413</v>
+        <v>1.514</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C101">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="D101">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E101">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F101">
-        <v>0.624</v>
+        <v>1.025</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B102">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>365</v>
+        <v>191</v>
       </c>
       <c r="D102">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E102">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F102">
-        <v>1.044</v>
+        <v>0.727</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C103">
-        <v>487</v>
+        <v>109</v>
       </c>
       <c r="D103">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E103">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F103">
-        <v>1.742</v>
+        <v>0.299</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B104">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C104">
-        <v>631</v>
+        <v>32</v>
       </c>
       <c r="D104">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E104">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F104">
-        <v>2.234</v>
+        <v>0.055</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B105">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C105">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>18</v>
       </c>
       <c r="E105">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F105">
-        <v>2.665</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B106">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C106">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E106">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F106">
-        <v>2.598</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45435</v>
+        <v>45446</v>
       </c>
       <c r="B107">
+        <v>23</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
         <v>14</v>
       </c>
-      <c r="C107">
-        <v>650</v>
-      </c>
-      <c r="D107">
-        <v>19</v>
-      </c>
       <c r="E107">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F107">
-        <v>2.472</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45435</v>
+        <v>45447</v>
       </c>
       <c r="B108">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F108">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45435</v>
+        <v>45447</v>
       </c>
       <c r="B109">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E109">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F109">
-        <v>1.459</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
@@ -3418,22 +3418,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45435</v>
+        <v>45447</v>
       </c>
       <c r="B110">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E110">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F110">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>115</v>
@@ -3441,22 +3441,22 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45435</v>
+        <v>45447</v>
       </c>
       <c r="B111">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F111">
-        <v>0.468</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>116</v>
@@ -3464,22 +3464,22 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45435</v>
+        <v>45447</v>
       </c>
       <c r="B112">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E112">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F112">
-        <v>0.204</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>117</v>
@@ -3487,22 +3487,22 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45435</v>
+        <v>45447</v>
       </c>
       <c r="B113">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E113">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F113">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="G113" t="s">
         <v>118</v>
@@ -3510,22 +3510,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45435</v>
+        <v>45447</v>
       </c>
       <c r="B114">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D114">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E114">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="G114" t="s">
         <v>119</v>
@@ -3533,22 +3533,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45435</v>
+        <v>45447</v>
       </c>
       <c r="B115">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D115">
         <v>15</v>
       </c>
       <c r="E115">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.445</v>
       </c>
       <c r="G115" t="s">
         <v>120</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45435</v>
+        <v>45447</v>
       </c>
       <c r="B116">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="D116">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E116">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1.175</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="D117">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E117">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1.938</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="D118">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E118">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2.407</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="D119">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E119">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>2.613</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="D120">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E120">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>2.519</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D121">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E121">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>2.577</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3694,22 +3694,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="D122">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E122">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>2.471</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B123">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C123">
-        <v>40</v>
+        <v>593</v>
       </c>
       <c r="D123">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E123">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F123">
-        <v>0.08400000000000001</v>
+        <v>2.124</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B124">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C124">
-        <v>114</v>
+        <v>440</v>
       </c>
       <c r="D124">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E124">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F124">
-        <v>0.309</v>
+        <v>1.72</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C125">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="D125">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F125">
-        <v>0.58</v>
+        <v>1.11</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C126">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="D126">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E126">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F126">
-        <v>1.06</v>
+        <v>0.727</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B127">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C127">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="D127">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E127">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F127">
-        <v>1.341</v>
+        <v>0.307</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3832,22 +3832,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B128">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C128">
-        <v>498</v>
+        <v>32</v>
       </c>
       <c r="D128">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F128">
-        <v>1.797</v>
+        <v>0.055</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3855,22 +3855,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B129">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C129">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E129">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F129">
-        <v>1.957</v>
+        <v>0</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -3878,22 +3878,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B130">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C130">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E130">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F130">
-        <v>2.255</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45436</v>
+        <v>45447</v>
       </c>
       <c r="B131">
+        <v>23</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
         <v>14</v>
       </c>
-      <c r="C131">
-        <v>587</v>
-      </c>
-      <c r="D131">
-        <v>19</v>
-      </c>
       <c r="E131">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F131">
-        <v>2.155</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -3924,22 +3924,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45436</v>
+        <v>45448</v>
       </c>
       <c r="B132">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E132">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F132">
-        <v>2.026</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -3947,22 +3947,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45436</v>
+        <v>45448</v>
       </c>
       <c r="B133">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E133">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F133">
-        <v>1.725</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
@@ -3970,22 +3970,22 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45436</v>
+        <v>45448</v>
       </c>
       <c r="B134">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C134">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E134">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F134">
-        <v>1.264</v>
+        <v>0</v>
       </c>
       <c r="G134" t="s">
         <v>139</v>
@@ -3993,22 +3993,22 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45436</v>
+        <v>45448</v>
       </c>
       <c r="B135">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F135">
-        <v>0.794</v>
+        <v>0</v>
       </c>
       <c r="G135" t="s">
         <v>140</v>
@@ -4016,22 +4016,22 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45436</v>
+        <v>45448</v>
       </c>
       <c r="B136">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C136">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E136">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F136">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="G136" t="s">
         <v>141</v>
@@ -4039,22 +4039,22 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45436</v>
+        <v>45448</v>
       </c>
       <c r="B137">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C137">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E137">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F137">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G137" t="s">
         <v>142</v>
@@ -4062,22 +4062,22 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45436</v>
+        <v>45448</v>
       </c>
       <c r="B138">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D138">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E138">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="G138" t="s">
         <v>143</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45436</v>
+        <v>45448</v>
       </c>
       <c r="B139">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D139">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E139">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="G139" t="s">
         <v>144</v>
@@ -4108,22 +4108,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45436</v>
+        <v>45448</v>
       </c>
       <c r="B140">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D140">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E140">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.572</v>
       </c>
       <c r="G140" t="s">
         <v>145</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.952</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="D142">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1.354</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="D143">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E143">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>2.041</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="D144">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E144">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1.868</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="D145">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E145">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>2.552</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B146">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="D146">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E146">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>2.485</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C147">
-        <v>59</v>
+        <v>648</v>
       </c>
       <c r="D147">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E147">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F147">
-        <v>0.098</v>
+        <v>2.387</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4292,22 +4292,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B148">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C148">
-        <v>200</v>
+        <v>532</v>
       </c>
       <c r="D148">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E148">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F148">
-        <v>0.395</v>
+        <v>1.991</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C149">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="D149">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F149">
-        <v>1.131</v>
+        <v>1.457</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4338,22 +4338,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B150">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C150">
-        <v>523</v>
+        <v>277</v>
       </c>
       <c r="D150">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E150">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F150">
-        <v>1.827</v>
+        <v>0.916</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C151">
-        <v>672</v>
+        <v>150</v>
       </c>
       <c r="D151">
         <v>19</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F151">
-        <v>2.399</v>
+        <v>0.406</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B152">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C152">
-        <v>799</v>
+        <v>41</v>
       </c>
       <c r="D152">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F152">
-        <v>2.87</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B153">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C153">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F153">
-        <v>2.809</v>
+        <v>0</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B154">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C154">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E154">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F154">
-        <v>2.873</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45437</v>
+        <v>45448</v>
       </c>
       <c r="B155">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C155">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F155">
-        <v>2.792</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45437</v>
+        <v>45449</v>
       </c>
       <c r="B156">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>766</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F156">
-        <v>2.717</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45437</v>
+        <v>45449</v>
       </c>
       <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>14</v>
+      </c>
+      <c r="E157">
         <v>16</v>
       </c>
-      <c r="C157">
-        <v>592</v>
-      </c>
-      <c r="D157">
-        <v>22</v>
-      </c>
-      <c r="E157">
-        <v>10</v>
-      </c>
       <c r="F157">
-        <v>2.033</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
         <v>162</v>
@@ -4522,22 +4522,22 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45437</v>
+        <v>45449</v>
       </c>
       <c r="B158">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C158">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E158">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F158">
-        <v>1.664</v>
+        <v>0</v>
       </c>
       <c r="G158" t="s">
         <v>163</v>
@@ -4545,22 +4545,22 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45437</v>
+        <v>45449</v>
       </c>
       <c r="B159">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C159">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E159">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F159">
-        <v>0.992</v>
+        <v>0</v>
       </c>
       <c r="G159" t="s">
         <v>164</v>
@@ -4568,22 +4568,22 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45437</v>
+        <v>45449</v>
       </c>
       <c r="B160">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C160">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E160">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F160">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="G160" t="s">
         <v>165</v>
@@ -4591,22 +4591,22 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45437</v>
+        <v>45449</v>
       </c>
       <c r="B161">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E161">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F161">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="G161" t="s">
         <v>166</v>
@@ -4614,22 +4614,22 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45437</v>
+        <v>45449</v>
       </c>
       <c r="B162">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D162">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E162">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="G162" t="s">
         <v>167</v>
@@ -4637,22 +4637,22 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45437</v>
+        <v>45449</v>
       </c>
       <c r="B163">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D163">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E163">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>0.361</v>
       </c>
       <c r="G163" t="s">
         <v>168</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45437</v>
+        <v>45449</v>
       </c>
       <c r="B164">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="D164">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E164">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>0.986</v>
       </c>
       <c r="G164" t="s">
         <v>169</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45438</v>
+        <v>45449</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E165">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1.652</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45438</v>
+        <v>45449</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E166">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45438</v>
+        <v>45449</v>
       </c>
       <c r="B167">
+        <v>11</v>
+      </c>
+      <c r="C167">
+        <v>758</v>
+      </c>
+      <c r="D167">
+        <v>22</v>
+      </c>
+      <c r="E167">
         <v>2</v>
       </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>12</v>
-      </c>
-      <c r="E167">
-        <v>15</v>
-      </c>
       <c r="F167">
-        <v>0</v>
+        <v>2.676</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45438</v>
+        <v>45449</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="D168">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E168">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>2.675</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45438</v>
+        <v>45449</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D169">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E169">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>2.778</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45438</v>
+        <v>45449</v>
       </c>
       <c r="B170">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>783</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E170">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>2.737</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,511 +37,511 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>30.05.202414</t>
-  </si>
-  <si>
-    <t>30.05.202415</t>
-  </si>
-  <si>
-    <t>30.05.202416</t>
-  </si>
-  <si>
-    <t>30.05.202417</t>
-  </si>
-  <si>
-    <t>30.05.202418</t>
-  </si>
-  <si>
-    <t>30.05.202419</t>
-  </si>
-  <si>
-    <t>30.05.202420</t>
-  </si>
-  <si>
-    <t>30.05.202421</t>
-  </si>
-  <si>
-    <t>30.05.202422</t>
-  </si>
-  <si>
-    <t>30.05.202423</t>
-  </si>
-  <si>
-    <t>31.05.20240</t>
-  </si>
-  <si>
-    <t>31.05.20241</t>
-  </si>
-  <si>
-    <t>31.05.20242</t>
-  </si>
-  <si>
-    <t>31.05.20243</t>
-  </si>
-  <si>
-    <t>31.05.20244</t>
-  </si>
-  <si>
-    <t>31.05.20245</t>
-  </si>
-  <si>
-    <t>31.05.20246</t>
-  </si>
-  <si>
-    <t>31.05.20247</t>
-  </si>
-  <si>
-    <t>31.05.20248</t>
-  </si>
-  <si>
-    <t>31.05.20249</t>
-  </si>
-  <si>
-    <t>31.05.202410</t>
-  </si>
-  <si>
-    <t>31.05.202411</t>
-  </si>
-  <si>
-    <t>31.05.202412</t>
-  </si>
-  <si>
-    <t>31.05.202413</t>
-  </si>
-  <si>
-    <t>31.05.202414</t>
-  </si>
-  <si>
-    <t>31.05.202415</t>
-  </si>
-  <si>
-    <t>31.05.202416</t>
-  </si>
-  <si>
-    <t>31.05.202417</t>
-  </si>
-  <si>
-    <t>31.05.202418</t>
-  </si>
-  <si>
-    <t>31.05.202419</t>
-  </si>
-  <si>
-    <t>31.05.202420</t>
-  </si>
-  <si>
-    <t>31.05.202421</t>
-  </si>
-  <si>
-    <t>31.05.202422</t>
-  </si>
-  <si>
-    <t>31.05.202423</t>
-  </si>
-  <si>
-    <t>01.06.20240</t>
-  </si>
-  <si>
-    <t>01.06.20241</t>
-  </si>
-  <si>
-    <t>01.06.20242</t>
-  </si>
-  <si>
-    <t>01.06.20243</t>
-  </si>
-  <si>
-    <t>01.06.20244</t>
-  </si>
-  <si>
-    <t>01.06.20245</t>
-  </si>
-  <si>
-    <t>01.06.20246</t>
-  </si>
-  <si>
-    <t>01.06.20247</t>
-  </si>
-  <si>
-    <t>01.06.20248</t>
-  </si>
-  <si>
-    <t>01.06.20249</t>
-  </si>
-  <si>
-    <t>01.06.202410</t>
-  </si>
-  <si>
-    <t>01.06.202411</t>
-  </si>
-  <si>
-    <t>01.06.202412</t>
-  </si>
-  <si>
-    <t>01.06.202413</t>
-  </si>
-  <si>
-    <t>01.06.202414</t>
-  </si>
-  <si>
-    <t>01.06.202415</t>
-  </si>
-  <si>
-    <t>01.06.202416</t>
-  </si>
-  <si>
-    <t>01.06.202417</t>
-  </si>
-  <si>
-    <t>01.06.202418</t>
-  </si>
-  <si>
-    <t>01.06.202419</t>
-  </si>
-  <si>
-    <t>01.06.202420</t>
-  </si>
-  <si>
-    <t>01.06.202421</t>
-  </si>
-  <si>
-    <t>01.06.202422</t>
-  </si>
-  <si>
-    <t>01.06.202423</t>
-  </si>
-  <si>
-    <t>02.06.20240</t>
-  </si>
-  <si>
-    <t>02.06.20241</t>
-  </si>
-  <si>
-    <t>02.06.20242</t>
-  </si>
-  <si>
-    <t>02.06.20243</t>
-  </si>
-  <si>
-    <t>02.06.20244</t>
-  </si>
-  <si>
-    <t>02.06.20245</t>
-  </si>
-  <si>
-    <t>02.06.20246</t>
-  </si>
-  <si>
-    <t>02.06.20247</t>
-  </si>
-  <si>
-    <t>02.06.20248</t>
-  </si>
-  <si>
-    <t>02.06.20249</t>
-  </si>
-  <si>
-    <t>02.06.202410</t>
-  </si>
-  <si>
-    <t>02.06.202411</t>
-  </si>
-  <si>
-    <t>02.06.202412</t>
-  </si>
-  <si>
-    <t>02.06.202413</t>
-  </si>
-  <si>
-    <t>02.06.202414</t>
-  </si>
-  <si>
-    <t>02.06.202415</t>
-  </si>
-  <si>
-    <t>02.06.202416</t>
-  </si>
-  <si>
-    <t>02.06.202417</t>
-  </si>
-  <si>
-    <t>02.06.202418</t>
-  </si>
-  <si>
-    <t>02.06.202419</t>
-  </si>
-  <si>
-    <t>02.06.202420</t>
-  </si>
-  <si>
-    <t>02.06.202421</t>
-  </si>
-  <si>
-    <t>02.06.202422</t>
-  </si>
-  <si>
-    <t>02.06.202423</t>
-  </si>
-  <si>
-    <t>03.06.20240</t>
-  </si>
-  <si>
-    <t>03.06.20241</t>
-  </si>
-  <si>
-    <t>03.06.20242</t>
-  </si>
-  <si>
-    <t>03.06.20243</t>
-  </si>
-  <si>
-    <t>03.06.20244</t>
-  </si>
-  <si>
-    <t>03.06.20245</t>
-  </si>
-  <si>
-    <t>03.06.20246</t>
-  </si>
-  <si>
-    <t>03.06.20247</t>
-  </si>
-  <si>
-    <t>03.06.20248</t>
-  </si>
-  <si>
-    <t>03.06.20249</t>
-  </si>
-  <si>
-    <t>03.06.202410</t>
-  </si>
-  <si>
-    <t>03.06.202411</t>
-  </si>
-  <si>
-    <t>03.06.202412</t>
-  </si>
-  <si>
-    <t>03.06.202413</t>
-  </si>
-  <si>
-    <t>03.06.202414</t>
-  </si>
-  <si>
-    <t>03.06.202415</t>
-  </si>
-  <si>
-    <t>03.06.202416</t>
-  </si>
-  <si>
-    <t>03.06.202417</t>
-  </si>
-  <si>
-    <t>03.06.202418</t>
-  </si>
-  <si>
-    <t>03.06.202419</t>
-  </si>
-  <si>
-    <t>03.06.202420</t>
-  </si>
-  <si>
-    <t>03.06.202421</t>
-  </si>
-  <si>
-    <t>03.06.202422</t>
-  </si>
-  <si>
-    <t>03.06.202423</t>
-  </si>
-  <si>
-    <t>04.06.20240</t>
-  </si>
-  <si>
-    <t>04.06.20241</t>
-  </si>
-  <si>
-    <t>04.06.20242</t>
-  </si>
-  <si>
-    <t>04.06.20243</t>
-  </si>
-  <si>
-    <t>04.06.20244</t>
-  </si>
-  <si>
-    <t>04.06.20245</t>
-  </si>
-  <si>
-    <t>04.06.20246</t>
-  </si>
-  <si>
-    <t>04.06.20247</t>
-  </si>
-  <si>
-    <t>04.06.20248</t>
-  </si>
-  <si>
-    <t>04.06.20249</t>
-  </si>
-  <si>
-    <t>04.06.202410</t>
-  </si>
-  <si>
-    <t>04.06.202411</t>
-  </si>
-  <si>
-    <t>04.06.202412</t>
-  </si>
-  <si>
-    <t>04.06.202413</t>
-  </si>
-  <si>
-    <t>04.06.202414</t>
-  </si>
-  <si>
-    <t>04.06.202415</t>
-  </si>
-  <si>
-    <t>04.06.202416</t>
-  </si>
-  <si>
-    <t>04.06.202417</t>
-  </si>
-  <si>
-    <t>04.06.202418</t>
-  </si>
-  <si>
-    <t>04.06.202419</t>
-  </si>
-  <si>
-    <t>04.06.202420</t>
-  </si>
-  <si>
-    <t>04.06.202421</t>
-  </si>
-  <si>
-    <t>04.06.202422</t>
-  </si>
-  <si>
-    <t>04.06.202423</t>
-  </si>
-  <si>
-    <t>05.06.20240</t>
-  </si>
-  <si>
-    <t>05.06.20241</t>
-  </si>
-  <si>
-    <t>05.06.20242</t>
-  </si>
-  <si>
-    <t>05.06.20243</t>
-  </si>
-  <si>
-    <t>05.06.20244</t>
-  </si>
-  <si>
-    <t>05.06.20245</t>
-  </si>
-  <si>
-    <t>05.06.20246</t>
-  </si>
-  <si>
-    <t>05.06.20247</t>
-  </si>
-  <si>
-    <t>05.06.20248</t>
-  </si>
-  <si>
-    <t>05.06.20249</t>
-  </si>
-  <si>
-    <t>05.06.202410</t>
-  </si>
-  <si>
-    <t>05.06.202411</t>
-  </si>
-  <si>
-    <t>05.06.202412</t>
-  </si>
-  <si>
-    <t>05.06.202413</t>
-  </si>
-  <si>
-    <t>05.06.202414</t>
-  </si>
-  <si>
-    <t>05.06.202415</t>
-  </si>
-  <si>
-    <t>05.06.202416</t>
-  </si>
-  <si>
-    <t>05.06.202417</t>
-  </si>
-  <si>
-    <t>05.06.202418</t>
-  </si>
-  <si>
-    <t>05.06.202419</t>
-  </si>
-  <si>
-    <t>05.06.202420</t>
-  </si>
-  <si>
-    <t>05.06.202421</t>
-  </si>
-  <si>
-    <t>05.06.202422</t>
-  </si>
-  <si>
-    <t>05.06.202423</t>
-  </si>
-  <si>
-    <t>06.06.20240</t>
-  </si>
-  <si>
-    <t>06.06.20241</t>
-  </si>
-  <si>
-    <t>06.06.20242</t>
-  </si>
-  <si>
-    <t>06.06.20243</t>
-  </si>
-  <si>
-    <t>06.06.20244</t>
-  </si>
-  <si>
-    <t>06.06.20245</t>
-  </si>
-  <si>
-    <t>06.06.20246</t>
-  </si>
-  <si>
-    <t>06.06.20247</t>
-  </si>
-  <si>
-    <t>06.06.20248</t>
-  </si>
-  <si>
-    <t>06.06.20249</t>
-  </si>
-  <si>
-    <t>06.06.202410</t>
-  </si>
-  <si>
-    <t>06.06.202411</t>
-  </si>
-  <si>
-    <t>06.06.202412</t>
-  </si>
-  <si>
-    <t>06.06.202413</t>
-  </si>
-  <si>
-    <t>06.06.202414</t>
+    <t>10.06.202410</t>
+  </si>
+  <si>
+    <t>10.06.202411</t>
+  </si>
+  <si>
+    <t>10.06.202412</t>
+  </si>
+  <si>
+    <t>10.06.202413</t>
+  </si>
+  <si>
+    <t>10.06.202414</t>
+  </si>
+  <si>
+    <t>10.06.202415</t>
+  </si>
+  <si>
+    <t>10.06.202416</t>
+  </si>
+  <si>
+    <t>10.06.202417</t>
+  </si>
+  <si>
+    <t>10.06.202418</t>
+  </si>
+  <si>
+    <t>10.06.202419</t>
+  </si>
+  <si>
+    <t>10.06.202420</t>
+  </si>
+  <si>
+    <t>10.06.202421</t>
+  </si>
+  <si>
+    <t>10.06.202422</t>
+  </si>
+  <si>
+    <t>10.06.202423</t>
+  </si>
+  <si>
+    <t>11.06.20240</t>
+  </si>
+  <si>
+    <t>11.06.20241</t>
+  </si>
+  <si>
+    <t>11.06.20242</t>
+  </si>
+  <si>
+    <t>11.06.20243</t>
+  </si>
+  <si>
+    <t>11.06.20244</t>
+  </si>
+  <si>
+    <t>11.06.20245</t>
+  </si>
+  <si>
+    <t>11.06.20246</t>
+  </si>
+  <si>
+    <t>11.06.20247</t>
+  </si>
+  <si>
+    <t>11.06.20248</t>
+  </si>
+  <si>
+    <t>11.06.20249</t>
+  </si>
+  <si>
+    <t>11.06.202410</t>
+  </si>
+  <si>
+    <t>11.06.202411</t>
+  </si>
+  <si>
+    <t>11.06.202412</t>
+  </si>
+  <si>
+    <t>11.06.202413</t>
+  </si>
+  <si>
+    <t>11.06.202414</t>
+  </si>
+  <si>
+    <t>11.06.202415</t>
+  </si>
+  <si>
+    <t>11.06.202416</t>
+  </si>
+  <si>
+    <t>11.06.202417</t>
+  </si>
+  <si>
+    <t>11.06.202418</t>
+  </si>
+  <si>
+    <t>11.06.202419</t>
+  </si>
+  <si>
+    <t>11.06.202420</t>
+  </si>
+  <si>
+    <t>11.06.202421</t>
+  </si>
+  <si>
+    <t>11.06.202422</t>
+  </si>
+  <si>
+    <t>11.06.202423</t>
+  </si>
+  <si>
+    <t>12.06.20240</t>
+  </si>
+  <si>
+    <t>12.06.20241</t>
+  </si>
+  <si>
+    <t>12.06.20242</t>
+  </si>
+  <si>
+    <t>12.06.20243</t>
+  </si>
+  <si>
+    <t>12.06.20244</t>
+  </si>
+  <si>
+    <t>12.06.20245</t>
+  </si>
+  <si>
+    <t>12.06.20246</t>
+  </si>
+  <si>
+    <t>12.06.20247</t>
+  </si>
+  <si>
+    <t>12.06.20248</t>
+  </si>
+  <si>
+    <t>12.06.20249</t>
+  </si>
+  <si>
+    <t>12.06.202410</t>
+  </si>
+  <si>
+    <t>12.06.202411</t>
+  </si>
+  <si>
+    <t>12.06.202412</t>
+  </si>
+  <si>
+    <t>12.06.202413</t>
+  </si>
+  <si>
+    <t>12.06.202414</t>
+  </si>
+  <si>
+    <t>12.06.202415</t>
+  </si>
+  <si>
+    <t>12.06.202416</t>
+  </si>
+  <si>
+    <t>12.06.202417</t>
+  </si>
+  <si>
+    <t>12.06.202418</t>
+  </si>
+  <si>
+    <t>12.06.202419</t>
+  </si>
+  <si>
+    <t>12.06.202420</t>
+  </si>
+  <si>
+    <t>12.06.202421</t>
+  </si>
+  <si>
+    <t>12.06.202422</t>
+  </si>
+  <si>
+    <t>12.06.202423</t>
+  </si>
+  <si>
+    <t>13.06.20240</t>
+  </si>
+  <si>
+    <t>13.06.20241</t>
+  </si>
+  <si>
+    <t>13.06.20242</t>
+  </si>
+  <si>
+    <t>13.06.20243</t>
+  </si>
+  <si>
+    <t>13.06.20244</t>
+  </si>
+  <si>
+    <t>13.06.20245</t>
+  </si>
+  <si>
+    <t>13.06.20246</t>
+  </si>
+  <si>
+    <t>13.06.20247</t>
+  </si>
+  <si>
+    <t>13.06.20248</t>
+  </si>
+  <si>
+    <t>13.06.20249</t>
+  </si>
+  <si>
+    <t>13.06.202410</t>
+  </si>
+  <si>
+    <t>13.06.202411</t>
+  </si>
+  <si>
+    <t>13.06.202412</t>
+  </si>
+  <si>
+    <t>13.06.202413</t>
+  </si>
+  <si>
+    <t>13.06.202414</t>
+  </si>
+  <si>
+    <t>13.06.202415</t>
+  </si>
+  <si>
+    <t>13.06.202416</t>
+  </si>
+  <si>
+    <t>13.06.202417</t>
+  </si>
+  <si>
+    <t>13.06.202418</t>
+  </si>
+  <si>
+    <t>13.06.202419</t>
+  </si>
+  <si>
+    <t>13.06.202420</t>
+  </si>
+  <si>
+    <t>13.06.202421</t>
+  </si>
+  <si>
+    <t>13.06.202422</t>
+  </si>
+  <si>
+    <t>13.06.202423</t>
+  </si>
+  <si>
+    <t>14.06.20240</t>
+  </si>
+  <si>
+    <t>14.06.20241</t>
+  </si>
+  <si>
+    <t>14.06.20242</t>
+  </si>
+  <si>
+    <t>14.06.20243</t>
+  </si>
+  <si>
+    <t>14.06.20244</t>
+  </si>
+  <si>
+    <t>14.06.20245</t>
+  </si>
+  <si>
+    <t>14.06.20246</t>
+  </si>
+  <si>
+    <t>14.06.20247</t>
+  </si>
+  <si>
+    <t>14.06.20248</t>
+  </si>
+  <si>
+    <t>14.06.20249</t>
+  </si>
+  <si>
+    <t>14.06.202410</t>
+  </si>
+  <si>
+    <t>14.06.202411</t>
+  </si>
+  <si>
+    <t>14.06.202412</t>
+  </si>
+  <si>
+    <t>14.06.202413</t>
+  </si>
+  <si>
+    <t>14.06.202414</t>
+  </si>
+  <si>
+    <t>14.06.202415</t>
+  </si>
+  <si>
+    <t>14.06.202416</t>
+  </si>
+  <si>
+    <t>14.06.202417</t>
+  </si>
+  <si>
+    <t>14.06.202418</t>
+  </si>
+  <si>
+    <t>14.06.202419</t>
+  </si>
+  <si>
+    <t>14.06.202420</t>
+  </si>
+  <si>
+    <t>14.06.202421</t>
+  </si>
+  <si>
+    <t>14.06.202422</t>
+  </si>
+  <si>
+    <t>14.06.202423</t>
+  </si>
+  <si>
+    <t>15.06.20240</t>
+  </si>
+  <si>
+    <t>15.06.20241</t>
+  </si>
+  <si>
+    <t>15.06.20242</t>
+  </si>
+  <si>
+    <t>15.06.20243</t>
+  </si>
+  <si>
+    <t>15.06.20244</t>
+  </si>
+  <si>
+    <t>15.06.20245</t>
+  </si>
+  <si>
+    <t>15.06.20246</t>
+  </si>
+  <si>
+    <t>15.06.20247</t>
+  </si>
+  <si>
+    <t>15.06.20248</t>
+  </si>
+  <si>
+    <t>15.06.20249</t>
+  </si>
+  <si>
+    <t>15.06.202410</t>
+  </si>
+  <si>
+    <t>15.06.202411</t>
+  </si>
+  <si>
+    <t>15.06.202412</t>
+  </si>
+  <si>
+    <t>15.06.202413</t>
+  </si>
+  <si>
+    <t>15.06.202414</t>
+  </si>
+  <si>
+    <t>15.06.202415</t>
+  </si>
+  <si>
+    <t>15.06.202416</t>
+  </si>
+  <si>
+    <t>15.06.202417</t>
+  </si>
+  <si>
+    <t>15.06.202418</t>
+  </si>
+  <si>
+    <t>15.06.202419</t>
+  </si>
+  <si>
+    <t>15.06.202420</t>
+  </si>
+  <si>
+    <t>15.06.202421</t>
+  </si>
+  <si>
+    <t>15.06.202422</t>
+  </si>
+  <si>
+    <t>15.06.202423</t>
+  </si>
+  <si>
+    <t>16.06.20240</t>
+  </si>
+  <si>
+    <t>16.06.20241</t>
+  </si>
+  <si>
+    <t>16.06.20242</t>
+  </si>
+  <si>
+    <t>16.06.20243</t>
+  </si>
+  <si>
+    <t>16.06.20244</t>
+  </si>
+  <si>
+    <t>16.06.20245</t>
+  </si>
+  <si>
+    <t>16.06.20246</t>
+  </si>
+  <si>
+    <t>16.06.20247</t>
+  </si>
+  <si>
+    <t>16.06.20248</t>
+  </si>
+  <si>
+    <t>16.06.20249</t>
+  </si>
+  <si>
+    <t>16.06.202410</t>
+  </si>
+  <si>
+    <t>16.06.202411</t>
+  </si>
+  <si>
+    <t>16.06.202412</t>
+  </si>
+  <si>
+    <t>16.06.202413</t>
+  </si>
+  <si>
+    <t>16.06.202414</t>
+  </si>
+  <si>
+    <t>16.06.202415</t>
+  </si>
+  <si>
+    <t>16.06.202416</t>
+  </si>
+  <si>
+    <t>16.06.202417</t>
+  </si>
+  <si>
+    <t>16.06.202418</t>
+  </si>
+  <si>
+    <t>16.06.202419</t>
+  </si>
+  <si>
+    <t>16.06.202420</t>
+  </si>
+  <si>
+    <t>16.06.202421</t>
+  </si>
+  <si>
+    <t>16.06.202422</t>
+  </si>
+  <si>
+    <t>16.06.202423</t>
+  </si>
+  <si>
+    <t>17.06.20240</t>
+  </si>
+  <si>
+    <t>17.06.20241</t>
+  </si>
+  <si>
+    <t>17.06.20242</t>
+  </si>
+  <si>
+    <t>17.06.20243</t>
+  </si>
+  <si>
+    <t>17.06.20244</t>
+  </si>
+  <si>
+    <t>17.06.20245</t>
+  </si>
+  <si>
+    <t>17.06.20246</t>
+  </si>
+  <si>
+    <t>17.06.20247</t>
+  </si>
+  <si>
+    <t>17.06.20248</t>
+  </si>
+  <si>
+    <t>17.06.20249</t>
+  </si>
+  <si>
+    <t>17.06.202410</t>
   </si>
 </sst>
 </file>
@@ -934,10 +934,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F4">
-        <v>0.639</v>
+        <v>1.075</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>138</v>
+        <v>753</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>0.461</v>
+        <v>2.711</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>606</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>0.137</v>
+        <v>2.163</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>68</v>
+        <v>503</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>0.133</v>
+        <v>1.856</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.046</v>
+        <v>1.399</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>103</v>
+      </c>
+      <c r="D11">
         <v>23</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
       <c r="E11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45443</v>
+        <v>45453</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1187,19 +1187,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45443</v>
+        <v>45453</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45443</v>
+        <v>45453</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45443</v>
+        <v>45453</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1302,22 +1302,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F18">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>528</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>1.859</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>683</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>2.447</v>
+        <v>0.094</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>793</v>
+        <v>218</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>2.848</v>
+        <v>0.443</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>827</v>
+        <v>392</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2.927</v>
+        <v>1.108</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>810</v>
+        <v>558</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2.881</v>
+        <v>1.819</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2.773</v>
+        <v>2.417</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>612</v>
+        <v>759</v>
       </c>
       <c r="D27">
         <v>23</v>
       </c>
       <c r="E27">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>2.317</v>
+        <v>2.614</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>451</v>
+        <v>708</v>
       </c>
       <c r="D28">
         <v>23</v>
       </c>
       <c r="E28">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F28">
-        <v>1.791</v>
+        <v>2.261</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>337</v>
+        <v>636</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F29">
-        <v>1.369</v>
+        <v>2.011</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F30">
-        <v>0.804</v>
+        <v>1.838</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>109</v>
+        <v>454</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E31">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F31">
-        <v>0.299</v>
+        <v>1.729</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>388</v>
+      </c>
+      <c r="D32">
         <v>20</v>
       </c>
-      <c r="C32">
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>18</v>
-      </c>
       <c r="E32">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F32">
-        <v>0.046</v>
+        <v>1.478</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.157</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>35</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.889</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45443</v>
+        <v>45454</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45444</v>
+        <v>45454</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E36">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1739,19 +1739,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45444</v>
+        <v>45454</v>
       </c>
       <c r="B37">
+        <v>21</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
       <c r="D37">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45444</v>
+        <v>45454</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45444</v>
+        <v>45454</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1854,22 +1854,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F42">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F43">
-        <v>0.443</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
         <v>48</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F44">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>399</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F45">
-        <v>1.218</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>540</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F46">
-        <v>1.887</v>
+        <v>0.079</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>671</v>
+        <v>124</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F47">
-        <v>2.184</v>
+        <v>0.33</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>728</v>
+        <v>191</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F48">
-        <v>2.616</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>729</v>
+        <v>262</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F49">
-        <v>2.631</v>
+        <v>0.896</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>731</v>
+        <v>344</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E50">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F50">
-        <v>2.707</v>
+        <v>1.127</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>709</v>
+        <v>420</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F51">
-        <v>2.342</v>
+        <v>1.392</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>603</v>
+        <v>463</v>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F52">
-        <v>2.043</v>
+        <v>1.702</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>478</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F53">
-        <v>1.613</v>
+        <v>1.914</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>431</v>
+      </c>
+      <c r="D54">
         <v>18</v>
       </c>
-      <c r="C54">
-        <v>337</v>
-      </c>
-      <c r="D54">
-        <v>22</v>
-      </c>
       <c r="E54">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F54">
-        <v>1.117</v>
+        <v>1.581</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="D55">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E55">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F55">
-        <v>0.475</v>
+        <v>1.426</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F56">
-        <v>0.074</v>
+        <v>1.185</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45444</v>
+        <v>45455</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D59">
         <v>16</v>
       </c>
       <c r="E59">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45445</v>
+        <v>45455</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.074</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2291,19 +2291,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45445</v>
+        <v>45455</v>
       </c>
       <c r="B61">
+        <v>21</v>
+      </c>
+      <c r="C61">
         <v>1</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
       </c>
       <c r="D61">
         <v>15</v>
       </c>
       <c r="E61">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2314,10 +2314,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45445</v>
+        <v>45455</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>14</v>
       </c>
       <c r="E62">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45445</v>
+        <v>45455</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>14</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>14</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2383,19 +2383,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F66">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
         <v>71</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F67">
-        <v>0.489</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
         <v>72</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F68">
-        <v>1.237</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>582</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F69">
-        <v>2.027</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>724</v>
+        <v>62</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F70">
-        <v>2.7</v>
+        <v>0.097</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>823</v>
+        <v>154</v>
       </c>
       <c r="D71">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F71">
-        <v>2.872</v>
+        <v>0.414</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>829</v>
+        <v>235</v>
       </c>
       <c r="D72">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F72">
-        <v>2.849</v>
+        <v>0.616</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>816</v>
+        <v>337</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F73">
-        <v>2.844</v>
+        <v>0.99</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>800</v>
+        <v>464</v>
       </c>
       <c r="D74">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E74">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F74">
-        <v>2.822</v>
+        <v>1.707</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>741</v>
+        <v>573</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F75">
-        <v>2.62</v>
+        <v>1.751</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F76">
-        <v>2.082</v>
+        <v>1.908</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>485</v>
+        <v>596</v>
       </c>
       <c r="D77">
         <v>21</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F77">
-        <v>1.649</v>
+        <v>2.082</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>343</v>
+        <v>511</v>
       </c>
       <c r="D78">
         <v>21</v>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F78">
-        <v>1.158</v>
+        <v>1.918</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>182</v>
+        <v>434</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F79">
-        <v>0.46</v>
+        <v>1.769</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="D80">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E80">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F80">
-        <v>0.076</v>
+        <v>1.359</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B81">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>265</v>
+      </c>
+      <c r="D81">
         <v>21</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>17</v>
-      </c>
       <c r="E81">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D82">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E82">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45445</v>
+        <v>45456</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45446</v>
+        <v>45456</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D84">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.055</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45446</v>
+        <v>45456</v>
       </c>
       <c r="B85">
+        <v>21</v>
+      </c>
+      <c r="C85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
       <c r="D85">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E85">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2866,19 +2866,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45446</v>
+        <v>45456</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E86">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2889,19 +2889,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45446</v>
+        <v>45456</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E87">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>14</v>
       </c>
       <c r="E89">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2958,22 +2958,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>14</v>
       </c>
       <c r="E90">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F90">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
         <v>95</v>
@@ -2981,22 +2981,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E91">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F91">
-        <v>0.441</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
         <v>96</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E92">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F92">
-        <v>0.795</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>433</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E93">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F93">
-        <v>1.572</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>595</v>
+        <v>53</v>
       </c>
       <c r="D94">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E94">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F94">
-        <v>1.924</v>
+        <v>0.097</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>736</v>
+        <v>139</v>
       </c>
       <c r="D95">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F95">
-        <v>2.619</v>
+        <v>0.381</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B96">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>762</v>
+        <v>225</v>
       </c>
       <c r="D96">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F96">
-        <v>2.675</v>
+        <v>0.579</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B97">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>719</v>
+        <v>310</v>
       </c>
       <c r="D97">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E97">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F97">
-        <v>2.715</v>
+        <v>0.962</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>634</v>
+        <v>395</v>
       </c>
       <c r="D98">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E98">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F98">
-        <v>2.318</v>
+        <v>1.345</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="D99">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F99">
-        <v>1.872</v>
+        <v>1.742</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B100">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>394</v>
+        <v>556</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E100">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F100">
-        <v>1.514</v>
+        <v>1.878</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B101">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="D101">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F101">
-        <v>1.025</v>
+        <v>1.796</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B102">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>191</v>
+        <v>502</v>
       </c>
       <c r="D102">
         <v>23</v>
       </c>
       <c r="E102">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F102">
-        <v>0.727</v>
+        <v>1.78</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B103">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>109</v>
+        <v>459</v>
       </c>
       <c r="D103">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E103">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F103">
-        <v>0.299</v>
+        <v>1.724</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B104">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>32</v>
+        <v>389</v>
       </c>
       <c r="D104">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E104">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F104">
-        <v>0.055</v>
+        <v>1.471</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B105">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E105">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1.073</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B106">
+        <v>18</v>
+      </c>
+      <c r="C106">
+        <v>230</v>
+      </c>
+      <c r="D106">
         <v>22</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>16</v>
-      </c>
       <c r="E106">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.765</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45446</v>
+        <v>45457</v>
       </c>
       <c r="B107">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D107">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E107">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45447</v>
+        <v>45457</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D108">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E108">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3395,19 +3395,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45447</v>
+        <v>45457</v>
       </c>
       <c r="B109">
+        <v>21</v>
+      </c>
+      <c r="C109">
         <v>1</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
       <c r="D109">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E109">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3418,19 +3418,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45447</v>
+        <v>45457</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E110">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3441,19 +3441,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45447</v>
+        <v>45457</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3464,19 +3464,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E112">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3487,19 +3487,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3510,22 +3510,22 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F114">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>119</v>
@@ -3533,22 +3533,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>15</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.445</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
         <v>120</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.175</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>568</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.938</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>686</v>
+        <v>80</v>
       </c>
       <c r="D118">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>2.407</v>
+        <v>0.111</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>751</v>
+        <v>222</v>
       </c>
       <c r="D119">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>2.613</v>
+        <v>0.446</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B120">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>747</v>
+        <v>388</v>
       </c>
       <c r="D120">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E120">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>2.519</v>
+        <v>1.108</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B121">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>720</v>
+        <v>550</v>
       </c>
       <c r="D121">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E121">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>2.577</v>
+        <v>1.821</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3694,22 +3694,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="D122">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E122">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>2.471</v>
+        <v>2.438</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>593</v>
+        <v>803</v>
       </c>
       <c r="D123">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E123">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>2.124</v>
+        <v>2.822</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>440</v>
+        <v>856</v>
       </c>
       <c r="D124">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E124">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>1.72</v>
+        <v>2.856</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B125">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>293</v>
+        <v>805</v>
       </c>
       <c r="D125">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E125">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F125">
-        <v>1.11</v>
+        <v>2.786</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>707</v>
+      </c>
+      <c r="D126">
+        <v>23</v>
+      </c>
+      <c r="E126">
         <v>18</v>
       </c>
-      <c r="C126">
-        <v>192</v>
-      </c>
-      <c r="D126">
-        <v>21</v>
-      </c>
-      <c r="E126">
-        <v>45</v>
-      </c>
       <c r="F126">
-        <v>0.727</v>
+        <v>2.383</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B127">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>110</v>
+        <v>605</v>
       </c>
       <c r="D127">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E127">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F127">
-        <v>0.307</v>
+        <v>2.046</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3832,22 +3832,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B128">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>32</v>
+        <v>494</v>
       </c>
       <c r="D128">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E128">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F128">
-        <v>0.055</v>
+        <v>1.79</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3855,22 +3855,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B129">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D129">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E129">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1.376</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -3878,22 +3878,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B130">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>258</v>
+      </c>
+      <c r="D130">
         <v>22</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>15</v>
       </c>
       <c r="E130">
         <v>30</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.874</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45447</v>
+        <v>45458</v>
       </c>
       <c r="B131">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D131">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E131">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.449</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -3924,22 +3924,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45448</v>
+        <v>45458</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E132">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.077</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -3947,19 +3947,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45448</v>
+        <v>45458</v>
       </c>
       <c r="B133">
+        <v>21</v>
+      </c>
+      <c r="C133">
         <v>1</v>
       </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
       <c r="D133">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E133">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3970,19 +3970,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45448</v>
+        <v>45458</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E134">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3993,19 +3993,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45448</v>
+        <v>45458</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E135">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4016,19 +4016,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E136">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4039,19 +4039,19 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E137">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4062,22 +4062,22 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E138">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F138">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
         <v>143</v>
@@ -4085,22 +4085,22 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E139">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F139">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
         <v>144</v>
@@ -4108,22 +4108,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E140">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F140">
-        <v>0.572</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>145</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>312</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E141">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F141">
-        <v>0.952</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>421</v>
+        <v>73</v>
       </c>
       <c r="D142">
+        <v>16</v>
+      </c>
+      <c r="E142">
         <v>18</v>
       </c>
-      <c r="E142">
-        <v>40</v>
-      </c>
       <c r="F142">
-        <v>1.354</v>
+        <v>0.118</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B143">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>536</v>
+        <v>199</v>
       </c>
       <c r="D143">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E143">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F143">
-        <v>2.041</v>
+        <v>0.375</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B144">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>629</v>
+        <v>335</v>
       </c>
       <c r="D144">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F144">
-        <v>1.868</v>
+        <v>0.97</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B145">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>669</v>
+        <v>483</v>
       </c>
       <c r="D145">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E145">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F145">
-        <v>2.552</v>
+        <v>1.635</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B146">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="D146">
         <v>22</v>
       </c>
       <c r="E146">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F146">
-        <v>2.485</v>
+        <v>2.209</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B147">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>648</v>
+        <v>759</v>
       </c>
       <c r="D147">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E147">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F147">
-        <v>2.387</v>
+        <v>2.546</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4292,22 +4292,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B148">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>532</v>
+        <v>814</v>
       </c>
       <c r="D148">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E148">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F148">
-        <v>1.991</v>
+        <v>2.764</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B149">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>403</v>
+        <v>846</v>
       </c>
       <c r="D149">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E149">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F149">
-        <v>1.457</v>
+        <v>2.863</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4338,22 +4338,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B150">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>277</v>
+        <v>849</v>
       </c>
       <c r="D150">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E150">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F150">
-        <v>0.916</v>
+        <v>2.961</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B151">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>150</v>
+        <v>803</v>
       </c>
       <c r="D151">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.406</v>
+        <v>2.868</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B152">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>41</v>
+        <v>685</v>
       </c>
       <c r="D152">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E152">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.07199999999999999</v>
+        <v>2.45</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B153">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="D153">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E153">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1.815</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B154">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="D154">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E154">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1.141</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45448</v>
+        <v>45459</v>
       </c>
       <c r="B155">
+        <v>19</v>
+      </c>
+      <c r="C155">
+        <v>195</v>
+      </c>
+      <c r="D155">
         <v>23</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>15</v>
-      </c>
       <c r="E155">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45449</v>
+        <v>45459</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D156">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E156">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4499,19 +4499,19 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45449</v>
+        <v>45459</v>
       </c>
       <c r="B157">
+        <v>21</v>
+      </c>
+      <c r="C157">
         <v>1</v>
       </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
       <c r="D157">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E157">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4522,19 +4522,19 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45449</v>
+        <v>45459</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E158">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4545,19 +4545,19 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45449</v>
+        <v>45459</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E159">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4568,19 +4568,19 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4591,19 +4591,19 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D161">
+        <v>18</v>
+      </c>
+      <c r="E161">
         <v>13</v>
-      </c>
-      <c r="E161">
-        <v>14</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4614,22 +4614,22 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B162">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E162">
         <v>13</v>
       </c>
       <c r="F162">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="G162" t="s">
         <v>167</v>
@@ -4637,22 +4637,22 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E163">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F163">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="G163" t="s">
         <v>168</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F164">
-        <v>0.986</v>
+        <v>0</v>
       </c>
       <c r="G164" t="s">
         <v>169</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B165">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>498</v>
+        <v>4</v>
       </c>
       <c r="D165">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F165">
-        <v>1.652</v>
+        <v>0</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>74</v>
+      </c>
+      <c r="D166">
+        <v>17</v>
+      </c>
+      <c r="E166">
         <v>10</v>
       </c>
-      <c r="C166">
-        <v>652</v>
-      </c>
-      <c r="D166">
-        <v>20</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
       <c r="F166">
-        <v>2.32</v>
+        <v>0.117</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B167">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>758</v>
+        <v>223</v>
       </c>
       <c r="D167">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E167">
         <v>2</v>
       </c>
       <c r="F167">
-        <v>2.676</v>
+        <v>0.462</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B168">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>796</v>
+        <v>394</v>
       </c>
       <c r="D168">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E168">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>2.675</v>
+        <v>1.133</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B169">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>800</v>
+        <v>558</v>
       </c>
       <c r="D169">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E169">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>2.778</v>
+        <v>1.806</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45449</v>
+        <v>45460</v>
       </c>
       <c r="B170">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>783</v>
+        <v>702</v>
       </c>
       <c r="D170">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E170">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>2.737</v>
+        <v>2.417</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,144 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>10.06.202410</t>
-  </si>
-  <si>
-    <t>10.06.202411</t>
-  </si>
-  <si>
-    <t>10.06.202412</t>
-  </si>
-  <si>
-    <t>10.06.202413</t>
-  </si>
-  <si>
-    <t>10.06.202414</t>
-  </si>
-  <si>
-    <t>10.06.202415</t>
-  </si>
-  <si>
-    <t>10.06.202416</t>
-  </si>
-  <si>
-    <t>10.06.202417</t>
-  </si>
-  <si>
-    <t>10.06.202418</t>
-  </si>
-  <si>
-    <t>10.06.202419</t>
-  </si>
-  <si>
-    <t>10.06.202420</t>
-  </si>
-  <si>
-    <t>10.06.202421</t>
-  </si>
-  <si>
-    <t>10.06.202422</t>
-  </si>
-  <si>
-    <t>10.06.202423</t>
-  </si>
-  <si>
-    <t>11.06.20240</t>
-  </si>
-  <si>
-    <t>11.06.20241</t>
-  </si>
-  <si>
-    <t>11.06.20242</t>
-  </si>
-  <si>
-    <t>11.06.20243</t>
-  </si>
-  <si>
-    <t>11.06.20244</t>
-  </si>
-  <si>
-    <t>11.06.20245</t>
-  </si>
-  <si>
-    <t>11.06.20246</t>
-  </si>
-  <si>
-    <t>11.06.20247</t>
-  </si>
-  <si>
-    <t>11.06.20248</t>
-  </si>
-  <si>
-    <t>11.06.20249</t>
-  </si>
-  <si>
-    <t>11.06.202410</t>
-  </si>
-  <si>
-    <t>11.06.202411</t>
-  </si>
-  <si>
-    <t>11.06.202412</t>
-  </si>
-  <si>
-    <t>11.06.202413</t>
-  </si>
-  <si>
-    <t>11.06.202414</t>
-  </si>
-  <si>
-    <t>11.06.202415</t>
-  </si>
-  <si>
-    <t>11.06.202416</t>
-  </si>
-  <si>
-    <t>11.06.202417</t>
-  </si>
-  <si>
-    <t>11.06.202418</t>
-  </si>
-  <si>
-    <t>11.06.202419</t>
-  </si>
-  <si>
-    <t>11.06.202420</t>
-  </si>
-  <si>
-    <t>11.06.202421</t>
-  </si>
-  <si>
-    <t>11.06.202422</t>
-  </si>
-  <si>
-    <t>11.06.202423</t>
-  </si>
-  <si>
-    <t>12.06.20240</t>
-  </si>
-  <si>
-    <t>12.06.20241</t>
-  </si>
-  <si>
-    <t>12.06.20242</t>
-  </si>
-  <si>
-    <t>12.06.20243</t>
-  </si>
-  <si>
-    <t>12.06.20244</t>
-  </si>
-  <si>
-    <t>12.06.20245</t>
-  </si>
-  <si>
-    <t>12.06.20246</t>
-  </si>
-  <si>
-    <t>12.06.20247</t>
-  </si>
-  <si>
     <t>12.06.20248</t>
   </si>
   <si>
@@ -542,6 +404,144 @@
   </si>
   <si>
     <t>17.06.202410</t>
+  </si>
+  <si>
+    <t>17.06.202411</t>
+  </si>
+  <si>
+    <t>17.06.202412</t>
+  </si>
+  <si>
+    <t>17.06.202413</t>
+  </si>
+  <si>
+    <t>17.06.202414</t>
+  </si>
+  <si>
+    <t>17.06.202415</t>
+  </si>
+  <si>
+    <t>17.06.202416</t>
+  </si>
+  <si>
+    <t>17.06.202417</t>
+  </si>
+  <si>
+    <t>17.06.202418</t>
+  </si>
+  <si>
+    <t>17.06.202419</t>
+  </si>
+  <si>
+    <t>17.06.202420</t>
+  </si>
+  <si>
+    <t>17.06.202421</t>
+  </si>
+  <si>
+    <t>17.06.202422</t>
+  </si>
+  <si>
+    <t>17.06.202423</t>
+  </si>
+  <si>
+    <t>18.06.20240</t>
+  </si>
+  <si>
+    <t>18.06.20241</t>
+  </si>
+  <si>
+    <t>18.06.20242</t>
+  </si>
+  <si>
+    <t>18.06.20243</t>
+  </si>
+  <si>
+    <t>18.06.20244</t>
+  </si>
+  <si>
+    <t>18.06.20245</t>
+  </si>
+  <si>
+    <t>18.06.20246</t>
+  </si>
+  <si>
+    <t>18.06.20247</t>
+  </si>
+  <si>
+    <t>18.06.20248</t>
+  </si>
+  <si>
+    <t>18.06.20249</t>
+  </si>
+  <si>
+    <t>18.06.202410</t>
+  </si>
+  <si>
+    <t>18.06.202411</t>
+  </si>
+  <si>
+    <t>18.06.202412</t>
+  </si>
+  <si>
+    <t>18.06.202413</t>
+  </si>
+  <si>
+    <t>18.06.202414</t>
+  </si>
+  <si>
+    <t>18.06.202415</t>
+  </si>
+  <si>
+    <t>18.06.202416</t>
+  </si>
+  <si>
+    <t>18.06.202417</t>
+  </si>
+  <si>
+    <t>18.06.202418</t>
+  </si>
+  <si>
+    <t>18.06.202419</t>
+  </si>
+  <si>
+    <t>18.06.202420</t>
+  </si>
+  <si>
+    <t>18.06.202421</t>
+  </si>
+  <si>
+    <t>18.06.202422</t>
+  </si>
+  <si>
+    <t>18.06.202423</t>
+  </si>
+  <si>
+    <t>19.06.20240</t>
+  </si>
+  <si>
+    <t>19.06.20241</t>
+  </si>
+  <si>
+    <t>19.06.20242</t>
+  </si>
+  <si>
+    <t>19.06.20243</t>
+  </si>
+  <si>
+    <t>19.06.20244</t>
+  </si>
+  <si>
+    <t>19.06.20245</t>
+  </si>
+  <si>
+    <t>19.06.20246</t>
+  </si>
+  <si>
+    <t>19.06.20247</t>
+  </si>
+  <si>
+    <t>19.06.20248</t>
   </si>
 </sst>
 </file>
@@ -934,10 +934,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>309</v>
+        <v>675</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>1.075</v>
+        <v>2.392</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>753</v>
+        <v>824</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.711</v>
+        <v>2.949</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>606</v>
+        <v>866</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2.163</v>
+        <v>3.003</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>503</v>
+        <v>791</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>1.856</v>
+        <v>2.717</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>387</v>
+        <v>676</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>1.399</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>293</v>
+        <v>499</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>0.999</v>
+        <v>1.772</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F10">
-        <v>0.784</v>
+        <v>1.208</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F11">
-        <v>0.282</v>
+        <v>0.776</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F12">
-        <v>0.046</v>
+        <v>0.386</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>18</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F22">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>218</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F23">
-        <v>0.443</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>392</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F24">
-        <v>1.108</v>
+        <v>0.081</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>558</v>
+        <v>119</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>1.819</v>
+        <v>0.335</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>700</v>
+        <v>181</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>2.417</v>
+        <v>0.57</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>759</v>
+        <v>267</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F27">
-        <v>2.614</v>
+        <v>0.912</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>708</v>
+        <v>380</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E28">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F28">
-        <v>2.261</v>
+        <v>1.257</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>636</v>
+        <v>494</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>2.011</v>
+        <v>1.771</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>1.838</v>
+        <v>1.816</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>454</v>
+        <v>587</v>
       </c>
       <c r="D31">
         <v>21</v>
       </c>
       <c r="E31">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F31">
-        <v>1.729</v>
+        <v>1.835</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>388</v>
+        <v>545</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F32">
-        <v>1.478</v>
+        <v>1.984</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>310</v>
+        <v>498</v>
       </c>
       <c r="D33">
         <v>20</v>
       </c>
       <c r="E33">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F33">
-        <v>1.157</v>
+        <v>1.892</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="E34">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34">
-        <v>0.889</v>
+        <v>1.863</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>147</v>
+        <v>343</v>
       </c>
       <c r="D35">
         <v>19</v>
       </c>
       <c r="E35">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>0.444</v>
+        <v>1.312</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="D36">
         <v>18</v>
       </c>
       <c r="E36">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F36">
-        <v>0.075</v>
+        <v>0.759</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.426</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.077</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E42">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1877,19 +1877,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1900,19 +1900,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1923,19 +1923,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F46">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F47">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F48">
-        <v>0.5659999999999999</v>
+        <v>0.097</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F49">
-        <v>0.896</v>
+        <v>0.454</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F50">
-        <v>1.127</v>
+        <v>0.729</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>420</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F51">
-        <v>1.392</v>
+        <v>1.291</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>463</v>
+        <v>566</v>
       </c>
       <c r="D52">
         <v>18</v>
       </c>
       <c r="E52">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F52">
-        <v>1.702</v>
+        <v>1.786</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>478</v>
+        <v>676</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F53">
-        <v>1.914</v>
+        <v>2.329</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>431</v>
+        <v>752</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F54">
-        <v>1.581</v>
+        <v>2.683</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>375</v>
+        <v>798</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E55">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>1.426</v>
+        <v>2.793</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>313</v>
+        <v>787</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E56">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F56">
-        <v>1.185</v>
+        <v>2.825</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>257</v>
+        <v>755</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E57">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>0.95</v>
+        <v>2.65</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>201</v>
+        <v>642</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E58">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>0.73</v>
+        <v>2.288</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>127</v>
+        <v>498</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E59">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F59">
-        <v>0.368</v>
+        <v>1.683</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E60">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F60">
-        <v>0.074</v>
+        <v>1.143</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.507</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D62">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E62">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
         <v>14</v>
-      </c>
-      <c r="E63">
-        <v>22</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>14</v>
       </c>
       <c r="E65">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E67">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2452,19 +2452,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2475,19 +2475,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F70">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>13</v>
       </c>
       <c r="E71">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F71">
-        <v>0.414</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
         <v>15</v>
       </c>
-      <c r="E72">
-        <v>43</v>
-      </c>
       <c r="F72">
-        <v>0.616</v>
+        <v>0.145</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F73">
-        <v>0.99</v>
+        <v>0.488</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <v>464</v>
+        <v>391</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>1.707</v>
+        <v>1.058</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.751</v>
+        <v>2.075</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>613</v>
+        <v>731</v>
       </c>
       <c r="D76">
         <v>20</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.908</v>
+        <v>2.706</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>596</v>
+        <v>842</v>
       </c>
       <c r="D77">
         <v>21</v>
       </c>
       <c r="E77">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>2.082</v>
+        <v>2.957</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>511</v>
+        <v>910</v>
       </c>
       <c r="D78">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E78">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.918</v>
+        <v>3.257</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C79">
-        <v>434</v>
+        <v>932</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E79">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.769</v>
+        <v>3.314</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80">
-        <v>354</v>
+        <v>903</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E80">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.359</v>
+        <v>3.295</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>265</v>
+        <v>826</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E81">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.925</v>
+        <v>2.996</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C82">
-        <v>182</v>
+        <v>706</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E82">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.67</v>
+        <v>2.467</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C83">
-        <v>105</v>
+        <v>556</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E83">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.276</v>
+        <v>1.797</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>34</v>
+        <v>390</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.055</v>
+        <v>1.154</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E85">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.535</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D86">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E86">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="G86" t="s">
         <v>91</v>
@@ -2889,19 +2889,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E87">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E89">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
         <v>14</v>
-      </c>
-      <c r="E90">
-        <v>42</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3004,19 +3004,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -3027,19 +3027,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>14</v>
       </c>
       <c r="E94">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F94">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E95">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F95">
-        <v>0.381</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="D96">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E96">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F96">
-        <v>0.579</v>
+        <v>0.125</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C97">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="D97">
+        <v>16</v>
+      </c>
+      <c r="E97">
         <v>18</v>
       </c>
-      <c r="E97">
-        <v>46</v>
-      </c>
       <c r="F97">
-        <v>0.962</v>
+        <v>0.37</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E98">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F98">
-        <v>1.345</v>
+        <v>0.968</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C99">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="D99">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E99">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>1.742</v>
+        <v>1.783</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>556</v>
+        <v>685</v>
       </c>
       <c r="D100">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E100">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F100">
-        <v>1.878</v>
+        <v>2.407</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C101">
-        <v>560</v>
+        <v>819</v>
       </c>
       <c r="D101">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E101">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.796</v>
+        <v>2.932</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C102">
-        <v>502</v>
+        <v>881</v>
       </c>
       <c r="D102">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E102">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.78</v>
+        <v>3.071</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103">
-        <v>459</v>
+        <v>876</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E103">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>1.724</v>
+        <v>3.008</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C104">
-        <v>389</v>
+        <v>818</v>
       </c>
       <c r="D104">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E104">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F104">
-        <v>1.471</v>
+        <v>2.819</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C105">
-        <v>311</v>
+        <v>755</v>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E105">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F105">
-        <v>1.073</v>
+        <v>2.681</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>230</v>
+        <v>631</v>
       </c>
       <c r="D106">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E106">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F106">
-        <v>0.765</v>
+        <v>2.033</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C107">
-        <v>135</v>
+        <v>479</v>
       </c>
       <c r="D107">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E107">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F107">
-        <v>0.416</v>
+        <v>1.65</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C108">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E108">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F108">
-        <v>0.075</v>
+        <v>1.123</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="D109">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E109">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
@@ -3418,22 +3418,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D110">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E110">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.077</v>
       </c>
       <c r="G110" t="s">
         <v>115</v>
@@ -3441,19 +3441,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E111">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3464,19 +3464,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E112">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3487,19 +3487,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E113">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3510,19 +3510,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3533,19 +3533,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
+        <v>16</v>
+      </c>
+      <c r="E115">
         <v>15</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>15</v>
@@ -3602,13 +3602,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>15</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>222</v>
+        <v>5</v>
       </c>
       <c r="D119">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0.446</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="D120">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.108</v>
+        <v>0.111</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>550</v>
+        <v>228</v>
       </c>
       <c r="D121">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.821</v>
+        <v>0.446</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3694,22 +3694,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>693</v>
+        <v>398</v>
       </c>
       <c r="D122">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>2.438</v>
+        <v>1.169</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>803</v>
+        <v>563</v>
       </c>
       <c r="D123">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>2.822</v>
+        <v>1.839</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>856</v>
+        <v>708</v>
       </c>
       <c r="D124">
         <v>22</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>2.856</v>
+        <v>2.425</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C125">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="D125">
         <v>23</v>
       </c>
       <c r="E125">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>2.786</v>
+        <v>2.871</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C126">
-        <v>707</v>
+        <v>882</v>
       </c>
       <c r="D126">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E126">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>2.383</v>
+        <v>3.071</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C127">
-        <v>605</v>
+        <v>902</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E127">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>2.046</v>
+        <v>3.259</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3832,22 +3832,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C128">
-        <v>494</v>
+        <v>875</v>
       </c>
       <c r="D128">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E128">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.79</v>
+        <v>3.151</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3855,22 +3855,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C129">
-        <v>371</v>
+        <v>804</v>
       </c>
       <c r="D129">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E129">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.376</v>
+        <v>2.868</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -3878,22 +3878,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>258</v>
+        <v>691</v>
       </c>
       <c r="D130">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E130">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.874</v>
+        <v>2.462</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C131">
-        <v>150</v>
+        <v>545</v>
       </c>
       <c r="D131">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E131">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.449</v>
+        <v>1.813</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -3924,22 +3924,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C132">
-        <v>48</v>
+        <v>382</v>
       </c>
       <c r="D132">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E132">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.077</v>
+        <v>1.154</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -3947,22 +3947,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="D133">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E133">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>0.512</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
@@ -3970,22 +3970,22 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D134">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E134">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="G134" t="s">
         <v>139</v>
@@ -3993,19 +3993,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E135">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4016,19 +4016,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E136">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4039,19 +4039,19 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E137">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E138">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4085,19 +4085,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E139">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4108,19 +4108,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E140">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4131,19 +4131,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E141">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>16</v>
       </c>
       <c r="E142">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="D143">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E143">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144">
-        <v>335</v>
+        <v>90</v>
       </c>
       <c r="D144">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E144">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.97</v>
+        <v>0.14</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C145">
-        <v>483</v>
+        <v>240</v>
       </c>
       <c r="D145">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E145">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.635</v>
+        <v>0.487</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>639</v>
+        <v>408</v>
       </c>
       <c r="D146">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E146">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>2.209</v>
+        <v>1.225</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C147">
-        <v>759</v>
+        <v>572</v>
       </c>
       <c r="D147">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E147">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>2.546</v>
+        <v>1.954</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4292,22 +4292,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C148">
-        <v>814</v>
+        <v>714</v>
       </c>
       <c r="D148">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E148">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>2.764</v>
+        <v>2.496</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C149">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="D149">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E149">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>2.863</v>
+        <v>2.914</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4338,22 +4338,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C150">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="D150">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>2.961</v>
+        <v>3.111</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4361,13 +4361,13 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C151">
-        <v>803</v>
+        <v>912</v>
       </c>
       <c r="D151">
         <v>26</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>2.868</v>
+        <v>3.15</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4384,13 +4384,13 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C152">
-        <v>685</v>
+        <v>884</v>
       </c>
       <c r="D152">
         <v>26</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2.45</v>
+        <v>3.064</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4407,13 +4407,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C153">
-        <v>537</v>
+        <v>806</v>
       </c>
       <c r="D153">
         <v>26</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.815</v>
+        <v>2.868</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C154">
-        <v>366</v>
+        <v>690</v>
       </c>
       <c r="D154">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.141</v>
+        <v>2.459</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C155">
-        <v>195</v>
+        <v>543</v>
       </c>
       <c r="D155">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.48</v>
+        <v>1.815</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C156">
-        <v>58</v>
+        <v>377</v>
       </c>
       <c r="D156">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E156">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.08699999999999999</v>
+        <v>1.154</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E157">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="G157" t="s">
         <v>162</v>
@@ -4522,22 +4522,22 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B158">
+        <v>20</v>
+      </c>
+      <c r="C158">
+        <v>68</v>
+      </c>
+      <c r="D158">
         <v>22</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>19</v>
-      </c>
       <c r="E158">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G158" t="s">
         <v>163</v>
@@ -4545,19 +4545,19 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E159">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4568,19 +4568,19 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E160">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>18</v>
       </c>
       <c r="E161">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -4626,7 +4626,7 @@
         <v>17</v>
       </c>
       <c r="E162">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>17</v>
       </c>
       <c r="E163">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4660,19 +4660,19 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E164">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4683,19 +4683,19 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>16</v>
       </c>
       <c r="E165">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C166">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E166">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D167">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F167">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="D168">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F168">
-        <v>1.133</v>
+        <v>0.151</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C169">
-        <v>558</v>
+        <v>242</v>
       </c>
       <c r="D169">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.806</v>
+        <v>0.489</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C170">
-        <v>702</v>
+        <v>413</v>
       </c>
       <c r="D170">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="F170">
-        <v>2.417</v>
+        <v>1.229</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,511 +37,511 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>12.06.20248</t>
-  </si>
-  <si>
-    <t>12.06.20249</t>
-  </si>
-  <si>
-    <t>12.06.202410</t>
-  </si>
-  <si>
-    <t>12.06.202411</t>
-  </si>
-  <si>
-    <t>12.06.202412</t>
-  </si>
-  <si>
-    <t>12.06.202413</t>
-  </si>
-  <si>
-    <t>12.06.202414</t>
-  </si>
-  <si>
-    <t>12.06.202415</t>
-  </si>
-  <si>
-    <t>12.06.202416</t>
-  </si>
-  <si>
-    <t>12.06.202417</t>
-  </si>
-  <si>
-    <t>12.06.202418</t>
-  </si>
-  <si>
-    <t>12.06.202419</t>
-  </si>
-  <si>
-    <t>12.06.202420</t>
-  </si>
-  <si>
-    <t>12.06.202421</t>
-  </si>
-  <si>
-    <t>12.06.202422</t>
-  </si>
-  <si>
-    <t>12.06.202423</t>
-  </si>
-  <si>
-    <t>13.06.20240</t>
-  </si>
-  <si>
-    <t>13.06.20241</t>
-  </si>
-  <si>
-    <t>13.06.20242</t>
-  </si>
-  <si>
-    <t>13.06.20243</t>
-  </si>
-  <si>
-    <t>13.06.20244</t>
-  </si>
-  <si>
-    <t>13.06.20245</t>
-  </si>
-  <si>
-    <t>13.06.20246</t>
-  </si>
-  <si>
-    <t>13.06.20247</t>
-  </si>
-  <si>
-    <t>13.06.20248</t>
-  </si>
-  <si>
-    <t>13.06.20249</t>
-  </si>
-  <si>
-    <t>13.06.202410</t>
-  </si>
-  <si>
-    <t>13.06.202411</t>
-  </si>
-  <si>
-    <t>13.06.202412</t>
-  </si>
-  <si>
-    <t>13.06.202413</t>
-  </si>
-  <si>
-    <t>13.06.202414</t>
-  </si>
-  <si>
-    <t>13.06.202415</t>
-  </si>
-  <si>
-    <t>13.06.202416</t>
-  </si>
-  <si>
-    <t>13.06.202417</t>
-  </si>
-  <si>
-    <t>13.06.202418</t>
-  </si>
-  <si>
-    <t>13.06.202419</t>
-  </si>
-  <si>
-    <t>13.06.202420</t>
-  </si>
-  <si>
-    <t>13.06.202421</t>
-  </si>
-  <si>
-    <t>13.06.202422</t>
-  </si>
-  <si>
-    <t>13.06.202423</t>
-  </si>
-  <si>
-    <t>14.06.20240</t>
-  </si>
-  <si>
-    <t>14.06.20241</t>
-  </si>
-  <si>
-    <t>14.06.20242</t>
-  </si>
-  <si>
-    <t>14.06.20243</t>
-  </si>
-  <si>
-    <t>14.06.20244</t>
-  </si>
-  <si>
-    <t>14.06.20245</t>
-  </si>
-  <si>
-    <t>14.06.20246</t>
-  </si>
-  <si>
-    <t>14.06.20247</t>
-  </si>
-  <si>
-    <t>14.06.20248</t>
-  </si>
-  <si>
-    <t>14.06.20249</t>
-  </si>
-  <si>
-    <t>14.06.202410</t>
-  </si>
-  <si>
-    <t>14.06.202411</t>
-  </si>
-  <si>
-    <t>14.06.202412</t>
-  </si>
-  <si>
-    <t>14.06.202413</t>
-  </si>
-  <si>
-    <t>14.06.202414</t>
-  </si>
-  <si>
-    <t>14.06.202415</t>
-  </si>
-  <si>
-    <t>14.06.202416</t>
-  </si>
-  <si>
-    <t>14.06.202417</t>
-  </si>
-  <si>
-    <t>14.06.202418</t>
-  </si>
-  <si>
-    <t>14.06.202419</t>
-  </si>
-  <si>
-    <t>14.06.202420</t>
-  </si>
-  <si>
-    <t>14.06.202421</t>
-  </si>
-  <si>
-    <t>14.06.202422</t>
-  </si>
-  <si>
-    <t>14.06.202423</t>
-  </si>
-  <si>
-    <t>15.06.20240</t>
-  </si>
-  <si>
-    <t>15.06.20241</t>
-  </si>
-  <si>
-    <t>15.06.20242</t>
-  </si>
-  <si>
-    <t>15.06.20243</t>
-  </si>
-  <si>
-    <t>15.06.20244</t>
-  </si>
-  <si>
-    <t>15.06.20245</t>
-  </si>
-  <si>
-    <t>15.06.20246</t>
-  </si>
-  <si>
-    <t>15.06.20247</t>
-  </si>
-  <si>
-    <t>15.06.20248</t>
-  </si>
-  <si>
-    <t>15.06.20249</t>
-  </si>
-  <si>
-    <t>15.06.202410</t>
-  </si>
-  <si>
-    <t>15.06.202411</t>
-  </si>
-  <si>
-    <t>15.06.202412</t>
-  </si>
-  <si>
-    <t>15.06.202413</t>
-  </si>
-  <si>
-    <t>15.06.202414</t>
-  </si>
-  <si>
-    <t>15.06.202415</t>
-  </si>
-  <si>
-    <t>15.06.202416</t>
-  </si>
-  <si>
-    <t>15.06.202417</t>
-  </si>
-  <si>
-    <t>15.06.202418</t>
-  </si>
-  <si>
-    <t>15.06.202419</t>
-  </si>
-  <si>
-    <t>15.06.202420</t>
-  </si>
-  <si>
-    <t>15.06.202421</t>
-  </si>
-  <si>
-    <t>15.06.202422</t>
-  </si>
-  <si>
-    <t>15.06.202423</t>
-  </si>
-  <si>
-    <t>16.06.20240</t>
-  </si>
-  <si>
-    <t>16.06.20241</t>
-  </si>
-  <si>
-    <t>16.06.20242</t>
-  </si>
-  <si>
-    <t>16.06.20243</t>
-  </si>
-  <si>
-    <t>16.06.20244</t>
-  </si>
-  <si>
-    <t>16.06.20245</t>
-  </si>
-  <si>
-    <t>16.06.20246</t>
-  </si>
-  <si>
-    <t>16.06.20247</t>
-  </si>
-  <si>
-    <t>16.06.20248</t>
-  </si>
-  <si>
-    <t>16.06.20249</t>
-  </si>
-  <si>
-    <t>16.06.202410</t>
-  </si>
-  <si>
-    <t>16.06.202411</t>
-  </si>
-  <si>
-    <t>16.06.202412</t>
-  </si>
-  <si>
-    <t>16.06.202413</t>
-  </si>
-  <si>
-    <t>16.06.202414</t>
-  </si>
-  <si>
-    <t>16.06.202415</t>
-  </si>
-  <si>
-    <t>16.06.202416</t>
-  </si>
-  <si>
-    <t>16.06.202417</t>
-  </si>
-  <si>
-    <t>16.06.202418</t>
-  </si>
-  <si>
-    <t>16.06.202419</t>
-  </si>
-  <si>
-    <t>16.06.202420</t>
-  </si>
-  <si>
-    <t>16.06.202421</t>
-  </si>
-  <si>
-    <t>16.06.202422</t>
-  </si>
-  <si>
-    <t>16.06.202423</t>
-  </si>
-  <si>
-    <t>17.06.20240</t>
-  </si>
-  <si>
-    <t>17.06.20241</t>
-  </si>
-  <si>
-    <t>17.06.20242</t>
-  </si>
-  <si>
-    <t>17.06.20243</t>
-  </si>
-  <si>
-    <t>17.06.20244</t>
-  </si>
-  <si>
-    <t>17.06.20245</t>
-  </si>
-  <si>
-    <t>17.06.20246</t>
-  </si>
-  <si>
-    <t>17.06.20247</t>
-  </si>
-  <si>
-    <t>17.06.20248</t>
-  </si>
-  <si>
-    <t>17.06.20249</t>
-  </si>
-  <si>
-    <t>17.06.202410</t>
-  </si>
-  <si>
-    <t>17.06.202411</t>
-  </si>
-  <si>
-    <t>17.06.202412</t>
-  </si>
-  <si>
-    <t>17.06.202413</t>
-  </si>
-  <si>
-    <t>17.06.202414</t>
-  </si>
-  <si>
-    <t>17.06.202415</t>
-  </si>
-  <si>
-    <t>17.06.202416</t>
-  </si>
-  <si>
-    <t>17.06.202417</t>
-  </si>
-  <si>
-    <t>17.06.202418</t>
-  </si>
-  <si>
-    <t>17.06.202419</t>
-  </si>
-  <si>
-    <t>17.06.202420</t>
-  </si>
-  <si>
-    <t>17.06.202421</t>
-  </si>
-  <si>
-    <t>17.06.202422</t>
-  </si>
-  <si>
-    <t>17.06.202423</t>
-  </si>
-  <si>
-    <t>18.06.20240</t>
-  </si>
-  <si>
-    <t>18.06.20241</t>
-  </si>
-  <si>
-    <t>18.06.20242</t>
-  </si>
-  <si>
-    <t>18.06.20243</t>
-  </si>
-  <si>
-    <t>18.06.20244</t>
-  </si>
-  <si>
-    <t>18.06.20245</t>
-  </si>
-  <si>
-    <t>18.06.20246</t>
-  </si>
-  <si>
-    <t>18.06.20247</t>
-  </si>
-  <si>
-    <t>18.06.20248</t>
-  </si>
-  <si>
-    <t>18.06.20249</t>
-  </si>
-  <si>
-    <t>18.06.202410</t>
-  </si>
-  <si>
-    <t>18.06.202411</t>
-  </si>
-  <si>
-    <t>18.06.202412</t>
-  </si>
-  <si>
-    <t>18.06.202413</t>
-  </si>
-  <si>
-    <t>18.06.202414</t>
-  </si>
-  <si>
-    <t>18.06.202415</t>
-  </si>
-  <si>
-    <t>18.06.202416</t>
-  </si>
-  <si>
-    <t>18.06.202417</t>
-  </si>
-  <si>
-    <t>18.06.202418</t>
-  </si>
-  <si>
-    <t>18.06.202419</t>
-  </si>
-  <si>
-    <t>18.06.202420</t>
-  </si>
-  <si>
-    <t>18.06.202421</t>
-  </si>
-  <si>
-    <t>18.06.202422</t>
-  </si>
-  <si>
-    <t>18.06.202423</t>
-  </si>
-  <si>
-    <t>19.06.20240</t>
-  </si>
-  <si>
-    <t>19.06.20241</t>
-  </si>
-  <si>
-    <t>19.06.20242</t>
-  </si>
-  <si>
-    <t>19.06.20243</t>
-  </si>
-  <si>
-    <t>19.06.20244</t>
-  </si>
-  <si>
-    <t>19.06.20245</t>
-  </si>
-  <si>
-    <t>19.06.20246</t>
-  </si>
-  <si>
-    <t>19.06.20247</t>
-  </si>
-  <si>
-    <t>19.06.20248</t>
+    <t>19.06.202412</t>
+  </si>
+  <si>
+    <t>19.06.202413</t>
+  </si>
+  <si>
+    <t>19.06.202414</t>
+  </si>
+  <si>
+    <t>19.06.202415</t>
+  </si>
+  <si>
+    <t>19.06.202416</t>
+  </si>
+  <si>
+    <t>19.06.202417</t>
+  </si>
+  <si>
+    <t>19.06.202418</t>
+  </si>
+  <si>
+    <t>19.06.202419</t>
+  </si>
+  <si>
+    <t>19.06.202420</t>
+  </si>
+  <si>
+    <t>19.06.202421</t>
+  </si>
+  <si>
+    <t>19.06.202422</t>
+  </si>
+  <si>
+    <t>19.06.202423</t>
+  </si>
+  <si>
+    <t>20.06.20240</t>
+  </si>
+  <si>
+    <t>20.06.20241</t>
+  </si>
+  <si>
+    <t>20.06.20242</t>
+  </si>
+  <si>
+    <t>20.06.20243</t>
+  </si>
+  <si>
+    <t>20.06.20244</t>
+  </si>
+  <si>
+    <t>20.06.20245</t>
+  </si>
+  <si>
+    <t>20.06.20246</t>
+  </si>
+  <si>
+    <t>20.06.20247</t>
+  </si>
+  <si>
+    <t>20.06.20248</t>
+  </si>
+  <si>
+    <t>20.06.20249</t>
+  </si>
+  <si>
+    <t>20.06.202410</t>
+  </si>
+  <si>
+    <t>20.06.202411</t>
+  </si>
+  <si>
+    <t>20.06.202412</t>
+  </si>
+  <si>
+    <t>20.06.202413</t>
+  </si>
+  <si>
+    <t>20.06.202414</t>
+  </si>
+  <si>
+    <t>20.06.202415</t>
+  </si>
+  <si>
+    <t>20.06.202416</t>
+  </si>
+  <si>
+    <t>20.06.202417</t>
+  </si>
+  <si>
+    <t>20.06.202418</t>
+  </si>
+  <si>
+    <t>20.06.202419</t>
+  </si>
+  <si>
+    <t>20.06.202420</t>
+  </si>
+  <si>
+    <t>20.06.202421</t>
+  </si>
+  <si>
+    <t>20.06.202422</t>
+  </si>
+  <si>
+    <t>20.06.202423</t>
+  </si>
+  <si>
+    <t>21.06.20240</t>
+  </si>
+  <si>
+    <t>21.06.20241</t>
+  </si>
+  <si>
+    <t>21.06.20242</t>
+  </si>
+  <si>
+    <t>21.06.20243</t>
+  </si>
+  <si>
+    <t>21.06.20244</t>
+  </si>
+  <si>
+    <t>21.06.20245</t>
+  </si>
+  <si>
+    <t>21.06.20246</t>
+  </si>
+  <si>
+    <t>21.06.20247</t>
+  </si>
+  <si>
+    <t>21.06.20248</t>
+  </si>
+  <si>
+    <t>21.06.20249</t>
+  </si>
+  <si>
+    <t>21.06.202410</t>
+  </si>
+  <si>
+    <t>21.06.202411</t>
+  </si>
+  <si>
+    <t>21.06.202412</t>
+  </si>
+  <si>
+    <t>21.06.202413</t>
+  </si>
+  <si>
+    <t>21.06.202414</t>
+  </si>
+  <si>
+    <t>21.06.202415</t>
+  </si>
+  <si>
+    <t>21.06.202416</t>
+  </si>
+  <si>
+    <t>21.06.202417</t>
+  </si>
+  <si>
+    <t>21.06.202418</t>
+  </si>
+  <si>
+    <t>21.06.202419</t>
+  </si>
+  <si>
+    <t>21.06.202420</t>
+  </si>
+  <si>
+    <t>21.06.202421</t>
+  </si>
+  <si>
+    <t>21.06.202422</t>
+  </si>
+  <si>
+    <t>21.06.202423</t>
+  </si>
+  <si>
+    <t>22.06.20240</t>
+  </si>
+  <si>
+    <t>22.06.20241</t>
+  </si>
+  <si>
+    <t>22.06.20242</t>
+  </si>
+  <si>
+    <t>22.06.20243</t>
+  </si>
+  <si>
+    <t>22.06.20244</t>
+  </si>
+  <si>
+    <t>22.06.20245</t>
+  </si>
+  <si>
+    <t>22.06.20246</t>
+  </si>
+  <si>
+    <t>22.06.20247</t>
+  </si>
+  <si>
+    <t>22.06.20248</t>
+  </si>
+  <si>
+    <t>22.06.20249</t>
+  </si>
+  <si>
+    <t>22.06.202410</t>
+  </si>
+  <si>
+    <t>22.06.202411</t>
+  </si>
+  <si>
+    <t>22.06.202412</t>
+  </si>
+  <si>
+    <t>22.06.202413</t>
+  </si>
+  <si>
+    <t>22.06.202414</t>
+  </si>
+  <si>
+    <t>22.06.202415</t>
+  </si>
+  <si>
+    <t>22.06.202416</t>
+  </si>
+  <si>
+    <t>22.06.202417</t>
+  </si>
+  <si>
+    <t>22.06.202418</t>
+  </si>
+  <si>
+    <t>22.06.202419</t>
+  </si>
+  <si>
+    <t>22.06.202420</t>
+  </si>
+  <si>
+    <t>22.06.202421</t>
+  </si>
+  <si>
+    <t>22.06.202422</t>
+  </si>
+  <si>
+    <t>22.06.202423</t>
+  </si>
+  <si>
+    <t>23.06.20240</t>
+  </si>
+  <si>
+    <t>23.06.20241</t>
+  </si>
+  <si>
+    <t>23.06.20242</t>
+  </si>
+  <si>
+    <t>23.06.20243</t>
+  </si>
+  <si>
+    <t>23.06.20244</t>
+  </si>
+  <si>
+    <t>23.06.20245</t>
+  </si>
+  <si>
+    <t>23.06.20246</t>
+  </si>
+  <si>
+    <t>23.06.20247</t>
+  </si>
+  <si>
+    <t>23.06.20248</t>
+  </si>
+  <si>
+    <t>23.06.20249</t>
+  </si>
+  <si>
+    <t>23.06.202410</t>
+  </si>
+  <si>
+    <t>23.06.202411</t>
+  </si>
+  <si>
+    <t>23.06.202412</t>
+  </si>
+  <si>
+    <t>23.06.202413</t>
+  </si>
+  <si>
+    <t>23.06.202414</t>
+  </si>
+  <si>
+    <t>23.06.202415</t>
+  </si>
+  <si>
+    <t>23.06.202416</t>
+  </si>
+  <si>
+    <t>23.06.202417</t>
+  </si>
+  <si>
+    <t>23.06.202418</t>
+  </si>
+  <si>
+    <t>23.06.202419</t>
+  </si>
+  <si>
+    <t>23.06.202420</t>
+  </si>
+  <si>
+    <t>23.06.202421</t>
+  </si>
+  <si>
+    <t>23.06.202422</t>
+  </si>
+  <si>
+    <t>23.06.202423</t>
+  </si>
+  <si>
+    <t>24.06.20240</t>
+  </si>
+  <si>
+    <t>24.06.20241</t>
+  </si>
+  <si>
+    <t>24.06.20242</t>
+  </si>
+  <si>
+    <t>24.06.20243</t>
+  </si>
+  <si>
+    <t>24.06.20244</t>
+  </si>
+  <si>
+    <t>24.06.20245</t>
+  </si>
+  <si>
+    <t>24.06.20246</t>
+  </si>
+  <si>
+    <t>24.06.20247</t>
+  </si>
+  <si>
+    <t>24.06.20248</t>
+  </si>
+  <si>
+    <t>24.06.20249</t>
+  </si>
+  <si>
+    <t>24.06.202410</t>
+  </si>
+  <si>
+    <t>24.06.202411</t>
+  </si>
+  <si>
+    <t>24.06.202412</t>
+  </si>
+  <si>
+    <t>24.06.202413</t>
+  </si>
+  <si>
+    <t>24.06.202414</t>
+  </si>
+  <si>
+    <t>24.06.202415</t>
+  </si>
+  <si>
+    <t>24.06.202416</t>
+  </si>
+  <si>
+    <t>24.06.202417</t>
+  </si>
+  <si>
+    <t>24.06.202418</t>
+  </si>
+  <si>
+    <t>24.06.202419</t>
+  </si>
+  <si>
+    <t>24.06.202420</t>
+  </si>
+  <si>
+    <t>24.06.202421</t>
+  </si>
+  <si>
+    <t>24.06.202422</t>
+  </si>
+  <si>
+    <t>24.06.202423</t>
+  </si>
+  <si>
+    <t>25.06.20240</t>
+  </si>
+  <si>
+    <t>25.06.20241</t>
+  </si>
+  <si>
+    <t>25.06.20242</t>
+  </si>
+  <si>
+    <t>25.06.20243</t>
+  </si>
+  <si>
+    <t>25.06.20244</t>
+  </si>
+  <si>
+    <t>25.06.20245</t>
+  </si>
+  <si>
+    <t>25.06.20246</t>
+  </si>
+  <si>
+    <t>25.06.20247</t>
+  </si>
+  <si>
+    <t>25.06.20248</t>
+  </si>
+  <si>
+    <t>25.06.20249</t>
+  </si>
+  <si>
+    <t>25.06.202410</t>
+  </si>
+  <si>
+    <t>25.06.202411</t>
+  </si>
+  <si>
+    <t>25.06.202412</t>
+  </si>
+  <si>
+    <t>25.06.202413</t>
+  </si>
+  <si>
+    <t>25.06.202414</t>
+  </si>
+  <si>
+    <t>25.06.202415</t>
+  </si>
+  <si>
+    <t>25.06.202416</t>
+  </si>
+  <si>
+    <t>25.06.202417</t>
+  </si>
+  <si>
+    <t>25.06.202418</t>
+  </si>
+  <si>
+    <t>25.06.202419</t>
+  </si>
+  <si>
+    <t>25.06.202420</t>
+  </si>
+  <si>
+    <t>25.06.202421</t>
+  </si>
+  <si>
+    <t>25.06.202422</t>
+  </si>
+  <si>
+    <t>25.06.202423</t>
+  </si>
+  <si>
+    <t>26.06.20240</t>
+  </si>
+  <si>
+    <t>26.06.20241</t>
+  </si>
+  <si>
+    <t>26.06.20242</t>
+  </si>
+  <si>
+    <t>26.06.20243</t>
+  </si>
+  <si>
+    <t>26.06.20244</t>
+  </si>
+  <si>
+    <t>26.06.20245</t>
+  </si>
+  <si>
+    <t>26.06.20246</t>
+  </si>
+  <si>
+    <t>26.06.20247</t>
+  </si>
+  <si>
+    <t>26.06.20248</t>
+  </si>
+  <si>
+    <t>26.06.20249</t>
+  </si>
+  <si>
+    <t>26.06.202410</t>
+  </si>
+  <si>
+    <t>26.06.202411</t>
+  </si>
+  <si>
+    <t>26.06.202412</t>
   </si>
 </sst>
 </file>
@@ -934,10 +934,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>675</v>
+        <v>890</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2.392</v>
+        <v>3.091</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.949</v>
+        <v>2.865</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>866</v>
+        <v>697</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3.003</v>
+        <v>2.423</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>791</v>
+        <v>550</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2.717</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>676</v>
+        <v>382</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.44</v>
+        <v>1.148</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1.772</v>
+        <v>0.502</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>327</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>1.208</v>
+        <v>0.097</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>0.776</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>0.386</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45455</v>
+        <v>45462</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1210,22 +1210,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45455</v>
+        <v>45463</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>20</v>
       </c>
-      <c r="C14">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
       <c r="E14">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45455</v>
+        <v>45463</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45455</v>
+        <v>45463</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45455</v>
+        <v>45463</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1302,19 +1302,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.122</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>555</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1.806</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>701</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.081</v>
+        <v>2.418</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>119</v>
+        <v>812</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.335</v>
+        <v>2.825</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>181</v>
+        <v>881</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.57</v>
+        <v>2.953</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>267</v>
+        <v>902</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.912</v>
+        <v>3.15</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>380</v>
+        <v>880</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.257</v>
+        <v>3.041</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>494</v>
+        <v>811</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.771</v>
+        <v>2.862</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>561</v>
+        <v>703</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.816</v>
+        <v>2.456</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.835</v>
+        <v>1.751</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>545</v>
+        <v>402</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.984</v>
+        <v>1.198</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>498</v>
+        <v>232</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.892</v>
+        <v>0.548</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="E34">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.863</v>
+        <v>0.12</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>343</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.312</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.759</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.426</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45456</v>
+        <v>45464</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45456</v>
+        <v>45464</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45456</v>
+        <v>45464</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45456</v>
+        <v>45464</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
         <v>13</v>
-      </c>
-      <c r="E41">
-        <v>39</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1877,19 +1877,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.489</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.191</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>567</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>62</v>
+        <v>707</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.097</v>
+        <v>2.425</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>166</v>
+        <v>814</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E49">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.454</v>
+        <v>2.871</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>281</v>
+        <v>879</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E50">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.729</v>
+        <v>3.055</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>420</v>
+        <v>897</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.291</v>
+        <v>3.139</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>566</v>
+        <v>867</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.786</v>
+        <v>3.024</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>676</v>
+        <v>790</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2.329</v>
+        <v>2.816</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>752</v>
+        <v>672</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E54">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2.683</v>
+        <v>2.426</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>798</v>
+        <v>525</v>
       </c>
       <c r="D55">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2.793</v>
+        <v>1.799</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>787</v>
+        <v>361</v>
       </c>
       <c r="D56">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>2.825</v>
+        <v>1.124</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>755</v>
+        <v>193</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>2.65</v>
+        <v>0.479</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>642</v>
+        <v>56</v>
       </c>
       <c r="D58">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F58">
-        <v>2.288</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B59">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>498</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>22</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>1.683</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>21</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>1.143</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45457</v>
+        <v>45464</v>
       </c>
       <c r="B61">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>20</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>0.507</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -2314,22 +2314,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45457</v>
+        <v>45465</v>
       </c>
       <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
         <v>20</v>
       </c>
-      <c r="C62">
-        <v>65</v>
-      </c>
-      <c r="D62">
-        <v>18</v>
-      </c>
       <c r="E62">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45457</v>
+        <v>45465</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E63">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45457</v>
+        <v>45465</v>
       </c>
       <c r="B64">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2383,19 +2383,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45457</v>
+        <v>45465</v>
       </c>
       <c r="B65">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E66">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D68">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>208</v>
+      </c>
+      <c r="D69">
+        <v>21</v>
+      </c>
+      <c r="E69">
         <v>3</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>13</v>
-      </c>
-      <c r="E69">
-        <v>17</v>
-      </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E70">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1.085</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>539</v>
       </c>
       <c r="D71">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E71">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1.793</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>84</v>
+        <v>680</v>
       </c>
       <c r="D72">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.145</v>
+        <v>2.411</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>229</v>
+        <v>789</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.488</v>
+        <v>2.768</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>391</v>
+        <v>857</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.058</v>
+        <v>2.914</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>581</v>
+        <v>877</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>2.075</v>
+        <v>3.031</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>731</v>
+        <v>850</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>2.706</v>
+        <v>3.003</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>842</v>
+        <v>776</v>
       </c>
       <c r="D77">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>2.957</v>
+        <v>2.813</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>910</v>
+        <v>658</v>
       </c>
       <c r="D78">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>3.257</v>
+        <v>2.204</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>932</v>
+        <v>480</v>
       </c>
       <c r="D79">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>3.314</v>
+        <v>1.605</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B80">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>903</v>
+        <v>301</v>
       </c>
       <c r="D80">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F80">
-        <v>3.295</v>
+        <v>0.984</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B81">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>826</v>
+        <v>153</v>
       </c>
       <c r="D81">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F81">
-        <v>2.996</v>
+        <v>0.408</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B82">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>706</v>
+        <v>44</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F82">
-        <v>2.467</v>
+        <v>0.079</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B83">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>556</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>25</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F83">
-        <v>1.797</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C84">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D84">
+        <v>24</v>
+      </c>
+      <c r="E84">
         <v>25</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
       <c r="F84">
-        <v>1.154</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45458</v>
+        <v>45465</v>
       </c>
       <c r="B85">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="D85">
+        <v>23</v>
+      </c>
+      <c r="E85">
         <v>24</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
       <c r="F85">
-        <v>0.535</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45458</v>
+        <v>45466</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F86">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
         <v>91</v>
@@ -2889,19 +2889,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45458</v>
+        <v>45466</v>
       </c>
       <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
         <v>21</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <v>19</v>
-      </c>
       <c r="E87">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45458</v>
+        <v>45466</v>
       </c>
       <c r="B88">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45458</v>
+        <v>45466</v>
       </c>
       <c r="B89">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E89">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E91">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E92">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D93">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E93">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E94">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1.083</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>535</v>
       </c>
       <c r="D95">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E95">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1.793</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>71</v>
+        <v>678</v>
       </c>
       <c r="D96">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.125</v>
+        <v>2.411</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>194</v>
+        <v>788</v>
       </c>
       <c r="D97">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E97">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.37</v>
+        <v>2.722</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>346</v>
+        <v>852</v>
       </c>
       <c r="D98">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E98">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.968</v>
+        <v>2.924</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>520</v>
+        <v>838</v>
       </c>
       <c r="D99">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F99">
-        <v>1.783</v>
+        <v>2.803</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>685</v>
+        <v>786</v>
       </c>
       <c r="D100">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F100">
-        <v>2.407</v>
+        <v>2.506</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>819</v>
+        <v>714</v>
       </c>
       <c r="D101">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F101">
-        <v>2.932</v>
+        <v>2.315</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B102">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>881</v>
+        <v>594</v>
       </c>
       <c r="D102">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F102">
-        <v>3.071</v>
+        <v>2.016</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>876</v>
+        <v>445</v>
       </c>
       <c r="D103">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F103">
-        <v>3.008</v>
+        <v>1.572</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B104">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>818</v>
+        <v>309</v>
       </c>
       <c r="D104">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F104">
-        <v>2.819</v>
+        <v>1.029</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B105">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>755</v>
+        <v>180</v>
       </c>
       <c r="D105">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F105">
-        <v>2.681</v>
+        <v>0.496</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B106">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>631</v>
+        <v>58</v>
       </c>
       <c r="D106">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E106">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F106">
-        <v>2.033</v>
+        <v>0.09</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B107">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E107">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F107">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B108">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C108">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E108">
         <v>14</v>
       </c>
       <c r="F108">
-        <v>1.123</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B109">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>22</v>
       </c>
       <c r="E109">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F109">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
@@ -3418,22 +3418,22 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45459</v>
+        <v>45467</v>
       </c>
       <c r="B110">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E110">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F110">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>115</v>
@@ -3441,19 +3441,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45459</v>
+        <v>45467</v>
       </c>
       <c r="B111">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E111">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3464,16 +3464,16 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45459</v>
+        <v>45467</v>
       </c>
       <c r="B112">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E112">
         <v>20</v>
@@ -3487,16 +3487,16 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45459</v>
+        <v>45467</v>
       </c>
       <c r="B113">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -3510,19 +3510,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E114">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3533,19 +3533,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E115">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D116">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E116">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D117">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.366</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="D118">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.972</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>514</v>
       </c>
       <c r="D119">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1.651</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>82</v>
+        <v>686</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>0.111</v>
+        <v>2.383</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>228</v>
+        <v>802</v>
       </c>
       <c r="D121">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0.446</v>
+        <v>2.8</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3694,22 +3694,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>398</v>
+        <v>855</v>
       </c>
       <c r="D122">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.169</v>
+        <v>2.9</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>563</v>
+        <v>826</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F123">
-        <v>1.839</v>
+        <v>2.779</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>708</v>
+        <v>760</v>
       </c>
       <c r="D124">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F124">
-        <v>2.425</v>
+        <v>2.479</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>818</v>
+        <v>687</v>
       </c>
       <c r="D125">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F125">
-        <v>2.871</v>
+        <v>2.325</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>882</v>
+        <v>582</v>
       </c>
       <c r="D126">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F126">
-        <v>3.071</v>
+        <v>2.036</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>902</v>
+        <v>444</v>
       </c>
       <c r="D127">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F127">
-        <v>3.259</v>
+        <v>1.595</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3832,22 +3832,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>875</v>
+        <v>297</v>
       </c>
       <c r="D128">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F128">
-        <v>3.151</v>
+        <v>0.999</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3855,22 +3855,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B129">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>804</v>
+        <v>160</v>
       </c>
       <c r="D129">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F129">
-        <v>2.868</v>
+        <v>0.52</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -3878,22 +3878,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>691</v>
+        <v>50</v>
       </c>
       <c r="D130">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F130">
-        <v>2.462</v>
+        <v>0.077</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C131">
-        <v>545</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F131">
-        <v>1.813</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -3924,22 +3924,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B132">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F132">
-        <v>1.154</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -3947,22 +3947,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B133">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C133">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F133">
-        <v>0.512</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
@@ -3970,22 +3970,22 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45460</v>
+        <v>45468</v>
       </c>
       <c r="B134">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>20</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F134">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="G134" t="s">
         <v>139</v>
@@ -3993,19 +3993,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45460</v>
+        <v>45468</v>
       </c>
       <c r="B135">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>19</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4016,19 +4016,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45460</v>
+        <v>45468</v>
       </c>
       <c r="B136">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45460</v>
+        <v>45468</v>
       </c>
       <c r="B137">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>18</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4085,19 +4085,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D139">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4108,22 +4108,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D140">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="G140" t="s">
         <v>145</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141">
         <v>16</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="D142">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>0.944</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>479</v>
       </c>
       <c r="D143">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1.578</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>90</v>
+        <v>614</v>
       </c>
       <c r="D144">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F144">
-        <v>0.14</v>
+        <v>1.953</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>240</v>
+        <v>715</v>
       </c>
       <c r="D145">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F145">
-        <v>0.487</v>
+        <v>2.36</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>408</v>
+        <v>759</v>
       </c>
       <c r="D146">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F146">
-        <v>1.225</v>
+        <v>2.56</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>572</v>
+        <v>782</v>
       </c>
       <c r="D147">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F147">
-        <v>1.954</v>
+        <v>2.626</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4292,22 +4292,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>714</v>
+        <v>761</v>
       </c>
       <c r="D148">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F148">
-        <v>2.496</v>
+        <v>2.479</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B149">
+        <v>15</v>
+      </c>
+      <c r="C149">
+        <v>705</v>
+      </c>
+      <c r="D149">
+        <v>30</v>
+      </c>
+      <c r="E149">
         <v>11</v>
       </c>
-      <c r="C149">
-        <v>824</v>
-      </c>
-      <c r="D149">
-        <v>24</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
       <c r="F149">
-        <v>2.914</v>
+        <v>2.296</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4338,22 +4338,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B150">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>891</v>
+        <v>594</v>
       </c>
       <c r="D150">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F150">
-        <v>3.111</v>
+        <v>2.016</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B151">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>912</v>
+        <v>454</v>
       </c>
       <c r="D151">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F151">
-        <v>3.15</v>
+        <v>1.625</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B152">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>884</v>
+        <v>302</v>
       </c>
       <c r="D152">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F152">
-        <v>3.064</v>
+        <v>0.998</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B153">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C153">
-        <v>806</v>
+        <v>158</v>
       </c>
       <c r="D153">
         <v>26</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F153">
-        <v>2.868</v>
+        <v>0.526</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B154">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C154">
-        <v>690</v>
+        <v>49</v>
       </c>
       <c r="D154">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F154">
-        <v>2.459</v>
+        <v>0.079</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B155">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C155">
-        <v>543</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F155">
-        <v>1.815</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B156">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C156">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F156">
-        <v>1.154</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45461</v>
+        <v>45468</v>
       </c>
       <c r="B157">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F157">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
         <v>162</v>
@@ -4522,22 +4522,22 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45461</v>
+        <v>45469</v>
       </c>
       <c r="B158">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F158">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G158" t="s">
         <v>163</v>
@@ -4545,19 +4545,19 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45461</v>
+        <v>45469</v>
       </c>
       <c r="B159">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4568,19 +4568,19 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45461</v>
+        <v>45469</v>
       </c>
       <c r="B160">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45461</v>
+        <v>45469</v>
       </c>
       <c r="B161">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>18</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4614,19 +4614,19 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4637,19 +4637,19 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D164">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="G164" t="s">
         <v>169</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D165">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="D166">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>437</v>
       </c>
       <c r="D167">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E167">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1.512</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="B168">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>83</v>
+        <v>571</v>
       </c>
       <c r="D168">
+        <v>25</v>
+      </c>
+      <c r="E168">
         <v>16</v>
       </c>
-      <c r="E168">
-        <v>9</v>
-      </c>
       <c r="F168">
-        <v>0.151</v>
+        <v>1.783</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="B169">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>242</v>
+        <v>671</v>
       </c>
       <c r="D169">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F169">
-        <v>0.489</v>
+        <v>2.185</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45462</v>
+        <v>45469</v>
       </c>
       <c r="B170">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>413</v>
+        <v>705</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F170">
-        <v>1.229</v>
+        <v>2.205</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,511 +37,511 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.06.202412</t>
-  </si>
-  <si>
-    <t>19.06.202413</t>
-  </si>
-  <si>
-    <t>19.06.202414</t>
-  </si>
-  <si>
-    <t>19.06.202415</t>
-  </si>
-  <si>
-    <t>19.06.202416</t>
-  </si>
-  <si>
-    <t>19.06.202417</t>
-  </si>
-  <si>
-    <t>19.06.202418</t>
-  </si>
-  <si>
-    <t>19.06.202419</t>
-  </si>
-  <si>
-    <t>19.06.202420</t>
-  </si>
-  <si>
-    <t>19.06.202421</t>
-  </si>
-  <si>
-    <t>19.06.202422</t>
-  </si>
-  <si>
-    <t>19.06.202423</t>
-  </si>
-  <si>
-    <t>20.06.20240</t>
-  </si>
-  <si>
-    <t>20.06.20241</t>
-  </si>
-  <si>
-    <t>20.06.20242</t>
-  </si>
-  <si>
-    <t>20.06.20243</t>
-  </si>
-  <si>
-    <t>20.06.20244</t>
-  </si>
-  <si>
-    <t>20.06.20245</t>
-  </si>
-  <si>
-    <t>20.06.20246</t>
-  </si>
-  <si>
-    <t>20.06.20247</t>
-  </si>
-  <si>
-    <t>20.06.20248</t>
-  </si>
-  <si>
-    <t>20.06.20249</t>
-  </si>
-  <si>
-    <t>20.06.202410</t>
-  </si>
-  <si>
-    <t>20.06.202411</t>
-  </si>
-  <si>
-    <t>20.06.202412</t>
-  </si>
-  <si>
-    <t>20.06.202413</t>
-  </si>
-  <si>
-    <t>20.06.202414</t>
-  </si>
-  <si>
-    <t>20.06.202415</t>
-  </si>
-  <si>
-    <t>20.06.202416</t>
-  </si>
-  <si>
-    <t>20.06.202417</t>
-  </si>
-  <si>
-    <t>20.06.202418</t>
-  </si>
-  <si>
-    <t>20.06.202419</t>
-  </si>
-  <si>
-    <t>20.06.202420</t>
-  </si>
-  <si>
-    <t>20.06.202421</t>
-  </si>
-  <si>
-    <t>20.06.202422</t>
-  </si>
-  <si>
-    <t>20.06.202423</t>
-  </si>
-  <si>
-    <t>21.06.20240</t>
-  </si>
-  <si>
-    <t>21.06.20241</t>
-  </si>
-  <si>
-    <t>21.06.20242</t>
-  </si>
-  <si>
-    <t>21.06.20243</t>
-  </si>
-  <si>
-    <t>21.06.20244</t>
-  </si>
-  <si>
-    <t>21.06.20245</t>
-  </si>
-  <si>
-    <t>21.06.20246</t>
-  </si>
-  <si>
-    <t>21.06.20247</t>
-  </si>
-  <si>
-    <t>21.06.20248</t>
-  </si>
-  <si>
-    <t>21.06.20249</t>
-  </si>
-  <si>
-    <t>21.06.202410</t>
-  </si>
-  <si>
-    <t>21.06.202411</t>
-  </si>
-  <si>
-    <t>21.06.202412</t>
-  </si>
-  <si>
-    <t>21.06.202413</t>
-  </si>
-  <si>
-    <t>21.06.202414</t>
-  </si>
-  <si>
-    <t>21.06.202415</t>
-  </si>
-  <si>
-    <t>21.06.202416</t>
-  </si>
-  <si>
-    <t>21.06.202417</t>
-  </si>
-  <si>
-    <t>21.06.202418</t>
-  </si>
-  <si>
-    <t>21.06.202419</t>
-  </si>
-  <si>
-    <t>21.06.202420</t>
-  </si>
-  <si>
-    <t>21.06.202421</t>
-  </si>
-  <si>
-    <t>21.06.202422</t>
-  </si>
-  <si>
-    <t>21.06.202423</t>
-  </si>
-  <si>
-    <t>22.06.20240</t>
-  </si>
-  <si>
-    <t>22.06.20241</t>
-  </si>
-  <si>
-    <t>22.06.20242</t>
-  </si>
-  <si>
-    <t>22.06.20243</t>
-  </si>
-  <si>
-    <t>22.06.20244</t>
-  </si>
-  <si>
-    <t>22.06.20245</t>
-  </si>
-  <si>
-    <t>22.06.20246</t>
-  </si>
-  <si>
-    <t>22.06.20247</t>
-  </si>
-  <si>
-    <t>22.06.20248</t>
-  </si>
-  <si>
-    <t>22.06.20249</t>
-  </si>
-  <si>
-    <t>22.06.202410</t>
-  </si>
-  <si>
-    <t>22.06.202411</t>
-  </si>
-  <si>
-    <t>22.06.202412</t>
-  </si>
-  <si>
-    <t>22.06.202413</t>
-  </si>
-  <si>
-    <t>22.06.202414</t>
-  </si>
-  <si>
-    <t>22.06.202415</t>
-  </si>
-  <si>
-    <t>22.06.202416</t>
-  </si>
-  <si>
-    <t>22.06.202417</t>
-  </si>
-  <si>
-    <t>22.06.202418</t>
-  </si>
-  <si>
-    <t>22.06.202419</t>
-  </si>
-  <si>
-    <t>22.06.202420</t>
-  </si>
-  <si>
-    <t>22.06.202421</t>
-  </si>
-  <si>
-    <t>22.06.202422</t>
-  </si>
-  <si>
-    <t>22.06.202423</t>
-  </si>
-  <si>
-    <t>23.06.20240</t>
-  </si>
-  <si>
-    <t>23.06.20241</t>
-  </si>
-  <si>
-    <t>23.06.20242</t>
-  </si>
-  <si>
-    <t>23.06.20243</t>
-  </si>
-  <si>
-    <t>23.06.20244</t>
-  </si>
-  <si>
-    <t>23.06.20245</t>
-  </si>
-  <si>
-    <t>23.06.20246</t>
-  </si>
-  <si>
-    <t>23.06.20247</t>
-  </si>
-  <si>
-    <t>23.06.20248</t>
-  </si>
-  <si>
-    <t>23.06.20249</t>
-  </si>
-  <si>
-    <t>23.06.202410</t>
-  </si>
-  <si>
-    <t>23.06.202411</t>
-  </si>
-  <si>
-    <t>23.06.202412</t>
-  </si>
-  <si>
-    <t>23.06.202413</t>
-  </si>
-  <si>
-    <t>23.06.202414</t>
-  </si>
-  <si>
-    <t>23.06.202415</t>
-  </si>
-  <si>
-    <t>23.06.202416</t>
-  </si>
-  <si>
-    <t>23.06.202417</t>
-  </si>
-  <si>
-    <t>23.06.202418</t>
-  </si>
-  <si>
-    <t>23.06.202419</t>
-  </si>
-  <si>
-    <t>23.06.202420</t>
-  </si>
-  <si>
-    <t>23.06.202421</t>
-  </si>
-  <si>
-    <t>23.06.202422</t>
-  </si>
-  <si>
-    <t>23.06.202423</t>
-  </si>
-  <si>
-    <t>24.06.20240</t>
-  </si>
-  <si>
-    <t>24.06.20241</t>
-  </si>
-  <si>
-    <t>24.06.20242</t>
-  </si>
-  <si>
-    <t>24.06.20243</t>
-  </si>
-  <si>
-    <t>24.06.20244</t>
-  </si>
-  <si>
-    <t>24.06.20245</t>
-  </si>
-  <si>
-    <t>24.06.20246</t>
-  </si>
-  <si>
-    <t>24.06.20247</t>
-  </si>
-  <si>
-    <t>24.06.20248</t>
-  </si>
-  <si>
-    <t>24.06.20249</t>
-  </si>
-  <si>
-    <t>24.06.202410</t>
-  </si>
-  <si>
-    <t>24.06.202411</t>
-  </si>
-  <si>
-    <t>24.06.202412</t>
-  </si>
-  <si>
-    <t>24.06.202413</t>
-  </si>
-  <si>
-    <t>24.06.202414</t>
-  </si>
-  <si>
-    <t>24.06.202415</t>
-  </si>
-  <si>
-    <t>24.06.202416</t>
-  </si>
-  <si>
-    <t>24.06.202417</t>
-  </si>
-  <si>
-    <t>24.06.202418</t>
-  </si>
-  <si>
-    <t>24.06.202419</t>
-  </si>
-  <si>
-    <t>24.06.202420</t>
-  </si>
-  <si>
-    <t>24.06.202421</t>
-  </si>
-  <si>
-    <t>24.06.202422</t>
-  </si>
-  <si>
-    <t>24.06.202423</t>
-  </si>
-  <si>
-    <t>25.06.20240</t>
-  </si>
-  <si>
-    <t>25.06.20241</t>
-  </si>
-  <si>
-    <t>25.06.20242</t>
-  </si>
-  <si>
-    <t>25.06.20243</t>
-  </si>
-  <si>
-    <t>25.06.20244</t>
-  </si>
-  <si>
-    <t>25.06.20245</t>
-  </si>
-  <si>
-    <t>25.06.20246</t>
-  </si>
-  <si>
-    <t>25.06.20247</t>
-  </si>
-  <si>
-    <t>25.06.20248</t>
-  </si>
-  <si>
-    <t>25.06.20249</t>
-  </si>
-  <si>
-    <t>25.06.202410</t>
-  </si>
-  <si>
-    <t>25.06.202411</t>
-  </si>
-  <si>
-    <t>25.06.202412</t>
-  </si>
-  <si>
-    <t>25.06.202413</t>
-  </si>
-  <si>
-    <t>25.06.202414</t>
-  </si>
-  <si>
-    <t>25.06.202415</t>
-  </si>
-  <si>
-    <t>25.06.202416</t>
-  </si>
-  <si>
-    <t>25.06.202417</t>
-  </si>
-  <si>
-    <t>25.06.202418</t>
-  </si>
-  <si>
-    <t>25.06.202419</t>
-  </si>
-  <si>
-    <t>25.06.202420</t>
-  </si>
-  <si>
-    <t>25.06.202421</t>
-  </si>
-  <si>
-    <t>25.06.202422</t>
-  </si>
-  <si>
-    <t>25.06.202423</t>
-  </si>
-  <si>
-    <t>26.06.20240</t>
-  </si>
-  <si>
-    <t>26.06.20241</t>
-  </si>
-  <si>
-    <t>26.06.20242</t>
-  </si>
-  <si>
-    <t>26.06.20243</t>
-  </si>
-  <si>
-    <t>26.06.20244</t>
-  </si>
-  <si>
-    <t>26.06.20245</t>
-  </si>
-  <si>
-    <t>26.06.20246</t>
-  </si>
-  <si>
-    <t>26.06.20247</t>
-  </si>
-  <si>
-    <t>26.06.20248</t>
-  </si>
-  <si>
-    <t>26.06.20249</t>
-  </si>
-  <si>
-    <t>26.06.202410</t>
-  </si>
-  <si>
-    <t>26.06.202411</t>
-  </si>
-  <si>
-    <t>26.06.202412</t>
+    <t>01.07.20249</t>
+  </si>
+  <si>
+    <t>01.07.202410</t>
+  </si>
+  <si>
+    <t>01.07.202411</t>
+  </si>
+  <si>
+    <t>01.07.202412</t>
+  </si>
+  <si>
+    <t>01.07.202413</t>
+  </si>
+  <si>
+    <t>01.07.202414</t>
+  </si>
+  <si>
+    <t>01.07.202415</t>
+  </si>
+  <si>
+    <t>01.07.202416</t>
+  </si>
+  <si>
+    <t>01.07.202417</t>
+  </si>
+  <si>
+    <t>01.07.202418</t>
+  </si>
+  <si>
+    <t>01.07.202419</t>
+  </si>
+  <si>
+    <t>01.07.202420</t>
+  </si>
+  <si>
+    <t>01.07.202421</t>
+  </si>
+  <si>
+    <t>01.07.202422</t>
+  </si>
+  <si>
+    <t>01.07.202423</t>
+  </si>
+  <si>
+    <t>02.07.20240</t>
+  </si>
+  <si>
+    <t>02.07.20241</t>
+  </si>
+  <si>
+    <t>02.07.20242</t>
+  </si>
+  <si>
+    <t>02.07.20243</t>
+  </si>
+  <si>
+    <t>02.07.20244</t>
+  </si>
+  <si>
+    <t>02.07.20245</t>
+  </si>
+  <si>
+    <t>02.07.20246</t>
+  </si>
+  <si>
+    <t>02.07.20247</t>
+  </si>
+  <si>
+    <t>02.07.20248</t>
+  </si>
+  <si>
+    <t>02.07.20249</t>
+  </si>
+  <si>
+    <t>02.07.202410</t>
+  </si>
+  <si>
+    <t>02.07.202411</t>
+  </si>
+  <si>
+    <t>02.07.202412</t>
+  </si>
+  <si>
+    <t>02.07.202413</t>
+  </si>
+  <si>
+    <t>02.07.202414</t>
+  </si>
+  <si>
+    <t>02.07.202415</t>
+  </si>
+  <si>
+    <t>02.07.202416</t>
+  </si>
+  <si>
+    <t>02.07.202417</t>
+  </si>
+  <si>
+    <t>02.07.202418</t>
+  </si>
+  <si>
+    <t>02.07.202419</t>
+  </si>
+  <si>
+    <t>02.07.202420</t>
+  </si>
+  <si>
+    <t>02.07.202421</t>
+  </si>
+  <si>
+    <t>02.07.202422</t>
+  </si>
+  <si>
+    <t>02.07.202423</t>
+  </si>
+  <si>
+    <t>03.07.20240</t>
+  </si>
+  <si>
+    <t>03.07.20241</t>
+  </si>
+  <si>
+    <t>03.07.20242</t>
+  </si>
+  <si>
+    <t>03.07.20243</t>
+  </si>
+  <si>
+    <t>03.07.20244</t>
+  </si>
+  <si>
+    <t>03.07.20245</t>
+  </si>
+  <si>
+    <t>03.07.20246</t>
+  </si>
+  <si>
+    <t>03.07.20247</t>
+  </si>
+  <si>
+    <t>03.07.20248</t>
+  </si>
+  <si>
+    <t>03.07.20249</t>
+  </si>
+  <si>
+    <t>03.07.202410</t>
+  </si>
+  <si>
+    <t>03.07.202411</t>
+  </si>
+  <si>
+    <t>03.07.202412</t>
+  </si>
+  <si>
+    <t>03.07.202413</t>
+  </si>
+  <si>
+    <t>03.07.202414</t>
+  </si>
+  <si>
+    <t>03.07.202415</t>
+  </si>
+  <si>
+    <t>03.07.202416</t>
+  </si>
+  <si>
+    <t>03.07.202417</t>
+  </si>
+  <si>
+    <t>03.07.202418</t>
+  </si>
+  <si>
+    <t>03.07.202419</t>
+  </si>
+  <si>
+    <t>03.07.202420</t>
+  </si>
+  <si>
+    <t>03.07.202421</t>
+  </si>
+  <si>
+    <t>03.07.202422</t>
+  </si>
+  <si>
+    <t>03.07.202423</t>
+  </si>
+  <si>
+    <t>04.07.20240</t>
+  </si>
+  <si>
+    <t>04.07.20241</t>
+  </si>
+  <si>
+    <t>04.07.20242</t>
+  </si>
+  <si>
+    <t>04.07.20243</t>
+  </si>
+  <si>
+    <t>04.07.20244</t>
+  </si>
+  <si>
+    <t>04.07.20245</t>
+  </si>
+  <si>
+    <t>04.07.20246</t>
+  </si>
+  <si>
+    <t>04.07.20247</t>
+  </si>
+  <si>
+    <t>04.07.20248</t>
+  </si>
+  <si>
+    <t>04.07.20249</t>
+  </si>
+  <si>
+    <t>04.07.202410</t>
+  </si>
+  <si>
+    <t>04.07.202411</t>
+  </si>
+  <si>
+    <t>04.07.202412</t>
+  </si>
+  <si>
+    <t>04.07.202413</t>
+  </si>
+  <si>
+    <t>04.07.202414</t>
+  </si>
+  <si>
+    <t>04.07.202415</t>
+  </si>
+  <si>
+    <t>04.07.202416</t>
+  </si>
+  <si>
+    <t>04.07.202417</t>
+  </si>
+  <si>
+    <t>04.07.202418</t>
+  </si>
+  <si>
+    <t>04.07.202419</t>
+  </si>
+  <si>
+    <t>04.07.202420</t>
+  </si>
+  <si>
+    <t>04.07.202421</t>
+  </si>
+  <si>
+    <t>04.07.202422</t>
+  </si>
+  <si>
+    <t>04.07.202423</t>
+  </si>
+  <si>
+    <t>05.07.20240</t>
+  </si>
+  <si>
+    <t>05.07.20241</t>
+  </si>
+  <si>
+    <t>05.07.20242</t>
+  </si>
+  <si>
+    <t>05.07.20243</t>
+  </si>
+  <si>
+    <t>05.07.20244</t>
+  </si>
+  <si>
+    <t>05.07.20245</t>
+  </si>
+  <si>
+    <t>05.07.20246</t>
+  </si>
+  <si>
+    <t>05.07.20247</t>
+  </si>
+  <si>
+    <t>05.07.20248</t>
+  </si>
+  <si>
+    <t>05.07.20249</t>
+  </si>
+  <si>
+    <t>05.07.202410</t>
+  </si>
+  <si>
+    <t>05.07.202411</t>
+  </si>
+  <si>
+    <t>05.07.202412</t>
+  </si>
+  <si>
+    <t>05.07.202413</t>
+  </si>
+  <si>
+    <t>05.07.202414</t>
+  </si>
+  <si>
+    <t>05.07.202415</t>
+  </si>
+  <si>
+    <t>05.07.202416</t>
+  </si>
+  <si>
+    <t>05.07.202417</t>
+  </si>
+  <si>
+    <t>05.07.202418</t>
+  </si>
+  <si>
+    <t>05.07.202419</t>
+  </si>
+  <si>
+    <t>05.07.202420</t>
+  </si>
+  <si>
+    <t>05.07.202421</t>
+  </si>
+  <si>
+    <t>05.07.202422</t>
+  </si>
+  <si>
+    <t>05.07.202423</t>
+  </si>
+  <si>
+    <t>06.07.20240</t>
+  </si>
+  <si>
+    <t>06.07.20241</t>
+  </si>
+  <si>
+    <t>06.07.20242</t>
+  </si>
+  <si>
+    <t>06.07.20243</t>
+  </si>
+  <si>
+    <t>06.07.20244</t>
+  </si>
+  <si>
+    <t>06.07.20245</t>
+  </si>
+  <si>
+    <t>06.07.20246</t>
+  </si>
+  <si>
+    <t>06.07.20247</t>
+  </si>
+  <si>
+    <t>06.07.20248</t>
+  </si>
+  <si>
+    <t>06.07.20249</t>
+  </si>
+  <si>
+    <t>06.07.202410</t>
+  </si>
+  <si>
+    <t>06.07.202411</t>
+  </si>
+  <si>
+    <t>06.07.202412</t>
+  </si>
+  <si>
+    <t>06.07.202413</t>
+  </si>
+  <si>
+    <t>06.07.202414</t>
+  </si>
+  <si>
+    <t>06.07.202415</t>
+  </si>
+  <si>
+    <t>06.07.202416</t>
+  </si>
+  <si>
+    <t>06.07.202417</t>
+  </si>
+  <si>
+    <t>06.07.202418</t>
+  </si>
+  <si>
+    <t>06.07.202419</t>
+  </si>
+  <si>
+    <t>06.07.202420</t>
+  </si>
+  <si>
+    <t>06.07.202421</t>
+  </si>
+  <si>
+    <t>06.07.202422</t>
+  </si>
+  <si>
+    <t>06.07.202423</t>
+  </si>
+  <si>
+    <t>07.07.20240</t>
+  </si>
+  <si>
+    <t>07.07.20241</t>
+  </si>
+  <si>
+    <t>07.07.20242</t>
+  </si>
+  <si>
+    <t>07.07.20243</t>
+  </si>
+  <si>
+    <t>07.07.20244</t>
+  </si>
+  <si>
+    <t>07.07.20245</t>
+  </si>
+  <si>
+    <t>07.07.20246</t>
+  </si>
+  <si>
+    <t>07.07.20247</t>
+  </si>
+  <si>
+    <t>07.07.20248</t>
+  </si>
+  <si>
+    <t>07.07.20249</t>
+  </si>
+  <si>
+    <t>07.07.202410</t>
+  </si>
+  <si>
+    <t>07.07.202411</t>
+  </si>
+  <si>
+    <t>07.07.202412</t>
+  </si>
+  <si>
+    <t>07.07.202413</t>
+  </si>
+  <si>
+    <t>07.07.202414</t>
+  </si>
+  <si>
+    <t>07.07.202415</t>
+  </si>
+  <si>
+    <t>07.07.202416</t>
+  </si>
+  <si>
+    <t>07.07.202417</t>
+  </si>
+  <si>
+    <t>07.07.202418</t>
+  </si>
+  <si>
+    <t>07.07.202419</t>
+  </si>
+  <si>
+    <t>07.07.202420</t>
+  </si>
+  <si>
+    <t>07.07.202421</t>
+  </si>
+  <si>
+    <t>07.07.202422</t>
+  </si>
+  <si>
+    <t>07.07.202423</t>
+  </si>
+  <si>
+    <t>08.07.20240</t>
+  </si>
+  <si>
+    <t>08.07.20241</t>
+  </si>
+  <si>
+    <t>08.07.20242</t>
+  </si>
+  <si>
+    <t>08.07.20243</t>
+  </si>
+  <si>
+    <t>08.07.20244</t>
+  </si>
+  <si>
+    <t>08.07.20245</t>
+  </si>
+  <si>
+    <t>08.07.20246</t>
+  </si>
+  <si>
+    <t>08.07.20247</t>
+  </si>
+  <si>
+    <t>08.07.20248</t>
+  </si>
+  <si>
+    <t>08.07.20249</t>
   </si>
 </sst>
 </file>
@@ -934,10 +934,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>890</v>
+        <v>789</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.091</v>
+        <v>2.768</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.865</v>
+        <v>2.914</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>697</v>
+        <v>869</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2.423</v>
+        <v>2.939</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>550</v>
+        <v>705</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>1.8</v>
+        <v>2.137</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>382</v>
+        <v>583</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>1.148</v>
+        <v>1.923</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>209</v>
+        <v>541</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>0.502</v>
+        <v>1.777</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>448</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>0.097</v>
+        <v>1.597</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>296</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.028</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.492</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45462</v>
+        <v>45474</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>19</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F20">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F21">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <v>1.122</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>555</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F23">
-        <v>1.806</v>
+        <v>0.061</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>701</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F24">
-        <v>2.418</v>
+        <v>0.183</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>812</v>
+        <v>130</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F25">
-        <v>2.825</v>
+        <v>0.362</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>881</v>
+        <v>191</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F26">
-        <v>2.953</v>
+        <v>0.758</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>902</v>
+        <v>258</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F27">
-        <v>3.15</v>
+        <v>0.962</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>880</v>
+        <v>348</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F28">
-        <v>3.041</v>
+        <v>1.292</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>811</v>
+        <v>398</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F29">
-        <v>2.862</v>
+        <v>1.724</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>703</v>
+        <v>421</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F30">
-        <v>2.456</v>
+        <v>1.687</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>563</v>
+        <v>373</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F31">
-        <v>1.751</v>
+        <v>1.536</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F32">
-        <v>1.198</v>
+        <v>1.227</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>250</v>
+      </c>
+      <c r="D33">
         <v>19</v>
       </c>
-      <c r="C33">
-        <v>232</v>
-      </c>
-      <c r="D33">
-        <v>22</v>
-      </c>
       <c r="E33">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F33">
-        <v>0.548</v>
+        <v>0.899</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F34">
-        <v>0.12</v>
+        <v>0.636</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="D35">
         <v>18</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.307</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D36">
         <v>17</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.157</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45463</v>
+        <v>45475</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45464</v>
+        <v>45475</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45464</v>
+        <v>45475</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45464</v>
+        <v>45475</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1877,19 +1877,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F44">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F45">
-        <v>0.489</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>407</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F46">
-        <v>1.191</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>567</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F47">
-        <v>1.94</v>
+        <v>0.061</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>707</v>
+        <v>76</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F48">
-        <v>2.425</v>
+        <v>0.174</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>814</v>
+        <v>100</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F49">
-        <v>2.871</v>
+        <v>0.286</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>879</v>
+        <v>131</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F50">
-        <v>3.055</v>
+        <v>0.439</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>897</v>
+        <v>157</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F51">
-        <v>3.139</v>
+        <v>0.514</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>190</v>
+      </c>
+      <c r="D52">
         <v>14</v>
       </c>
-      <c r="C52">
-        <v>867</v>
-      </c>
-      <c r="D52">
-        <v>28</v>
-      </c>
       <c r="E52">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F52">
-        <v>3.024</v>
+        <v>0.771</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>790</v>
+        <v>231</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F53">
-        <v>2.816</v>
+        <v>0.784</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>672</v>
+        <v>275</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F54">
-        <v>2.426</v>
+        <v>1.067</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>525</v>
+        <v>258</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F55">
-        <v>1.799</v>
+        <v>0.975</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F56">
-        <v>1.124</v>
+        <v>0.861</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D57">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F57">
-        <v>0.479</v>
+        <v>0.783</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F58">
-        <v>0.08699999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E59">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.459</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45464</v>
+        <v>45476</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E61">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45465</v>
+        <v>45476</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E62">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45465</v>
+        <v>45476</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E63">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45465</v>
+        <v>45476</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2383,19 +2383,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F68">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F69">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>377</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F70">
-        <v>1.085</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>539</v>
+        <v>47</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F71">
-        <v>1.793</v>
+        <v>0.08</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>680</v>
+        <v>128</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F72">
-        <v>2.411</v>
+        <v>0.329</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>789</v>
+        <v>218</v>
       </c>
       <c r="D73">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F73">
-        <v>2.768</v>
+        <v>0.585</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>857</v>
+        <v>304</v>
       </c>
       <c r="D74">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F74">
-        <v>2.914</v>
+        <v>0.995</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>877</v>
+        <v>398</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F75">
-        <v>3.031</v>
+        <v>1.34</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>850</v>
+        <v>480</v>
       </c>
       <c r="D76">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F76">
-        <v>3.003</v>
+        <v>1.717</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>776</v>
+        <v>534</v>
       </c>
       <c r="D77">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F77">
-        <v>2.813</v>
+        <v>1.973</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>658</v>
+        <v>585</v>
       </c>
       <c r="D78">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F78">
-        <v>2.204</v>
+        <v>1.937</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>480</v>
+        <v>565</v>
       </c>
       <c r="D79">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E79">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F79">
-        <v>1.605</v>
+        <v>1.927</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>301</v>
+        <v>540</v>
       </c>
       <c r="D80">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E80">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F80">
-        <v>0.984</v>
+        <v>1.969</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>153</v>
+        <v>498</v>
       </c>
       <c r="D81">
+        <v>22</v>
+      </c>
+      <c r="E81">
         <v>30</v>
       </c>
-      <c r="E81">
-        <v>19</v>
-      </c>
       <c r="F81">
-        <v>0.408</v>
+        <v>1.748</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="D82">
+        <v>22</v>
+      </c>
+      <c r="E82">
         <v>27</v>
       </c>
-      <c r="E82">
-        <v>24</v>
-      </c>
       <c r="F82">
-        <v>0.079</v>
+        <v>1.62</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E83">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1.034</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.469</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45465</v>
+        <v>45477</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D85">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -2866,19 +2866,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45466</v>
+        <v>45477</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E86">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2889,16 +2889,16 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45466</v>
+        <v>45477</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>17</v>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45466</v>
+        <v>45477</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E88">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E89">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>13</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>373</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F94">
-        <v>1.083</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="D95">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F95">
-        <v>1.793</v>
+        <v>0.114</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>678</v>
+        <v>225</v>
       </c>
       <c r="D96">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>2.411</v>
+        <v>0.444</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>788</v>
+        <v>399</v>
       </c>
       <c r="D97">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>2.722</v>
+        <v>1.163</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>852</v>
+        <v>564</v>
       </c>
       <c r="D98">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>2.924</v>
+        <v>1.839</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>838</v>
+        <v>710</v>
       </c>
       <c r="D99">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>2.803</v>
+        <v>2.425</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="D100">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>2.506</v>
+        <v>2.914</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>714</v>
+        <v>890</v>
       </c>
       <c r="D101">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>2.315</v>
+        <v>3.122</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>594</v>
+        <v>913</v>
       </c>
       <c r="D102">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E102">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>2.016</v>
+        <v>3.314</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>445</v>
+        <v>885</v>
       </c>
       <c r="D103">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E103">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.572</v>
+        <v>3.155</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>309</v>
+        <v>816</v>
       </c>
       <c r="D104">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E104">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.029</v>
+        <v>2.926</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>180</v>
+        <v>704</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E105">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.496</v>
+        <v>2.467</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="D106">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E106">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.09</v>
+        <v>1.797</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>393</v>
       </c>
       <c r="D107">
         <v>24</v>
       </c>
       <c r="E107">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1.192</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="D108">
         <v>23</v>
       </c>
       <c r="E108">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.542</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45466</v>
+        <v>45478</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D109">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E109">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
@@ -3418,19 +3418,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45467</v>
+        <v>45478</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E110">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3441,19 +3441,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45467</v>
+        <v>45478</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3464,19 +3464,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45467</v>
+        <v>45478</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3487,19 +3487,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E113">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3510,19 +3510,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E114">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3533,19 +3533,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E115">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E116">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E117">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.366</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E118">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.972</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>514</v>
+        <v>78</v>
       </c>
       <c r="D119">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.651</v>
+        <v>0.106</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>686</v>
+        <v>227</v>
       </c>
       <c r="D120">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>2.383</v>
+        <v>0.446</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>802</v>
+        <v>395</v>
       </c>
       <c r="D121">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>2.8</v>
+        <v>1.127</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3694,22 +3694,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>855</v>
+        <v>560</v>
       </c>
       <c r="D122">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>2.9</v>
+        <v>1.812</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>826</v>
+        <v>704</v>
       </c>
       <c r="D123">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E123">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>2.779</v>
+        <v>2.425</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>760</v>
+        <v>818</v>
       </c>
       <c r="D124">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E124">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>2.479</v>
+        <v>2.871</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>687</v>
+        <v>890</v>
       </c>
       <c r="D125">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E125">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>2.325</v>
+        <v>3.111</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>582</v>
+        <v>913</v>
       </c>
       <c r="D126">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E126">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>2.036</v>
+        <v>3.169</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>444</v>
+        <v>886</v>
       </c>
       <c r="D127">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E127">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.595</v>
+        <v>3.042</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3832,22 +3832,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>297</v>
+        <v>811</v>
       </c>
       <c r="D128">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E128">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.999</v>
+        <v>2.862</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3855,22 +3855,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>160</v>
+        <v>696</v>
       </c>
       <c r="D129">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E129">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.52</v>
+        <v>2.455</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -3878,22 +3878,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="D130">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E130">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.077</v>
+        <v>1.815</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>386</v>
       </c>
       <c r="D131">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E131">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1.151</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -3924,22 +3924,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D132">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E132">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.533</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -3947,22 +3947,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45467</v>
+        <v>45479</v>
       </c>
       <c r="B133">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D133">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E133">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
@@ -3970,19 +3970,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45468</v>
+        <v>45479</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E134">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3993,19 +3993,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45468</v>
+        <v>45479</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E135">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4016,19 +4016,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45468</v>
+        <v>45479</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E136">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4039,19 +4039,19 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E137">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E138">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4085,19 +4085,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E139">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4108,22 +4108,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>18</v>
       </c>
       <c r="E140">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>145</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E141">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.944</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>479</v>
+        <v>73</v>
       </c>
       <c r="D143">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E143">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.578</v>
+        <v>0.099</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>614</v>
+        <v>217</v>
       </c>
       <c r="D144">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E144">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.953</v>
+        <v>0.435</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>715</v>
+        <v>384</v>
       </c>
       <c r="D145">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E145">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>2.36</v>
+        <v>1.089</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>759</v>
+        <v>547</v>
       </c>
       <c r="D146">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E146">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>2.56</v>
+        <v>1.793</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>782</v>
+        <v>689</v>
       </c>
       <c r="D147">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E147">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>2.626</v>
+        <v>2.422</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4292,22 +4292,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B148">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>761</v>
+        <v>798</v>
       </c>
       <c r="D148">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E148">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>2.479</v>
+        <v>2.8</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>705</v>
+        <v>866</v>
       </c>
       <c r="D149">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E149">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>2.296</v>
+        <v>2.969</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4338,22 +4338,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>594</v>
+        <v>889</v>
       </c>
       <c r="D150">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E150">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>2.016</v>
+        <v>3.087</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B151">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>454</v>
+        <v>863</v>
       </c>
       <c r="D151">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E151">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.625</v>
+        <v>2.984</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B152">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>302</v>
+        <v>788</v>
       </c>
       <c r="D152">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E152">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.998</v>
+        <v>2.813</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>158</v>
+        <v>675</v>
       </c>
       <c r="D153">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E153">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.526</v>
+        <v>2.409</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>49</v>
+        <v>528</v>
       </c>
       <c r="D154">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>0.079</v>
+        <v>1.778</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B155">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="D155">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E155">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="D156">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E156">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.485</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45468</v>
+        <v>45480</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E157">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G157" t="s">
         <v>162</v>
@@ -4522,19 +4522,19 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45469</v>
+        <v>45480</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E158">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4545,19 +4545,19 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45469</v>
+        <v>45480</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E159">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4568,19 +4568,19 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45469</v>
+        <v>45480</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E160">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4591,19 +4591,19 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E161">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4614,19 +4614,19 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E162">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4637,19 +4637,19 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E163">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E164">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="G164" t="s">
         <v>169</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>20</v>
       </c>
       <c r="E165">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.421</v>
+        <v>0</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>295</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E166">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F166">
-        <v>0.792</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>437</v>
+        <v>68</v>
       </c>
       <c r="D167">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E167">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F167">
-        <v>1.512</v>
+        <v>0.094</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>571</v>
+        <v>219</v>
       </c>
       <c r="D168">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E168">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.783</v>
+        <v>0.443</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>671</v>
+        <v>386</v>
       </c>
       <c r="D169">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E169">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>2.185</v>
+        <v>1.109</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45469</v>
+        <v>45481</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>705</v>
+        <v>548</v>
       </c>
       <c r="D170">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E170">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>2.205</v>
+        <v>1.801</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,511 +37,511 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>01.07.20249</t>
-  </si>
-  <si>
-    <t>01.07.202410</t>
-  </si>
-  <si>
-    <t>01.07.202411</t>
-  </si>
-  <si>
-    <t>01.07.202412</t>
-  </si>
-  <si>
-    <t>01.07.202413</t>
-  </si>
-  <si>
-    <t>01.07.202414</t>
-  </si>
-  <si>
-    <t>01.07.202415</t>
-  </si>
-  <si>
-    <t>01.07.202416</t>
-  </si>
-  <si>
-    <t>01.07.202417</t>
-  </si>
-  <si>
-    <t>01.07.202418</t>
-  </si>
-  <si>
-    <t>01.07.202419</t>
-  </si>
-  <si>
-    <t>01.07.202420</t>
-  </si>
-  <si>
-    <t>01.07.202421</t>
-  </si>
-  <si>
-    <t>01.07.202422</t>
-  </si>
-  <si>
-    <t>01.07.202423</t>
-  </si>
-  <si>
-    <t>02.07.20240</t>
-  </si>
-  <si>
-    <t>02.07.20241</t>
-  </si>
-  <si>
-    <t>02.07.20242</t>
-  </si>
-  <si>
-    <t>02.07.20243</t>
-  </si>
-  <si>
-    <t>02.07.20244</t>
-  </si>
-  <si>
-    <t>02.07.20245</t>
-  </si>
-  <si>
-    <t>02.07.20246</t>
-  </si>
-  <si>
-    <t>02.07.20247</t>
-  </si>
-  <si>
-    <t>02.07.20248</t>
-  </si>
-  <si>
-    <t>02.07.20249</t>
-  </si>
-  <si>
-    <t>02.07.202410</t>
-  </si>
-  <si>
-    <t>02.07.202411</t>
-  </si>
-  <si>
-    <t>02.07.202412</t>
-  </si>
-  <si>
-    <t>02.07.202413</t>
-  </si>
-  <si>
-    <t>02.07.202414</t>
-  </si>
-  <si>
-    <t>02.07.202415</t>
-  </si>
-  <si>
-    <t>02.07.202416</t>
-  </si>
-  <si>
-    <t>02.07.202417</t>
-  </si>
-  <si>
-    <t>02.07.202418</t>
-  </si>
-  <si>
-    <t>02.07.202419</t>
-  </si>
-  <si>
-    <t>02.07.202420</t>
-  </si>
-  <si>
-    <t>02.07.202421</t>
-  </si>
-  <si>
-    <t>02.07.202422</t>
-  </si>
-  <si>
-    <t>02.07.202423</t>
-  </si>
-  <si>
-    <t>03.07.20240</t>
-  </si>
-  <si>
-    <t>03.07.20241</t>
-  </si>
-  <si>
-    <t>03.07.20242</t>
-  </si>
-  <si>
-    <t>03.07.20243</t>
-  </si>
-  <si>
-    <t>03.07.20244</t>
-  </si>
-  <si>
-    <t>03.07.20245</t>
-  </si>
-  <si>
-    <t>03.07.20246</t>
-  </si>
-  <si>
-    <t>03.07.20247</t>
-  </si>
-  <si>
-    <t>03.07.20248</t>
-  </si>
-  <si>
-    <t>03.07.20249</t>
-  </si>
-  <si>
-    <t>03.07.202410</t>
-  </si>
-  <si>
-    <t>03.07.202411</t>
-  </si>
-  <si>
-    <t>03.07.202412</t>
-  </si>
-  <si>
-    <t>03.07.202413</t>
-  </si>
-  <si>
-    <t>03.07.202414</t>
-  </si>
-  <si>
-    <t>03.07.202415</t>
-  </si>
-  <si>
-    <t>03.07.202416</t>
-  </si>
-  <si>
-    <t>03.07.202417</t>
-  </si>
-  <si>
-    <t>03.07.202418</t>
-  </si>
-  <si>
-    <t>03.07.202419</t>
-  </si>
-  <si>
-    <t>03.07.202420</t>
-  </si>
-  <si>
-    <t>03.07.202421</t>
-  </si>
-  <si>
-    <t>03.07.202422</t>
-  </si>
-  <si>
-    <t>03.07.202423</t>
-  </si>
-  <si>
-    <t>04.07.20240</t>
-  </si>
-  <si>
-    <t>04.07.20241</t>
-  </si>
-  <si>
-    <t>04.07.20242</t>
-  </si>
-  <si>
-    <t>04.07.20243</t>
-  </si>
-  <si>
-    <t>04.07.20244</t>
-  </si>
-  <si>
-    <t>04.07.20245</t>
-  </si>
-  <si>
-    <t>04.07.20246</t>
-  </si>
-  <si>
-    <t>04.07.20247</t>
-  </si>
-  <si>
-    <t>04.07.20248</t>
-  </si>
-  <si>
-    <t>04.07.20249</t>
-  </si>
-  <si>
-    <t>04.07.202410</t>
-  </si>
-  <si>
-    <t>04.07.202411</t>
-  </si>
-  <si>
-    <t>04.07.202412</t>
-  </si>
-  <si>
-    <t>04.07.202413</t>
-  </si>
-  <si>
-    <t>04.07.202414</t>
-  </si>
-  <si>
-    <t>04.07.202415</t>
-  </si>
-  <si>
-    <t>04.07.202416</t>
-  </si>
-  <si>
-    <t>04.07.202417</t>
-  </si>
-  <si>
-    <t>04.07.202418</t>
-  </si>
-  <si>
-    <t>04.07.202419</t>
-  </si>
-  <si>
-    <t>04.07.202420</t>
-  </si>
-  <si>
-    <t>04.07.202421</t>
-  </si>
-  <si>
-    <t>04.07.202422</t>
-  </si>
-  <si>
-    <t>04.07.202423</t>
-  </si>
-  <si>
-    <t>05.07.20240</t>
-  </si>
-  <si>
-    <t>05.07.20241</t>
-  </si>
-  <si>
-    <t>05.07.20242</t>
-  </si>
-  <si>
-    <t>05.07.20243</t>
-  </si>
-  <si>
-    <t>05.07.20244</t>
-  </si>
-  <si>
-    <t>05.07.20245</t>
-  </si>
-  <si>
-    <t>05.07.20246</t>
-  </si>
-  <si>
-    <t>05.07.20247</t>
-  </si>
-  <si>
-    <t>05.07.20248</t>
-  </si>
-  <si>
-    <t>05.07.20249</t>
-  </si>
-  <si>
-    <t>05.07.202410</t>
-  </si>
-  <si>
-    <t>05.07.202411</t>
-  </si>
-  <si>
-    <t>05.07.202412</t>
-  </si>
-  <si>
-    <t>05.07.202413</t>
-  </si>
-  <si>
-    <t>05.07.202414</t>
-  </si>
-  <si>
-    <t>05.07.202415</t>
-  </si>
-  <si>
-    <t>05.07.202416</t>
-  </si>
-  <si>
-    <t>05.07.202417</t>
-  </si>
-  <si>
-    <t>05.07.202418</t>
-  </si>
-  <si>
-    <t>05.07.202419</t>
-  </si>
-  <si>
-    <t>05.07.202420</t>
-  </si>
-  <si>
-    <t>05.07.202421</t>
-  </si>
-  <si>
-    <t>05.07.202422</t>
-  </si>
-  <si>
-    <t>05.07.202423</t>
-  </si>
-  <si>
-    <t>06.07.20240</t>
-  </si>
-  <si>
-    <t>06.07.20241</t>
-  </si>
-  <si>
-    <t>06.07.20242</t>
-  </si>
-  <si>
-    <t>06.07.20243</t>
-  </si>
-  <si>
-    <t>06.07.20244</t>
-  </si>
-  <si>
-    <t>06.07.20245</t>
-  </si>
-  <si>
-    <t>06.07.20246</t>
-  </si>
-  <si>
-    <t>06.07.20247</t>
-  </si>
-  <si>
-    <t>06.07.20248</t>
-  </si>
-  <si>
-    <t>06.07.20249</t>
-  </si>
-  <si>
-    <t>06.07.202410</t>
-  </si>
-  <si>
-    <t>06.07.202411</t>
-  </si>
-  <si>
-    <t>06.07.202412</t>
-  </si>
-  <si>
-    <t>06.07.202413</t>
-  </si>
-  <si>
-    <t>06.07.202414</t>
-  </si>
-  <si>
-    <t>06.07.202415</t>
-  </si>
-  <si>
-    <t>06.07.202416</t>
-  </si>
-  <si>
-    <t>06.07.202417</t>
-  </si>
-  <si>
-    <t>06.07.202418</t>
-  </si>
-  <si>
-    <t>06.07.202419</t>
-  </si>
-  <si>
-    <t>06.07.202420</t>
-  </si>
-  <si>
-    <t>06.07.202421</t>
-  </si>
-  <si>
-    <t>06.07.202422</t>
-  </si>
-  <si>
-    <t>06.07.202423</t>
-  </si>
-  <si>
-    <t>07.07.20240</t>
-  </si>
-  <si>
-    <t>07.07.20241</t>
-  </si>
-  <si>
-    <t>07.07.20242</t>
-  </si>
-  <si>
-    <t>07.07.20243</t>
-  </si>
-  <si>
-    <t>07.07.20244</t>
-  </si>
-  <si>
-    <t>07.07.20245</t>
-  </si>
-  <si>
-    <t>07.07.20246</t>
-  </si>
-  <si>
-    <t>07.07.20247</t>
-  </si>
-  <si>
-    <t>07.07.20248</t>
-  </si>
-  <si>
-    <t>07.07.20249</t>
-  </si>
-  <si>
-    <t>07.07.202410</t>
-  </si>
-  <si>
-    <t>07.07.202411</t>
-  </si>
-  <si>
-    <t>07.07.202412</t>
-  </si>
-  <si>
-    <t>07.07.202413</t>
-  </si>
-  <si>
-    <t>07.07.202414</t>
-  </si>
-  <si>
-    <t>07.07.202415</t>
-  </si>
-  <si>
-    <t>07.07.202416</t>
-  </si>
-  <si>
-    <t>07.07.202417</t>
-  </si>
-  <si>
-    <t>07.07.202418</t>
-  </si>
-  <si>
-    <t>07.07.202419</t>
-  </si>
-  <si>
-    <t>07.07.202420</t>
-  </si>
-  <si>
-    <t>07.07.202421</t>
-  </si>
-  <si>
-    <t>07.07.202422</t>
-  </si>
-  <si>
-    <t>07.07.202423</t>
-  </si>
-  <si>
-    <t>08.07.20240</t>
-  </si>
-  <si>
-    <t>08.07.20241</t>
-  </si>
-  <si>
-    <t>08.07.20242</t>
-  </si>
-  <si>
-    <t>08.07.20243</t>
-  </si>
-  <si>
-    <t>08.07.20244</t>
-  </si>
-  <si>
-    <t>08.07.20245</t>
-  </si>
-  <si>
-    <t>08.07.20246</t>
-  </si>
-  <si>
-    <t>08.07.20247</t>
-  </si>
-  <si>
-    <t>08.07.20248</t>
-  </si>
-  <si>
-    <t>08.07.20249</t>
+    <t>25.07.202412</t>
+  </si>
+  <si>
+    <t>25.07.202413</t>
+  </si>
+  <si>
+    <t>25.07.202414</t>
+  </si>
+  <si>
+    <t>25.07.202415</t>
+  </si>
+  <si>
+    <t>25.07.202416</t>
+  </si>
+  <si>
+    <t>25.07.202417</t>
+  </si>
+  <si>
+    <t>25.07.202418</t>
+  </si>
+  <si>
+    <t>25.07.202419</t>
+  </si>
+  <si>
+    <t>25.07.202420</t>
+  </si>
+  <si>
+    <t>25.07.202421</t>
+  </si>
+  <si>
+    <t>25.07.202422</t>
+  </si>
+  <si>
+    <t>25.07.202423</t>
+  </si>
+  <si>
+    <t>26.07.20240</t>
+  </si>
+  <si>
+    <t>26.07.20241</t>
+  </si>
+  <si>
+    <t>26.07.20242</t>
+  </si>
+  <si>
+    <t>26.07.20243</t>
+  </si>
+  <si>
+    <t>26.07.20244</t>
+  </si>
+  <si>
+    <t>26.07.20245</t>
+  </si>
+  <si>
+    <t>26.07.20246</t>
+  </si>
+  <si>
+    <t>26.07.20247</t>
+  </si>
+  <si>
+    <t>26.07.20248</t>
+  </si>
+  <si>
+    <t>26.07.20249</t>
+  </si>
+  <si>
+    <t>26.07.202410</t>
+  </si>
+  <si>
+    <t>26.07.202411</t>
+  </si>
+  <si>
+    <t>26.07.202412</t>
+  </si>
+  <si>
+    <t>26.07.202413</t>
+  </si>
+  <si>
+    <t>26.07.202414</t>
+  </si>
+  <si>
+    <t>26.07.202415</t>
+  </si>
+  <si>
+    <t>26.07.202416</t>
+  </si>
+  <si>
+    <t>26.07.202417</t>
+  </si>
+  <si>
+    <t>26.07.202418</t>
+  </si>
+  <si>
+    <t>26.07.202419</t>
+  </si>
+  <si>
+    <t>26.07.202420</t>
+  </si>
+  <si>
+    <t>26.07.202421</t>
+  </si>
+  <si>
+    <t>26.07.202422</t>
+  </si>
+  <si>
+    <t>26.07.202423</t>
+  </si>
+  <si>
+    <t>27.07.20240</t>
+  </si>
+  <si>
+    <t>27.07.20241</t>
+  </si>
+  <si>
+    <t>27.07.20242</t>
+  </si>
+  <si>
+    <t>27.07.20243</t>
+  </si>
+  <si>
+    <t>27.07.20244</t>
+  </si>
+  <si>
+    <t>27.07.20245</t>
+  </si>
+  <si>
+    <t>27.07.20246</t>
+  </si>
+  <si>
+    <t>27.07.20247</t>
+  </si>
+  <si>
+    <t>27.07.20248</t>
+  </si>
+  <si>
+    <t>27.07.20249</t>
+  </si>
+  <si>
+    <t>27.07.202410</t>
+  </si>
+  <si>
+    <t>27.07.202411</t>
+  </si>
+  <si>
+    <t>27.07.202412</t>
+  </si>
+  <si>
+    <t>27.07.202413</t>
+  </si>
+  <si>
+    <t>27.07.202414</t>
+  </si>
+  <si>
+    <t>27.07.202415</t>
+  </si>
+  <si>
+    <t>27.07.202416</t>
+  </si>
+  <si>
+    <t>27.07.202417</t>
+  </si>
+  <si>
+    <t>27.07.202418</t>
+  </si>
+  <si>
+    <t>27.07.202419</t>
+  </si>
+  <si>
+    <t>27.07.202420</t>
+  </si>
+  <si>
+    <t>27.07.202421</t>
+  </si>
+  <si>
+    <t>27.07.202422</t>
+  </si>
+  <si>
+    <t>27.07.202423</t>
+  </si>
+  <si>
+    <t>28.07.20240</t>
+  </si>
+  <si>
+    <t>28.07.20241</t>
+  </si>
+  <si>
+    <t>28.07.20242</t>
+  </si>
+  <si>
+    <t>28.07.20243</t>
+  </si>
+  <si>
+    <t>28.07.20244</t>
+  </si>
+  <si>
+    <t>28.07.20245</t>
+  </si>
+  <si>
+    <t>28.07.20246</t>
+  </si>
+  <si>
+    <t>28.07.20247</t>
+  </si>
+  <si>
+    <t>28.07.20248</t>
+  </si>
+  <si>
+    <t>28.07.20249</t>
+  </si>
+  <si>
+    <t>28.07.202410</t>
+  </si>
+  <si>
+    <t>28.07.202411</t>
+  </si>
+  <si>
+    <t>28.07.202412</t>
+  </si>
+  <si>
+    <t>28.07.202413</t>
+  </si>
+  <si>
+    <t>28.07.202414</t>
+  </si>
+  <si>
+    <t>28.07.202415</t>
+  </si>
+  <si>
+    <t>28.07.202416</t>
+  </si>
+  <si>
+    <t>28.07.202417</t>
+  </si>
+  <si>
+    <t>28.07.202418</t>
+  </si>
+  <si>
+    <t>28.07.202419</t>
+  </si>
+  <si>
+    <t>28.07.202420</t>
+  </si>
+  <si>
+    <t>28.07.202421</t>
+  </si>
+  <si>
+    <t>28.07.202422</t>
+  </si>
+  <si>
+    <t>28.07.202423</t>
+  </si>
+  <si>
+    <t>29.07.20240</t>
+  </si>
+  <si>
+    <t>29.07.20241</t>
+  </si>
+  <si>
+    <t>29.07.20242</t>
+  </si>
+  <si>
+    <t>29.07.20243</t>
+  </si>
+  <si>
+    <t>29.07.20244</t>
+  </si>
+  <si>
+    <t>29.07.20245</t>
+  </si>
+  <si>
+    <t>29.07.20246</t>
+  </si>
+  <si>
+    <t>29.07.20247</t>
+  </si>
+  <si>
+    <t>29.07.20248</t>
+  </si>
+  <si>
+    <t>29.07.20249</t>
+  </si>
+  <si>
+    <t>29.07.202410</t>
+  </si>
+  <si>
+    <t>29.07.202411</t>
+  </si>
+  <si>
+    <t>29.07.202412</t>
+  </si>
+  <si>
+    <t>29.07.202413</t>
+  </si>
+  <si>
+    <t>29.07.202414</t>
+  </si>
+  <si>
+    <t>29.07.202415</t>
+  </si>
+  <si>
+    <t>29.07.202416</t>
+  </si>
+  <si>
+    <t>29.07.202417</t>
+  </si>
+  <si>
+    <t>29.07.202418</t>
+  </si>
+  <si>
+    <t>29.07.202419</t>
+  </si>
+  <si>
+    <t>29.07.202420</t>
+  </si>
+  <si>
+    <t>29.07.202421</t>
+  </si>
+  <si>
+    <t>29.07.202422</t>
+  </si>
+  <si>
+    <t>29.07.202423</t>
+  </si>
+  <si>
+    <t>30.07.20240</t>
+  </si>
+  <si>
+    <t>30.07.20241</t>
+  </si>
+  <si>
+    <t>30.07.20242</t>
+  </si>
+  <si>
+    <t>30.07.20243</t>
+  </si>
+  <si>
+    <t>30.07.20244</t>
+  </si>
+  <si>
+    <t>30.07.20245</t>
+  </si>
+  <si>
+    <t>30.07.20246</t>
+  </si>
+  <si>
+    <t>30.07.20247</t>
+  </si>
+  <si>
+    <t>30.07.20248</t>
+  </si>
+  <si>
+    <t>30.07.20249</t>
+  </si>
+  <si>
+    <t>30.07.202410</t>
+  </si>
+  <si>
+    <t>30.07.202411</t>
+  </si>
+  <si>
+    <t>30.07.202412</t>
+  </si>
+  <si>
+    <t>30.07.202413</t>
+  </si>
+  <si>
+    <t>30.07.202414</t>
+  </si>
+  <si>
+    <t>30.07.202415</t>
+  </si>
+  <si>
+    <t>30.07.202416</t>
+  </si>
+  <si>
+    <t>30.07.202417</t>
+  </si>
+  <si>
+    <t>30.07.202418</t>
+  </si>
+  <si>
+    <t>30.07.202419</t>
+  </si>
+  <si>
+    <t>30.07.202420</t>
+  </si>
+  <si>
+    <t>30.07.202421</t>
+  </si>
+  <si>
+    <t>30.07.202422</t>
+  </si>
+  <si>
+    <t>30.07.202423</t>
+  </si>
+  <si>
+    <t>31.07.20240</t>
+  </si>
+  <si>
+    <t>31.07.20241</t>
+  </si>
+  <si>
+    <t>31.07.20242</t>
+  </si>
+  <si>
+    <t>31.07.20243</t>
+  </si>
+  <si>
+    <t>31.07.20244</t>
+  </si>
+  <si>
+    <t>31.07.20245</t>
+  </si>
+  <si>
+    <t>31.07.20246</t>
+  </si>
+  <si>
+    <t>31.07.20247</t>
+  </si>
+  <si>
+    <t>31.07.20248</t>
+  </si>
+  <si>
+    <t>31.07.20249</t>
+  </si>
+  <si>
+    <t>31.07.202410</t>
+  </si>
+  <si>
+    <t>31.07.202411</t>
+  </si>
+  <si>
+    <t>31.07.202412</t>
+  </si>
+  <si>
+    <t>31.07.202413</t>
+  </si>
+  <si>
+    <t>31.07.202414</t>
+  </si>
+  <si>
+    <t>31.07.202415</t>
+  </si>
+  <si>
+    <t>31.07.202416</t>
+  </si>
+  <si>
+    <t>31.07.202417</t>
+  </si>
+  <si>
+    <t>31.07.202418</t>
+  </si>
+  <si>
+    <t>31.07.202419</t>
+  </si>
+  <si>
+    <t>31.07.202420</t>
+  </si>
+  <si>
+    <t>31.07.202421</t>
+  </si>
+  <si>
+    <t>31.07.202422</t>
+  </si>
+  <si>
+    <t>31.07.202423</t>
+  </si>
+  <si>
+    <t>01.08.20240</t>
+  </si>
+  <si>
+    <t>01.08.20241</t>
+  </si>
+  <si>
+    <t>01.08.20242</t>
+  </si>
+  <si>
+    <t>01.08.20243</t>
+  </si>
+  <si>
+    <t>01.08.20244</t>
+  </si>
+  <si>
+    <t>01.08.20245</t>
+  </si>
+  <si>
+    <t>01.08.20246</t>
+  </si>
+  <si>
+    <t>01.08.20247</t>
+  </si>
+  <si>
+    <t>01.08.20248</t>
+  </si>
+  <si>
+    <t>01.08.20249</t>
+  </si>
+  <si>
+    <t>01.08.202410</t>
+  </si>
+  <si>
+    <t>01.08.202411</t>
+  </si>
+  <si>
+    <t>01.08.202412</t>
   </si>
 </sst>
 </file>
@@ -934,10 +934,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>2.768</v>
+        <v>2.686</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>856</v>
+        <v>623</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>2.914</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>869</v>
+        <v>450</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>2.939</v>
+        <v>1.739</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>705</v>
+        <v>390</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>2.137</v>
+        <v>1.453</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>583</v>
+        <v>271</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>1.923</v>
+        <v>0.917</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>541</v>
+        <v>146</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>1.777</v>
+        <v>0.44</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>448</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>1.597</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>1.028</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>0.492</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45474</v>
+        <v>45498</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45474</v>
+        <v>45499</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45474</v>
+        <v>45499</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45474</v>
+        <v>45499</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1302,19 +1302,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>527</v>
       </c>
       <c r="D23">
         <v>18</v>
       </c>
       <c r="E23">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.061</v>
+        <v>1.762</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>78</v>
+        <v>678</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.183</v>
+        <v>2.437</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>130</v>
+        <v>777</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.362</v>
+        <v>2.705</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>191</v>
+        <v>849</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.758</v>
+        <v>2.914</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>258</v>
+        <v>897</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.962</v>
+        <v>3.261</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>348</v>
+        <v>873</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.292</v>
+        <v>3.151</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>398</v>
+        <v>801</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.724</v>
+        <v>2.868</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>421</v>
+        <v>684</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.687</v>
+        <v>2.458</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>373</v>
+        <v>523</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1.536</v>
+        <v>1.741</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>1.227</v>
+        <v>1.127</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>0.899</v>
+        <v>0.457</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F34">
-        <v>0.636</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>0.157</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45475</v>
+        <v>45499</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>17</v>
       </c>
       <c r="E37">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45475</v>
+        <v>45500</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45475</v>
+        <v>45500</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
         <v>16</v>
-      </c>
-      <c r="E39">
-        <v>30</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45475</v>
+        <v>45500</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1877,19 +1877,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
         <v>16</v>
-      </c>
-      <c r="E43">
-        <v>33</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
         <v>16</v>
       </c>
-      <c r="E44">
-        <v>45</v>
-      </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D45">
         <v>16</v>
       </c>
       <c r="E45">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.007</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>34</v>
+        <v>522</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.061</v>
+        <v>1.753</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>76</v>
+        <v>671</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.174</v>
+        <v>2.34</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>787</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E49">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.286</v>
+        <v>2.797</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>131</v>
+        <v>861</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E50">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.439</v>
+        <v>2.824</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>157</v>
+        <v>888</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.514</v>
+        <v>3.094</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>190</v>
+        <v>864</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.771</v>
+        <v>3.024</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>231</v>
+        <v>790</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E53">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.784</v>
+        <v>2.816</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>275</v>
+        <v>675</v>
       </c>
       <c r="D54">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.067</v>
+        <v>2.426</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>258</v>
+        <v>526</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.975</v>
+        <v>1.799</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.861</v>
+        <v>1.124</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>0.783</v>
+        <v>0.466</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="D58">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>0.626</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.459</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.241</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45476</v>
+        <v>45500</v>
       </c>
       <c r="B61">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
         <v>20</v>
       </c>
-      <c r="C61">
-        <v>35</v>
-      </c>
-      <c r="D61">
-        <v>13</v>
-      </c>
       <c r="E61">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45476</v>
+        <v>45501</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E62">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45476</v>
+        <v>45501</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45476</v>
+        <v>45501</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E64">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2383,19 +2383,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>349</v>
       </c>
       <c r="D70">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E70">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1.014</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>47</v>
+        <v>516</v>
       </c>
       <c r="D71">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E71">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.08</v>
+        <v>1.756</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>128</v>
+        <v>664</v>
       </c>
       <c r="D72">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.329</v>
+        <v>2.322</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>218</v>
+        <v>779</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E73">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.585</v>
+        <v>2.722</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>304</v>
+        <v>854</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E74">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.995</v>
+        <v>2.924</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>398</v>
+        <v>880</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E75">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.34</v>
+        <v>3.031</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>480</v>
+        <v>856</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E76">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.717</v>
+        <v>2.978</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>534</v>
+        <v>784</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E77">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.973</v>
+        <v>2.806</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>585</v>
+        <v>670</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E78">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.937</v>
+        <v>2.218</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>565</v>
+        <v>523</v>
       </c>
       <c r="D79">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E79">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.927</v>
+        <v>1.771</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>540</v>
+        <v>357</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E80">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.969</v>
+        <v>1.062</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>498</v>
+        <v>188</v>
       </c>
       <c r="D81">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.748</v>
+        <v>0.454</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.62</v>
+        <v>0.268</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E83">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.034</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C84">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.469</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45477</v>
+        <v>45501</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E85">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -2866,19 +2866,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45477</v>
+        <v>45502</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E86">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2889,19 +2889,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45477</v>
+        <v>45502</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E87">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45477</v>
+        <v>45502</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="E88">
         <v>16</v>
-      </c>
-      <c r="E88">
-        <v>17</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E89">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E91">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E92">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D93">
+        <v>19</v>
+      </c>
+      <c r="E93">
         <v>15</v>
       </c>
-      <c r="E93">
-        <v>12</v>
-      </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>317</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E94">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.867</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>71</v>
+        <v>485</v>
       </c>
       <c r="D95">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E95">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F95">
-        <v>0.114</v>
+        <v>1.586</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>225</v>
+        <v>651</v>
       </c>
       <c r="D96">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.444</v>
+        <v>2.28</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>399</v>
+        <v>776</v>
       </c>
       <c r="D97">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.163</v>
+        <v>2.793</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>564</v>
+        <v>857</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.839</v>
+        <v>3.028</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>710</v>
+        <v>884</v>
       </c>
       <c r="D99">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>2.425</v>
+        <v>3.038</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>822</v>
+        <v>859</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>2.914</v>
+        <v>2.984</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>890</v>
+        <v>793</v>
       </c>
       <c r="D101">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>3.122</v>
+        <v>2.831</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>913</v>
+        <v>683</v>
       </c>
       <c r="D102">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>3.314</v>
+        <v>2.426</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>885</v>
+        <v>533</v>
       </c>
       <c r="D103">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>3.155</v>
+        <v>1.8</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>816</v>
+        <v>361</v>
       </c>
       <c r="D104">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>2.926</v>
+        <v>1.128</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>704</v>
+        <v>181</v>
       </c>
       <c r="D105">
         <v>25</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F105">
-        <v>2.467</v>
+        <v>0.447</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>558</v>
+        <v>41</v>
       </c>
       <c r="D106">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.797</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.192</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C108">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.542</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45478</v>
+        <v>45502</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E109">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
@@ -3418,16 +3418,16 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45478</v>
+        <v>45503</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3441,16 +3441,16 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45478</v>
+        <v>45503</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3464,16 +3464,16 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45478</v>
+        <v>45503</v>
       </c>
       <c r="B112">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3487,16 +3487,16 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3510,16 +3510,16 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3533,16 +3533,16 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D116">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D117">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>354</v>
       </c>
       <c r="D118">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1.017</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>78</v>
+        <v>529</v>
       </c>
       <c r="D119">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0.106</v>
+        <v>1.787</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>227</v>
+        <v>683</v>
       </c>
       <c r="D120">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0.446</v>
+        <v>2.419</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>395</v>
+        <v>805</v>
       </c>
       <c r="D121">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.127</v>
+        <v>2.816</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3694,22 +3694,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>560</v>
+        <v>884</v>
       </c>
       <c r="D122">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.812</v>
+        <v>3.059</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>704</v>
+        <v>909</v>
       </c>
       <c r="D123">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>2.425</v>
+        <v>3.15</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>818</v>
+        <v>881</v>
       </c>
       <c r="D124">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>2.871</v>
+        <v>3.042</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="D125">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>3.111</v>
+        <v>2.831</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>913</v>
+        <v>684</v>
       </c>
       <c r="D126">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>3.169</v>
+        <v>2.454</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>886</v>
+        <v>528</v>
       </c>
       <c r="D127">
         <v>27</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>3.042</v>
+        <v>1.812</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3832,22 +3832,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>811</v>
+        <v>352</v>
       </c>
       <c r="D128">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>2.862</v>
+        <v>1.131</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3855,22 +3855,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>696</v>
+        <v>175</v>
       </c>
       <c r="D129">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>2.455</v>
+        <v>0.411</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -3878,22 +3878,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>550</v>
+        <v>37</v>
       </c>
       <c r="D130">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.815</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C131">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.151</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -3924,22 +3924,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0.533</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -3947,22 +3947,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45479</v>
+        <v>45503</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C133">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
@@ -3970,16 +3970,16 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45479</v>
+        <v>45504</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3993,16 +3993,16 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45479</v>
+        <v>45504</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4016,16 +4016,16 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45479</v>
+        <v>45504</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4039,16 +4039,16 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4062,16 +4062,16 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -4085,16 +4085,16 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4108,22 +4108,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D140">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="G140" t="s">
         <v>145</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>342</v>
       </c>
       <c r="D142">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1.005</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>73</v>
+        <v>517</v>
       </c>
       <c r="D143">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0.099</v>
+        <v>1.765</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>217</v>
+        <v>672</v>
       </c>
       <c r="D144">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0.435</v>
+        <v>2.419</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>384</v>
+        <v>794</v>
       </c>
       <c r="D145">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.089</v>
+        <v>2.816</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>547</v>
+        <v>872</v>
       </c>
       <c r="D146">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.793</v>
+        <v>2.849</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>689</v>
+        <v>900</v>
       </c>
       <c r="D147">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>2.422</v>
+        <v>3.139</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4292,22 +4292,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>798</v>
+        <v>875</v>
       </c>
       <c r="D148">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2.8</v>
+        <v>3.034</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>866</v>
+        <v>801</v>
       </c>
       <c r="D149">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>2.969</v>
+        <v>2.831</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4338,13 +4338,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>889</v>
+        <v>681</v>
       </c>
       <c r="D150">
         <v>28</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3.087</v>
+        <v>2.426</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>863</v>
+        <v>527</v>
       </c>
       <c r="D151">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>2.984</v>
+        <v>1.799</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>788</v>
+        <v>354</v>
       </c>
       <c r="D152">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2.813</v>
+        <v>1.127</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C153">
-        <v>675</v>
+        <v>179</v>
       </c>
       <c r="D153">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>2.409</v>
+        <v>0.418</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C154">
-        <v>528</v>
+        <v>38</v>
       </c>
       <c r="D154">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.778</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C155">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C156">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E156">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.485</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45480</v>
+        <v>45504</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E157">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
         <v>162</v>
@@ -4522,19 +4522,19 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45480</v>
+        <v>45505</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4545,19 +4545,19 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45480</v>
+        <v>45505</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4568,19 +4568,19 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45480</v>
+        <v>45505</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E160">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4591,19 +4591,19 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E161">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4614,19 +4614,19 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4637,19 +4637,19 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E163">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D164">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="G164" t="s">
         <v>169</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D165">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>0.359</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>342</v>
       </c>
       <c r="D166">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E166">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1.045</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>68</v>
+        <v>517</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E167">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.094</v>
+        <v>1.825</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>219</v>
+        <v>672</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.443</v>
+        <v>2.349</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>386</v>
+        <v>788</v>
       </c>
       <c r="D169">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.109</v>
+        <v>2.717</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>548</v>
+        <v>824</v>
       </c>
       <c r="D170">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F170">
-        <v>1.801</v>
+        <v>2.876</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,357 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>25.07.202412</t>
-  </si>
-  <si>
-    <t>25.07.202413</t>
-  </si>
-  <si>
-    <t>25.07.202414</t>
-  </si>
-  <si>
-    <t>25.07.202415</t>
-  </si>
-  <si>
-    <t>25.07.202416</t>
-  </si>
-  <si>
-    <t>25.07.202417</t>
-  </si>
-  <si>
-    <t>25.07.202418</t>
-  </si>
-  <si>
-    <t>25.07.202419</t>
-  </si>
-  <si>
-    <t>25.07.202420</t>
-  </si>
-  <si>
-    <t>25.07.202421</t>
-  </si>
-  <si>
-    <t>25.07.202422</t>
-  </si>
-  <si>
-    <t>25.07.202423</t>
-  </si>
-  <si>
-    <t>26.07.20240</t>
-  </si>
-  <si>
-    <t>26.07.20241</t>
-  </si>
-  <si>
-    <t>26.07.20242</t>
-  </si>
-  <si>
-    <t>26.07.20243</t>
-  </si>
-  <si>
-    <t>26.07.20244</t>
-  </si>
-  <si>
-    <t>26.07.20245</t>
-  </si>
-  <si>
-    <t>26.07.20246</t>
-  </si>
-  <si>
-    <t>26.07.20247</t>
-  </si>
-  <si>
-    <t>26.07.20248</t>
-  </si>
-  <si>
-    <t>26.07.20249</t>
-  </si>
-  <si>
-    <t>26.07.202410</t>
-  </si>
-  <si>
-    <t>26.07.202411</t>
-  </si>
-  <si>
-    <t>26.07.202412</t>
-  </si>
-  <si>
-    <t>26.07.202413</t>
-  </si>
-  <si>
-    <t>26.07.202414</t>
-  </si>
-  <si>
-    <t>26.07.202415</t>
-  </si>
-  <si>
-    <t>26.07.202416</t>
-  </si>
-  <si>
-    <t>26.07.202417</t>
-  </si>
-  <si>
-    <t>26.07.202418</t>
-  </si>
-  <si>
-    <t>26.07.202419</t>
-  </si>
-  <si>
-    <t>26.07.202420</t>
-  </si>
-  <si>
-    <t>26.07.202421</t>
-  </si>
-  <si>
-    <t>26.07.202422</t>
-  </si>
-  <si>
-    <t>26.07.202423</t>
-  </si>
-  <si>
-    <t>27.07.20240</t>
-  </si>
-  <si>
-    <t>27.07.20241</t>
-  </si>
-  <si>
-    <t>27.07.20242</t>
-  </si>
-  <si>
-    <t>27.07.20243</t>
-  </si>
-  <si>
-    <t>27.07.20244</t>
-  </si>
-  <si>
-    <t>27.07.20245</t>
-  </si>
-  <si>
-    <t>27.07.20246</t>
-  </si>
-  <si>
-    <t>27.07.20247</t>
-  </si>
-  <si>
-    <t>27.07.20248</t>
-  </si>
-  <si>
-    <t>27.07.20249</t>
-  </si>
-  <si>
-    <t>27.07.202410</t>
-  </si>
-  <si>
-    <t>27.07.202411</t>
-  </si>
-  <si>
-    <t>27.07.202412</t>
-  </si>
-  <si>
-    <t>27.07.202413</t>
-  </si>
-  <si>
-    <t>27.07.202414</t>
-  </si>
-  <si>
-    <t>27.07.202415</t>
-  </si>
-  <si>
-    <t>27.07.202416</t>
-  </si>
-  <si>
-    <t>27.07.202417</t>
-  </si>
-  <si>
-    <t>27.07.202418</t>
-  </si>
-  <si>
-    <t>27.07.202419</t>
-  </si>
-  <si>
-    <t>27.07.202420</t>
-  </si>
-  <si>
-    <t>27.07.202421</t>
-  </si>
-  <si>
-    <t>27.07.202422</t>
-  </si>
-  <si>
-    <t>27.07.202423</t>
-  </si>
-  <si>
-    <t>28.07.20240</t>
-  </si>
-  <si>
-    <t>28.07.20241</t>
-  </si>
-  <si>
-    <t>28.07.20242</t>
-  </si>
-  <si>
-    <t>28.07.20243</t>
-  </si>
-  <si>
-    <t>28.07.20244</t>
-  </si>
-  <si>
-    <t>28.07.20245</t>
-  </si>
-  <si>
-    <t>28.07.20246</t>
-  </si>
-  <si>
-    <t>28.07.20247</t>
-  </si>
-  <si>
-    <t>28.07.20248</t>
-  </si>
-  <si>
-    <t>28.07.20249</t>
-  </si>
-  <si>
-    <t>28.07.202410</t>
-  </si>
-  <si>
-    <t>28.07.202411</t>
-  </si>
-  <si>
-    <t>28.07.202412</t>
-  </si>
-  <si>
-    <t>28.07.202413</t>
-  </si>
-  <si>
-    <t>28.07.202414</t>
-  </si>
-  <si>
-    <t>28.07.202415</t>
-  </si>
-  <si>
-    <t>28.07.202416</t>
-  </si>
-  <si>
-    <t>28.07.202417</t>
-  </si>
-  <si>
-    <t>28.07.202418</t>
-  </si>
-  <si>
-    <t>28.07.202419</t>
-  </si>
-  <si>
-    <t>28.07.202420</t>
-  </si>
-  <si>
-    <t>28.07.202421</t>
-  </si>
-  <si>
-    <t>28.07.202422</t>
-  </si>
-  <si>
-    <t>28.07.202423</t>
-  </si>
-  <si>
-    <t>29.07.20240</t>
-  </si>
-  <si>
-    <t>29.07.20241</t>
-  </si>
-  <si>
-    <t>29.07.20242</t>
-  </si>
-  <si>
-    <t>29.07.20243</t>
-  </si>
-  <si>
-    <t>29.07.20244</t>
-  </si>
-  <si>
-    <t>29.07.20245</t>
-  </si>
-  <si>
-    <t>29.07.20246</t>
-  </si>
-  <si>
-    <t>29.07.20247</t>
-  </si>
-  <si>
-    <t>29.07.20248</t>
-  </si>
-  <si>
-    <t>29.07.20249</t>
-  </si>
-  <si>
-    <t>29.07.202410</t>
-  </si>
-  <si>
-    <t>29.07.202411</t>
-  </si>
-  <si>
-    <t>29.07.202412</t>
-  </si>
-  <si>
-    <t>29.07.202413</t>
-  </si>
-  <si>
-    <t>29.07.202414</t>
-  </si>
-  <si>
-    <t>29.07.202415</t>
-  </si>
-  <si>
-    <t>29.07.202416</t>
-  </si>
-  <si>
-    <t>29.07.202417</t>
-  </si>
-  <si>
-    <t>29.07.202418</t>
-  </si>
-  <si>
-    <t>29.07.202419</t>
-  </si>
-  <si>
-    <t>29.07.202420</t>
-  </si>
-  <si>
-    <t>29.07.202421</t>
-  </si>
-  <si>
-    <t>29.07.202422</t>
-  </si>
-  <si>
-    <t>29.07.202423</t>
-  </si>
-  <si>
-    <t>30.07.20240</t>
-  </si>
-  <si>
-    <t>30.07.20241</t>
-  </si>
-  <si>
-    <t>30.07.20242</t>
-  </si>
-  <si>
-    <t>30.07.20243</t>
-  </si>
-  <si>
-    <t>30.07.20244</t>
-  </si>
-  <si>
-    <t>30.07.20245</t>
-  </si>
-  <si>
-    <t>30.07.20246</t>
-  </si>
-  <si>
-    <t>30.07.20247</t>
-  </si>
-  <si>
-    <t>30.07.20248</t>
-  </si>
-  <si>
     <t>30.07.20249</t>
   </si>
   <si>
@@ -542,6 +191,357 @@
   </si>
   <si>
     <t>01.08.202412</t>
+  </si>
+  <si>
+    <t>01.08.202413</t>
+  </si>
+  <si>
+    <t>01.08.202414</t>
+  </si>
+  <si>
+    <t>01.08.202415</t>
+  </si>
+  <si>
+    <t>01.08.202416</t>
+  </si>
+  <si>
+    <t>01.08.202417</t>
+  </si>
+  <si>
+    <t>01.08.202418</t>
+  </si>
+  <si>
+    <t>01.08.202419</t>
+  </si>
+  <si>
+    <t>01.08.202420</t>
+  </si>
+  <si>
+    <t>01.08.202421</t>
+  </si>
+  <si>
+    <t>01.08.202422</t>
+  </si>
+  <si>
+    <t>01.08.202423</t>
+  </si>
+  <si>
+    <t>02.08.20240</t>
+  </si>
+  <si>
+    <t>02.08.20241</t>
+  </si>
+  <si>
+    <t>02.08.20242</t>
+  </si>
+  <si>
+    <t>02.08.20243</t>
+  </si>
+  <si>
+    <t>02.08.20244</t>
+  </si>
+  <si>
+    <t>02.08.20245</t>
+  </si>
+  <si>
+    <t>02.08.20246</t>
+  </si>
+  <si>
+    <t>02.08.20247</t>
+  </si>
+  <si>
+    <t>02.08.20248</t>
+  </si>
+  <si>
+    <t>02.08.20249</t>
+  </si>
+  <si>
+    <t>02.08.202410</t>
+  </si>
+  <si>
+    <t>02.08.202411</t>
+  </si>
+  <si>
+    <t>02.08.202412</t>
+  </si>
+  <si>
+    <t>02.08.202413</t>
+  </si>
+  <si>
+    <t>02.08.202414</t>
+  </si>
+  <si>
+    <t>02.08.202415</t>
+  </si>
+  <si>
+    <t>02.08.202416</t>
+  </si>
+  <si>
+    <t>02.08.202417</t>
+  </si>
+  <si>
+    <t>02.08.202418</t>
+  </si>
+  <si>
+    <t>02.08.202419</t>
+  </si>
+  <si>
+    <t>02.08.202420</t>
+  </si>
+  <si>
+    <t>02.08.202421</t>
+  </si>
+  <si>
+    <t>02.08.202422</t>
+  </si>
+  <si>
+    <t>02.08.202423</t>
+  </si>
+  <si>
+    <t>03.08.20240</t>
+  </si>
+  <si>
+    <t>03.08.20241</t>
+  </si>
+  <si>
+    <t>03.08.20242</t>
+  </si>
+  <si>
+    <t>03.08.20243</t>
+  </si>
+  <si>
+    <t>03.08.20244</t>
+  </si>
+  <si>
+    <t>03.08.20245</t>
+  </si>
+  <si>
+    <t>03.08.20246</t>
+  </si>
+  <si>
+    <t>03.08.20247</t>
+  </si>
+  <si>
+    <t>03.08.20248</t>
+  </si>
+  <si>
+    <t>03.08.20249</t>
+  </si>
+  <si>
+    <t>03.08.202410</t>
+  </si>
+  <si>
+    <t>03.08.202411</t>
+  </si>
+  <si>
+    <t>03.08.202412</t>
+  </si>
+  <si>
+    <t>03.08.202413</t>
+  </si>
+  <si>
+    <t>03.08.202414</t>
+  </si>
+  <si>
+    <t>03.08.202415</t>
+  </si>
+  <si>
+    <t>03.08.202416</t>
+  </si>
+  <si>
+    <t>03.08.202417</t>
+  </si>
+  <si>
+    <t>03.08.202418</t>
+  </si>
+  <si>
+    <t>03.08.202419</t>
+  </si>
+  <si>
+    <t>03.08.202420</t>
+  </si>
+  <si>
+    <t>03.08.202421</t>
+  </si>
+  <si>
+    <t>03.08.202422</t>
+  </si>
+  <si>
+    <t>03.08.202423</t>
+  </si>
+  <si>
+    <t>04.08.20240</t>
+  </si>
+  <si>
+    <t>04.08.20241</t>
+  </si>
+  <si>
+    <t>04.08.20242</t>
+  </si>
+  <si>
+    <t>04.08.20243</t>
+  </si>
+  <si>
+    <t>04.08.20244</t>
+  </si>
+  <si>
+    <t>04.08.20245</t>
+  </si>
+  <si>
+    <t>04.08.20246</t>
+  </si>
+  <si>
+    <t>04.08.20247</t>
+  </si>
+  <si>
+    <t>04.08.20248</t>
+  </si>
+  <si>
+    <t>04.08.20249</t>
+  </si>
+  <si>
+    <t>04.08.202410</t>
+  </si>
+  <si>
+    <t>04.08.202411</t>
+  </si>
+  <si>
+    <t>04.08.202412</t>
+  </si>
+  <si>
+    <t>04.08.202413</t>
+  </si>
+  <si>
+    <t>04.08.202414</t>
+  </si>
+  <si>
+    <t>04.08.202415</t>
+  </si>
+  <si>
+    <t>04.08.202416</t>
+  </si>
+  <si>
+    <t>04.08.202417</t>
+  </si>
+  <si>
+    <t>04.08.202418</t>
+  </si>
+  <si>
+    <t>04.08.202419</t>
+  </si>
+  <si>
+    <t>04.08.202420</t>
+  </si>
+  <si>
+    <t>04.08.202421</t>
+  </si>
+  <si>
+    <t>04.08.202422</t>
+  </si>
+  <si>
+    <t>04.08.202423</t>
+  </si>
+  <si>
+    <t>05.08.20240</t>
+  </si>
+  <si>
+    <t>05.08.20241</t>
+  </si>
+  <si>
+    <t>05.08.20242</t>
+  </si>
+  <si>
+    <t>05.08.20243</t>
+  </si>
+  <si>
+    <t>05.08.20244</t>
+  </si>
+  <si>
+    <t>05.08.20245</t>
+  </si>
+  <si>
+    <t>05.08.20246</t>
+  </si>
+  <si>
+    <t>05.08.20247</t>
+  </si>
+  <si>
+    <t>05.08.20248</t>
+  </si>
+  <si>
+    <t>05.08.20249</t>
+  </si>
+  <si>
+    <t>05.08.202410</t>
+  </si>
+  <si>
+    <t>05.08.202411</t>
+  </si>
+  <si>
+    <t>05.08.202412</t>
+  </si>
+  <si>
+    <t>05.08.202413</t>
+  </si>
+  <si>
+    <t>05.08.202414</t>
+  </si>
+  <si>
+    <t>05.08.202415</t>
+  </si>
+  <si>
+    <t>05.08.202416</t>
+  </si>
+  <si>
+    <t>05.08.202417</t>
+  </si>
+  <si>
+    <t>05.08.202418</t>
+  </si>
+  <si>
+    <t>05.08.202419</t>
+  </si>
+  <si>
+    <t>05.08.202420</t>
+  </si>
+  <si>
+    <t>05.08.202421</t>
+  </si>
+  <si>
+    <t>05.08.202422</t>
+  </si>
+  <si>
+    <t>05.08.202423</t>
+  </si>
+  <si>
+    <t>06.08.20240</t>
+  </si>
+  <si>
+    <t>06.08.20241</t>
+  </si>
+  <si>
+    <t>06.08.20242</t>
+  </si>
+  <si>
+    <t>06.08.20243</t>
+  </si>
+  <si>
+    <t>06.08.20244</t>
+  </si>
+  <si>
+    <t>06.08.20245</t>
+  </si>
+  <si>
+    <t>06.08.20246</t>
+  </si>
+  <si>
+    <t>06.08.20247</t>
+  </si>
+  <si>
+    <t>06.08.20248</t>
+  </si>
+  <si>
+    <t>06.08.20249</t>
   </si>
 </sst>
 </file>
@@ -934,10 +934,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -980,22 +980,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>766</v>
+        <v>812</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2.686</v>
+        <v>2.798</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>623</v>
+        <v>889</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.08</v>
+        <v>3.088</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1026,22 +1026,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>450</v>
+        <v>916</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.739</v>
+        <v>3.267</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>390</v>
+        <v>890</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.453</v>
+        <v>3.161</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1072,22 +1072,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>271</v>
+        <v>813</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.917</v>
+        <v>2.94</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1095,22 +1095,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>146</v>
+        <v>693</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.44</v>
+        <v>2.444</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1118,22 +1118,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>540</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07199999999999999</v>
+        <v>1.868</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1141,22 +1141,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.203</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1164,22 +1164,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.466</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1302,19 +1302,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>13</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1371,22 +1371,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>527</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.762</v>
+        <v>0.066</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1440,22 +1440,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>678</v>
+        <v>176</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>2.437</v>
+        <v>0.368</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1463,22 +1463,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>777</v>
+        <v>353</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2.705</v>
+        <v>1.017</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1486,22 +1486,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>849</v>
+        <v>525</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2.914</v>
+        <v>1.756</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>897</v>
+        <v>677</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>3.261</v>
+        <v>2.404</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>873</v>
+        <v>797</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3.151</v>
+        <v>2.747</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>801</v>
+        <v>873</v>
       </c>
       <c r="D29">
         <v>26</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2.868</v>
+        <v>2.936</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1578,22 +1578,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>684</v>
+        <v>899</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2.458</v>
+        <v>3.139</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>523</v>
+        <v>873</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.741</v>
+        <v>3.035</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>348</v>
+        <v>797</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.127</v>
+        <v>2.893</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1647,22 +1647,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>181</v>
+        <v>678</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.457</v>
+        <v>2.345</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.07099999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.166</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>39</v>
+      </c>
+      <c r="D37">
         <v>23</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>17</v>
-      </c>
       <c r="E37">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1785,19 +1785,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1808,19 +1808,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E40">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1854,19 +1854,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1877,19 +1877,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44">
         <v>14</v>
       </c>
-      <c r="E44">
-        <v>16</v>
-      </c>
       <c r="F44">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
         <v>16</v>
       </c>
-      <c r="E45">
-        <v>11</v>
-      </c>
       <c r="F45">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>1.007</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>522</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>1.753</v>
+        <v>0.046</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>671</v>
+        <v>153</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F48">
-        <v>2.34</v>
+        <v>0.368</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>787</v>
+        <v>332</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>2.797</v>
+        <v>0.955</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>861</v>
+        <v>507</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2.824</v>
+        <v>1.59</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2061,22 +2061,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>888</v>
+        <v>660</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>3.094</v>
+        <v>2.335</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>864</v>
+        <v>779</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>3.024</v>
+        <v>2.437</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2107,22 +2107,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>790</v>
+        <v>852</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>2.816</v>
+        <v>2.915</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>2.426</v>
+        <v>3.084</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>526</v>
+        <v>849</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.799</v>
+        <v>3.085</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2176,22 +2176,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>358</v>
+        <v>773</v>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.124</v>
+        <v>2.911</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>185</v>
+        <v>655</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.466</v>
+        <v>2.33</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2222,22 +2222,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="D58">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0.07099999999999999</v>
+        <v>1.723</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2245,22 +2245,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2291,22 +2291,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45501</v>
+        <v>45505</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45501</v>
+        <v>45505</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45501</v>
+        <v>45505</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2383,19 +2383,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F68">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -2475,22 +2475,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F69">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F70">
-        <v>1.014</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>516</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F71">
-        <v>1.756</v>
+        <v>0.04</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>664</v>
+        <v>100</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F72">
-        <v>2.322</v>
+        <v>0.247</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>779</v>
+        <v>204</v>
       </c>
       <c r="D73">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F73">
-        <v>2.722</v>
+        <v>0.53</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2590,22 +2590,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>854</v>
+        <v>290</v>
       </c>
       <c r="D74">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F74">
-        <v>2.924</v>
+        <v>0.978</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>880</v>
+        <v>383</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F75">
-        <v>3.031</v>
+        <v>1.48</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>856</v>
+        <v>507</v>
       </c>
       <c r="D76">
+        <v>26</v>
+      </c>
+      <c r="E76">
         <v>32</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
       <c r="F76">
-        <v>2.978</v>
+        <v>1.753</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
@@ -2659,22 +2659,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>784</v>
+        <v>595</v>
       </c>
       <c r="D77">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F77">
-        <v>2.806</v>
+        <v>2.061</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2682,22 +2682,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="D78">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F78">
-        <v>2.218</v>
+        <v>2.176</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="D79">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F79">
-        <v>1.771</v>
+        <v>2.126</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2728,22 +2728,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>357</v>
+        <v>593</v>
       </c>
       <c r="D80">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F80">
-        <v>1.062</v>
+        <v>2.027</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2751,22 +2751,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>188</v>
+        <v>519</v>
       </c>
       <c r="D81">
         <v>30</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F81">
-        <v>0.454</v>
+        <v>1.836</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F82">
-        <v>0.268</v>
+        <v>1.422</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.823</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2820,22 +2820,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2843,22 +2843,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>22</v>
       </c>
       <c r="E86">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>21</v>
       </c>
       <c r="E87">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45502</v>
+        <v>45506</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E88">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E89">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E90">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E91">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E92">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F92">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F93">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -3050,22 +3050,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F94">
-        <v>0.867</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3073,22 +3073,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>485</v>
+        <v>24</v>
       </c>
       <c r="D95">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F95">
-        <v>1.586</v>
+        <v>0.046</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>651</v>
+        <v>141</v>
       </c>
       <c r="D96">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>2.28</v>
+        <v>0.364</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>776</v>
+        <v>306</v>
       </c>
       <c r="D97">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F97">
-        <v>2.793</v>
+        <v>0.895</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3142,22 +3142,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>857</v>
+        <v>436</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F98">
-        <v>3.028</v>
+        <v>1.486</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3165,22 +3165,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>884</v>
+        <v>501</v>
       </c>
       <c r="D99">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F99">
-        <v>3.038</v>
+        <v>1.625</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>859</v>
+        <v>535</v>
       </c>
       <c r="D100">
+        <v>25</v>
+      </c>
+      <c r="E100">
         <v>28</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
       <c r="F100">
-        <v>2.984</v>
+        <v>1.884</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>793</v>
+        <v>519</v>
       </c>
       <c r="D101">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F101">
-        <v>2.831</v>
+        <v>1.878</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3234,22 +3234,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>683</v>
+        <v>482</v>
       </c>
       <c r="D102">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F102">
-        <v>2.426</v>
+        <v>1.824</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>533</v>
+        <v>442</v>
       </c>
       <c r="D103">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F103">
-        <v>1.8</v>
+        <v>1.767</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="D104">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F104">
-        <v>1.128</v>
+        <v>1.637</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>181</v>
+        <v>369</v>
       </c>
       <c r="D105">
         <v>25</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F105">
-        <v>0.447</v>
+        <v>1.52</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3326,22 +3326,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="D106">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F106">
-        <v>0.07099999999999999</v>
+        <v>1.126</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3349,22 +3349,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D107">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.789</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D108">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B109">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>18</v>
+      </c>
+      <c r="D109">
         <v>23</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>16</v>
-      </c>
       <c r="E109">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
@@ -3418,19 +3418,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45503</v>
+        <v>45507</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3441,19 +3441,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45503</v>
+        <v>45507</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3464,19 +3464,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45503</v>
+        <v>45507</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3487,19 +3487,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3510,19 +3510,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3533,19 +3533,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F116">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>15</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F117">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F118">
-        <v>1.017</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3625,22 +3625,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>529</v>
+        <v>19</v>
       </c>
       <c r="D119">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F119">
-        <v>1.787</v>
+        <v>0.039</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>683</v>
+        <v>121</v>
       </c>
       <c r="D120">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F120">
-        <v>2.419</v>
+        <v>0.319</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>805</v>
+        <v>275</v>
       </c>
       <c r="D121">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F121">
-        <v>2.816</v>
+        <v>0.656</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3694,22 +3694,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>884</v>
+        <v>451</v>
       </c>
       <c r="D122">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F122">
-        <v>3.059</v>
+        <v>1.525</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>909</v>
+        <v>617</v>
       </c>
       <c r="D123">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F123">
-        <v>3.15</v>
+        <v>2.129</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>881</v>
+        <v>752</v>
       </c>
       <c r="D124">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>3.042</v>
+        <v>2.61</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="D125">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F125">
-        <v>2.831</v>
+        <v>2.788</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>684</v>
+        <v>841</v>
       </c>
       <c r="D126">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F126">
-        <v>2.454</v>
+        <v>2.933</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3809,22 +3809,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>528</v>
+        <v>818</v>
       </c>
       <c r="D127">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F127">
-        <v>1.812</v>
+        <v>2.84</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3832,22 +3832,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>352</v>
+        <v>750</v>
       </c>
       <c r="D128">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F128">
-        <v>1.131</v>
+        <v>2.715</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3855,22 +3855,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>175</v>
+        <v>620</v>
       </c>
       <c r="D129">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F129">
-        <v>0.411</v>
+        <v>2.139</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -3878,22 +3878,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>37</v>
+        <v>461</v>
       </c>
       <c r="D130">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F130">
-        <v>0.07099999999999999</v>
+        <v>1.602</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -3901,22 +3901,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="D131">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1.004</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -3924,22 +3924,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B132">
+        <v>19</v>
+      </c>
+      <c r="C132">
+        <v>124</v>
+      </c>
+      <c r="D132">
+        <v>26</v>
+      </c>
+      <c r="E132">
         <v>22</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>18</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.367</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -3947,22 +3947,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B133">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D133">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
@@ -3970,19 +3970,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45504</v>
+        <v>45508</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3993,19 +3993,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45504</v>
+        <v>45508</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4016,19 +4016,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45504</v>
+        <v>45508</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4039,19 +4039,19 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4085,19 +4085,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4108,22 +4108,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F140">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>145</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>17</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F141">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -4154,22 +4154,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F142">
-        <v>1.005</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4177,22 +4177,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>517</v>
+        <v>18</v>
       </c>
       <c r="D143">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F143">
-        <v>1.765</v>
+        <v>0.039</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>672</v>
+        <v>120</v>
       </c>
       <c r="D144">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F144">
-        <v>2.419</v>
+        <v>0.306</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4223,22 +4223,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>794</v>
+        <v>281</v>
       </c>
       <c r="D145">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F145">
-        <v>2.816</v>
+        <v>0.788</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>872</v>
+        <v>463</v>
       </c>
       <c r="D146">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F146">
-        <v>2.849</v>
+        <v>1.532</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4269,22 +4269,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>900</v>
+        <v>628</v>
       </c>
       <c r="D147">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>3.139</v>
+        <v>2.208</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4292,13 +4292,13 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B148">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>875</v>
+        <v>749</v>
       </c>
       <c r="D148">
         <v>28</v>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>3.034</v>
+        <v>2.594</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="D149">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>2.831</v>
+        <v>2.873</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4338,22 +4338,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>681</v>
+        <v>855</v>
       </c>
       <c r="D150">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>2.426</v>
+        <v>3.086</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B151">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>527</v>
+        <v>818</v>
       </c>
       <c r="D151">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F151">
-        <v>1.799</v>
+        <v>2.841</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B152">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>354</v>
+        <v>725</v>
       </c>
       <c r="D152">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F152">
-        <v>1.127</v>
+        <v>2.579</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>179</v>
+        <v>584</v>
       </c>
       <c r="D153">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F153">
-        <v>0.418</v>
+        <v>2.057</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4430,22 +4430,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F154">
-        <v>0.07099999999999999</v>
+        <v>1.533</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4453,22 +4453,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B155">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="D155">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.896</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D156">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.364</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4499,22 +4499,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D157">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="G157" t="s">
         <v>162</v>
@@ -4522,19 +4522,19 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45505</v>
+        <v>45509</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4545,19 +4545,19 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45505</v>
+        <v>45509</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4568,19 +4568,19 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45505</v>
+        <v>45509</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4591,19 +4591,19 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4614,19 +4614,19 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4637,19 +4637,19 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4660,22 +4660,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F164">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="G164" t="s">
         <v>169</v>
@@ -4683,22 +4683,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E165">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F165">
-        <v>0.359</v>
+        <v>0</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
@@ -4706,22 +4706,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F166">
-        <v>1.045</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4729,22 +4729,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>517</v>
+        <v>21</v>
       </c>
       <c r="D167">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F167">
-        <v>1.825</v>
+        <v>0.042</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4752,22 +4752,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>672</v>
+        <v>143</v>
       </c>
       <c r="D168">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F168">
-        <v>2.349</v>
+        <v>0.333</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4775,22 +4775,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>788</v>
+        <v>321</v>
       </c>
       <c r="D169">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>2.717</v>
+        <v>0.957</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4798,22 +4798,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>824</v>
+        <v>491</v>
       </c>
       <c r="D170">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E170">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>2.876</v>
+        <v>1.628</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Data</t>
   </si>
@@ -35,18 +35,6 @@
   </si>
   <si>
     <t>Lookup</t>
-  </si>
-  <si>
-    <t>30.07.20249</t>
-  </si>
-  <si>
-    <t>30.07.202410</t>
-  </si>
-  <si>
-    <t>30.07.202411</t>
-  </si>
-  <si>
-    <t>30.07.202412</t>
   </si>
   <si>
     <t>30.07.202413</t>
@@ -948,12 +936,6 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
@@ -971,12 +953,6 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
@@ -994,12 +970,6 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>2.798</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
@@ -1017,12 +987,6 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>3.088</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
@@ -1041,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.267</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1064,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.161</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1087,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.94</v>
+        <v>2.944</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1110,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.444</v>
+        <v>2.446</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1136,7 +1100,7 @@
         <v>1.868</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1159,7 +1123,7 @@
         <v>1.203</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1179,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1205,7 +1169,7 @@
         <v>0.065</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1228,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1251,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1274,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1297,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1320,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1343,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1366,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1389,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1412,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1435,7 +1399,7 @@
         <v>0.066</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1455,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>0.368</v>
+        <v>0.365</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1478,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.017</v>
+        <v>1.002</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1504,7 +1468,7 @@
         <v>1.756</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1527,7 +1491,7 @@
         <v>2.404</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1547,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.747</v>
+        <v>2.71</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1573,7 +1537,7 @@
         <v>2.936</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1596,7 +1560,7 @@
         <v>3.139</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1619,7 +1583,7 @@
         <v>3.035</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1642,7 +1606,7 @@
         <v>2.893</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1665,7 +1629,7 @@
         <v>2.345</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1685,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.805</v>
+        <v>1.83</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1708,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.166</v>
+        <v>1.168</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1731,10 +1695,10 @@
         <v>3</v>
       </c>
       <c r="F36">
-        <v>0.452</v>
+        <v>0.456</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1757,7 +1721,7 @@
         <v>0.063</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1780,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1803,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1826,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1849,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1872,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1895,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1918,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1941,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1964,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1987,7 +1951,7 @@
         <v>0.046</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2007,10 +1971,10 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>0.368</v>
+        <v>0.36</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2030,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0.955</v>
+        <v>0.957</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2053,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.59</v>
+        <v>1.599</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2079,7 +2043,7 @@
         <v>2.335</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2102,7 +2066,7 @@
         <v>2.437</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2125,7 +2089,7 @@
         <v>2.915</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2145,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>3.084</v>
+        <v>3.086</v>
       </c>
       <c r="G54" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2171,7 +2135,7 @@
         <v>3.085</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2191,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>2.911</v>
+        <v>2.919</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2214,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.33</v>
+        <v>2.246</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2237,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1.723</v>
+        <v>1.711</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2260,10 +2224,10 @@
         <v>8</v>
       </c>
       <c r="F59">
-        <v>1.02</v>
+        <v>0.992</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2283,10 +2247,10 @@
         <v>19</v>
       </c>
       <c r="F60">
-        <v>0.425</v>
+        <v>0.368</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2306,10 +2270,10 @@
         <v>27</v>
       </c>
       <c r="F61">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2332,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2355,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2378,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2401,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2424,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2447,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2470,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2493,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2516,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2536,10 +2500,10 @@
         <v>36</v>
       </c>
       <c r="F71">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="G71" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2559,10 +2523,10 @@
         <v>36</v>
       </c>
       <c r="F72">
-        <v>0.247</v>
+        <v>0.298</v>
       </c>
       <c r="G72" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2582,10 +2546,10 @@
         <v>37</v>
       </c>
       <c r="F73">
-        <v>0.53</v>
+        <v>0.657</v>
       </c>
       <c r="G73" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2605,10 +2569,10 @@
         <v>40</v>
       </c>
       <c r="F74">
-        <v>0.978</v>
+        <v>1.159</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2628,10 +2592,10 @@
         <v>40</v>
       </c>
       <c r="F75">
-        <v>1.48</v>
+        <v>1.728</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2651,10 +2615,10 @@
         <v>32</v>
       </c>
       <c r="F76">
-        <v>1.753</v>
+        <v>1.674</v>
       </c>
       <c r="G76" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2674,10 +2638,10 @@
         <v>27</v>
       </c>
       <c r="F77">
-        <v>2.061</v>
+        <v>1.745</v>
       </c>
       <c r="G77" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2697,10 +2661,10 @@
         <v>28</v>
       </c>
       <c r="F78">
-        <v>2.176</v>
+        <v>1.846</v>
       </c>
       <c r="G78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2720,10 +2684,10 @@
         <v>28</v>
       </c>
       <c r="F79">
-        <v>2.126</v>
+        <v>1.342</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2743,10 +2707,10 @@
         <v>19</v>
       </c>
       <c r="F80">
-        <v>2.027</v>
+        <v>1.413</v>
       </c>
       <c r="G80" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2766,10 +2730,10 @@
         <v>16</v>
       </c>
       <c r="F81">
-        <v>1.836</v>
+        <v>1.37</v>
       </c>
       <c r="G81" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2789,10 +2753,10 @@
         <v>22</v>
       </c>
       <c r="F82">
-        <v>1.422</v>
+        <v>1.093</v>
       </c>
       <c r="G82" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2812,10 +2776,10 @@
         <v>26</v>
       </c>
       <c r="F83">
-        <v>0.823</v>
+        <v>0.72</v>
       </c>
       <c r="G83" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2835,10 +2799,10 @@
         <v>31</v>
       </c>
       <c r="F84">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="G84" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2861,7 +2825,7 @@
         <v>0.036</v>
       </c>
       <c r="G85" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2884,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2907,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2930,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2953,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2976,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2999,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3022,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3045,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3068,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3091,7 +3055,7 @@
         <v>0.046</v>
       </c>
       <c r="G95" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3111,10 +3075,10 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>0.364</v>
+        <v>0.304</v>
       </c>
       <c r="G96" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3134,10 +3098,10 @@
         <v>5</v>
       </c>
       <c r="F97">
-        <v>0.895</v>
+        <v>0.621</v>
       </c>
       <c r="G97" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3157,10 +3121,10 @@
         <v>10</v>
       </c>
       <c r="F98">
-        <v>1.486</v>
+        <v>1.091</v>
       </c>
       <c r="G98" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3180,10 +3144,10 @@
         <v>21</v>
       </c>
       <c r="F99">
-        <v>1.625</v>
+        <v>1.599</v>
       </c>
       <c r="G99" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3203,10 +3167,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>1.884</v>
+        <v>1.713</v>
       </c>
       <c r="G100" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3226,10 +3190,10 @@
         <v>37</v>
       </c>
       <c r="F101">
-        <v>1.878</v>
+        <v>1.671</v>
       </c>
       <c r="G101" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3249,10 +3213,10 @@
         <v>43</v>
       </c>
       <c r="F102">
-        <v>1.824</v>
+        <v>1.414</v>
       </c>
       <c r="G102" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3272,10 +3236,10 @@
         <v>46</v>
       </c>
       <c r="F103">
-        <v>1.767</v>
+        <v>1.137</v>
       </c>
       <c r="G103" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3295,10 +3259,10 @@
         <v>46</v>
       </c>
       <c r="F104">
-        <v>1.637</v>
+        <v>1.133</v>
       </c>
       <c r="G104" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3318,10 +3282,10 @@
         <v>43</v>
       </c>
       <c r="F105">
-        <v>1.52</v>
+        <v>1.085</v>
       </c>
       <c r="G105" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3341,10 +3305,10 @@
         <v>40</v>
       </c>
       <c r="F106">
-        <v>1.126</v>
+        <v>0.86</v>
       </c>
       <c r="G106" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3364,10 +3328,10 @@
         <v>38</v>
       </c>
       <c r="F107">
-        <v>0.789</v>
+        <v>0.556</v>
       </c>
       <c r="G107" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3387,10 +3351,10 @@
         <v>39</v>
       </c>
       <c r="F108">
-        <v>0.292</v>
+        <v>0.258</v>
       </c>
       <c r="G108" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3413,7 +3377,7 @@
         <v>0.038</v>
       </c>
       <c r="G109" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3436,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3459,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3482,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3505,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3528,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3551,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3574,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3597,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3620,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3640,10 +3604,10 @@
         <v>32</v>
       </c>
       <c r="F119">
-        <v>0.039</v>
+        <v>0.046</v>
       </c>
       <c r="G119" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3663,10 +3627,10 @@
         <v>25</v>
       </c>
       <c r="F120">
-        <v>0.319</v>
+        <v>0.35</v>
       </c>
       <c r="G120" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3686,10 +3650,10 @@
         <v>17</v>
       </c>
       <c r="F121">
-        <v>0.656</v>
+        <v>0.972</v>
       </c>
       <c r="G121" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3709,10 +3673,10 @@
         <v>10</v>
       </c>
       <c r="F122">
-        <v>1.525</v>
+        <v>1.662</v>
       </c>
       <c r="G122" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3732,10 +3696,10 @@
         <v>5</v>
       </c>
       <c r="F123">
-        <v>2.129</v>
+        <v>2.128</v>
       </c>
       <c r="G123" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3755,10 +3719,10 @@
         <v>2</v>
       </c>
       <c r="F124">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="G124" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3778,10 +3742,10 @@
         <v>2</v>
       </c>
       <c r="F125">
-        <v>2.788</v>
+        <v>2.592</v>
       </c>
       <c r="G125" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3801,10 +3765,10 @@
         <v>3</v>
       </c>
       <c r="F126">
-        <v>2.933</v>
+        <v>2.647</v>
       </c>
       <c r="G126" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3824,10 +3788,10 @@
         <v>3</v>
       </c>
       <c r="F127">
-        <v>2.84</v>
+        <v>2.723</v>
       </c>
       <c r="G127" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3847,10 +3811,10 @@
         <v>3</v>
       </c>
       <c r="F128">
-        <v>2.715</v>
+        <v>2.583</v>
       </c>
       <c r="G128" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3870,10 +3834,10 @@
         <v>5</v>
       </c>
       <c r="F129">
-        <v>2.139</v>
+        <v>2.418</v>
       </c>
       <c r="G129" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3893,10 +3857,10 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>1.602</v>
+        <v>1.758</v>
       </c>
       <c r="G130" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3916,10 +3880,10 @@
         <v>13</v>
       </c>
       <c r="F131">
-        <v>1.004</v>
+        <v>1.144</v>
       </c>
       <c r="G131" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3939,10 +3903,10 @@
         <v>22</v>
       </c>
       <c r="F132">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="G132" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3962,10 +3926,10 @@
         <v>31</v>
       </c>
       <c r="F133">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="G133" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3988,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4011,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4034,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4057,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4080,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4103,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4126,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4149,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4172,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4192,10 +4156,10 @@
         <v>20</v>
       </c>
       <c r="F143">
-        <v>0.039</v>
+        <v>0.035</v>
       </c>
       <c r="G143" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4215,10 +4179,10 @@
         <v>14</v>
       </c>
       <c r="F144">
-        <v>0.306</v>
+        <v>0.245</v>
       </c>
       <c r="G144" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4238,10 +4202,10 @@
         <v>7</v>
       </c>
       <c r="F145">
-        <v>0.788</v>
+        <v>0.498</v>
       </c>
       <c r="G145" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4261,10 +4225,10 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>1.532</v>
+        <v>1.049</v>
       </c>
       <c r="G146" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4284,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>2.208</v>
+        <v>1.592</v>
       </c>
       <c r="G147" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4307,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2.594</v>
+        <v>2.08</v>
       </c>
       <c r="G148" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4330,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>2.873</v>
+        <v>2.467</v>
       </c>
       <c r="G149" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4353,10 +4317,10 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3.086</v>
+        <v>2.575</v>
       </c>
       <c r="G150" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4376,10 +4340,10 @@
         <v>2</v>
       </c>
       <c r="F151">
-        <v>2.841</v>
+        <v>2.538</v>
       </c>
       <c r="G151" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4399,10 +4363,10 @@
         <v>4</v>
       </c>
       <c r="F152">
-        <v>2.579</v>
+        <v>2.322</v>
       </c>
       <c r="G152" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4422,10 +4386,10 @@
         <v>9</v>
       </c>
       <c r="F153">
-        <v>2.057</v>
+        <v>1.912</v>
       </c>
       <c r="G153" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4445,10 +4409,10 @@
         <v>16</v>
       </c>
       <c r="F154">
-        <v>1.533</v>
+        <v>1.528</v>
       </c>
       <c r="G154" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4468,10 +4432,10 @@
         <v>19</v>
       </c>
       <c r="F155">
-        <v>0.896</v>
+        <v>0.868</v>
       </c>
       <c r="G155" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4491,10 +4455,10 @@
         <v>21</v>
       </c>
       <c r="F156">
-        <v>0.364</v>
+        <v>0.361</v>
       </c>
       <c r="G156" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4517,7 +4481,7 @@
         <v>0.041</v>
       </c>
       <c r="G157" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4540,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4563,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4586,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4609,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4632,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4655,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4678,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4701,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4724,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4747,7 +4711,7 @@
         <v>0.042</v>
       </c>
       <c r="G167" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4767,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="F168">
-        <v>0.333</v>
+        <v>0.367</v>
       </c>
       <c r="G168" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4790,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>0.957</v>
+        <v>0.926</v>
       </c>
       <c r="G169" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4813,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.628</v>
+        <v>1.629</v>
       </c>
       <c r="G170" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Data</t>
   </si>
@@ -37,444 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>30.07.202413</t>
-  </si>
-  <si>
-    <t>30.07.202414</t>
-  </si>
-  <si>
-    <t>30.07.202415</t>
-  </si>
-  <si>
-    <t>30.07.202416</t>
-  </si>
-  <si>
-    <t>30.07.202417</t>
-  </si>
-  <si>
-    <t>30.07.202418</t>
-  </si>
-  <si>
-    <t>30.07.202419</t>
-  </si>
-  <si>
-    <t>30.07.202420</t>
-  </si>
-  <si>
-    <t>30.07.202421</t>
-  </si>
-  <si>
-    <t>30.07.202422</t>
-  </si>
-  <si>
-    <t>30.07.202423</t>
-  </si>
-  <si>
-    <t>31.07.20240</t>
-  </si>
-  <si>
-    <t>31.07.20241</t>
-  </si>
-  <si>
-    <t>31.07.20242</t>
-  </si>
-  <si>
-    <t>31.07.20243</t>
-  </si>
-  <si>
-    <t>31.07.20244</t>
-  </si>
-  <si>
-    <t>31.07.20245</t>
-  </si>
-  <si>
-    <t>31.07.20246</t>
-  </si>
-  <si>
-    <t>31.07.20247</t>
-  </si>
-  <si>
-    <t>31.07.20248</t>
-  </si>
-  <si>
-    <t>31.07.20249</t>
-  </si>
-  <si>
-    <t>31.07.202410</t>
-  </si>
-  <si>
-    <t>31.07.202411</t>
-  </si>
-  <si>
-    <t>31.07.202412</t>
-  </si>
-  <si>
-    <t>31.07.202413</t>
-  </si>
-  <si>
-    <t>31.07.202414</t>
-  </si>
-  <si>
-    <t>31.07.202415</t>
-  </si>
-  <si>
-    <t>31.07.202416</t>
-  </si>
-  <si>
-    <t>31.07.202417</t>
-  </si>
-  <si>
-    <t>31.07.202418</t>
-  </si>
-  <si>
-    <t>31.07.202419</t>
-  </si>
-  <si>
-    <t>31.07.202420</t>
-  </si>
-  <si>
-    <t>31.07.202421</t>
-  </si>
-  <si>
-    <t>31.07.202422</t>
-  </si>
-  <si>
-    <t>31.07.202423</t>
-  </si>
-  <si>
-    <t>01.08.20240</t>
-  </si>
-  <si>
-    <t>01.08.20241</t>
-  </si>
-  <si>
-    <t>01.08.20242</t>
-  </si>
-  <si>
-    <t>01.08.20243</t>
-  </si>
-  <si>
-    <t>01.08.20244</t>
-  </si>
-  <si>
-    <t>01.08.20245</t>
-  </si>
-  <si>
-    <t>01.08.20246</t>
-  </si>
-  <si>
-    <t>01.08.20247</t>
-  </si>
-  <si>
-    <t>01.08.20248</t>
-  </si>
-  <si>
-    <t>01.08.20249</t>
-  </si>
-  <si>
-    <t>01.08.202410</t>
-  </si>
-  <si>
-    <t>01.08.202411</t>
-  </si>
-  <si>
-    <t>01.08.202412</t>
-  </si>
-  <si>
-    <t>01.08.202413</t>
-  </si>
-  <si>
-    <t>01.08.202414</t>
-  </si>
-  <si>
-    <t>01.08.202415</t>
-  </si>
-  <si>
-    <t>01.08.202416</t>
-  </si>
-  <si>
-    <t>01.08.202417</t>
-  </si>
-  <si>
-    <t>01.08.202418</t>
-  </si>
-  <si>
-    <t>01.08.202419</t>
-  </si>
-  <si>
-    <t>01.08.202420</t>
-  </si>
-  <si>
-    <t>01.08.202421</t>
-  </si>
-  <si>
-    <t>01.08.202422</t>
-  </si>
-  <si>
-    <t>01.08.202423</t>
-  </si>
-  <si>
-    <t>02.08.20240</t>
-  </si>
-  <si>
-    <t>02.08.20241</t>
-  </si>
-  <si>
-    <t>02.08.20242</t>
-  </si>
-  <si>
-    <t>02.08.20243</t>
-  </si>
-  <si>
-    <t>02.08.20244</t>
-  </si>
-  <si>
-    <t>02.08.20245</t>
-  </si>
-  <si>
-    <t>02.08.20246</t>
-  </si>
-  <si>
-    <t>02.08.20247</t>
-  </si>
-  <si>
-    <t>02.08.20248</t>
-  </si>
-  <si>
-    <t>02.08.20249</t>
-  </si>
-  <si>
-    <t>02.08.202410</t>
-  </si>
-  <si>
-    <t>02.08.202411</t>
-  </si>
-  <si>
-    <t>02.08.202412</t>
-  </si>
-  <si>
-    <t>02.08.202413</t>
-  </si>
-  <si>
-    <t>02.08.202414</t>
-  </si>
-  <si>
-    <t>02.08.202415</t>
-  </si>
-  <si>
-    <t>02.08.202416</t>
-  </si>
-  <si>
-    <t>02.08.202417</t>
-  </si>
-  <si>
-    <t>02.08.202418</t>
-  </si>
-  <si>
-    <t>02.08.202419</t>
-  </si>
-  <si>
-    <t>02.08.202420</t>
-  </si>
-  <si>
-    <t>02.08.202421</t>
-  </si>
-  <si>
-    <t>02.08.202422</t>
-  </si>
-  <si>
-    <t>02.08.202423</t>
-  </si>
-  <si>
-    <t>03.08.20240</t>
-  </si>
-  <si>
-    <t>03.08.20241</t>
-  </si>
-  <si>
-    <t>03.08.20242</t>
-  </si>
-  <si>
-    <t>03.08.20243</t>
-  </si>
-  <si>
-    <t>03.08.20244</t>
-  </si>
-  <si>
-    <t>03.08.20245</t>
-  </si>
-  <si>
-    <t>03.08.20246</t>
-  </si>
-  <si>
-    <t>03.08.20247</t>
-  </si>
-  <si>
-    <t>03.08.20248</t>
-  </si>
-  <si>
-    <t>03.08.20249</t>
-  </si>
-  <si>
-    <t>03.08.202410</t>
-  </si>
-  <si>
-    <t>03.08.202411</t>
-  </si>
-  <si>
-    <t>03.08.202412</t>
-  </si>
-  <si>
-    <t>03.08.202413</t>
-  </si>
-  <si>
-    <t>03.08.202414</t>
-  </si>
-  <si>
-    <t>03.08.202415</t>
-  </si>
-  <si>
-    <t>03.08.202416</t>
-  </si>
-  <si>
-    <t>03.08.202417</t>
-  </si>
-  <si>
-    <t>03.08.202418</t>
-  </si>
-  <si>
-    <t>03.08.202419</t>
-  </si>
-  <si>
-    <t>03.08.202420</t>
-  </si>
-  <si>
-    <t>03.08.202421</t>
-  </si>
-  <si>
-    <t>03.08.202422</t>
-  </si>
-  <si>
-    <t>03.08.202423</t>
-  </si>
-  <si>
-    <t>04.08.20240</t>
-  </si>
-  <si>
-    <t>04.08.20241</t>
-  </si>
-  <si>
-    <t>04.08.20242</t>
-  </si>
-  <si>
-    <t>04.08.20243</t>
-  </si>
-  <si>
-    <t>04.08.20244</t>
-  </si>
-  <si>
-    <t>04.08.20245</t>
-  </si>
-  <si>
-    <t>04.08.20246</t>
-  </si>
-  <si>
-    <t>04.08.20247</t>
-  </si>
-  <si>
-    <t>04.08.20248</t>
-  </si>
-  <si>
-    <t>04.08.20249</t>
-  </si>
-  <si>
-    <t>04.08.202410</t>
-  </si>
-  <si>
-    <t>04.08.202411</t>
-  </si>
-  <si>
-    <t>04.08.202412</t>
-  </si>
-  <si>
-    <t>04.08.202413</t>
-  </si>
-  <si>
-    <t>04.08.202414</t>
-  </si>
-  <si>
-    <t>04.08.202415</t>
-  </si>
-  <si>
-    <t>04.08.202416</t>
-  </si>
-  <si>
-    <t>04.08.202417</t>
-  </si>
-  <si>
-    <t>04.08.202418</t>
-  </si>
-  <si>
-    <t>04.08.202419</t>
-  </si>
-  <si>
-    <t>04.08.202420</t>
-  </si>
-  <si>
-    <t>04.08.202421</t>
-  </si>
-  <si>
-    <t>04.08.202422</t>
-  </si>
-  <si>
-    <t>04.08.202423</t>
-  </si>
-  <si>
-    <t>05.08.20240</t>
-  </si>
-  <si>
-    <t>05.08.20241</t>
-  </si>
-  <si>
-    <t>05.08.20242</t>
-  </si>
-  <si>
-    <t>05.08.20243</t>
-  </si>
-  <si>
-    <t>05.08.20244</t>
-  </si>
-  <si>
-    <t>05.08.20245</t>
-  </si>
-  <si>
-    <t>05.08.20246</t>
-  </si>
-  <si>
-    <t>05.08.20247</t>
-  </si>
-  <si>
-    <t>05.08.20248</t>
-  </si>
-  <si>
-    <t>05.08.20249</t>
-  </si>
-  <si>
-    <t>05.08.202410</t>
-  </si>
-  <si>
-    <t>05.08.202411</t>
-  </si>
-  <si>
-    <t>05.08.202412</t>
-  </si>
-  <si>
-    <t>05.08.202413</t>
-  </si>
-  <si>
-    <t>05.08.202414</t>
-  </si>
-  <si>
     <t>05.08.202415</t>
   </si>
   <si>
@@ -530,6 +92,456 @@
   </si>
   <si>
     <t>06.08.20249</t>
+  </si>
+  <si>
+    <t>06.08.202410</t>
+  </si>
+  <si>
+    <t>06.08.202411</t>
+  </si>
+  <si>
+    <t>06.08.202412</t>
+  </si>
+  <si>
+    <t>06.08.202413</t>
+  </si>
+  <si>
+    <t>06.08.202414</t>
+  </si>
+  <si>
+    <t>06.08.202415</t>
+  </si>
+  <si>
+    <t>06.08.202416</t>
+  </si>
+  <si>
+    <t>06.08.202417</t>
+  </si>
+  <si>
+    <t>06.08.202418</t>
+  </si>
+  <si>
+    <t>06.08.202419</t>
+  </si>
+  <si>
+    <t>06.08.202420</t>
+  </si>
+  <si>
+    <t>06.08.202421</t>
+  </si>
+  <si>
+    <t>06.08.202422</t>
+  </si>
+  <si>
+    <t>06.08.202423</t>
+  </si>
+  <si>
+    <t>07.08.20240</t>
+  </si>
+  <si>
+    <t>07.08.20241</t>
+  </si>
+  <si>
+    <t>07.08.20242</t>
+  </si>
+  <si>
+    <t>07.08.20243</t>
+  </si>
+  <si>
+    <t>07.08.20244</t>
+  </si>
+  <si>
+    <t>07.08.20245</t>
+  </si>
+  <si>
+    <t>07.08.20246</t>
+  </si>
+  <si>
+    <t>07.08.20247</t>
+  </si>
+  <si>
+    <t>07.08.20248</t>
+  </si>
+  <si>
+    <t>07.08.20249</t>
+  </si>
+  <si>
+    <t>07.08.202410</t>
+  </si>
+  <si>
+    <t>07.08.202411</t>
+  </si>
+  <si>
+    <t>07.08.202412</t>
+  </si>
+  <si>
+    <t>07.08.202413</t>
+  </si>
+  <si>
+    <t>07.08.202414</t>
+  </si>
+  <si>
+    <t>07.08.202415</t>
+  </si>
+  <si>
+    <t>07.08.202416</t>
+  </si>
+  <si>
+    <t>07.08.202417</t>
+  </si>
+  <si>
+    <t>07.08.202418</t>
+  </si>
+  <si>
+    <t>07.08.202419</t>
+  </si>
+  <si>
+    <t>07.08.202420</t>
+  </si>
+  <si>
+    <t>07.08.202421</t>
+  </si>
+  <si>
+    <t>07.08.202422</t>
+  </si>
+  <si>
+    <t>07.08.202423</t>
+  </si>
+  <si>
+    <t>08.08.20240</t>
+  </si>
+  <si>
+    <t>08.08.20241</t>
+  </si>
+  <si>
+    <t>08.08.20242</t>
+  </si>
+  <si>
+    <t>08.08.20243</t>
+  </si>
+  <si>
+    <t>08.08.20244</t>
+  </si>
+  <si>
+    <t>08.08.20245</t>
+  </si>
+  <si>
+    <t>08.08.20246</t>
+  </si>
+  <si>
+    <t>08.08.20247</t>
+  </si>
+  <si>
+    <t>08.08.20248</t>
+  </si>
+  <si>
+    <t>08.08.20249</t>
+  </si>
+  <si>
+    <t>08.08.202410</t>
+  </si>
+  <si>
+    <t>08.08.202411</t>
+  </si>
+  <si>
+    <t>08.08.202412</t>
+  </si>
+  <si>
+    <t>08.08.202413</t>
+  </si>
+  <si>
+    <t>08.08.202414</t>
+  </si>
+  <si>
+    <t>08.08.202415</t>
+  </si>
+  <si>
+    <t>08.08.202416</t>
+  </si>
+  <si>
+    <t>08.08.202417</t>
+  </si>
+  <si>
+    <t>08.08.202418</t>
+  </si>
+  <si>
+    <t>08.08.202419</t>
+  </si>
+  <si>
+    <t>08.08.202420</t>
+  </si>
+  <si>
+    <t>08.08.202421</t>
+  </si>
+  <si>
+    <t>08.08.202422</t>
+  </si>
+  <si>
+    <t>08.08.202423</t>
+  </si>
+  <si>
+    <t>09.08.20240</t>
+  </si>
+  <si>
+    <t>09.08.20241</t>
+  </si>
+  <si>
+    <t>09.08.20242</t>
+  </si>
+  <si>
+    <t>09.08.20243</t>
+  </si>
+  <si>
+    <t>09.08.20244</t>
+  </si>
+  <si>
+    <t>09.08.20245</t>
+  </si>
+  <si>
+    <t>09.08.20246</t>
+  </si>
+  <si>
+    <t>09.08.20247</t>
+  </si>
+  <si>
+    <t>09.08.20248</t>
+  </si>
+  <si>
+    <t>09.08.20249</t>
+  </si>
+  <si>
+    <t>09.08.202410</t>
+  </si>
+  <si>
+    <t>09.08.202411</t>
+  </si>
+  <si>
+    <t>09.08.202412</t>
+  </si>
+  <si>
+    <t>09.08.202413</t>
+  </si>
+  <si>
+    <t>09.08.202414</t>
+  </si>
+  <si>
+    <t>09.08.202415</t>
+  </si>
+  <si>
+    <t>09.08.202416</t>
+  </si>
+  <si>
+    <t>09.08.202417</t>
+  </si>
+  <si>
+    <t>09.08.202418</t>
+  </si>
+  <si>
+    <t>09.08.202419</t>
+  </si>
+  <si>
+    <t>09.08.202420</t>
+  </si>
+  <si>
+    <t>09.08.202421</t>
+  </si>
+  <si>
+    <t>09.08.202422</t>
+  </si>
+  <si>
+    <t>09.08.202423</t>
+  </si>
+  <si>
+    <t>10.08.20240</t>
+  </si>
+  <si>
+    <t>10.08.20241</t>
+  </si>
+  <si>
+    <t>10.08.20242</t>
+  </si>
+  <si>
+    <t>10.08.20243</t>
+  </si>
+  <si>
+    <t>10.08.20244</t>
+  </si>
+  <si>
+    <t>10.08.20245</t>
+  </si>
+  <si>
+    <t>10.08.20246</t>
+  </si>
+  <si>
+    <t>10.08.20247</t>
+  </si>
+  <si>
+    <t>10.08.20248</t>
+  </si>
+  <si>
+    <t>10.08.20249</t>
+  </si>
+  <si>
+    <t>10.08.202410</t>
+  </si>
+  <si>
+    <t>10.08.202411</t>
+  </si>
+  <si>
+    <t>10.08.202412</t>
+  </si>
+  <si>
+    <t>10.08.202413</t>
+  </si>
+  <si>
+    <t>10.08.202414</t>
+  </si>
+  <si>
+    <t>10.08.202415</t>
+  </si>
+  <si>
+    <t>10.08.202416</t>
+  </si>
+  <si>
+    <t>10.08.202417</t>
+  </si>
+  <si>
+    <t>10.08.202418</t>
+  </si>
+  <si>
+    <t>10.08.202419</t>
+  </si>
+  <si>
+    <t>10.08.202420</t>
+  </si>
+  <si>
+    <t>10.08.202421</t>
+  </si>
+  <si>
+    <t>10.08.202422</t>
+  </si>
+  <si>
+    <t>10.08.202423</t>
+  </si>
+  <si>
+    <t>11.08.20240</t>
+  </si>
+  <si>
+    <t>11.08.20241</t>
+  </si>
+  <si>
+    <t>11.08.20242</t>
+  </si>
+  <si>
+    <t>11.08.20243</t>
+  </si>
+  <si>
+    <t>11.08.20244</t>
+  </si>
+  <si>
+    <t>11.08.20245</t>
+  </si>
+  <si>
+    <t>11.08.20246</t>
+  </si>
+  <si>
+    <t>11.08.20247</t>
+  </si>
+  <si>
+    <t>11.08.20248</t>
+  </si>
+  <si>
+    <t>11.08.20249</t>
+  </si>
+  <si>
+    <t>11.08.202410</t>
+  </si>
+  <si>
+    <t>11.08.202411</t>
+  </si>
+  <si>
+    <t>11.08.202412</t>
+  </si>
+  <si>
+    <t>11.08.202413</t>
+  </si>
+  <si>
+    <t>11.08.202414</t>
+  </si>
+  <si>
+    <t>11.08.202415</t>
+  </si>
+  <si>
+    <t>11.08.202416</t>
+  </si>
+  <si>
+    <t>11.08.202417</t>
+  </si>
+  <si>
+    <t>11.08.202418</t>
+  </si>
+  <si>
+    <t>11.08.202419</t>
+  </si>
+  <si>
+    <t>11.08.202420</t>
+  </si>
+  <si>
+    <t>11.08.202421</t>
+  </si>
+  <si>
+    <t>11.08.202422</t>
+  </si>
+  <si>
+    <t>11.08.202423</t>
+  </si>
+  <si>
+    <t>12.08.20240</t>
+  </si>
+  <si>
+    <t>12.08.20241</t>
+  </si>
+  <si>
+    <t>12.08.20242</t>
+  </si>
+  <si>
+    <t>12.08.20243</t>
+  </si>
+  <si>
+    <t>12.08.20244</t>
+  </si>
+  <si>
+    <t>12.08.20245</t>
+  </si>
+  <si>
+    <t>12.08.20246</t>
+  </si>
+  <si>
+    <t>12.08.20247</t>
+  </si>
+  <si>
+    <t>12.08.20248</t>
+  </si>
+  <si>
+    <t>12.08.20249</t>
+  </si>
+  <si>
+    <t>12.08.202410</t>
+  </si>
+  <si>
+    <t>12.08.202411</t>
+  </si>
+  <si>
+    <t>12.08.202412</t>
+  </si>
+  <si>
+    <t>12.08.202413</t>
+  </si>
+  <si>
+    <t>12.08.202414</t>
+  </si>
+  <si>
+    <t>12.08.202415</t>
   </si>
 </sst>
 </file>
@@ -922,10 +934,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -935,14 +947,20 @@
       </c>
       <c r="E2">
         <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -952,836 +970,854 @@
       </c>
       <c r="E3">
         <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>889</v>
+        <v>228</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>0.835</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>916</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>890</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>813</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>2.944</v>
+        <v>0.022</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>693</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>2.446</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45503</v>
+        <v>45509</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>1.868</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F11">
-        <v>1.203</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F12">
-        <v>0.465</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F13">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.266</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D20">
         <v>13</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.837</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.249</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.487</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>482</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F23">
-        <v>0.066</v>
+        <v>1.898</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>176</v>
+        <v>581</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F24">
-        <v>0.365</v>
+        <v>2.319</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>353</v>
+        <v>616</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F25">
-        <v>1.002</v>
+        <v>2.187</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>1.756</v>
+        <v>2.025</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>677</v>
+        <v>495</v>
       </c>
       <c r="D27">
         <v>22</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F27">
-        <v>2.404</v>
+        <v>1.792</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>797</v>
+        <v>459</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>2.71</v>
+        <v>1.676</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>873</v>
+        <v>380</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F29">
-        <v>2.936</v>
+        <v>1.321</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>899</v>
+        <v>270</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F30">
-        <v>3.139</v>
+        <v>0.671</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>873</v>
+        <v>137</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>3.035</v>
+        <v>0.259</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>797</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>2.893</v>
+        <v>0.041</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F33">
-        <v>2.345</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45504</v>
+        <v>45510</v>
       </c>
       <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
         <v>17</v>
       </c>
-      <c r="C34">
-        <v>526</v>
-      </c>
-      <c r="D34">
-        <v>30</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F35">
-        <v>1.168</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>0.456</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F37">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>11</v>
@@ -1790,271 +1826,271 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
       <c r="E44">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.009</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.745</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2.452</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>769</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.046</v>
+        <v>2.928</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>153</v>
+        <v>845</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.36</v>
+        <v>3.153</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>332</v>
+        <v>870</v>
       </c>
       <c r="D49">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.957</v>
+        <v>3.124</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>507</v>
+        <v>844</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.599</v>
+        <v>3.048</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>660</v>
+        <v>769</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2.335</v>
+        <v>2.721</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>779</v>
+        <v>651</v>
       </c>
       <c r="D52">
         <v>27</v>
@@ -2063,1375 +2099,1375 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2.437</v>
+        <v>2.3</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>852</v>
+        <v>476</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>2.915</v>
+        <v>1.497</v>
       </c>
       <c r="G53" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>875</v>
+        <v>294</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>3.086</v>
+        <v>0.727</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>849</v>
+        <v>133</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F55">
-        <v>3.085</v>
+        <v>0.245</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>773</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F56">
-        <v>2.919</v>
+        <v>0.041</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F57">
-        <v>2.246</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F58">
-        <v>1.711</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>18</v>
       </c>
-      <c r="C59">
-        <v>309</v>
-      </c>
-      <c r="D59">
+      <c r="E59">
         <v>32</v>
       </c>
-      <c r="E59">
-        <v>8</v>
-      </c>
       <c r="F59">
-        <v>0.992</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D60">
+        <v>18</v>
+      </c>
+      <c r="E60">
         <v>30</v>
       </c>
-      <c r="E60">
-        <v>19</v>
-      </c>
       <c r="F60">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E61">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F61">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G67" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="G68" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E69">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1.658</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E70">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2.391</v>
       </c>
       <c r="G70" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>18</v>
+        <v>755</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.042</v>
+        <v>2.839</v>
       </c>
       <c r="G71" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>100</v>
+        <v>829</v>
       </c>
       <c r="D72">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E72">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.298</v>
+        <v>3.054</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>204</v>
+        <v>854</v>
       </c>
       <c r="D73">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E73">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.657</v>
+        <v>3.088</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>290</v>
+        <v>827</v>
       </c>
       <c r="D74">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E74">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.159</v>
+        <v>2.993</v>
       </c>
       <c r="G74" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>383</v>
+        <v>748</v>
       </c>
       <c r="D75">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.728</v>
+        <v>2.677</v>
       </c>
       <c r="G75" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>507</v>
+        <v>602</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E76">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F76">
-        <v>1.674</v>
+        <v>2.11</v>
       </c>
       <c r="G76" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>424</v>
+      </c>
+      <c r="D77">
+        <v>30</v>
+      </c>
+      <c r="E77">
         <v>12</v>
       </c>
-      <c r="C77">
-        <v>595</v>
-      </c>
-      <c r="D77">
-        <v>26</v>
-      </c>
-      <c r="E77">
-        <v>27</v>
-      </c>
       <c r="F77">
-        <v>1.745</v>
+        <v>1.355</v>
       </c>
       <c r="G77" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="D78">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E78">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F78">
-        <v>1.846</v>
+        <v>0.66</v>
       </c>
       <c r="G78" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>583</v>
+        <v>116</v>
       </c>
       <c r="D79">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F79">
-        <v>1.342</v>
+        <v>0.274</v>
       </c>
       <c r="G79" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>593</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E80">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F80">
-        <v>1.413</v>
+        <v>0.036</v>
       </c>
       <c r="G80" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C81">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E81">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F81">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E82">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F82">
-        <v>1.093</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E83">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F83">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E84">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F84">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <v>20</v>
       </c>
-      <c r="C85">
-        <v>17</v>
-      </c>
-      <c r="D85">
+      <c r="E85">
         <v>24</v>
       </c>
-      <c r="E85">
-        <v>35</v>
-      </c>
       <c r="F85">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E86">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E87">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E89">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="G90" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="D92">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G92" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="D93">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E93">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1.666</v>
       </c>
       <c r="G93" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="D94">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2.261</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>24</v>
+        <v>743</v>
       </c>
       <c r="D95">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E95">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.046</v>
+        <v>2.797</v>
       </c>
       <c r="G95" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>141</v>
+        <v>816</v>
       </c>
       <c r="D96">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.304</v>
+        <v>3.031</v>
       </c>
       <c r="G96" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>306</v>
+        <v>792</v>
       </c>
       <c r="D97">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F97">
-        <v>0.621</v>
+        <v>2.723</v>
       </c>
       <c r="G97" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>436</v>
+        <v>704</v>
       </c>
       <c r="D98">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F98">
-        <v>1.091</v>
+        <v>2.266</v>
       </c>
       <c r="G98" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>501</v>
+        <v>652</v>
       </c>
       <c r="D99">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E99">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F99">
-        <v>1.599</v>
+        <v>2.143</v>
       </c>
       <c r="G99" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="D100">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E100">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F100">
-        <v>1.713</v>
+        <v>1.863</v>
       </c>
       <c r="G100" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>519</v>
+        <v>392</v>
       </c>
       <c r="D101">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E101">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F101">
-        <v>1.671</v>
+        <v>1.216</v>
       </c>
       <c r="G101" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>482</v>
+        <v>246</v>
       </c>
       <c r="D102">
+        <v>28</v>
+      </c>
+      <c r="E102">
         <v>22</v>
       </c>
-      <c r="E102">
-        <v>43</v>
-      </c>
       <c r="F102">
-        <v>1.414</v>
+        <v>0.654</v>
       </c>
       <c r="G102" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>442</v>
+        <v>112</v>
       </c>
       <c r="D103">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E103">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F103">
-        <v>1.137</v>
+        <v>0.272</v>
       </c>
       <c r="G103" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>410</v>
+        <v>16</v>
       </c>
       <c r="D104">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E104">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F104">
-        <v>1.133</v>
+        <v>0.034</v>
       </c>
       <c r="G104" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E105">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F105">
-        <v>1.085</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C106">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E106">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F106">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>21</v>
+      </c>
+      <c r="E107">
         <v>18</v>
       </c>
-      <c r="C107">
-        <v>205</v>
-      </c>
-      <c r="D107">
-        <v>26</v>
-      </c>
-      <c r="E107">
-        <v>38</v>
-      </c>
       <c r="F107">
-        <v>0.556</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E108">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F108">
-        <v>0.258</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
         <v>20</v>
       </c>
-      <c r="C109">
-        <v>18</v>
-      </c>
-      <c r="D109">
-        <v>23</v>
-      </c>
       <c r="E109">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F109">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E110">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E111">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="B112">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3440,1347 +3476,1347 @@
         <v>18</v>
       </c>
       <c r="E112">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E113">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D114">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="G114" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D115">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E115">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="G115" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="D116">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E116">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.948</v>
       </c>
       <c r="G116" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="D117">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E117">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1.666</v>
       </c>
       <c r="G117" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="D118">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E118">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2.261</v>
       </c>
       <c r="G118" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>19</v>
+        <v>731</v>
       </c>
       <c r="D119">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E119">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>0.046</v>
+        <v>2.778</v>
       </c>
       <c r="G119" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>121</v>
+        <v>788</v>
       </c>
       <c r="D120">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E120">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F120">
-        <v>0.35</v>
+        <v>2.79</v>
       </c>
       <c r="G120" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C121">
-        <v>275</v>
+        <v>825</v>
       </c>
       <c r="D121">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E121">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>0.972</v>
+        <v>2.954</v>
       </c>
       <c r="G121" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C122">
-        <v>451</v>
+        <v>798</v>
       </c>
       <c r="D122">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E122">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F122">
-        <v>1.662</v>
+        <v>2.786</v>
       </c>
       <c r="G122" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C123">
-        <v>617</v>
+        <v>721</v>
       </c>
       <c r="D123">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F123">
-        <v>2.128</v>
+        <v>2.468</v>
       </c>
       <c r="G123" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C124">
-        <v>752</v>
+        <v>605</v>
       </c>
       <c r="D124">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F124">
-        <v>2.5</v>
+        <v>2.086</v>
       </c>
       <c r="G124" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C125">
-        <v>830</v>
+        <v>450</v>
       </c>
       <c r="D125">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F125">
-        <v>2.592</v>
+        <v>1.42</v>
       </c>
       <c r="G125" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C126">
-        <v>841</v>
+        <v>285</v>
       </c>
       <c r="D126">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F126">
-        <v>2.647</v>
+        <v>0.71</v>
       </c>
       <c r="G126" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C127">
-        <v>818</v>
+        <v>124</v>
       </c>
       <c r="D127">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F127">
-        <v>2.723</v>
+        <v>0.239</v>
       </c>
       <c r="G127" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B128">
+        <v>21</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+      <c r="D128">
+        <v>24</v>
+      </c>
+      <c r="E128">
         <v>15</v>
       </c>
-      <c r="C128">
-        <v>750</v>
-      </c>
-      <c r="D128">
-        <v>29</v>
-      </c>
-      <c r="E128">
-        <v>3</v>
-      </c>
       <c r="F128">
-        <v>2.583</v>
+        <v>0.034</v>
       </c>
       <c r="G128" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C129">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E129">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F129">
-        <v>2.418</v>
+        <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C130">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E130">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F130">
-        <v>1.758</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>13</v>
       </c>
       <c r="F131">
-        <v>1.144</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
         <v>19</v>
       </c>
-      <c r="C132">
-        <v>124</v>
-      </c>
-      <c r="D132">
-        <v>26</v>
-      </c>
       <c r="E132">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F132">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E133">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F133">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E134">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E135">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E136">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E137">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D138">
         <v>18</v>
       </c>
       <c r="E138">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="G138" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D139">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E139">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="G139" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D140">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E140">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.947</v>
       </c>
       <c r="G140" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="D141">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E141">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="G141" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="D142">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E142">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>2.265</v>
       </c>
       <c r="G142" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C143">
-        <v>18</v>
+        <v>738</v>
       </c>
       <c r="D143">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.035</v>
+        <v>2.818</v>
       </c>
       <c r="G143" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C144">
-        <v>120</v>
+        <v>813</v>
       </c>
       <c r="D144">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E144">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.245</v>
+        <v>3.027</v>
       </c>
       <c r="G144" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>281</v>
+        <v>838</v>
       </c>
       <c r="D145">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E145">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.498</v>
+        <v>3.059</v>
       </c>
       <c r="G145" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C146">
-        <v>463</v>
+        <v>814</v>
       </c>
       <c r="D146">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.049</v>
+        <v>2.974</v>
       </c>
       <c r="G146" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C147">
-        <v>628</v>
+        <v>742</v>
       </c>
       <c r="D147">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.592</v>
+        <v>2.671</v>
       </c>
       <c r="G147" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C148">
-        <v>749</v>
+        <v>627</v>
       </c>
       <c r="D148">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2.08</v>
+        <v>2.154</v>
       </c>
       <c r="G148" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C149">
-        <v>831</v>
+        <v>477</v>
       </c>
       <c r="D149">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>2.467</v>
+        <v>1.518</v>
       </c>
       <c r="G149" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C150">
-        <v>855</v>
+        <v>308</v>
       </c>
       <c r="D150">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>2.575</v>
+        <v>0.738</v>
       </c>
       <c r="G150" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C151">
-        <v>818</v>
+        <v>134</v>
       </c>
       <c r="D151">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F151">
-        <v>2.538</v>
+        <v>0.218</v>
       </c>
       <c r="G151" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C152">
-        <v>725</v>
+        <v>16</v>
       </c>
       <c r="D152">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E152">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F152">
-        <v>2.322</v>
+        <v>0.034</v>
       </c>
       <c r="G152" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C153">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E153">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F153">
-        <v>1.912</v>
+        <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C154">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E154">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F154">
-        <v>1.528</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C155">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E155">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F155">
-        <v>0.868</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E156">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F156">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
         <v>20</v>
       </c>
-      <c r="C157">
-        <v>21</v>
-      </c>
-      <c r="D157">
-        <v>25</v>
-      </c>
       <c r="E157">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F157">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E158">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E159">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E161">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D162">
         <v>18</v>
       </c>
       <c r="E162">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="G162" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D163">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E163">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>0.337</v>
       </c>
       <c r="G163" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="D164">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E164">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G164" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D165">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E165">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1.667</v>
       </c>
       <c r="G165" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="D166">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E166">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>2.252</v>
       </c>
       <c r="G166" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C167">
-        <v>21</v>
+        <v>749</v>
       </c>
       <c r="D167">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E167">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.042</v>
+        <v>2.796</v>
       </c>
       <c r="G167" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C168">
-        <v>143</v>
+        <v>824</v>
       </c>
       <c r="D168">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E168">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.367</v>
+        <v>3.045</v>
       </c>
       <c r="G168" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C169">
-        <v>321</v>
+        <v>851</v>
       </c>
       <c r="D169">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169">
-        <v>0.926</v>
+        <v>3.085</v>
       </c>
       <c r="G169" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C170">
-        <v>491</v>
+        <v>826</v>
       </c>
       <c r="D170">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.629</v>
+        <v>2.981</v>
       </c>
       <c r="G170" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Data</t>
   </si>
@@ -37,511 +37,487 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>05.08.202415</t>
-  </si>
-  <si>
-    <t>05.08.202416</t>
-  </si>
-  <si>
-    <t>05.08.202417</t>
-  </si>
-  <si>
-    <t>05.08.202418</t>
-  </si>
-  <si>
-    <t>05.08.202419</t>
-  </si>
-  <si>
-    <t>05.08.202420</t>
-  </si>
-  <si>
-    <t>05.08.202421</t>
-  </si>
-  <si>
-    <t>05.08.202422</t>
-  </si>
-  <si>
-    <t>05.08.202423</t>
-  </si>
-  <si>
-    <t>06.08.20240</t>
-  </si>
-  <si>
-    <t>06.08.20241</t>
-  </si>
-  <si>
-    <t>06.08.20242</t>
-  </si>
-  <si>
-    <t>06.08.20243</t>
-  </si>
-  <si>
-    <t>06.08.20244</t>
-  </si>
-  <si>
-    <t>06.08.20245</t>
-  </si>
-  <si>
-    <t>06.08.20246</t>
-  </si>
-  <si>
-    <t>06.08.20247</t>
-  </si>
-  <si>
-    <t>06.08.20248</t>
-  </si>
-  <si>
-    <t>06.08.20249</t>
-  </si>
-  <si>
-    <t>06.08.202410</t>
-  </si>
-  <si>
-    <t>06.08.202411</t>
-  </si>
-  <si>
-    <t>06.08.202412</t>
-  </si>
-  <si>
-    <t>06.08.202413</t>
-  </si>
-  <si>
-    <t>06.08.202414</t>
-  </si>
-  <si>
-    <t>06.08.202415</t>
-  </si>
-  <si>
-    <t>06.08.202416</t>
-  </si>
-  <si>
-    <t>06.08.202417</t>
-  </si>
-  <si>
-    <t>06.08.202418</t>
-  </si>
-  <si>
-    <t>06.08.202419</t>
-  </si>
-  <si>
-    <t>06.08.202420</t>
-  </si>
-  <si>
-    <t>06.08.202421</t>
-  </si>
-  <si>
-    <t>06.08.202422</t>
-  </si>
-  <si>
-    <t>06.08.202423</t>
-  </si>
-  <si>
-    <t>07.08.20240</t>
-  </si>
-  <si>
-    <t>07.08.20241</t>
-  </si>
-  <si>
-    <t>07.08.20242</t>
-  </si>
-  <si>
-    <t>07.08.20243</t>
-  </si>
-  <si>
-    <t>07.08.20244</t>
-  </si>
-  <si>
-    <t>07.08.20245</t>
-  </si>
-  <si>
-    <t>07.08.20246</t>
-  </si>
-  <si>
-    <t>07.08.20247</t>
-  </si>
-  <si>
-    <t>07.08.20248</t>
-  </si>
-  <si>
-    <t>07.08.20249</t>
-  </si>
-  <si>
-    <t>07.08.202410</t>
-  </si>
-  <si>
-    <t>07.08.202411</t>
-  </si>
-  <si>
-    <t>07.08.202412</t>
-  </si>
-  <si>
-    <t>07.08.202413</t>
-  </si>
-  <si>
-    <t>07.08.202414</t>
-  </si>
-  <si>
-    <t>07.08.202415</t>
-  </si>
-  <si>
-    <t>07.08.202416</t>
-  </si>
-  <si>
-    <t>07.08.202417</t>
-  </si>
-  <si>
-    <t>07.08.202418</t>
-  </si>
-  <si>
-    <t>07.08.202419</t>
-  </si>
-  <si>
-    <t>07.08.202420</t>
-  </si>
-  <si>
-    <t>07.08.202421</t>
-  </si>
-  <si>
-    <t>07.08.202422</t>
-  </si>
-  <si>
-    <t>07.08.202423</t>
-  </si>
-  <si>
-    <t>08.08.20240</t>
-  </si>
-  <si>
-    <t>08.08.20241</t>
-  </si>
-  <si>
-    <t>08.08.20242</t>
-  </si>
-  <si>
-    <t>08.08.20243</t>
-  </si>
-  <si>
-    <t>08.08.20244</t>
-  </si>
-  <si>
-    <t>08.08.20245</t>
-  </si>
-  <si>
-    <t>08.08.20246</t>
-  </si>
-  <si>
-    <t>08.08.20247</t>
-  </si>
-  <si>
-    <t>08.08.20248</t>
-  </si>
-  <si>
-    <t>08.08.20249</t>
-  </si>
-  <si>
-    <t>08.08.202410</t>
-  </si>
-  <si>
-    <t>08.08.202411</t>
-  </si>
-  <si>
-    <t>08.08.202412</t>
-  </si>
-  <si>
-    <t>08.08.202413</t>
-  </si>
-  <si>
-    <t>08.08.202414</t>
-  </si>
-  <si>
-    <t>08.08.202415</t>
-  </si>
-  <si>
-    <t>08.08.202416</t>
-  </si>
-  <si>
-    <t>08.08.202417</t>
-  </si>
-  <si>
-    <t>08.08.202418</t>
-  </si>
-  <si>
-    <t>08.08.202419</t>
-  </si>
-  <si>
-    <t>08.08.202420</t>
-  </si>
-  <si>
-    <t>08.08.202421</t>
-  </si>
-  <si>
-    <t>08.08.202422</t>
-  </si>
-  <si>
-    <t>08.08.202423</t>
-  </si>
-  <si>
-    <t>09.08.20240</t>
-  </si>
-  <si>
-    <t>09.08.20241</t>
-  </si>
-  <si>
-    <t>09.08.20242</t>
-  </si>
-  <si>
-    <t>09.08.20243</t>
-  </si>
-  <si>
-    <t>09.08.20244</t>
-  </si>
-  <si>
-    <t>09.08.20245</t>
-  </si>
-  <si>
-    <t>09.08.20246</t>
-  </si>
-  <si>
-    <t>09.08.20247</t>
-  </si>
-  <si>
-    <t>09.08.20248</t>
-  </si>
-  <si>
-    <t>09.08.20249</t>
-  </si>
-  <si>
-    <t>09.08.202410</t>
-  </si>
-  <si>
-    <t>09.08.202411</t>
-  </si>
-  <si>
-    <t>09.08.202412</t>
-  </si>
-  <si>
-    <t>09.08.202413</t>
-  </si>
-  <si>
-    <t>09.08.202414</t>
-  </si>
-  <si>
-    <t>09.08.202415</t>
-  </si>
-  <si>
-    <t>09.08.202416</t>
-  </si>
-  <si>
-    <t>09.08.202417</t>
-  </si>
-  <si>
-    <t>09.08.202418</t>
-  </si>
-  <si>
-    <t>09.08.202419</t>
-  </si>
-  <si>
-    <t>09.08.202420</t>
-  </si>
-  <si>
-    <t>09.08.202421</t>
-  </si>
-  <si>
-    <t>09.08.202422</t>
-  </si>
-  <si>
-    <t>09.08.202423</t>
-  </si>
-  <si>
-    <t>10.08.20240</t>
-  </si>
-  <si>
-    <t>10.08.20241</t>
-  </si>
-  <si>
-    <t>10.08.20242</t>
-  </si>
-  <si>
-    <t>10.08.20243</t>
-  </si>
-  <si>
-    <t>10.08.20244</t>
-  </si>
-  <si>
-    <t>10.08.20245</t>
-  </si>
-  <si>
-    <t>10.08.20246</t>
-  </si>
-  <si>
-    <t>10.08.20247</t>
-  </si>
-  <si>
-    <t>10.08.20248</t>
-  </si>
-  <si>
-    <t>10.08.20249</t>
-  </si>
-  <si>
-    <t>10.08.202410</t>
-  </si>
-  <si>
-    <t>10.08.202411</t>
-  </si>
-  <si>
-    <t>10.08.202412</t>
-  </si>
-  <si>
-    <t>10.08.202413</t>
-  </si>
-  <si>
-    <t>10.08.202414</t>
-  </si>
-  <si>
-    <t>10.08.202415</t>
-  </si>
-  <si>
-    <t>10.08.202416</t>
-  </si>
-  <si>
-    <t>10.08.202417</t>
-  </si>
-  <si>
-    <t>10.08.202418</t>
-  </si>
-  <si>
-    <t>10.08.202419</t>
-  </si>
-  <si>
-    <t>10.08.202420</t>
-  </si>
-  <si>
-    <t>10.08.202421</t>
-  </si>
-  <si>
-    <t>10.08.202422</t>
-  </si>
-  <si>
-    <t>10.08.202423</t>
-  </si>
-  <si>
-    <t>11.08.20240</t>
-  </si>
-  <si>
-    <t>11.08.20241</t>
-  </si>
-  <si>
-    <t>11.08.20242</t>
-  </si>
-  <si>
-    <t>11.08.20243</t>
-  </si>
-  <si>
-    <t>11.08.20244</t>
-  </si>
-  <si>
-    <t>11.08.20245</t>
-  </si>
-  <si>
-    <t>11.08.20246</t>
-  </si>
-  <si>
-    <t>11.08.20247</t>
-  </si>
-  <si>
-    <t>11.08.20248</t>
-  </si>
-  <si>
-    <t>11.08.20249</t>
-  </si>
-  <si>
-    <t>11.08.202410</t>
-  </si>
-  <si>
-    <t>11.08.202411</t>
-  </si>
-  <si>
-    <t>11.08.202412</t>
-  </si>
-  <si>
-    <t>11.08.202413</t>
-  </si>
-  <si>
-    <t>11.08.202414</t>
-  </si>
-  <si>
-    <t>11.08.202415</t>
-  </si>
-  <si>
-    <t>11.08.202416</t>
-  </si>
-  <si>
-    <t>11.08.202417</t>
-  </si>
-  <si>
-    <t>11.08.202418</t>
-  </si>
-  <si>
-    <t>11.08.202419</t>
-  </si>
-  <si>
-    <t>11.08.202420</t>
-  </si>
-  <si>
-    <t>11.08.202421</t>
-  </si>
-  <si>
-    <t>11.08.202422</t>
-  </si>
-  <si>
-    <t>11.08.202423</t>
-  </si>
-  <si>
-    <t>12.08.20240</t>
-  </si>
-  <si>
-    <t>12.08.20241</t>
-  </si>
-  <si>
-    <t>12.08.20242</t>
-  </si>
-  <si>
-    <t>12.08.20243</t>
-  </si>
-  <si>
-    <t>12.08.20244</t>
-  </si>
-  <si>
-    <t>12.08.20245</t>
-  </si>
-  <si>
-    <t>12.08.20246</t>
-  </si>
-  <si>
-    <t>12.08.20247</t>
-  </si>
-  <si>
-    <t>12.08.20248</t>
-  </si>
-  <si>
-    <t>12.08.20249</t>
-  </si>
-  <si>
-    <t>12.08.202410</t>
-  </si>
-  <si>
-    <t>12.08.202411</t>
-  </si>
-  <si>
-    <t>12.08.202412</t>
-  </si>
-  <si>
-    <t>12.08.202413</t>
-  </si>
-  <si>
-    <t>12.08.202414</t>
-  </si>
-  <si>
-    <t>12.08.202415</t>
+    <t>21.08.202411</t>
+  </si>
+  <si>
+    <t>21.08.202412</t>
+  </si>
+  <si>
+    <t>21.08.202413</t>
+  </si>
+  <si>
+    <t>21.08.202414</t>
+  </si>
+  <si>
+    <t>21.08.202415</t>
+  </si>
+  <si>
+    <t>21.08.202416</t>
+  </si>
+  <si>
+    <t>21.08.202417</t>
+  </si>
+  <si>
+    <t>21.08.202418</t>
+  </si>
+  <si>
+    <t>21.08.202419</t>
+  </si>
+  <si>
+    <t>21.08.202420</t>
+  </si>
+  <si>
+    <t>21.08.202421</t>
+  </si>
+  <si>
+    <t>21.08.202422</t>
+  </si>
+  <si>
+    <t>21.08.202423</t>
+  </si>
+  <si>
+    <t>22.08.20241</t>
+  </si>
+  <si>
+    <t>22.08.20242</t>
+  </si>
+  <si>
+    <t>22.08.20243</t>
+  </si>
+  <si>
+    <t>22.08.20244</t>
+  </si>
+  <si>
+    <t>22.08.20245</t>
+  </si>
+  <si>
+    <t>22.08.20246</t>
+  </si>
+  <si>
+    <t>22.08.20247</t>
+  </si>
+  <si>
+    <t>22.08.20248</t>
+  </si>
+  <si>
+    <t>22.08.20249</t>
+  </si>
+  <si>
+    <t>22.08.202410</t>
+  </si>
+  <si>
+    <t>22.08.202411</t>
+  </si>
+  <si>
+    <t>22.08.202412</t>
+  </si>
+  <si>
+    <t>22.08.202413</t>
+  </si>
+  <si>
+    <t>22.08.202414</t>
+  </si>
+  <si>
+    <t>22.08.202415</t>
+  </si>
+  <si>
+    <t>22.08.202416</t>
+  </si>
+  <si>
+    <t>22.08.202417</t>
+  </si>
+  <si>
+    <t>22.08.202418</t>
+  </si>
+  <si>
+    <t>22.08.202419</t>
+  </si>
+  <si>
+    <t>22.08.202420</t>
+  </si>
+  <si>
+    <t>22.08.202421</t>
+  </si>
+  <si>
+    <t>22.08.202422</t>
+  </si>
+  <si>
+    <t>22.08.202423</t>
+  </si>
+  <si>
+    <t>23.08.20241</t>
+  </si>
+  <si>
+    <t>23.08.20242</t>
+  </si>
+  <si>
+    <t>23.08.20243</t>
+  </si>
+  <si>
+    <t>23.08.20244</t>
+  </si>
+  <si>
+    <t>23.08.20245</t>
+  </si>
+  <si>
+    <t>23.08.20246</t>
+  </si>
+  <si>
+    <t>23.08.20247</t>
+  </si>
+  <si>
+    <t>23.08.20248</t>
+  </si>
+  <si>
+    <t>23.08.20249</t>
+  </si>
+  <si>
+    <t>23.08.202410</t>
+  </si>
+  <si>
+    <t>23.08.202411</t>
+  </si>
+  <si>
+    <t>23.08.202412</t>
+  </si>
+  <si>
+    <t>23.08.202413</t>
+  </si>
+  <si>
+    <t>23.08.202414</t>
+  </si>
+  <si>
+    <t>23.08.202415</t>
+  </si>
+  <si>
+    <t>23.08.202416</t>
+  </si>
+  <si>
+    <t>23.08.202417</t>
+  </si>
+  <si>
+    <t>23.08.202418</t>
+  </si>
+  <si>
+    <t>23.08.202419</t>
+  </si>
+  <si>
+    <t>23.08.202420</t>
+  </si>
+  <si>
+    <t>23.08.202421</t>
+  </si>
+  <si>
+    <t>23.08.202422</t>
+  </si>
+  <si>
+    <t>23.08.202423</t>
+  </si>
+  <si>
+    <t>24.08.20241</t>
+  </si>
+  <si>
+    <t>24.08.20242</t>
+  </si>
+  <si>
+    <t>24.08.20243</t>
+  </si>
+  <si>
+    <t>24.08.20244</t>
+  </si>
+  <si>
+    <t>24.08.20245</t>
+  </si>
+  <si>
+    <t>24.08.20246</t>
+  </si>
+  <si>
+    <t>24.08.20247</t>
+  </si>
+  <si>
+    <t>24.08.20248</t>
+  </si>
+  <si>
+    <t>24.08.20249</t>
+  </si>
+  <si>
+    <t>24.08.202410</t>
+  </si>
+  <si>
+    <t>24.08.202411</t>
+  </si>
+  <si>
+    <t>24.08.202412</t>
+  </si>
+  <si>
+    <t>24.08.202413</t>
+  </si>
+  <si>
+    <t>24.08.202414</t>
+  </si>
+  <si>
+    <t>24.08.202415</t>
+  </si>
+  <si>
+    <t>24.08.202416</t>
+  </si>
+  <si>
+    <t>24.08.202417</t>
+  </si>
+  <si>
+    <t>24.08.202418</t>
+  </si>
+  <si>
+    <t>24.08.202419</t>
+  </si>
+  <si>
+    <t>24.08.202420</t>
+  </si>
+  <si>
+    <t>24.08.202421</t>
+  </si>
+  <si>
+    <t>24.08.202422</t>
+  </si>
+  <si>
+    <t>24.08.202423</t>
+  </si>
+  <si>
+    <t>25.08.20241</t>
+  </si>
+  <si>
+    <t>25.08.20242</t>
+  </si>
+  <si>
+    <t>25.08.20243</t>
+  </si>
+  <si>
+    <t>25.08.20244</t>
+  </si>
+  <si>
+    <t>25.08.20245</t>
+  </si>
+  <si>
+    <t>25.08.20246</t>
+  </si>
+  <si>
+    <t>25.08.20247</t>
+  </si>
+  <si>
+    <t>25.08.20248</t>
+  </si>
+  <si>
+    <t>25.08.20249</t>
+  </si>
+  <si>
+    <t>25.08.202410</t>
+  </si>
+  <si>
+    <t>25.08.202411</t>
+  </si>
+  <si>
+    <t>25.08.202412</t>
+  </si>
+  <si>
+    <t>25.08.202413</t>
+  </si>
+  <si>
+    <t>25.08.202414</t>
+  </si>
+  <si>
+    <t>25.08.202415</t>
+  </si>
+  <si>
+    <t>25.08.202416</t>
+  </si>
+  <si>
+    <t>25.08.202417</t>
+  </si>
+  <si>
+    <t>25.08.202418</t>
+  </si>
+  <si>
+    <t>25.08.202419</t>
+  </si>
+  <si>
+    <t>25.08.202420</t>
+  </si>
+  <si>
+    <t>25.08.202421</t>
+  </si>
+  <si>
+    <t>25.08.202422</t>
+  </si>
+  <si>
+    <t>25.08.202423</t>
+  </si>
+  <si>
+    <t>26.08.20241</t>
+  </si>
+  <si>
+    <t>26.08.20242</t>
+  </si>
+  <si>
+    <t>26.08.20243</t>
+  </si>
+  <si>
+    <t>26.08.20244</t>
+  </si>
+  <si>
+    <t>26.08.20245</t>
+  </si>
+  <si>
+    <t>26.08.20246</t>
+  </si>
+  <si>
+    <t>26.08.20247</t>
+  </si>
+  <si>
+    <t>26.08.20248</t>
+  </si>
+  <si>
+    <t>26.08.20249</t>
+  </si>
+  <si>
+    <t>26.08.202410</t>
+  </si>
+  <si>
+    <t>26.08.202411</t>
+  </si>
+  <si>
+    <t>26.08.202412</t>
+  </si>
+  <si>
+    <t>26.08.202413</t>
+  </si>
+  <si>
+    <t>26.08.202414</t>
+  </si>
+  <si>
+    <t>26.08.202415</t>
+  </si>
+  <si>
+    <t>26.08.202416</t>
+  </si>
+  <si>
+    <t>26.08.202417</t>
+  </si>
+  <si>
+    <t>26.08.202418</t>
+  </si>
+  <si>
+    <t>26.08.202419</t>
+  </si>
+  <si>
+    <t>26.08.202420</t>
+  </si>
+  <si>
+    <t>26.08.202421</t>
+  </si>
+  <si>
+    <t>26.08.202422</t>
+  </si>
+  <si>
+    <t>26.08.202423</t>
+  </si>
+  <si>
+    <t>27.08.20241</t>
+  </si>
+  <si>
+    <t>27.08.20242</t>
+  </si>
+  <si>
+    <t>27.08.20243</t>
+  </si>
+  <si>
+    <t>27.08.20244</t>
+  </si>
+  <si>
+    <t>27.08.20245</t>
+  </si>
+  <si>
+    <t>27.08.20246</t>
+  </si>
+  <si>
+    <t>27.08.20247</t>
+  </si>
+  <si>
+    <t>27.08.20248</t>
+  </si>
+  <si>
+    <t>27.08.20249</t>
+  </si>
+  <si>
+    <t>27.08.202410</t>
+  </si>
+  <si>
+    <t>27.08.202411</t>
+  </si>
+  <si>
+    <t>27.08.202412</t>
+  </si>
+  <si>
+    <t>27.08.202413</t>
+  </si>
+  <si>
+    <t>27.08.202414</t>
+  </si>
+  <si>
+    <t>27.08.202415</t>
+  </si>
+  <si>
+    <t>27.08.202416</t>
+  </si>
+  <si>
+    <t>27.08.202417</t>
+  </si>
+  <si>
+    <t>27.08.202418</t>
+  </si>
+  <si>
+    <t>27.08.202419</t>
+  </si>
+  <si>
+    <t>27.08.202420</t>
+  </si>
+  <si>
+    <t>27.08.202421</t>
+  </si>
+  <si>
+    <t>27.08.202422</t>
+  </si>
+  <si>
+    <t>27.08.202423</t>
+  </si>
+  <si>
+    <t>28.08.20241</t>
+  </si>
+  <si>
+    <t>28.08.20242</t>
+  </si>
+  <si>
+    <t>28.08.20243</t>
+  </si>
+  <si>
+    <t>28.08.20244</t>
+  </si>
+  <si>
+    <t>28.08.20245</t>
+  </si>
+  <si>
+    <t>28.08.20246</t>
+  </si>
+  <si>
+    <t>28.08.20247</t>
+  </si>
+  <si>
+    <t>28.08.20248</t>
+  </si>
+  <si>
+    <t>28.08.20249</t>
+  </si>
+  <si>
+    <t>28.08.202410</t>
   </si>
 </sst>
 </file>
@@ -934,10 +910,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45509</v>
+        <v>45525</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -947,20 +923,14 @@
       </c>
       <c r="E2">
         <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45509</v>
+        <v>45525</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -975,21 +945,21 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45509</v>
+        <v>45525</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -998,297 +968,291 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45509</v>
+        <v>45525</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>228</v>
+        <v>831</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.835</v>
+        <v>3.019</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45509</v>
+        <v>45525</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>139</v>
+        <v>802</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.432</v>
+        <v>3.048</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45509</v>
+        <v>45525</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>723</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.115</v>
+        <v>2.963</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45509</v>
+        <v>45525</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>601</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.022</v>
+        <v>2.554</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45509</v>
+        <v>45525</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.151</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45509</v>
+        <v>45525</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45510</v>
+        <v>45525</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.652</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45510</v>
+        <v>45525</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
         <v>16</v>
       </c>
-      <c r="E12">
-        <v>60</v>
-      </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45510</v>
+        <v>45525</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45510</v>
+        <v>45525</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45510</v>
+        <v>45525</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>42</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>38</v>
@@ -1297,777 +1261,771 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F19">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F20">
-        <v>0.837</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F21">
-        <v>1.249</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>409</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F22">
-        <v>1.487</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>482</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F23">
-        <v>1.898</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>581</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <v>18</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F24">
-        <v>2.319</v>
+        <v>0.061</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>616</v>
+        <v>167</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F25">
-        <v>2.187</v>
+        <v>0.292</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>544</v>
+        <v>252</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>2.025</v>
+        <v>0.625</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>495</v>
+        <v>374</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F27">
-        <v>1.792</v>
+        <v>0.913</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F28">
-        <v>1.676</v>
+        <v>1.434</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>380</v>
+        <v>519</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F29">
-        <v>1.321</v>
+        <v>1.832</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>270</v>
+        <v>524</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F30">
-        <v>0.671</v>
+        <v>1.906</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>137</v>
+        <v>519</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F31">
-        <v>0.259</v>
+        <v>1.884</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>445</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F32">
-        <v>0.041</v>
+        <v>1.841</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.656</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45510</v>
+        <v>45526</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45511</v>
+        <v>45526</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.531</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45511</v>
+        <v>45526</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E36">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45511</v>
+        <v>45526</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45511</v>
+        <v>45526</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45511</v>
+        <v>45526</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>11</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
         <v>12</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.009</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.745</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>651</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2.452</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>769</v>
+        <v>112</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.928</v>
+        <v>0.022</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>845</v>
+        <v>281</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>3.153</v>
+        <v>0.206</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>870</v>
+        <v>455</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>3.124</v>
+        <v>0.924</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>844</v>
+        <v>609</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>3.048</v>
+        <v>1.581</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="D51">
         <v>27</v>
@@ -2076,2747 +2034,2717 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2.721</v>
+        <v>2.278</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>651</v>
+        <v>804</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2.3</v>
+        <v>2.763</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>476</v>
+        <v>827</v>
       </c>
       <c r="D53">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.497</v>
+        <v>3.022</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>294</v>
+        <v>797</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.727</v>
+        <v>3.049</v>
       </c>
       <c r="G54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>133</v>
+        <v>717</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E55">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.245</v>
+        <v>2.95</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>593</v>
       </c>
       <c r="D56">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E56">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.041</v>
+        <v>2.55</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E57">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2.131</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45511</v>
+        <v>45527</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E58">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45512</v>
+        <v>45527</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E59">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45512</v>
+        <v>45527</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
         <v>18</v>
       </c>
-      <c r="E60">
-        <v>30</v>
-      </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45512</v>
+        <v>45527</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45512</v>
+        <v>45527</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E62">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45512</v>
+        <v>45527</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
+        <v>19</v>
+      </c>
+      <c r="E64">
         <v>16</v>
-      </c>
-      <c r="E64">
-        <v>11</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F66">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F67">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>0.9409999999999999</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F69">
-        <v>1.658</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>639</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>2.391</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>755</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F71">
-        <v>2.839</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>829</v>
+        <v>257</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F72">
-        <v>3.054</v>
+        <v>0.201</v>
       </c>
       <c r="G72" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>854</v>
+        <v>442</v>
       </c>
       <c r="D73">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>3.088</v>
+        <v>0.828</v>
       </c>
       <c r="G73" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>827</v>
+        <v>597</v>
       </c>
       <c r="D74">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>2.993</v>
+        <v>1.577</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>2.677</v>
+        <v>2.264</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>602</v>
+        <v>790</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>2.11</v>
+        <v>2.685</v>
       </c>
       <c r="G76" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>424</v>
+        <v>814</v>
       </c>
       <c r="D77">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.355</v>
+        <v>2.989</v>
       </c>
       <c r="G77" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>260</v>
+        <v>785</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E78">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.66</v>
+        <v>3.03</v>
       </c>
       <c r="G78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>116</v>
+        <v>706</v>
       </c>
       <c r="D79">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E79">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.274</v>
+        <v>2.903</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>584</v>
       </c>
       <c r="D80">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E80">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.036</v>
+        <v>2.456</v>
       </c>
       <c r="G80" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E81">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2.118</v>
       </c>
       <c r="G81" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45512</v>
+        <v>45528</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E82">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1.424</v>
       </c>
       <c r="G82" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45513</v>
+        <v>45528</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D83">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E83">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="G83" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45513</v>
+        <v>45528</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G84" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45513</v>
+        <v>45528</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E85">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45513</v>
+        <v>45528</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E86">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45513</v>
+        <v>45528</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>16</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E89">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>19</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F90">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.324</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.666</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>626</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>2.261</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>743</v>
+        <v>94</v>
       </c>
       <c r="D95">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2.797</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>816</v>
+        <v>257</v>
       </c>
       <c r="D96">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>3.031</v>
+        <v>0.161</v>
       </c>
       <c r="G96" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>792</v>
+        <v>428</v>
       </c>
       <c r="D97">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>2.723</v>
+        <v>0.847</v>
       </c>
       <c r="G97" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>704</v>
+        <v>581</v>
       </c>
       <c r="D98">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E98">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>2.266</v>
+        <v>1.634</v>
       </c>
       <c r="G98" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="D99">
         <v>31</v>
       </c>
       <c r="E99">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>2.143</v>
+        <v>2.21</v>
       </c>
       <c r="G99" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>551</v>
+        <v>767</v>
       </c>
       <c r="D100">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E100">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.863</v>
+        <v>2.576</v>
       </c>
       <c r="G100" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>392</v>
+        <v>790</v>
       </c>
       <c r="D101">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E101">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.216</v>
+        <v>2.972</v>
       </c>
       <c r="G101" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>246</v>
+        <v>758</v>
       </c>
       <c r="D102">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E102">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.654</v>
+        <v>2.982</v>
       </c>
       <c r="G102" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>112</v>
+        <v>675</v>
       </c>
       <c r="D103">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E103">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.272</v>
+        <v>2.914</v>
       </c>
       <c r="G103" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>552</v>
       </c>
       <c r="D104">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E104">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.034</v>
+        <v>2.36</v>
       </c>
       <c r="G104" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E105">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="G105" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45513</v>
+        <v>45529</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D106">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E106">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="G106" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45514</v>
+        <v>45529</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D107">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.539</v>
       </c>
       <c r="G107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45514</v>
+        <v>45529</v>
       </c>
       <c r="B108">
+        <v>20</v>
+      </c>
+      <c r="C108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
       <c r="D108">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E108">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="G108" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45514</v>
+        <v>45529</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E109">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45514</v>
+        <v>45529</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E110">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45514</v>
+        <v>45529</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E111">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E112">
-        <v>24</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E113">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E114">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F114">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E115">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F115">
-        <v>0.303</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F116">
-        <v>0.948</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F117">
-        <v>1.666</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>2.261</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>731</v>
+        <v>97</v>
       </c>
       <c r="D119">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>2.778</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>788</v>
+        <v>265</v>
       </c>
       <c r="D120">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>2.79</v>
+        <v>0.167</v>
       </c>
       <c r="G120" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>825</v>
+        <v>438</v>
       </c>
       <c r="D121">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>2.954</v>
+        <v>0.846</v>
       </c>
       <c r="G121" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>798</v>
+        <v>591</v>
       </c>
       <c r="D122">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>2.786</v>
+        <v>1.635</v>
       </c>
       <c r="G122" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="D123">
         <v>31</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>2.468</v>
+        <v>2.23</v>
       </c>
       <c r="G123" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>605</v>
+        <v>786</v>
       </c>
       <c r="D124">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>2.086</v>
+        <v>2.654</v>
       </c>
       <c r="G124" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>450</v>
+        <v>809</v>
       </c>
       <c r="D125">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.42</v>
+        <v>2.962</v>
       </c>
       <c r="G125" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>285</v>
+        <v>778</v>
       </c>
       <c r="D126">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E126">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.71</v>
+        <v>3.027</v>
       </c>
       <c r="G126" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>124</v>
+        <v>700</v>
       </c>
       <c r="D127">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E127">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.239</v>
+        <v>2.911</v>
       </c>
       <c r="G127" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>16</v>
+        <v>575</v>
       </c>
       <c r="D128">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E128">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.034</v>
+        <v>2.456</v>
       </c>
       <c r="G128" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D129">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E129">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="G129" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45514</v>
+        <v>45530</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D130">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E130">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G130" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45515</v>
+        <v>45530</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.537</v>
       </c>
       <c r="G131" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45515</v>
+        <v>45530</v>
       </c>
       <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132">
         <v>1</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
       <c r="D132">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E132">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G132" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45515</v>
+        <v>45530</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E133">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45515</v>
+        <v>45530</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E134">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45515</v>
+        <v>45530</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E135">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E136">
-        <v>11</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F138">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F139">
-        <v>0.282</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F140">
-        <v>0.947</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F141">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>621</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F142">
-        <v>2.265</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>87</v>
+      </c>
+      <c r="D143">
+        <v>21</v>
+      </c>
+      <c r="E143">
         <v>12</v>
       </c>
-      <c r="C143">
-        <v>738</v>
-      </c>
-      <c r="D143">
-        <v>28</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
       <c r="F143">
-        <v>2.818</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>813</v>
+        <v>258</v>
       </c>
       <c r="D144">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F144">
-        <v>3.027</v>
+        <v>0.169</v>
       </c>
       <c r="G144" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>838</v>
+        <v>434</v>
       </c>
       <c r="D145">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>3.059</v>
+        <v>0.837</v>
       </c>
       <c r="G145" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>814</v>
+        <v>588</v>
       </c>
       <c r="D146">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>2.974</v>
+        <v>1.634</v>
       </c>
       <c r="G146" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>742</v>
+        <v>707</v>
       </c>
       <c r="D147">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>2.671</v>
+        <v>2.23</v>
       </c>
       <c r="G147" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>627</v>
+        <v>781</v>
       </c>
       <c r="D148">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2.154</v>
+        <v>2.654</v>
       </c>
       <c r="G148" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>477</v>
+        <v>806</v>
       </c>
       <c r="D149">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.518</v>
+        <v>2.962</v>
       </c>
       <c r="G149" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>308</v>
+        <v>777</v>
       </c>
       <c r="D150">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0.738</v>
+        <v>3.008</v>
       </c>
       <c r="G150" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>134</v>
+        <v>697</v>
       </c>
       <c r="D151">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E151">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.218</v>
+        <v>2.911</v>
       </c>
       <c r="G151" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>16</v>
+        <v>573</v>
       </c>
       <c r="D152">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E152">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.034</v>
+        <v>2.455</v>
       </c>
       <c r="G152" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="D153">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E153">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="G153" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45515</v>
+        <v>45531</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="D154">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E154">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G154" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45516</v>
+        <v>45531</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D155">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E155">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G155" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45516</v>
+        <v>45531</v>
       </c>
       <c r="B156">
+        <v>20</v>
+      </c>
+      <c r="C156">
         <v>1</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
       <c r="D156">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E156">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="G156" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45516</v>
+        <v>45531</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E157">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45516</v>
+        <v>45531</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E158">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45516</v>
+        <v>45531</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E159">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E160">
-        <v>11</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>18</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F162">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F163">
-        <v>0.337</v>
+        <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F164">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F165">
-        <v>1.667</v>
+        <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>631</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F166">
-        <v>2.252</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>749</v>
+        <v>75</v>
       </c>
       <c r="D167">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F167">
-        <v>2.796</v>
+        <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B168">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>824</v>
+        <v>228</v>
       </c>
       <c r="D168">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F168">
-        <v>3.045</v>
+        <v>0.142</v>
       </c>
       <c r="G168" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B169">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>851</v>
+        <v>400</v>
       </c>
       <c r="D169">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F169">
-        <v>3.085</v>
+        <v>0.77</v>
       </c>
       <c r="G169" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45516</v>
+        <v>45532</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>826</v>
+        <v>555</v>
       </c>
       <c r="D170">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F170">
-        <v>2.981</v>
+        <v>1.608</v>
       </c>
       <c r="G170" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,487 +37,487 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>21.08.202411</t>
-  </si>
-  <si>
-    <t>21.08.202412</t>
-  </si>
-  <si>
-    <t>21.08.202413</t>
-  </si>
-  <si>
-    <t>21.08.202414</t>
-  </si>
-  <si>
-    <t>21.08.202415</t>
-  </si>
-  <si>
-    <t>21.08.202416</t>
-  </si>
-  <si>
-    <t>21.08.202417</t>
-  </si>
-  <si>
-    <t>21.08.202418</t>
-  </si>
-  <si>
-    <t>21.08.202419</t>
-  </si>
-  <si>
-    <t>21.08.202420</t>
-  </si>
-  <si>
-    <t>21.08.202421</t>
-  </si>
-  <si>
-    <t>21.08.202422</t>
-  </si>
-  <si>
-    <t>21.08.202423</t>
-  </si>
-  <si>
-    <t>22.08.20241</t>
-  </si>
-  <si>
-    <t>22.08.20242</t>
-  </si>
-  <si>
-    <t>22.08.20243</t>
-  </si>
-  <si>
-    <t>22.08.20244</t>
-  </si>
-  <si>
-    <t>22.08.20245</t>
-  </si>
-  <si>
-    <t>22.08.20246</t>
-  </si>
-  <si>
-    <t>22.08.20247</t>
-  </si>
-  <si>
-    <t>22.08.20248</t>
-  </si>
-  <si>
-    <t>22.08.20249</t>
-  </si>
-  <si>
-    <t>22.08.202410</t>
-  </si>
-  <si>
-    <t>22.08.202411</t>
-  </si>
-  <si>
-    <t>22.08.202412</t>
-  </si>
-  <si>
-    <t>22.08.202413</t>
-  </si>
-  <si>
-    <t>22.08.202414</t>
-  </si>
-  <si>
-    <t>22.08.202415</t>
-  </si>
-  <si>
-    <t>22.08.202416</t>
-  </si>
-  <si>
-    <t>22.08.202417</t>
-  </si>
-  <si>
-    <t>22.08.202418</t>
-  </si>
-  <si>
-    <t>22.08.202419</t>
-  </si>
-  <si>
-    <t>22.08.202420</t>
-  </si>
-  <si>
-    <t>22.08.202421</t>
-  </si>
-  <si>
-    <t>22.08.202422</t>
-  </si>
-  <si>
-    <t>22.08.202423</t>
-  </si>
-  <si>
-    <t>23.08.20241</t>
-  </si>
-  <si>
-    <t>23.08.20242</t>
-  </si>
-  <si>
-    <t>23.08.20243</t>
-  </si>
-  <si>
-    <t>23.08.20244</t>
-  </si>
-  <si>
-    <t>23.08.20245</t>
-  </si>
-  <si>
-    <t>23.08.20246</t>
-  </si>
-  <si>
-    <t>23.08.20247</t>
-  </si>
-  <si>
-    <t>23.08.20248</t>
-  </si>
-  <si>
-    <t>23.08.20249</t>
-  </si>
-  <si>
-    <t>23.08.202410</t>
-  </si>
-  <si>
-    <t>23.08.202411</t>
-  </si>
-  <si>
-    <t>23.08.202412</t>
-  </si>
-  <si>
-    <t>23.08.202413</t>
-  </si>
-  <si>
-    <t>23.08.202414</t>
-  </si>
-  <si>
-    <t>23.08.202415</t>
-  </si>
-  <si>
-    <t>23.08.202416</t>
-  </si>
-  <si>
-    <t>23.08.202417</t>
-  </si>
-  <si>
-    <t>23.08.202418</t>
-  </si>
-  <si>
-    <t>23.08.202419</t>
-  </si>
-  <si>
-    <t>23.08.202420</t>
-  </si>
-  <si>
-    <t>23.08.202421</t>
-  </si>
-  <si>
-    <t>23.08.202422</t>
-  </si>
-  <si>
-    <t>23.08.202423</t>
-  </si>
-  <si>
-    <t>24.08.20241</t>
-  </si>
-  <si>
-    <t>24.08.20242</t>
-  </si>
-  <si>
-    <t>24.08.20243</t>
-  </si>
-  <si>
-    <t>24.08.20244</t>
-  </si>
-  <si>
-    <t>24.08.20245</t>
-  </si>
-  <si>
-    <t>24.08.20246</t>
-  </si>
-  <si>
-    <t>24.08.20247</t>
-  </si>
-  <si>
-    <t>24.08.20248</t>
-  </si>
-  <si>
-    <t>24.08.20249</t>
-  </si>
-  <si>
-    <t>24.08.202410</t>
-  </si>
-  <si>
-    <t>24.08.202411</t>
-  </si>
-  <si>
-    <t>24.08.202412</t>
-  </si>
-  <si>
-    <t>24.08.202413</t>
-  </si>
-  <si>
-    <t>24.08.202414</t>
-  </si>
-  <si>
-    <t>24.08.202415</t>
-  </si>
-  <si>
-    <t>24.08.202416</t>
-  </si>
-  <si>
-    <t>24.08.202417</t>
-  </si>
-  <si>
-    <t>24.08.202418</t>
-  </si>
-  <si>
-    <t>24.08.202419</t>
-  </si>
-  <si>
-    <t>24.08.202420</t>
-  </si>
-  <si>
-    <t>24.08.202421</t>
-  </si>
-  <si>
-    <t>24.08.202422</t>
-  </si>
-  <si>
-    <t>24.08.202423</t>
-  </si>
-  <si>
-    <t>25.08.20241</t>
-  </si>
-  <si>
-    <t>25.08.20242</t>
-  </si>
-  <si>
-    <t>25.08.20243</t>
-  </si>
-  <si>
-    <t>25.08.20244</t>
-  </si>
-  <si>
-    <t>25.08.20245</t>
-  </si>
-  <si>
-    <t>25.08.20246</t>
-  </si>
-  <si>
-    <t>25.08.20247</t>
-  </si>
-  <si>
-    <t>25.08.20248</t>
-  </si>
-  <si>
-    <t>25.08.20249</t>
-  </si>
-  <si>
-    <t>25.08.202410</t>
-  </si>
-  <si>
-    <t>25.08.202411</t>
-  </si>
-  <si>
-    <t>25.08.202412</t>
-  </si>
-  <si>
-    <t>25.08.202413</t>
-  </si>
-  <si>
-    <t>25.08.202414</t>
-  </si>
-  <si>
-    <t>25.08.202415</t>
-  </si>
-  <si>
-    <t>25.08.202416</t>
-  </si>
-  <si>
-    <t>25.08.202417</t>
-  </si>
-  <si>
-    <t>25.08.202418</t>
-  </si>
-  <si>
-    <t>25.08.202419</t>
-  </si>
-  <si>
-    <t>25.08.202420</t>
-  </si>
-  <si>
-    <t>25.08.202421</t>
-  </si>
-  <si>
-    <t>25.08.202422</t>
-  </si>
-  <si>
-    <t>25.08.202423</t>
-  </si>
-  <si>
-    <t>26.08.20241</t>
-  </si>
-  <si>
-    <t>26.08.20242</t>
-  </si>
-  <si>
-    <t>26.08.20243</t>
-  </si>
-  <si>
-    <t>26.08.20244</t>
-  </si>
-  <si>
-    <t>26.08.20245</t>
-  </si>
-  <si>
-    <t>26.08.20246</t>
-  </si>
-  <si>
-    <t>26.08.20247</t>
-  </si>
-  <si>
-    <t>26.08.20248</t>
-  </si>
-  <si>
-    <t>26.08.20249</t>
-  </si>
-  <si>
-    <t>26.08.202410</t>
-  </si>
-  <si>
-    <t>26.08.202411</t>
-  </si>
-  <si>
-    <t>26.08.202412</t>
-  </si>
-  <si>
-    <t>26.08.202413</t>
-  </si>
-  <si>
-    <t>26.08.202414</t>
-  </si>
-  <si>
-    <t>26.08.202415</t>
-  </si>
-  <si>
-    <t>26.08.202416</t>
-  </si>
-  <si>
-    <t>26.08.202417</t>
-  </si>
-  <si>
-    <t>26.08.202418</t>
-  </si>
-  <si>
-    <t>26.08.202419</t>
-  </si>
-  <si>
-    <t>26.08.202420</t>
-  </si>
-  <si>
-    <t>26.08.202421</t>
-  </si>
-  <si>
-    <t>26.08.202422</t>
-  </si>
-  <si>
-    <t>26.08.202423</t>
-  </si>
-  <si>
-    <t>27.08.20241</t>
-  </si>
-  <si>
-    <t>27.08.20242</t>
-  </si>
-  <si>
-    <t>27.08.20243</t>
-  </si>
-  <si>
-    <t>27.08.20244</t>
-  </si>
-  <si>
-    <t>27.08.20245</t>
-  </si>
-  <si>
-    <t>27.08.20246</t>
-  </si>
-  <si>
-    <t>27.08.20247</t>
-  </si>
-  <si>
-    <t>27.08.20248</t>
-  </si>
-  <si>
-    <t>27.08.20249</t>
-  </si>
-  <si>
-    <t>27.08.202410</t>
-  </si>
-  <si>
-    <t>27.08.202411</t>
-  </si>
-  <si>
-    <t>27.08.202412</t>
-  </si>
-  <si>
-    <t>27.08.202413</t>
-  </si>
-  <si>
-    <t>27.08.202414</t>
-  </si>
-  <si>
-    <t>27.08.202415</t>
-  </si>
-  <si>
-    <t>27.08.202416</t>
-  </si>
-  <si>
-    <t>27.08.202417</t>
-  </si>
-  <si>
-    <t>27.08.202418</t>
-  </si>
-  <si>
-    <t>27.08.202419</t>
-  </si>
-  <si>
-    <t>27.08.202420</t>
-  </si>
-  <si>
-    <t>27.08.202421</t>
-  </si>
-  <si>
-    <t>27.08.202422</t>
-  </si>
-  <si>
-    <t>27.08.202423</t>
-  </si>
-  <si>
-    <t>28.08.20241</t>
-  </si>
-  <si>
-    <t>28.08.20242</t>
-  </si>
-  <si>
-    <t>28.08.20243</t>
-  </si>
-  <si>
-    <t>28.08.20244</t>
-  </si>
-  <si>
-    <t>28.08.20245</t>
-  </si>
-  <si>
-    <t>28.08.20246</t>
-  </si>
-  <si>
-    <t>28.08.20247</t>
-  </si>
-  <si>
-    <t>28.08.20248</t>
-  </si>
-  <si>
-    <t>28.08.20249</t>
-  </si>
-  <si>
-    <t>28.08.202410</t>
+    <t>29.08.202411</t>
+  </si>
+  <si>
+    <t>29.08.202412</t>
+  </si>
+  <si>
+    <t>29.08.202413</t>
+  </si>
+  <si>
+    <t>29.08.202414</t>
+  </si>
+  <si>
+    <t>29.08.202415</t>
+  </si>
+  <si>
+    <t>29.08.202416</t>
+  </si>
+  <si>
+    <t>29.08.202417</t>
+  </si>
+  <si>
+    <t>29.08.202418</t>
+  </si>
+  <si>
+    <t>29.08.202419</t>
+  </si>
+  <si>
+    <t>29.08.202420</t>
+  </si>
+  <si>
+    <t>29.08.202421</t>
+  </si>
+  <si>
+    <t>29.08.202422</t>
+  </si>
+  <si>
+    <t>29.08.202423</t>
+  </si>
+  <si>
+    <t>30.08.20241</t>
+  </si>
+  <si>
+    <t>30.08.20242</t>
+  </si>
+  <si>
+    <t>30.08.20243</t>
+  </si>
+  <si>
+    <t>30.08.20244</t>
+  </si>
+  <si>
+    <t>30.08.20245</t>
+  </si>
+  <si>
+    <t>30.08.20246</t>
+  </si>
+  <si>
+    <t>30.08.20247</t>
+  </si>
+  <si>
+    <t>30.08.20248</t>
+  </si>
+  <si>
+    <t>30.08.20249</t>
+  </si>
+  <si>
+    <t>30.08.202410</t>
+  </si>
+  <si>
+    <t>30.08.202411</t>
+  </si>
+  <si>
+    <t>30.08.202412</t>
+  </si>
+  <si>
+    <t>30.08.202413</t>
+  </si>
+  <si>
+    <t>30.08.202414</t>
+  </si>
+  <si>
+    <t>30.08.202415</t>
+  </si>
+  <si>
+    <t>30.08.202416</t>
+  </si>
+  <si>
+    <t>30.08.202417</t>
+  </si>
+  <si>
+    <t>30.08.202418</t>
+  </si>
+  <si>
+    <t>30.08.202419</t>
+  </si>
+  <si>
+    <t>30.08.202420</t>
+  </si>
+  <si>
+    <t>30.08.202421</t>
+  </si>
+  <si>
+    <t>30.08.202422</t>
+  </si>
+  <si>
+    <t>30.08.202423</t>
+  </si>
+  <si>
+    <t>31.08.20241</t>
+  </si>
+  <si>
+    <t>31.08.20242</t>
+  </si>
+  <si>
+    <t>31.08.20243</t>
+  </si>
+  <si>
+    <t>31.08.20244</t>
+  </si>
+  <si>
+    <t>31.08.20245</t>
+  </si>
+  <si>
+    <t>31.08.20246</t>
+  </si>
+  <si>
+    <t>31.08.20247</t>
+  </si>
+  <si>
+    <t>31.08.20248</t>
+  </si>
+  <si>
+    <t>31.08.20249</t>
+  </si>
+  <si>
+    <t>31.08.202410</t>
+  </si>
+  <si>
+    <t>31.08.202411</t>
+  </si>
+  <si>
+    <t>31.08.202412</t>
+  </si>
+  <si>
+    <t>31.08.202413</t>
+  </si>
+  <si>
+    <t>31.08.202414</t>
+  </si>
+  <si>
+    <t>31.08.202415</t>
+  </si>
+  <si>
+    <t>31.08.202416</t>
+  </si>
+  <si>
+    <t>31.08.202417</t>
+  </si>
+  <si>
+    <t>31.08.202418</t>
+  </si>
+  <si>
+    <t>31.08.202419</t>
+  </si>
+  <si>
+    <t>31.08.202420</t>
+  </si>
+  <si>
+    <t>31.08.202421</t>
+  </si>
+  <si>
+    <t>31.08.202422</t>
+  </si>
+  <si>
+    <t>31.08.202423</t>
+  </si>
+  <si>
+    <t>01.09.20241</t>
+  </si>
+  <si>
+    <t>01.09.20242</t>
+  </si>
+  <si>
+    <t>01.09.20243</t>
+  </si>
+  <si>
+    <t>01.09.20244</t>
+  </si>
+  <si>
+    <t>01.09.20245</t>
+  </si>
+  <si>
+    <t>01.09.20246</t>
+  </si>
+  <si>
+    <t>01.09.20247</t>
+  </si>
+  <si>
+    <t>01.09.20248</t>
+  </si>
+  <si>
+    <t>01.09.20249</t>
+  </si>
+  <si>
+    <t>01.09.202410</t>
+  </si>
+  <si>
+    <t>01.09.202411</t>
+  </si>
+  <si>
+    <t>01.09.202412</t>
+  </si>
+  <si>
+    <t>01.09.202413</t>
+  </si>
+  <si>
+    <t>01.09.202414</t>
+  </si>
+  <si>
+    <t>01.09.202415</t>
+  </si>
+  <si>
+    <t>01.09.202416</t>
+  </si>
+  <si>
+    <t>01.09.202417</t>
+  </si>
+  <si>
+    <t>01.09.202418</t>
+  </si>
+  <si>
+    <t>01.09.202419</t>
+  </si>
+  <si>
+    <t>01.09.202420</t>
+  </si>
+  <si>
+    <t>01.09.202421</t>
+  </si>
+  <si>
+    <t>01.09.202422</t>
+  </si>
+  <si>
+    <t>01.09.202423</t>
+  </si>
+  <si>
+    <t>02.09.20241</t>
+  </si>
+  <si>
+    <t>02.09.20242</t>
+  </si>
+  <si>
+    <t>02.09.20243</t>
+  </si>
+  <si>
+    <t>02.09.20244</t>
+  </si>
+  <si>
+    <t>02.09.20245</t>
+  </si>
+  <si>
+    <t>02.09.20246</t>
+  </si>
+  <si>
+    <t>02.09.20247</t>
+  </si>
+  <si>
+    <t>02.09.20248</t>
+  </si>
+  <si>
+    <t>02.09.20249</t>
+  </si>
+  <si>
+    <t>02.09.202410</t>
+  </si>
+  <si>
+    <t>02.09.202411</t>
+  </si>
+  <si>
+    <t>02.09.202412</t>
+  </si>
+  <si>
+    <t>02.09.202413</t>
+  </si>
+  <si>
+    <t>02.09.202414</t>
+  </si>
+  <si>
+    <t>02.09.202415</t>
+  </si>
+  <si>
+    <t>02.09.202416</t>
+  </si>
+  <si>
+    <t>02.09.202417</t>
+  </si>
+  <si>
+    <t>02.09.202418</t>
+  </si>
+  <si>
+    <t>02.09.202419</t>
+  </si>
+  <si>
+    <t>02.09.202420</t>
+  </si>
+  <si>
+    <t>02.09.202421</t>
+  </si>
+  <si>
+    <t>02.09.202422</t>
+  </si>
+  <si>
+    <t>02.09.202423</t>
+  </si>
+  <si>
+    <t>03.09.20241</t>
+  </si>
+  <si>
+    <t>03.09.20242</t>
+  </si>
+  <si>
+    <t>03.09.20243</t>
+  </si>
+  <si>
+    <t>03.09.20244</t>
+  </si>
+  <si>
+    <t>03.09.20245</t>
+  </si>
+  <si>
+    <t>03.09.20246</t>
+  </si>
+  <si>
+    <t>03.09.20247</t>
+  </si>
+  <si>
+    <t>03.09.20248</t>
+  </si>
+  <si>
+    <t>03.09.20249</t>
+  </si>
+  <si>
+    <t>03.09.202410</t>
+  </si>
+  <si>
+    <t>03.09.202411</t>
+  </si>
+  <si>
+    <t>03.09.202412</t>
+  </si>
+  <si>
+    <t>03.09.202413</t>
+  </si>
+  <si>
+    <t>03.09.202414</t>
+  </si>
+  <si>
+    <t>03.09.202415</t>
+  </si>
+  <si>
+    <t>03.09.202416</t>
+  </si>
+  <si>
+    <t>03.09.202417</t>
+  </si>
+  <si>
+    <t>03.09.202418</t>
+  </si>
+  <si>
+    <t>03.09.202419</t>
+  </si>
+  <si>
+    <t>03.09.202420</t>
+  </si>
+  <si>
+    <t>03.09.202421</t>
+  </si>
+  <si>
+    <t>03.09.202422</t>
+  </si>
+  <si>
+    <t>03.09.202423</t>
+  </si>
+  <si>
+    <t>04.09.20241</t>
+  </si>
+  <si>
+    <t>04.09.20242</t>
+  </si>
+  <si>
+    <t>04.09.20243</t>
+  </si>
+  <si>
+    <t>04.09.20244</t>
+  </si>
+  <si>
+    <t>04.09.20245</t>
+  </si>
+  <si>
+    <t>04.09.20246</t>
+  </si>
+  <si>
+    <t>04.09.20247</t>
+  </si>
+  <si>
+    <t>04.09.20248</t>
+  </si>
+  <si>
+    <t>04.09.20249</t>
+  </si>
+  <si>
+    <t>04.09.202410</t>
+  </si>
+  <si>
+    <t>04.09.202411</t>
+  </si>
+  <si>
+    <t>04.09.202412</t>
+  </si>
+  <si>
+    <t>04.09.202413</t>
+  </si>
+  <si>
+    <t>04.09.202414</t>
+  </si>
+  <si>
+    <t>04.09.202415</t>
+  </si>
+  <si>
+    <t>04.09.202416</t>
+  </si>
+  <si>
+    <t>04.09.202417</t>
+  </si>
+  <si>
+    <t>04.09.202418</t>
+  </si>
+  <si>
+    <t>04.09.202419</t>
+  </si>
+  <si>
+    <t>04.09.202420</t>
+  </si>
+  <si>
+    <t>04.09.202421</t>
+  </si>
+  <si>
+    <t>04.09.202422</t>
+  </si>
+  <si>
+    <t>04.09.202423</t>
+  </si>
+  <si>
+    <t>05.09.20241</t>
+  </si>
+  <si>
+    <t>05.09.20242</t>
+  </si>
+  <si>
+    <t>05.09.20243</t>
+  </si>
+  <si>
+    <t>05.09.20244</t>
+  </si>
+  <si>
+    <t>05.09.20245</t>
+  </si>
+  <si>
+    <t>05.09.20246</t>
+  </si>
+  <si>
+    <t>05.09.20247</t>
+  </si>
+  <si>
+    <t>05.09.20248</t>
+  </si>
+  <si>
+    <t>05.09.20249</t>
+  </si>
+  <si>
+    <t>05.09.202410</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -950,19 +950,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>807</v>
+        <v>732</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>831</v>
+        <v>626</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>3.019</v>
+        <v>2.834</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
       <c r="C6">
-        <v>802</v>
+        <v>454</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>3.048</v>
+        <v>2.195</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1019,22 +1019,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>723</v>
+        <v>444</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>2.963</v>
+        <v>1.713</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
       <c r="C8">
-        <v>601</v>
+        <v>371</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>2.554</v>
+        <v>1.721</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B9">
         <v>17</v>
       </c>
       <c r="C9">
-        <v>446</v>
+        <v>236</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>2.151</v>
+        <v>1.446</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1088,22 +1088,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B10">
         <v>18</v>
       </c>
       <c r="C10">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>1.45</v>
+        <v>0.848</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1111,22 +1111,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B11">
         <v>19</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F11">
-        <v>0.652</v>
+        <v>0.351</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1134,22 +1134,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F12">
-        <v>0.15</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B15">
         <v>23</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1235,15 +1235,15 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>44</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1298,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1358,19 +1358,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>0.061</v>
+        <v>0.079</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F25">
-        <v>0.292</v>
+        <v>0.481</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1450,22 +1450,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F26">
-        <v>0.625</v>
+        <v>0.889</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1473,22 +1473,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>0.913</v>
+        <v>1.405</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>1.434</v>
+        <v>1.637</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B29">
         <v>13</v>
       </c>
       <c r="C29">
-        <v>519</v>
+        <v>476</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>1.832</v>
+        <v>1.827</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1542,22 +1542,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B30">
         <v>14</v>
       </c>
       <c r="C30">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F30">
-        <v>1.906</v>
+        <v>1.79</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1565,22 +1565,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
       <c r="C31">
-        <v>519</v>
+        <v>447</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F31">
-        <v>1.884</v>
+        <v>1.793</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1588,22 +1588,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
       <c r="C32">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F32">
-        <v>1.841</v>
+        <v>1.699</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B33">
         <v>17</v>
       </c>
       <c r="C33">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F33">
-        <v>1.656</v>
+        <v>1.573</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -1634,22 +1634,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B34">
         <v>18</v>
       </c>
       <c r="C34">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F34">
-        <v>1.1</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -1657,22 +1657,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B35">
         <v>19</v>
       </c>
       <c r="C35">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F35">
-        <v>0.531</v>
+        <v>0.437</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -1680,22 +1680,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B36">
         <v>20</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>23</v>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F36">
-        <v>0.134</v>
+        <v>0.054</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B37">
         <v>21</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B38">
         <v>22</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45526</v>
+        <v>45534</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1781,15 +1781,15 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1798,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1890,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1904,19 +1904,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1927,22 +1927,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
       <c r="C47">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>49</v>
@@ -1950,22 +1950,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>0.206</v>
+        <v>0.105</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B49">
         <v>9</v>
       </c>
       <c r="C49">
-        <v>455</v>
+        <v>378</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>0.924</v>
+        <v>0.711</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1996,22 +1996,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
       <c r="C50">
-        <v>609</v>
+        <v>561</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.581</v>
+        <v>1.543</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2019,22 +2019,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B51">
         <v>11</v>
       </c>
       <c r="C51">
-        <v>729</v>
+        <v>683</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2.278</v>
+        <v>1.977</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B52">
         <v>12</v>
       </c>
       <c r="C52">
-        <v>804</v>
+        <v>756</v>
       </c>
       <c r="D52">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2.763</v>
+        <v>2.602</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B53">
         <v>13</v>
       </c>
       <c r="C53">
-        <v>827</v>
+        <v>763</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>3.022</v>
+        <v>2.975</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B54">
         <v>14</v>
       </c>
       <c r="C54">
-        <v>797</v>
+        <v>711</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>3.049</v>
+        <v>2.779</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2111,22 +2111,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B55">
         <v>15</v>
       </c>
       <c r="C55">
-        <v>717</v>
+        <v>632</v>
       </c>
       <c r="D55">
         <v>31</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>2.95</v>
+        <v>2.486</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -2134,22 +2134,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B56">
         <v>16</v>
       </c>
       <c r="C56">
-        <v>593</v>
+        <v>499</v>
       </c>
       <c r="D56">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B57">
         <v>17</v>
       </c>
       <c r="C57">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="D57">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>2.131</v>
+        <v>1.704</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -2180,22 +2180,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
       <c r="C58">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F58">
-        <v>1.36</v>
+        <v>1.132</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2203,22 +2203,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B59">
         <v>19</v>
       </c>
       <c r="C59">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D59">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F59">
-        <v>0.59</v>
+        <v>0.503</v>
       </c>
       <c r="G59" t="s">
         <v>61</v>
@@ -2226,22 +2226,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B60">
         <v>20</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>24</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F60">
-        <v>0.147</v>
+        <v>0.067</v>
       </c>
       <c r="G60" t="s">
         <v>62</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B61">
         <v>21</v>
@@ -2261,7 +2261,7 @@
         <v>22</v>
       </c>
       <c r="E61">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B62">
         <v>22</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E62">
         <v>26</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45527</v>
+        <v>45535</v>
       </c>
       <c r="B63">
         <v>23</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E63">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2330,12 +2330,12 @@
         <v>19</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -2393,7 +2393,7 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -2416,7 +2416,7 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2436,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2450,19 +2450,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2473,19 +2473,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
       <c r="C71">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2496,22 +2496,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="D72">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F72">
-        <v>0.201</v>
+        <v>0.061</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73">
-        <v>442</v>
+        <v>224</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F73">
-        <v>0.828</v>
+        <v>0.413</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2542,22 +2542,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
       <c r="C74">
-        <v>597</v>
+        <v>349</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F74">
-        <v>1.577</v>
+        <v>0.853</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2565,22 +2565,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B75">
         <v>11</v>
       </c>
       <c r="C75">
-        <v>716</v>
+        <v>461</v>
       </c>
       <c r="D75">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F75">
-        <v>2.264</v>
+        <v>1.312</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B76">
         <v>12</v>
       </c>
       <c r="C76">
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="D76">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F76">
-        <v>2.685</v>
+        <v>1.915</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B77">
         <v>13</v>
       </c>
       <c r="C77">
-        <v>814</v>
+        <v>612</v>
       </c>
       <c r="D77">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F77">
-        <v>2.989</v>
+        <v>2.105</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B78">
         <v>14</v>
       </c>
       <c r="C78">
-        <v>785</v>
+        <v>633</v>
       </c>
       <c r="D78">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F78">
-        <v>3.03</v>
+        <v>2.225</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B79">
         <v>15</v>
       </c>
       <c r="C79">
-        <v>706</v>
+        <v>578</v>
       </c>
       <c r="D79">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F79">
-        <v>2.903</v>
+        <v>2.277</v>
       </c>
       <c r="G79" t="s">
         <v>80</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B80">
         <v>16</v>
       </c>
       <c r="C80">
-        <v>584</v>
+        <v>445</v>
       </c>
       <c r="D80">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F80">
-        <v>2.456</v>
+        <v>2.103</v>
       </c>
       <c r="G80" t="s">
         <v>81</v>
@@ -2703,22 +2703,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B81">
         <v>17</v>
       </c>
       <c r="C81">
-        <v>428</v>
+        <v>286</v>
       </c>
       <c r="D81">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F81">
-        <v>2.118</v>
+        <v>1.803</v>
       </c>
       <c r="G81" t="s">
         <v>82</v>
@@ -2726,22 +2726,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B82">
         <v>18</v>
       </c>
       <c r="C82">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="D82">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F82">
-        <v>1.424</v>
+        <v>1.09</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -2749,22 +2749,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
       <c r="C83">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D83">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F83">
-        <v>0.629</v>
+        <v>0.39</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2772,22 +2772,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B84">
         <v>20</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F84">
-        <v>0.125</v>
+        <v>0.046</v>
       </c>
       <c r="G84" t="s">
         <v>85</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B85">
         <v>21</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B86">
         <v>22</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E86">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45528</v>
+        <v>45536</v>
       </c>
       <c r="B87">
         <v>23</v>
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E87">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2876,12 +2876,12 @@
         <v>20</v>
       </c>
       <c r="E88">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2890,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E89">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -2982,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2996,19 +2996,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B94">
         <v>6</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3019,19 +3019,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
       <c r="C95">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3042,22 +3042,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B96">
         <v>8</v>
       </c>
       <c r="C96">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="D96">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F96">
-        <v>0.161</v>
+        <v>0.097</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3065,22 +3065,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B97">
         <v>9</v>
       </c>
       <c r="C97">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D97">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.847</v>
+        <v>0.789</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3088,22 +3088,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B98">
         <v>10</v>
       </c>
       <c r="C98">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="D98">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.634</v>
+        <v>1.724</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3111,22 +3111,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B99">
         <v>11</v>
       </c>
       <c r="C99">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="D99">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>2.21</v>
+        <v>2.294</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B100">
         <v>12</v>
       </c>
       <c r="C100">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="D100">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>2.576</v>
+        <v>2.86</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3157,22 +3157,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B101">
         <v>13</v>
       </c>
       <c r="C101">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="D101">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>2.972</v>
+        <v>3.07</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B102">
         <v>14</v>
       </c>
       <c r="C102">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="D102">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>2.982</v>
+        <v>3.066</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3203,22 +3203,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B103">
         <v>15</v>
       </c>
       <c r="C103">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="D103">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>2.914</v>
+        <v>3.008</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3226,22 +3226,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B104">
         <v>16</v>
       </c>
       <c r="C104">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="D104">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F104">
-        <v>2.36</v>
+        <v>2.67</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B105">
         <v>17</v>
       </c>
       <c r="C105">
-        <v>395</v>
+        <v>321</v>
       </c>
       <c r="D105">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F105">
-        <v>1.93</v>
+        <v>1.982</v>
       </c>
       <c r="G105" t="s">
         <v>105</v>
@@ -3272,22 +3272,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B106">
         <v>18</v>
       </c>
       <c r="C106">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="D106">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E106">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F106">
-        <v>1.26</v>
+        <v>1.121</v>
       </c>
       <c r="G106" t="s">
         <v>106</v>
@@ -3295,22 +3295,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B107">
         <v>19</v>
       </c>
       <c r="C107">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D107">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E107">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F107">
-        <v>0.539</v>
+        <v>0.46</v>
       </c>
       <c r="G107" t="s">
         <v>107</v>
@@ -3318,22 +3318,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B108">
         <v>20</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E108">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F108">
-        <v>0.121</v>
+        <v>0.054</v>
       </c>
       <c r="G108" t="s">
         <v>108</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B109">
         <v>21</v>
@@ -3350,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E109">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B110">
         <v>22</v>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E110">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45529</v>
+        <v>45537</v>
       </c>
       <c r="B111">
         <v>23</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E111">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3419,15 +3419,15 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E112">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E113">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E114">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -3482,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E115">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E116">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -3528,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E117">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3542,19 +3542,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B118">
         <v>6</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3565,19 +3565,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B119">
         <v>7</v>
       </c>
       <c r="C119">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D119">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B120">
         <v>8</v>
       </c>
       <c r="C120">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="D120">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F120">
-        <v>0.167</v>
+        <v>0.1</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B121">
         <v>9</v>
       </c>
       <c r="C121">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="D121">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>0.846</v>
+        <v>0.65</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B122">
         <v>10</v>
       </c>
       <c r="C122">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="D122">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.635</v>
+        <v>1.621</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B123">
         <v>11</v>
       </c>
       <c r="C123">
-        <v>710</v>
+        <v>654</v>
       </c>
       <c r="D123">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>2.23</v>
+        <v>2.291</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B124">
         <v>12</v>
       </c>
       <c r="C124">
-        <v>786</v>
+        <v>724</v>
       </c>
       <c r="D124">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>2.654</v>
+        <v>2.77</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B125">
         <v>13</v>
       </c>
       <c r="C125">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="D125">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>2.962</v>
+        <v>3.003</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B126">
         <v>14</v>
       </c>
       <c r="C126">
-        <v>778</v>
+        <v>720</v>
       </c>
       <c r="D126">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>3.027</v>
+        <v>3.067</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B127">
         <v>15</v>
       </c>
       <c r="C127">
-        <v>700</v>
+        <v>635</v>
       </c>
       <c r="D127">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>2.911</v>
+        <v>2.965</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B128">
         <v>16</v>
       </c>
       <c r="C128">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="D128">
         <v>33</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>2.456</v>
+        <v>2.646</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B129">
         <v>17</v>
       </c>
       <c r="C129">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="D129">
         <v>33</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F129">
-        <v>2.07</v>
+        <v>2.011</v>
       </c>
       <c r="G129" t="s">
         <v>128</v>
@@ -3818,22 +3818,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B130">
         <v>18</v>
       </c>
       <c r="C130">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="D130">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E130">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F130">
-        <v>1.25</v>
+        <v>1.153</v>
       </c>
       <c r="G130" t="s">
         <v>129</v>
@@ -3841,22 +3841,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B131">
         <v>19</v>
       </c>
       <c r="C131">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D131">
         <v>29</v>
       </c>
       <c r="E131">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F131">
-        <v>0.537</v>
+        <v>0.459</v>
       </c>
       <c r="G131" t="s">
         <v>130</v>
@@ -3864,22 +3864,22 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B132">
         <v>20</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E132">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F132">
-        <v>0.08699999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="G132" t="s">
         <v>131</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B133">
         <v>21</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E133">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B134">
         <v>22</v>
@@ -3922,7 +3922,7 @@
         <v>23</v>
       </c>
       <c r="E134">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45530</v>
+        <v>45538</v>
       </c>
       <c r="B135">
         <v>23</v>
@@ -3945,7 +3945,7 @@
         <v>22</v>
       </c>
       <c r="E135">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3965,15 +3965,15 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E136">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D137">
+        <v>21</v>
+      </c>
+      <c r="E137">
         <v>20</v>
-      </c>
-      <c r="E137">
-        <v>30</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -4005,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E138">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -4031,7 +4031,7 @@
         <v>19</v>
       </c>
       <c r="E139">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -4051,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E140">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -4077,7 +4077,7 @@
         <v>18</v>
       </c>
       <c r="E141">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4088,19 +4088,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B142">
         <v>6</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E142">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4111,19 +4111,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D143">
         <v>21</v>
       </c>
       <c r="E143">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B144">
         <v>8</v>
       </c>
       <c r="C144">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D144">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F144">
-        <v>0.169</v>
+        <v>0.098</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B145">
         <v>9</v>
       </c>
       <c r="C145">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="D145">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F145">
-        <v>0.837</v>
+        <v>0.649</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B146">
         <v>10</v>
       </c>
       <c r="C146">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="D146">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.634</v>
+        <v>1.662</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4203,22 +4203,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B147">
         <v>11</v>
       </c>
       <c r="C147">
-        <v>707</v>
+        <v>669</v>
       </c>
       <c r="D147">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>2.23</v>
+        <v>2.289</v>
       </c>
       <c r="G147" t="s">
         <v>145</v>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B148">
         <v>12</v>
       </c>
       <c r="C148">
-        <v>781</v>
+        <v>743</v>
       </c>
       <c r="D148">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2.654</v>
+        <v>2.778</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B149">
         <v>13</v>
       </c>
       <c r="C149">
-        <v>806</v>
+        <v>766</v>
       </c>
       <c r="D149">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>2.962</v>
+        <v>3.069</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4272,13 +4272,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B150">
         <v>14</v>
       </c>
       <c r="C150">
-        <v>777</v>
+        <v>735</v>
       </c>
       <c r="D150">
         <v>34</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3.008</v>
+        <v>3.066</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
       <c r="C151">
-        <v>697</v>
+        <v>653</v>
       </c>
       <c r="D151">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>2.911</v>
+        <v>3.008</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4318,13 +4318,13 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B152">
         <v>16</v>
       </c>
       <c r="C152">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="D152">
         <v>34</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2.455</v>
+        <v>2.67</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B153">
         <v>17</v>
       </c>
       <c r="C153">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="D153">
         <v>34</v>
       </c>
       <c r="E153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F153">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="G153" t="s">
         <v>151</v>
@@ -4364,22 +4364,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B154">
         <v>18</v>
       </c>
       <c r="C154">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D154">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E154">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F154">
-        <v>1.3</v>
+        <v>1.162</v>
       </c>
       <c r="G154" t="s">
         <v>152</v>
@@ -4387,22 +4387,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B155">
         <v>19</v>
       </c>
       <c r="C155">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D155">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E155">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F155">
-        <v>0.5600000000000001</v>
+        <v>0.507</v>
       </c>
       <c r="G155" t="s">
         <v>153</v>
@@ -4410,22 +4410,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B156">
         <v>20</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E156">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F156">
-        <v>0.107</v>
+        <v>0.065</v>
       </c>
       <c r="G156" t="s">
         <v>154</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B157">
         <v>21</v>
@@ -4445,7 +4445,7 @@
         <v>25</v>
       </c>
       <c r="E157">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B158">
         <v>22</v>
@@ -4465,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E158">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45531</v>
+        <v>45539</v>
       </c>
       <c r="B159">
         <v>23</v>
@@ -4488,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E159">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4511,15 +4511,15 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E160">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E161">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="D162">
+        <v>20</v>
+      </c>
+      <c r="E162">
         <v>18</v>
-      </c>
-      <c r="E162">
-        <v>27</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -4574,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="D163">
+        <v>19</v>
+      </c>
+      <c r="E163">
         <v>17</v>
-      </c>
-      <c r="E163">
-        <v>25</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -4597,10 +4597,10 @@
         <v>0</v>
       </c>
       <c r="D164">
+        <v>18</v>
+      </c>
+      <c r="E164">
         <v>17</v>
-      </c>
-      <c r="E164">
-        <v>23</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -4620,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E165">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4634,19 +4634,19 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B166">
         <v>6</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E166">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4657,19 +4657,19 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B167">
         <v>7</v>
       </c>
       <c r="C167">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D167">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E167">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4680,22 +4680,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B168">
         <v>8</v>
       </c>
       <c r="C168">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D168">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E168">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F168">
-        <v>0.142</v>
+        <v>0.1</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4703,22 +4703,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B169">
         <v>9</v>
       </c>
       <c r="C169">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D169">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F169">
-        <v>0.77</v>
+        <v>0.743</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45532</v>
+        <v>45540</v>
       </c>
       <c r="B170">
         <v>10</v>
       </c>
       <c r="C170">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D170">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.608</v>
+        <v>1.66</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,487 +37,487 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.08.202411</t>
-  </si>
-  <si>
-    <t>29.08.202412</t>
-  </si>
-  <si>
-    <t>29.08.202413</t>
-  </si>
-  <si>
-    <t>29.08.202414</t>
-  </si>
-  <si>
-    <t>29.08.202415</t>
-  </si>
-  <si>
-    <t>29.08.202416</t>
-  </si>
-  <si>
-    <t>29.08.202417</t>
-  </si>
-  <si>
-    <t>29.08.202418</t>
-  </si>
-  <si>
-    <t>29.08.202419</t>
-  </si>
-  <si>
-    <t>29.08.202420</t>
-  </si>
-  <si>
-    <t>29.08.202421</t>
-  </si>
-  <si>
-    <t>29.08.202422</t>
-  </si>
-  <si>
-    <t>29.08.202423</t>
-  </si>
-  <si>
-    <t>30.08.20241</t>
-  </si>
-  <si>
-    <t>30.08.20242</t>
-  </si>
-  <si>
-    <t>30.08.20243</t>
-  </si>
-  <si>
-    <t>30.08.20244</t>
-  </si>
-  <si>
-    <t>30.08.20245</t>
-  </si>
-  <si>
-    <t>30.08.20246</t>
-  </si>
-  <si>
-    <t>30.08.20247</t>
-  </si>
-  <si>
-    <t>30.08.20248</t>
-  </si>
-  <si>
-    <t>30.08.20249</t>
-  </si>
-  <si>
-    <t>30.08.202410</t>
-  </si>
-  <si>
-    <t>30.08.202411</t>
-  </si>
-  <si>
-    <t>30.08.202412</t>
-  </si>
-  <si>
-    <t>30.08.202413</t>
-  </si>
-  <si>
-    <t>30.08.202414</t>
-  </si>
-  <si>
-    <t>30.08.202415</t>
-  </si>
-  <si>
-    <t>30.08.202416</t>
-  </si>
-  <si>
-    <t>30.08.202417</t>
-  </si>
-  <si>
-    <t>30.08.202418</t>
-  </si>
-  <si>
-    <t>30.08.202419</t>
-  </si>
-  <si>
-    <t>30.08.202420</t>
-  </si>
-  <si>
-    <t>30.08.202421</t>
-  </si>
-  <si>
-    <t>30.08.202422</t>
-  </si>
-  <si>
-    <t>30.08.202423</t>
-  </si>
-  <si>
-    <t>31.08.20241</t>
-  </si>
-  <si>
-    <t>31.08.20242</t>
-  </si>
-  <si>
-    <t>31.08.20243</t>
-  </si>
-  <si>
-    <t>31.08.20244</t>
-  </si>
-  <si>
-    <t>31.08.20245</t>
-  </si>
-  <si>
-    <t>31.08.20246</t>
-  </si>
-  <si>
-    <t>31.08.20247</t>
-  </si>
-  <si>
-    <t>31.08.20248</t>
-  </si>
-  <si>
-    <t>31.08.20249</t>
-  </si>
-  <si>
-    <t>31.08.202410</t>
-  </si>
-  <si>
-    <t>31.08.202411</t>
-  </si>
-  <si>
-    <t>31.08.202412</t>
-  </si>
-  <si>
-    <t>31.08.202413</t>
-  </si>
-  <si>
-    <t>31.08.202414</t>
-  </si>
-  <si>
-    <t>31.08.202415</t>
-  </si>
-  <si>
-    <t>31.08.202416</t>
-  </si>
-  <si>
-    <t>31.08.202417</t>
-  </si>
-  <si>
-    <t>31.08.202418</t>
-  </si>
-  <si>
-    <t>31.08.202419</t>
-  </si>
-  <si>
-    <t>31.08.202420</t>
-  </si>
-  <si>
-    <t>31.08.202421</t>
-  </si>
-  <si>
-    <t>31.08.202422</t>
-  </si>
-  <si>
-    <t>31.08.202423</t>
-  </si>
-  <si>
-    <t>01.09.20241</t>
-  </si>
-  <si>
-    <t>01.09.20242</t>
-  </si>
-  <si>
-    <t>01.09.20243</t>
-  </si>
-  <si>
-    <t>01.09.20244</t>
-  </si>
-  <si>
-    <t>01.09.20245</t>
-  </si>
-  <si>
-    <t>01.09.20246</t>
-  </si>
-  <si>
-    <t>01.09.20247</t>
-  </si>
-  <si>
-    <t>01.09.20248</t>
-  </si>
-  <si>
-    <t>01.09.20249</t>
-  </si>
-  <si>
-    <t>01.09.202410</t>
-  </si>
-  <si>
-    <t>01.09.202411</t>
-  </si>
-  <si>
-    <t>01.09.202412</t>
-  </si>
-  <si>
-    <t>01.09.202413</t>
-  </si>
-  <si>
-    <t>01.09.202414</t>
-  </si>
-  <si>
-    <t>01.09.202415</t>
-  </si>
-  <si>
-    <t>01.09.202416</t>
-  </si>
-  <si>
-    <t>01.09.202417</t>
-  </si>
-  <si>
-    <t>01.09.202418</t>
-  </si>
-  <si>
-    <t>01.09.202419</t>
-  </si>
-  <si>
-    <t>01.09.202420</t>
-  </si>
-  <si>
-    <t>01.09.202421</t>
-  </si>
-  <si>
-    <t>01.09.202422</t>
-  </si>
-  <si>
-    <t>01.09.202423</t>
-  </si>
-  <si>
-    <t>02.09.20241</t>
-  </si>
-  <si>
-    <t>02.09.20242</t>
-  </si>
-  <si>
-    <t>02.09.20243</t>
-  </si>
-  <si>
-    <t>02.09.20244</t>
-  </si>
-  <si>
-    <t>02.09.20245</t>
-  </si>
-  <si>
-    <t>02.09.20246</t>
-  </si>
-  <si>
-    <t>02.09.20247</t>
-  </si>
-  <si>
-    <t>02.09.20248</t>
-  </si>
-  <si>
-    <t>02.09.20249</t>
-  </si>
-  <si>
-    <t>02.09.202410</t>
-  </si>
-  <si>
-    <t>02.09.202411</t>
-  </si>
-  <si>
-    <t>02.09.202412</t>
-  </si>
-  <si>
-    <t>02.09.202413</t>
-  </si>
-  <si>
-    <t>02.09.202414</t>
-  </si>
-  <si>
-    <t>02.09.202415</t>
-  </si>
-  <si>
-    <t>02.09.202416</t>
-  </si>
-  <si>
-    <t>02.09.202417</t>
-  </si>
-  <si>
-    <t>02.09.202418</t>
-  </si>
-  <si>
-    <t>02.09.202419</t>
-  </si>
-  <si>
-    <t>02.09.202420</t>
-  </si>
-  <si>
-    <t>02.09.202421</t>
-  </si>
-  <si>
-    <t>02.09.202422</t>
-  </si>
-  <si>
-    <t>02.09.202423</t>
-  </si>
-  <si>
-    <t>03.09.20241</t>
-  </si>
-  <si>
-    <t>03.09.20242</t>
-  </si>
-  <si>
-    <t>03.09.20243</t>
-  </si>
-  <si>
-    <t>03.09.20244</t>
-  </si>
-  <si>
-    <t>03.09.20245</t>
-  </si>
-  <si>
-    <t>03.09.20246</t>
-  </si>
-  <si>
-    <t>03.09.20247</t>
-  </si>
-  <si>
-    <t>03.09.20248</t>
-  </si>
-  <si>
-    <t>03.09.20249</t>
-  </si>
-  <si>
-    <t>03.09.202410</t>
-  </si>
-  <si>
-    <t>03.09.202411</t>
-  </si>
-  <si>
-    <t>03.09.202412</t>
-  </si>
-  <si>
-    <t>03.09.202413</t>
-  </si>
-  <si>
-    <t>03.09.202414</t>
-  </si>
-  <si>
-    <t>03.09.202415</t>
-  </si>
-  <si>
-    <t>03.09.202416</t>
-  </si>
-  <si>
-    <t>03.09.202417</t>
-  </si>
-  <si>
-    <t>03.09.202418</t>
-  </si>
-  <si>
-    <t>03.09.202419</t>
-  </si>
-  <si>
-    <t>03.09.202420</t>
-  </si>
-  <si>
-    <t>03.09.202421</t>
-  </si>
-  <si>
-    <t>03.09.202422</t>
-  </si>
-  <si>
-    <t>03.09.202423</t>
-  </si>
-  <si>
-    <t>04.09.20241</t>
-  </si>
-  <si>
-    <t>04.09.20242</t>
-  </si>
-  <si>
-    <t>04.09.20243</t>
-  </si>
-  <si>
-    <t>04.09.20244</t>
-  </si>
-  <si>
-    <t>04.09.20245</t>
-  </si>
-  <si>
-    <t>04.09.20246</t>
-  </si>
-  <si>
-    <t>04.09.20247</t>
-  </si>
-  <si>
-    <t>04.09.20248</t>
-  </si>
-  <si>
-    <t>04.09.20249</t>
-  </si>
-  <si>
-    <t>04.09.202410</t>
-  </si>
-  <si>
-    <t>04.09.202411</t>
-  </si>
-  <si>
-    <t>04.09.202412</t>
-  </si>
-  <si>
-    <t>04.09.202413</t>
-  </si>
-  <si>
-    <t>04.09.202414</t>
-  </si>
-  <si>
-    <t>04.09.202415</t>
-  </si>
-  <si>
-    <t>04.09.202416</t>
-  </si>
-  <si>
-    <t>04.09.202417</t>
-  </si>
-  <si>
-    <t>04.09.202418</t>
-  </si>
-  <si>
-    <t>04.09.202419</t>
-  </si>
-  <si>
-    <t>04.09.202420</t>
-  </si>
-  <si>
-    <t>04.09.202421</t>
-  </si>
-  <si>
-    <t>04.09.202422</t>
-  </si>
-  <si>
-    <t>04.09.202423</t>
-  </si>
-  <si>
-    <t>05.09.20241</t>
-  </si>
-  <si>
-    <t>05.09.20242</t>
-  </si>
-  <si>
-    <t>05.09.20243</t>
-  </si>
-  <si>
-    <t>05.09.20244</t>
-  </si>
-  <si>
-    <t>05.09.20245</t>
-  </si>
-  <si>
-    <t>05.09.20246</t>
-  </si>
-  <si>
-    <t>05.09.20247</t>
-  </si>
-  <si>
-    <t>05.09.20248</t>
-  </si>
-  <si>
-    <t>05.09.20249</t>
-  </si>
-  <si>
-    <t>05.09.202410</t>
+    <t>15.09.202411</t>
+  </si>
+  <si>
+    <t>15.09.202412</t>
+  </si>
+  <si>
+    <t>15.09.202413</t>
+  </si>
+  <si>
+    <t>15.09.202414</t>
+  </si>
+  <si>
+    <t>15.09.202415</t>
+  </si>
+  <si>
+    <t>15.09.202416</t>
+  </si>
+  <si>
+    <t>15.09.202417</t>
+  </si>
+  <si>
+    <t>15.09.202418</t>
+  </si>
+  <si>
+    <t>15.09.202419</t>
+  </si>
+  <si>
+    <t>15.09.202420</t>
+  </si>
+  <si>
+    <t>15.09.202421</t>
+  </si>
+  <si>
+    <t>15.09.202422</t>
+  </si>
+  <si>
+    <t>15.09.202423</t>
+  </si>
+  <si>
+    <t>16.09.20241</t>
+  </si>
+  <si>
+    <t>16.09.20242</t>
+  </si>
+  <si>
+    <t>16.09.20243</t>
+  </si>
+  <si>
+    <t>16.09.20244</t>
+  </si>
+  <si>
+    <t>16.09.20245</t>
+  </si>
+  <si>
+    <t>16.09.20246</t>
+  </si>
+  <si>
+    <t>16.09.20247</t>
+  </si>
+  <si>
+    <t>16.09.20248</t>
+  </si>
+  <si>
+    <t>16.09.20249</t>
+  </si>
+  <si>
+    <t>16.09.202410</t>
+  </si>
+  <si>
+    <t>16.09.202411</t>
+  </si>
+  <si>
+    <t>16.09.202412</t>
+  </si>
+  <si>
+    <t>16.09.202413</t>
+  </si>
+  <si>
+    <t>16.09.202414</t>
+  </si>
+  <si>
+    <t>16.09.202415</t>
+  </si>
+  <si>
+    <t>16.09.202416</t>
+  </si>
+  <si>
+    <t>16.09.202417</t>
+  </si>
+  <si>
+    <t>16.09.202418</t>
+  </si>
+  <si>
+    <t>16.09.202419</t>
+  </si>
+  <si>
+    <t>16.09.202420</t>
+  </si>
+  <si>
+    <t>16.09.202421</t>
+  </si>
+  <si>
+    <t>16.09.202422</t>
+  </si>
+  <si>
+    <t>16.09.202423</t>
+  </si>
+  <si>
+    <t>17.09.20241</t>
+  </si>
+  <si>
+    <t>17.09.20242</t>
+  </si>
+  <si>
+    <t>17.09.20243</t>
+  </si>
+  <si>
+    <t>17.09.20244</t>
+  </si>
+  <si>
+    <t>17.09.20245</t>
+  </si>
+  <si>
+    <t>17.09.20246</t>
+  </si>
+  <si>
+    <t>17.09.20247</t>
+  </si>
+  <si>
+    <t>17.09.20248</t>
+  </si>
+  <si>
+    <t>17.09.20249</t>
+  </si>
+  <si>
+    <t>17.09.202410</t>
+  </si>
+  <si>
+    <t>17.09.202411</t>
+  </si>
+  <si>
+    <t>17.09.202412</t>
+  </si>
+  <si>
+    <t>17.09.202413</t>
+  </si>
+  <si>
+    <t>17.09.202414</t>
+  </si>
+  <si>
+    <t>17.09.202415</t>
+  </si>
+  <si>
+    <t>17.09.202416</t>
+  </si>
+  <si>
+    <t>17.09.202417</t>
+  </si>
+  <si>
+    <t>17.09.202418</t>
+  </si>
+  <si>
+    <t>17.09.202419</t>
+  </si>
+  <si>
+    <t>17.09.202420</t>
+  </si>
+  <si>
+    <t>17.09.202421</t>
+  </si>
+  <si>
+    <t>17.09.202422</t>
+  </si>
+  <si>
+    <t>17.09.202423</t>
+  </si>
+  <si>
+    <t>18.09.20241</t>
+  </si>
+  <si>
+    <t>18.09.20242</t>
+  </si>
+  <si>
+    <t>18.09.20243</t>
+  </si>
+  <si>
+    <t>18.09.20244</t>
+  </si>
+  <si>
+    <t>18.09.20245</t>
+  </si>
+  <si>
+    <t>18.09.20246</t>
+  </si>
+  <si>
+    <t>18.09.20247</t>
+  </si>
+  <si>
+    <t>18.09.20248</t>
+  </si>
+  <si>
+    <t>18.09.20249</t>
+  </si>
+  <si>
+    <t>18.09.202410</t>
+  </si>
+  <si>
+    <t>18.09.202411</t>
+  </si>
+  <si>
+    <t>18.09.202412</t>
+  </si>
+  <si>
+    <t>18.09.202413</t>
+  </si>
+  <si>
+    <t>18.09.202414</t>
+  </si>
+  <si>
+    <t>18.09.202415</t>
+  </si>
+  <si>
+    <t>18.09.202416</t>
+  </si>
+  <si>
+    <t>18.09.202417</t>
+  </si>
+  <si>
+    <t>18.09.202418</t>
+  </si>
+  <si>
+    <t>18.09.202419</t>
+  </si>
+  <si>
+    <t>18.09.202420</t>
+  </si>
+  <si>
+    <t>18.09.202421</t>
+  </si>
+  <si>
+    <t>18.09.202422</t>
+  </si>
+  <si>
+    <t>18.09.202423</t>
+  </si>
+  <si>
+    <t>19.09.20241</t>
+  </si>
+  <si>
+    <t>19.09.20242</t>
+  </si>
+  <si>
+    <t>19.09.20243</t>
+  </si>
+  <si>
+    <t>19.09.20244</t>
+  </si>
+  <si>
+    <t>19.09.20245</t>
+  </si>
+  <si>
+    <t>19.09.20246</t>
+  </si>
+  <si>
+    <t>19.09.20247</t>
+  </si>
+  <si>
+    <t>19.09.20248</t>
+  </si>
+  <si>
+    <t>19.09.20249</t>
+  </si>
+  <si>
+    <t>19.09.202410</t>
+  </si>
+  <si>
+    <t>19.09.202411</t>
+  </si>
+  <si>
+    <t>19.09.202412</t>
+  </si>
+  <si>
+    <t>19.09.202413</t>
+  </si>
+  <si>
+    <t>19.09.202414</t>
+  </si>
+  <si>
+    <t>19.09.202415</t>
+  </si>
+  <si>
+    <t>19.09.202416</t>
+  </si>
+  <si>
+    <t>19.09.202417</t>
+  </si>
+  <si>
+    <t>19.09.202418</t>
+  </si>
+  <si>
+    <t>19.09.202419</t>
+  </si>
+  <si>
+    <t>19.09.202420</t>
+  </si>
+  <si>
+    <t>19.09.202421</t>
+  </si>
+  <si>
+    <t>19.09.202422</t>
+  </si>
+  <si>
+    <t>19.09.202423</t>
+  </si>
+  <si>
+    <t>20.09.20241</t>
+  </si>
+  <si>
+    <t>20.09.20242</t>
+  </si>
+  <si>
+    <t>20.09.20243</t>
+  </si>
+  <si>
+    <t>20.09.20244</t>
+  </si>
+  <si>
+    <t>20.09.20245</t>
+  </si>
+  <si>
+    <t>20.09.20246</t>
+  </si>
+  <si>
+    <t>20.09.20247</t>
+  </si>
+  <si>
+    <t>20.09.20248</t>
+  </si>
+  <si>
+    <t>20.09.20249</t>
+  </si>
+  <si>
+    <t>20.09.202410</t>
+  </si>
+  <si>
+    <t>20.09.202411</t>
+  </si>
+  <si>
+    <t>20.09.202412</t>
+  </si>
+  <si>
+    <t>20.09.202413</t>
+  </si>
+  <si>
+    <t>20.09.202414</t>
+  </si>
+  <si>
+    <t>20.09.202415</t>
+  </si>
+  <si>
+    <t>20.09.202416</t>
+  </si>
+  <si>
+    <t>20.09.202417</t>
+  </si>
+  <si>
+    <t>20.09.202418</t>
+  </si>
+  <si>
+    <t>20.09.202419</t>
+  </si>
+  <si>
+    <t>20.09.202420</t>
+  </si>
+  <si>
+    <t>20.09.202421</t>
+  </si>
+  <si>
+    <t>20.09.202422</t>
+  </si>
+  <si>
+    <t>20.09.202423</t>
+  </si>
+  <si>
+    <t>21.09.20241</t>
+  </si>
+  <si>
+    <t>21.09.20242</t>
+  </si>
+  <si>
+    <t>21.09.20243</t>
+  </si>
+  <si>
+    <t>21.09.20244</t>
+  </si>
+  <si>
+    <t>21.09.20245</t>
+  </si>
+  <si>
+    <t>21.09.20246</t>
+  </si>
+  <si>
+    <t>21.09.20247</t>
+  </si>
+  <si>
+    <t>21.09.20248</t>
+  </si>
+  <si>
+    <t>21.09.20249</t>
+  </si>
+  <si>
+    <t>21.09.202410</t>
+  </si>
+  <si>
+    <t>21.09.202411</t>
+  </si>
+  <si>
+    <t>21.09.202412</t>
+  </si>
+  <si>
+    <t>21.09.202413</t>
+  </si>
+  <si>
+    <t>21.09.202414</t>
+  </si>
+  <si>
+    <t>21.09.202415</t>
+  </si>
+  <si>
+    <t>21.09.202416</t>
+  </si>
+  <si>
+    <t>21.09.202417</t>
+  </si>
+  <si>
+    <t>21.09.202418</t>
+  </si>
+  <si>
+    <t>21.09.202419</t>
+  </si>
+  <si>
+    <t>21.09.202420</t>
+  </si>
+  <si>
+    <t>21.09.202421</t>
+  </si>
+  <si>
+    <t>21.09.202422</t>
+  </si>
+  <si>
+    <t>21.09.202423</t>
+  </si>
+  <si>
+    <t>22.09.20241</t>
+  </si>
+  <si>
+    <t>22.09.20242</t>
+  </si>
+  <si>
+    <t>22.09.20243</t>
+  </si>
+  <si>
+    <t>22.09.20244</t>
+  </si>
+  <si>
+    <t>22.09.20245</t>
+  </si>
+  <si>
+    <t>22.09.20246</t>
+  </si>
+  <si>
+    <t>22.09.20247</t>
+  </si>
+  <si>
+    <t>22.09.20248</t>
+  </si>
+  <si>
+    <t>22.09.20249</t>
+  </si>
+  <si>
+    <t>22.09.202410</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -950,19 +950,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>626</v>
+        <v>733</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.834</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
       <c r="C6">
-        <v>454</v>
+        <v>687</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2.195</v>
+        <v>3.155</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1019,22 +1019,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>444</v>
+        <v>586</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>1.713</v>
+        <v>2.66</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
       <c r="C8">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>1.721</v>
+        <v>2.344</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B9">
         <v>17</v>
       </c>
       <c r="C9">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>1.446</v>
+        <v>1.969</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1088,22 +1088,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B10">
         <v>18</v>
       </c>
       <c r="C10">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>0.848</v>
+        <v>1.073</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1111,22 +1111,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B11">
         <v>19</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>0.351</v>
+        <v>0.344</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>0.045</v>
+        <v>0.033</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>20</v>
-      </c>
-      <c r="E14">
-        <v>54</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="B15">
         <v>23</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1235,15 +1235,15 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1298,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1358,19 +1358,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F24">
-        <v>0.079</v>
+        <v>0.039</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F25">
-        <v>0.481</v>
+        <v>0.18</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1450,22 +1450,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>369</v>
+        <v>191</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F26">
-        <v>0.889</v>
+        <v>0.422</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1473,22 +1473,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F27">
-        <v>1.405</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>441</v>
+        <v>246</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F28">
-        <v>1.637</v>
+        <v>0.84</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B29">
         <v>13</v>
       </c>
       <c r="C29">
-        <v>476</v>
+        <v>253</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F29">
-        <v>1.827</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1542,22 +1542,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B30">
         <v>14</v>
       </c>
       <c r="C30">
-        <v>468</v>
+        <v>263</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F30">
-        <v>1.79</v>
+        <v>0.951</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1565,22 +1565,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
       <c r="C31">
-        <v>447</v>
+        <v>301</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F31">
-        <v>1.793</v>
+        <v>1.005</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1588,22 +1588,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
       <c r="C32">
-        <v>393</v>
+        <v>281</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>1.699</v>
+        <v>1.231</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B33">
         <v>17</v>
       </c>
       <c r="C33">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F33">
-        <v>1.573</v>
+        <v>1.141</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -1634,22 +1634,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B34">
         <v>18</v>
       </c>
       <c r="C34">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F34">
-        <v>0.9350000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -1657,22 +1657,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B35">
         <v>19</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F35">
-        <v>0.437</v>
+        <v>0.234</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B36">
         <v>20</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>0.054</v>
+        <v>0.022</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B37">
         <v>21</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B38">
         <v>22</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45534</v>
+        <v>45551</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1781,15 +1781,15 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1798,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1890,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1904,19 +1904,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1927,19 +1927,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
       <c r="C47">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1950,22 +1950,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F48">
-        <v>0.105</v>
+        <v>0.04</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B49">
         <v>9</v>
       </c>
       <c r="C49">
-        <v>378</v>
+        <v>196</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F49">
-        <v>0.711</v>
+        <v>0.278</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1996,22 +1996,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
       <c r="C50">
-        <v>561</v>
+        <v>311</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F50">
-        <v>1.543</v>
+        <v>0.732</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2019,22 +2019,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B51">
         <v>11</v>
       </c>
       <c r="C51">
-        <v>683</v>
+        <v>401</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F51">
-        <v>1.977</v>
+        <v>1.165</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B52">
         <v>12</v>
       </c>
       <c r="C52">
-        <v>756</v>
+        <v>452</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F52">
-        <v>2.602</v>
+        <v>1.562</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B53">
         <v>13</v>
       </c>
       <c r="C53">
-        <v>763</v>
+        <v>473</v>
       </c>
       <c r="D53">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F53">
-        <v>2.975</v>
+        <v>1.954</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B54">
         <v>14</v>
       </c>
       <c r="C54">
-        <v>711</v>
+        <v>460</v>
       </c>
       <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54">
         <v>32</v>
       </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
       <c r="F54">
-        <v>2.779</v>
+        <v>2.005</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2111,22 +2111,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B55">
         <v>15</v>
       </c>
       <c r="C55">
-        <v>632</v>
+        <v>405</v>
       </c>
       <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55">
         <v>31</v>
       </c>
-      <c r="E55">
-        <v>5</v>
-      </c>
       <c r="F55">
-        <v>2.486</v>
+        <v>1.978</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -2134,22 +2134,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B56">
         <v>16</v>
       </c>
       <c r="C56">
-        <v>499</v>
+        <v>306</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F56">
-        <v>2.08</v>
+        <v>1.653</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B57">
         <v>17</v>
       </c>
       <c r="C57">
-        <v>330</v>
+        <v>191</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F57">
-        <v>1.704</v>
+        <v>1.1</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -2180,22 +2180,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
       <c r="C58">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="D58">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E58">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F58">
-        <v>1.132</v>
+        <v>0.711</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2203,22 +2203,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B59">
         <v>19</v>
       </c>
       <c r="C59">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F59">
-        <v>0.503</v>
+        <v>0.177</v>
       </c>
       <c r="G59" t="s">
         <v>61</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B60">
         <v>20</v>
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F60">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>62</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B61">
         <v>21</v>
@@ -2258,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B62">
         <v>22</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E62">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45535</v>
+        <v>45552</v>
       </c>
       <c r="B63">
         <v>23</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2327,15 +2327,15 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E67">
         <v>50</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2436,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2450,19 +2450,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2473,19 +2473,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
       <c r="C71">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E71">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2496,22 +2496,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F72">
-        <v>0.061</v>
+        <v>0.038</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D73">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F73">
-        <v>0.413</v>
+        <v>0.277</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2542,22 +2542,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
       <c r="C74">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="D74">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E74">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F74">
-        <v>0.853</v>
+        <v>0.728</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2565,22 +2565,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B75">
         <v>11</v>
       </c>
       <c r="C75">
-        <v>461</v>
+        <v>345</v>
       </c>
       <c r="D75">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F75">
-        <v>1.312</v>
+        <v>1.092</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B76">
         <v>12</v>
       </c>
       <c r="C76">
-        <v>550</v>
+        <v>384</v>
       </c>
       <c r="D76">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E76">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F76">
-        <v>1.915</v>
+        <v>1.338</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B77">
         <v>13</v>
       </c>
       <c r="C77">
-        <v>612</v>
+        <v>419</v>
       </c>
       <c r="D77">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E77">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F77">
-        <v>2.105</v>
+        <v>1.605</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B78">
         <v>14</v>
       </c>
       <c r="C78">
-        <v>633</v>
+        <v>415</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E78">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F78">
-        <v>2.225</v>
+        <v>1.79</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B79">
         <v>15</v>
       </c>
       <c r="C79">
-        <v>578</v>
+        <v>364</v>
       </c>
       <c r="D79">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E79">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F79">
-        <v>2.277</v>
+        <v>1.638</v>
       </c>
       <c r="G79" t="s">
         <v>80</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B80">
         <v>16</v>
       </c>
       <c r="C80">
-        <v>445</v>
+        <v>270</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E80">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F80">
-        <v>2.103</v>
+        <v>1.429</v>
       </c>
       <c r="G80" t="s">
         <v>81</v>
@@ -2703,22 +2703,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B81">
         <v>17</v>
       </c>
       <c r="C81">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D81">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E81">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F81">
-        <v>1.803</v>
+        <v>0.968</v>
       </c>
       <c r="G81" t="s">
         <v>82</v>
@@ -2726,22 +2726,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B82">
         <v>18</v>
       </c>
       <c r="C82">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="D82">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F82">
-        <v>1.09</v>
+        <v>0.543</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -2749,22 +2749,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
       <c r="C83">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F83">
-        <v>0.39</v>
+        <v>0.122</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B84">
         <v>20</v>
@@ -2781,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E84">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F84">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>85</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B85">
         <v>21</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B86">
         <v>22</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E86">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45536</v>
+        <v>45553</v>
       </c>
       <c r="B87">
         <v>23</v>
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E88">
         <v>43</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2890,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E91">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E92">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -2982,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E93">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2996,19 +2996,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B94">
         <v>6</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E94">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3019,19 +3019,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
       <c r="C95">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D95">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E95">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3042,22 +3042,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B96">
         <v>8</v>
       </c>
       <c r="C96">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="D96">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F96">
-        <v>0.097</v>
+        <v>0.043</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3065,22 +3065,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B97">
         <v>9</v>
       </c>
       <c r="C97">
-        <v>401</v>
+        <v>270</v>
       </c>
       <c r="D97">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F97">
-        <v>0.789</v>
+        <v>0.409</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3088,22 +3088,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B98">
         <v>10</v>
       </c>
       <c r="C98">
-        <v>555</v>
+        <v>442</v>
       </c>
       <c r="D98">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F98">
-        <v>1.724</v>
+        <v>1.029</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3111,22 +3111,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B99">
         <v>11</v>
       </c>
       <c r="C99">
-        <v>674</v>
+        <v>586</v>
       </c>
       <c r="D99">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F99">
-        <v>2.294</v>
+        <v>1.924</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B100">
         <v>12</v>
       </c>
       <c r="C100">
-        <v>750</v>
+        <v>671</v>
       </c>
       <c r="D100">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>2.86</v>
+        <v>2.333</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3157,22 +3157,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B101">
         <v>13</v>
       </c>
       <c r="C101">
-        <v>771</v>
+        <v>690</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>3.07</v>
+        <v>2.572</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B102">
         <v>14</v>
       </c>
       <c r="C102">
-        <v>739</v>
+        <v>658</v>
       </c>
       <c r="D102">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>3.066</v>
+        <v>2.647</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3203,22 +3203,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B103">
         <v>15</v>
       </c>
       <c r="C103">
-        <v>657</v>
+        <v>567</v>
       </c>
       <c r="D103">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>3.008</v>
+        <v>2.53</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3226,22 +3226,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B104">
         <v>16</v>
       </c>
       <c r="C104">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="D104">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F104">
-        <v>2.67</v>
+        <v>2.204</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B105">
         <v>17</v>
       </c>
       <c r="C105">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="D105">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E105">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F105">
-        <v>1.982</v>
+        <v>1.737</v>
       </c>
       <c r="G105" t="s">
         <v>105</v>
@@ -3272,22 +3272,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B106">
         <v>18</v>
       </c>
       <c r="C106">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="D106">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>24</v>
       </c>
       <c r="F106">
-        <v>1.121</v>
+        <v>0.831</v>
       </c>
       <c r="G106" t="s">
         <v>106</v>
@@ -3295,22 +3295,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B107">
         <v>19</v>
       </c>
       <c r="C107">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F107">
-        <v>0.46</v>
+        <v>0.226</v>
       </c>
       <c r="G107" t="s">
         <v>107</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B108">
         <v>20</v>
@@ -3327,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F108">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>108</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B109">
         <v>21</v>
@@ -3350,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E109">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B110">
         <v>22</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E110">
         <v>29</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45537</v>
+        <v>45554</v>
       </c>
       <c r="B111">
         <v>23</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3419,15 +3419,15 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E112">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E113">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -3482,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E116">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -3528,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3542,19 +3542,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B118">
         <v>6</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3565,19 +3565,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B119">
         <v>7</v>
       </c>
       <c r="C119">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E119">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B120">
         <v>8</v>
       </c>
       <c r="C120">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D120">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E120">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.1</v>
+        <v>0.057</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B121">
         <v>9</v>
       </c>
       <c r="C121">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="D121">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.65</v>
+        <v>0.656</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B122">
         <v>10</v>
       </c>
       <c r="C122">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="D122">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.621</v>
+        <v>1.557</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B123">
         <v>11</v>
       </c>
       <c r="C123">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="D123">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>2.291</v>
+        <v>2.391</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B124">
         <v>12</v>
       </c>
       <c r="C124">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D124">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>2.77</v>
+        <v>2.817</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B125">
         <v>13</v>
       </c>
       <c r="C125">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="D125">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>3.003</v>
+        <v>3.068</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B126">
         <v>14</v>
       </c>
       <c r="C126">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="D126">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>3.067</v>
+        <v>3.1</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B127">
         <v>15</v>
       </c>
       <c r="C127">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="D127">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>2.965</v>
+        <v>2.901</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3772,22 +3772,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B128">
         <v>16</v>
       </c>
       <c r="C128">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="D128">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>2.646</v>
+        <v>2.579</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B129">
         <v>17</v>
       </c>
       <c r="C129">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="D129">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>2.011</v>
+        <v>1.942</v>
       </c>
       <c r="G129" t="s">
         <v>128</v>
@@ -3818,22 +3818,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B130">
         <v>18</v>
       </c>
       <c r="C130">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="D130">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E130">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.153</v>
+        <v>1.113</v>
       </c>
       <c r="G130" t="s">
         <v>129</v>
@@ -3841,22 +3841,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B131">
         <v>19</v>
       </c>
       <c r="C131">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D131">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E131">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.459</v>
+        <v>0.3</v>
       </c>
       <c r="G131" t="s">
         <v>130</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B132">
         <v>20</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E132">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.065</v>
+        <v>0.021</v>
       </c>
       <c r="G132" t="s">
         <v>131</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B133">
         <v>21</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E133">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B134">
         <v>22</v>
@@ -3919,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E134">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45538</v>
+        <v>45555</v>
       </c>
       <c r="B135">
         <v>23</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3965,15 +3965,15 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E136">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E137">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -4005,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -4051,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E140">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -4097,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4111,19 +4111,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D143">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B144">
         <v>8</v>
       </c>
       <c r="C144">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D144">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.098</v>
+        <v>0.057</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B145">
         <v>9</v>
       </c>
       <c r="C145">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="D145">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.649</v>
+        <v>0.553</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B146">
         <v>10</v>
       </c>
       <c r="C146">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="D146">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.662</v>
+        <v>1.483</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4203,22 +4203,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B147">
         <v>11</v>
       </c>
       <c r="C147">
-        <v>669</v>
+        <v>606</v>
       </c>
       <c r="D147">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>2.289</v>
+        <v>2.282</v>
       </c>
       <c r="G147" t="s">
         <v>145</v>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B148">
         <v>12</v>
       </c>
       <c r="C148">
-        <v>743</v>
+        <v>678</v>
       </c>
       <c r="D148">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2.778</v>
+        <v>2.798</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B149">
         <v>13</v>
       </c>
       <c r="C149">
-        <v>766</v>
+        <v>694</v>
       </c>
       <c r="D149">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>3.069</v>
+        <v>2.974</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B150">
         <v>14</v>
       </c>
       <c r="C150">
-        <v>735</v>
+        <v>655</v>
       </c>
       <c r="D150">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3.066</v>
+        <v>2.992</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
       <c r="C151">
-        <v>653</v>
+        <v>566</v>
       </c>
       <c r="D151">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>3.008</v>
+        <v>2.833</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B152">
         <v>16</v>
       </c>
       <c r="C152">
-        <v>528</v>
+        <v>433</v>
       </c>
       <c r="D152">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2.67</v>
+        <v>2.285</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B153">
         <v>17</v>
       </c>
       <c r="C153">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="D153">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="G153" t="s">
         <v>151</v>
@@ -4364,22 +4364,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B154">
         <v>18</v>
       </c>
       <c r="C154">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="D154">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E154">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.162</v>
+        <v>0.998</v>
       </c>
       <c r="G154" t="s">
         <v>152</v>
@@ -4387,22 +4387,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B155">
         <v>19</v>
       </c>
       <c r="C155">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D155">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E155">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.507</v>
+        <v>0.179</v>
       </c>
       <c r="G155" t="s">
         <v>153</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B156">
         <v>20</v>
@@ -4419,13 +4419,13 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E156">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>154</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B157">
         <v>21</v>
@@ -4442,10 +4442,10 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E157">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B158">
         <v>22</v>
@@ -4465,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E158">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45539</v>
+        <v>45556</v>
       </c>
       <c r="B159">
         <v>23</v>
@@ -4488,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4511,15 +4511,15 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E160">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E161">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -4574,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E163">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -4597,10 +4597,10 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E164">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -4620,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E165">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B166">
         <v>6</v>
@@ -4643,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E166">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4657,19 +4657,19 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B167">
         <v>7</v>
       </c>
       <c r="C167">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E167">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4680,22 +4680,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B168">
         <v>8</v>
       </c>
       <c r="C168">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E168">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.1</v>
+        <v>0.046</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4703,22 +4703,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B169">
         <v>9</v>
       </c>
       <c r="C169">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="D169">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.743</v>
+        <v>0.552</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45540</v>
+        <v>45557</v>
       </c>
       <c r="B170">
         <v>10</v>
       </c>
       <c r="C170">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="D170">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.66</v>
+        <v>1.479</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,213 +37,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>15.09.202411</t>
-  </si>
-  <si>
-    <t>15.09.202412</t>
-  </si>
-  <si>
-    <t>15.09.202413</t>
-  </si>
-  <si>
-    <t>15.09.202414</t>
-  </si>
-  <si>
-    <t>15.09.202415</t>
-  </si>
-  <si>
-    <t>15.09.202416</t>
-  </si>
-  <si>
-    <t>15.09.202417</t>
-  </si>
-  <si>
-    <t>15.09.202418</t>
-  </si>
-  <si>
-    <t>15.09.202419</t>
-  </si>
-  <si>
-    <t>15.09.202420</t>
-  </si>
-  <si>
-    <t>15.09.202421</t>
-  </si>
-  <si>
-    <t>15.09.202422</t>
-  </si>
-  <si>
-    <t>15.09.202423</t>
-  </si>
-  <si>
-    <t>16.09.20241</t>
-  </si>
-  <si>
-    <t>16.09.20242</t>
-  </si>
-  <si>
-    <t>16.09.20243</t>
-  </si>
-  <si>
-    <t>16.09.20244</t>
-  </si>
-  <si>
-    <t>16.09.20245</t>
-  </si>
-  <si>
-    <t>16.09.20246</t>
-  </si>
-  <si>
-    <t>16.09.20247</t>
-  </si>
-  <si>
-    <t>16.09.20248</t>
-  </si>
-  <si>
-    <t>16.09.20249</t>
-  </si>
-  <si>
-    <t>16.09.202410</t>
-  </si>
-  <si>
-    <t>16.09.202411</t>
-  </si>
-  <si>
-    <t>16.09.202412</t>
-  </si>
-  <si>
-    <t>16.09.202413</t>
-  </si>
-  <si>
-    <t>16.09.202414</t>
-  </si>
-  <si>
-    <t>16.09.202415</t>
-  </si>
-  <si>
-    <t>16.09.202416</t>
-  </si>
-  <si>
-    <t>16.09.202417</t>
-  </si>
-  <si>
-    <t>16.09.202418</t>
-  </si>
-  <si>
-    <t>16.09.202419</t>
-  </si>
-  <si>
-    <t>16.09.202420</t>
-  </si>
-  <si>
-    <t>16.09.202421</t>
-  </si>
-  <si>
-    <t>16.09.202422</t>
-  </si>
-  <si>
-    <t>16.09.202423</t>
-  </si>
-  <si>
-    <t>17.09.20241</t>
-  </si>
-  <si>
-    <t>17.09.20242</t>
-  </si>
-  <si>
-    <t>17.09.20243</t>
-  </si>
-  <si>
-    <t>17.09.20244</t>
-  </si>
-  <si>
-    <t>17.09.20245</t>
-  </si>
-  <si>
-    <t>17.09.20246</t>
-  </si>
-  <si>
-    <t>17.09.20247</t>
-  </si>
-  <si>
-    <t>17.09.20248</t>
-  </si>
-  <si>
-    <t>17.09.20249</t>
-  </si>
-  <si>
-    <t>17.09.202410</t>
-  </si>
-  <si>
-    <t>17.09.202411</t>
-  </si>
-  <si>
-    <t>17.09.202412</t>
-  </si>
-  <si>
-    <t>17.09.202413</t>
-  </si>
-  <si>
-    <t>17.09.202414</t>
-  </si>
-  <si>
-    <t>17.09.202415</t>
-  </si>
-  <si>
-    <t>17.09.202416</t>
-  </si>
-  <si>
-    <t>17.09.202417</t>
-  </si>
-  <si>
-    <t>17.09.202418</t>
-  </si>
-  <si>
-    <t>17.09.202419</t>
-  </si>
-  <si>
-    <t>17.09.202420</t>
-  </si>
-  <si>
-    <t>17.09.202421</t>
-  </si>
-  <si>
-    <t>17.09.202422</t>
-  </si>
-  <si>
-    <t>17.09.202423</t>
-  </si>
-  <si>
-    <t>18.09.20241</t>
-  </si>
-  <si>
-    <t>18.09.20242</t>
-  </si>
-  <si>
-    <t>18.09.20243</t>
-  </si>
-  <si>
-    <t>18.09.20244</t>
-  </si>
-  <si>
-    <t>18.09.20245</t>
-  </si>
-  <si>
-    <t>18.09.20246</t>
-  </si>
-  <si>
-    <t>18.09.20247</t>
-  </si>
-  <si>
-    <t>18.09.20248</t>
-  </si>
-  <si>
-    <t>18.09.20249</t>
-  </si>
-  <si>
-    <t>18.09.202410</t>
-  </si>
-  <si>
     <t>18.09.202411</t>
   </si>
   <si>
@@ -518,6 +311,213 @@
   </si>
   <si>
     <t>22.09.202410</t>
+  </si>
+  <si>
+    <t>22.09.202411</t>
+  </si>
+  <si>
+    <t>22.09.202412</t>
+  </si>
+  <si>
+    <t>22.09.202413</t>
+  </si>
+  <si>
+    <t>22.09.202414</t>
+  </si>
+  <si>
+    <t>22.09.202415</t>
+  </si>
+  <si>
+    <t>22.09.202416</t>
+  </si>
+  <si>
+    <t>22.09.202417</t>
+  </si>
+  <si>
+    <t>22.09.202418</t>
+  </si>
+  <si>
+    <t>22.09.202419</t>
+  </si>
+  <si>
+    <t>22.09.202420</t>
+  </si>
+  <si>
+    <t>22.09.202421</t>
+  </si>
+  <si>
+    <t>22.09.202422</t>
+  </si>
+  <si>
+    <t>22.09.202423</t>
+  </si>
+  <si>
+    <t>23.09.20241</t>
+  </si>
+  <si>
+    <t>23.09.20242</t>
+  </si>
+  <si>
+    <t>23.09.20243</t>
+  </si>
+  <si>
+    <t>23.09.20244</t>
+  </si>
+  <si>
+    <t>23.09.20245</t>
+  </si>
+  <si>
+    <t>23.09.20246</t>
+  </si>
+  <si>
+    <t>23.09.20247</t>
+  </si>
+  <si>
+    <t>23.09.20248</t>
+  </si>
+  <si>
+    <t>23.09.20249</t>
+  </si>
+  <si>
+    <t>23.09.202410</t>
+  </si>
+  <si>
+    <t>23.09.202411</t>
+  </si>
+  <si>
+    <t>23.09.202412</t>
+  </si>
+  <si>
+    <t>23.09.202413</t>
+  </si>
+  <si>
+    <t>23.09.202414</t>
+  </si>
+  <si>
+    <t>23.09.202415</t>
+  </si>
+  <si>
+    <t>23.09.202416</t>
+  </si>
+  <si>
+    <t>23.09.202417</t>
+  </si>
+  <si>
+    <t>23.09.202418</t>
+  </si>
+  <si>
+    <t>23.09.202419</t>
+  </si>
+  <si>
+    <t>23.09.202420</t>
+  </si>
+  <si>
+    <t>23.09.202421</t>
+  </si>
+  <si>
+    <t>23.09.202422</t>
+  </si>
+  <si>
+    <t>23.09.202423</t>
+  </si>
+  <si>
+    <t>24.09.20241</t>
+  </si>
+  <si>
+    <t>24.09.20242</t>
+  </si>
+  <si>
+    <t>24.09.20243</t>
+  </si>
+  <si>
+    <t>24.09.20244</t>
+  </si>
+  <si>
+    <t>24.09.20245</t>
+  </si>
+  <si>
+    <t>24.09.20246</t>
+  </si>
+  <si>
+    <t>24.09.20247</t>
+  </si>
+  <si>
+    <t>24.09.20248</t>
+  </si>
+  <si>
+    <t>24.09.20249</t>
+  </si>
+  <si>
+    <t>24.09.202410</t>
+  </si>
+  <si>
+    <t>24.09.202411</t>
+  </si>
+  <si>
+    <t>24.09.202412</t>
+  </si>
+  <si>
+    <t>24.09.202413</t>
+  </si>
+  <si>
+    <t>24.09.202414</t>
+  </si>
+  <si>
+    <t>24.09.202415</t>
+  </si>
+  <si>
+    <t>24.09.202416</t>
+  </si>
+  <si>
+    <t>24.09.202417</t>
+  </si>
+  <si>
+    <t>24.09.202418</t>
+  </si>
+  <si>
+    <t>24.09.202419</t>
+  </si>
+  <si>
+    <t>24.09.202420</t>
+  </si>
+  <si>
+    <t>24.09.202421</t>
+  </si>
+  <si>
+    <t>24.09.202422</t>
+  </si>
+  <si>
+    <t>24.09.202423</t>
+  </si>
+  <si>
+    <t>25.09.20241</t>
+  </si>
+  <si>
+    <t>25.09.20242</t>
+  </si>
+  <si>
+    <t>25.09.20243</t>
+  </si>
+  <si>
+    <t>25.09.20244</t>
+  </si>
+  <si>
+    <t>25.09.20245</t>
+  </si>
+  <si>
+    <t>25.09.20246</t>
+  </si>
+  <si>
+    <t>25.09.20247</t>
+  </si>
+  <si>
+    <t>25.09.20248</t>
+  </si>
+  <si>
+    <t>25.09.20249</t>
+  </si>
+  <si>
+    <t>25.09.202410</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -950,16 +950,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>3.1</v>
+        <v>2.968</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
       <c r="C6">
-        <v>687</v>
+        <v>556</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>3.155</v>
+        <v>2.466</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1019,22 +1019,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>586</v>
+        <v>448</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>2.66</v>
+        <v>2.119</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
       <c r="C8">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>2.344</v>
+        <v>1.865</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B9">
         <v>17</v>
       </c>
       <c r="C9">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>1.969</v>
+        <v>1.325</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1088,22 +1088,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B10">
         <v>18</v>
       </c>
       <c r="C10">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>1.073</v>
+        <v>0.766</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1111,22 +1111,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B11">
         <v>19</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>0.344</v>
+        <v>0.172</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B15">
         <v>23</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1235,15 +1235,15 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1298,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1324,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
         <v>10</v>
       </c>
-      <c r="E24">
-        <v>69</v>
-      </c>
       <c r="F24">
-        <v>0.039</v>
+        <v>0.057</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1450,22 +1450,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>191</v>
+        <v>438</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>0.422</v>
+        <v>1.323</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1473,22 +1473,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>0.6850000000000001</v>
+        <v>1.792</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>246</v>
+        <v>499</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F28">
-        <v>0.84</v>
+        <v>1.999</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B29">
         <v>13</v>
       </c>
       <c r="C29">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F29">
-        <v>0.9330000000000001</v>
+        <v>2.074</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1542,22 +1542,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B30">
         <v>14</v>
       </c>
       <c r="C30">
-        <v>263</v>
+        <v>438</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F30">
-        <v>0.951</v>
+        <v>1.994</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1565,22 +1565,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
       <c r="C31">
-        <v>301</v>
+        <v>372</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F31">
-        <v>1.005</v>
+        <v>1.892</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1588,22 +1588,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
       <c r="C32">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32">
-        <v>1.231</v>
+        <v>1.533</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B33">
         <v>17</v>
       </c>
       <c r="C33">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>1.141</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -1634,22 +1634,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B34">
         <v>18</v>
       </c>
       <c r="C34">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F34">
-        <v>0.71</v>
+        <v>0.482</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -1657,22 +1657,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B35">
         <v>19</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F35">
-        <v>0.234</v>
+        <v>0.118</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B36">
         <v>20</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B37">
         <v>21</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B38">
         <v>22</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1781,15 +1781,15 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1798,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1890,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1927,19 +1927,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1950,22 +1950,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>0.04</v>
+        <v>0.047</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B49">
         <v>9</v>
       </c>
       <c r="C49">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>0.278</v>
+        <v>0.504</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1996,22 +1996,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
       <c r="C50">
-        <v>311</v>
+        <v>503</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>0.732</v>
+        <v>1.232</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2019,22 +2019,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B51">
         <v>11</v>
       </c>
       <c r="C51">
-        <v>401</v>
+        <v>634</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E51">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.165</v>
+        <v>2.048</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B52">
         <v>12</v>
       </c>
       <c r="C52">
-        <v>452</v>
+        <v>705</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E52">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.562</v>
+        <v>2.794</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B53">
         <v>13</v>
       </c>
       <c r="C53">
-        <v>473</v>
+        <v>723</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E53">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.954</v>
+        <v>2.991</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B54">
         <v>14</v>
       </c>
       <c r="C54">
-        <v>460</v>
+        <v>685</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E54">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2.005</v>
+        <v>3.078</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2111,22 +2111,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B55">
         <v>15</v>
       </c>
       <c r="C55">
-        <v>405</v>
+        <v>596</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E55">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.978</v>
+        <v>2.911</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -2134,22 +2134,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B56">
         <v>16</v>
       </c>
       <c r="C56">
-        <v>306</v>
+        <v>451</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E56">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>1.653</v>
+        <v>2.677</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B57">
         <v>17</v>
       </c>
       <c r="C57">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E57">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>1.1</v>
+        <v>1.912</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -2180,22 +2180,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
       <c r="C58">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>0.711</v>
+        <v>0.953</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B59">
         <v>19</v>
@@ -2212,13 +2212,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>0.177</v>
+        <v>0.249</v>
       </c>
       <c r="G59" t="s">
         <v>61</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B60">
         <v>20</v>
@@ -2235,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B61">
         <v>21</v>
@@ -2258,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E61">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B62">
         <v>22</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B63">
         <v>23</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2327,15 +2327,15 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -2390,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2436,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2473,19 +2473,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2496,22 +2496,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="D72">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E72">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.038</v>
+        <v>0.057</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73">
-        <v>197</v>
+        <v>362</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E73">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.277</v>
+        <v>0.658</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2542,22 +2542,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
       <c r="C74">
-        <v>290</v>
+        <v>516</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.728</v>
+        <v>1.613</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2565,22 +2565,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B75">
         <v>11</v>
       </c>
       <c r="C75">
-        <v>345</v>
+        <v>632</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.092</v>
+        <v>2.391</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B76">
         <v>12</v>
       </c>
       <c r="C76">
-        <v>384</v>
+        <v>702</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.338</v>
+        <v>2.836</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B77">
         <v>13</v>
       </c>
       <c r="C77">
-        <v>419</v>
+        <v>718</v>
       </c>
       <c r="D77">
         <v>22</v>
       </c>
       <c r="E77">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.605</v>
+        <v>2.992</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B78">
         <v>14</v>
       </c>
       <c r="C78">
-        <v>415</v>
+        <v>679</v>
       </c>
       <c r="D78">
         <v>23</v>
       </c>
       <c r="E78">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.79</v>
+        <v>3.078</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B79">
         <v>15</v>
       </c>
       <c r="C79">
-        <v>364</v>
+        <v>586</v>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.638</v>
+        <v>2.897</v>
       </c>
       <c r="G79" t="s">
         <v>80</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B80">
         <v>16</v>
       </c>
       <c r="C80">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="D80">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.429</v>
+        <v>2.579</v>
       </c>
       <c r="G80" t="s">
         <v>81</v>
@@ -2703,22 +2703,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B81">
         <v>17</v>
       </c>
       <c r="C81">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="D81">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E81">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.968</v>
+        <v>1.942</v>
       </c>
       <c r="G81" t="s">
         <v>82</v>
@@ -2726,22 +2726,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B82">
         <v>18</v>
       </c>
       <c r="C82">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="D82">
         <v>20</v>
       </c>
       <c r="E82">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.543</v>
+        <v>1.094</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -2749,22 +2749,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>17</v>
       </c>
       <c r="E83">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.122</v>
+        <v>0.226</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B84">
         <v>20</v>
@@ -2784,7 +2784,7 @@
         <v>16</v>
       </c>
       <c r="E84">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B85">
         <v>21</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B86">
         <v>22</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B87">
         <v>23</v>
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E87">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2873,15 +2873,15 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="E89">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -2939,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="E91">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -2982,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3019,19 +3019,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
       <c r="C95">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E95">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3042,22 +3042,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B96">
         <v>8</v>
       </c>
       <c r="C96">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E96">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.043</v>
+        <v>0.057</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3065,22 +3065,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B97">
         <v>9</v>
       </c>
       <c r="C97">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="D97">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.409</v>
+        <v>0.552</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3088,22 +3088,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B98">
         <v>10</v>
       </c>
       <c r="C98">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="D98">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.029</v>
+        <v>1.483</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3111,22 +3111,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B99">
         <v>11</v>
       </c>
       <c r="C99">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="D99">
         <v>19</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.924</v>
+        <v>2.282</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B100">
         <v>12</v>
       </c>
       <c r="C100">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D100">
         <v>21</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>2.333</v>
+        <v>2.798</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B101">
         <v>13</v>
@@ -3169,10 +3169,10 @@
         <v>22</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>2.572</v>
+        <v>2.968</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B102">
         <v>14</v>
       </c>
       <c r="C102">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D102">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>2.647</v>
+        <v>2.988</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3203,22 +3203,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B103">
         <v>15</v>
       </c>
       <c r="C103">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>2.53</v>
+        <v>2.815</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3226,22 +3226,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B104">
         <v>16</v>
       </c>
       <c r="C104">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="D104">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E104">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F104">
-        <v>2.204</v>
+        <v>2.285</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B105">
         <v>17</v>
       </c>
       <c r="C105">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D105">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E105">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F105">
-        <v>1.737</v>
+        <v>1.847</v>
       </c>
       <c r="G105" t="s">
         <v>105</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B106">
         <v>18</v>
@@ -3281,13 +3281,13 @@
         <v>89</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E106">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F106">
-        <v>0.831</v>
+        <v>0.897</v>
       </c>
       <c r="G106" t="s">
         <v>106</v>
@@ -3295,22 +3295,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B107">
         <v>19</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D107">
+        <v>18</v>
+      </c>
+      <c r="E107">
         <v>17</v>
       </c>
-      <c r="E107">
-        <v>28</v>
-      </c>
       <c r="F107">
-        <v>0.226</v>
+        <v>0.182</v>
       </c>
       <c r="G107" t="s">
         <v>107</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B108">
         <v>20</v>
@@ -3327,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B109">
         <v>21</v>
@@ -3350,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E109">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B110">
         <v>22</v>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B111">
         <v>23</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E111">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3419,15 +3419,15 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E113">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E115">
         <v>12</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -3528,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3565,16 +3565,16 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B119">
         <v>7</v>
       </c>
       <c r="C119">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B120">
         <v>8</v>
       </c>
       <c r="C120">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D120">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0.057</v>
+        <v>0.046</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B121">
         <v>9</v>
       </c>
       <c r="C121">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="D121">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0.656</v>
+        <v>0.483</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B122">
         <v>10</v>
       </c>
       <c r="C122">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="D122">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.557</v>
+        <v>1.477</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B123">
         <v>11</v>
       </c>
       <c r="C123">
-        <v>637</v>
+        <v>589</v>
       </c>
       <c r="D123">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>2.391</v>
+        <v>2.143</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B124">
         <v>12</v>
       </c>
       <c r="C124">
-        <v>710</v>
+        <v>661</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>2.817</v>
+        <v>2.685</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B125">
         <v>13</v>
       </c>
       <c r="C125">
-        <v>726</v>
+        <v>675</v>
       </c>
       <c r="D125">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>3.068</v>
+        <v>2.913</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B126">
         <v>14</v>
       </c>
       <c r="C126">
-        <v>686</v>
+        <v>636</v>
       </c>
       <c r="D126">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>3.1</v>
+        <v>2.954</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B127">
         <v>15</v>
       </c>
       <c r="C127">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>2.901</v>
+        <v>2.774</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3772,22 +3772,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B128">
         <v>16</v>
       </c>
       <c r="C128">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="D128">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>2.579</v>
+        <v>2.28</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B129">
         <v>17</v>
       </c>
       <c r="C129">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="D129">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.942</v>
+        <v>1.777</v>
       </c>
       <c r="G129" t="s">
         <v>128</v>
@@ -3818,22 +3818,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B130">
         <v>18</v>
       </c>
       <c r="C130">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D130">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.113</v>
+        <v>0.905</v>
       </c>
       <c r="G130" t="s">
         <v>129</v>
@@ -3841,22 +3841,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B131">
         <v>19</v>
       </c>
       <c r="C131">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0.3</v>
+        <v>0.152</v>
       </c>
       <c r="G131" t="s">
         <v>130</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B132">
         <v>20</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
         <v>131</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B133">
         <v>21</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B134">
         <v>22</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B135">
         <v>23</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -4111,16 +4111,16 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D143">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B144">
         <v>8</v>
       </c>
       <c r="C144">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D144">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0.057</v>
+        <v>0.041</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B145">
         <v>9</v>
       </c>
       <c r="C145">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="D145">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0.553</v>
+        <v>0.428</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B146">
         <v>10</v>
       </c>
       <c r="C146">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="D146">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.483</v>
+        <v>1.191</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4203,22 +4203,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B147">
         <v>11</v>
       </c>
       <c r="C147">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="D147">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>2.282</v>
+        <v>2.113</v>
       </c>
       <c r="G147" t="s">
         <v>145</v>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B148">
         <v>12</v>
       </c>
       <c r="C148">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="D148">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2.798</v>
+        <v>2.549</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B149">
         <v>13</v>
       </c>
       <c r="C149">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="D149">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>2.974</v>
+        <v>2.853</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B150">
         <v>14</v>
       </c>
       <c r="C150">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="D150">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>2.992</v>
+        <v>2.898</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
       <c r="C151">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="D151">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>2.833</v>
+        <v>2.772</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B152">
         <v>16</v>
       </c>
       <c r="C152">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="D152">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2.285</v>
+        <v>2.27</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B153">
         <v>17</v>
       </c>
       <c r="C153">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="D153">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.92</v>
+        <v>1.774</v>
       </c>
       <c r="G153" t="s">
         <v>151</v>
@@ -4364,22 +4364,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B154">
         <v>18</v>
       </c>
       <c r="C154">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>0.998</v>
+        <v>0.904</v>
       </c>
       <c r="G154" t="s">
         <v>152</v>
@@ -4387,22 +4387,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B155">
         <v>19</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0.179</v>
+        <v>0.14</v>
       </c>
       <c r="G155" t="s">
         <v>153</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B156">
         <v>20</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B157">
         <v>21</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B158">
         <v>22</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B159">
         <v>23</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4511,15 +4511,15 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="D162">
+        <v>15</v>
+      </c>
+      <c r="E162">
         <v>13</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -4574,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -4597,10 +4597,10 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -4620,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B166">
         <v>6</v>
@@ -4643,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4657,19 +4657,19 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B167">
         <v>7</v>
       </c>
       <c r="C167">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D167">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4680,22 +4680,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B168">
         <v>8</v>
       </c>
       <c r="C168">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="D168">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F168">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4703,22 +4703,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B169">
         <v>9</v>
       </c>
       <c r="C169">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="D169">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F169">
-        <v>0.552</v>
+        <v>0.395</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B170">
         <v>10</v>
       </c>
       <c r="C170">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="D170">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F170">
-        <v>1.479</v>
+        <v>1.114</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>

--- a/Astro/predictions_dataset.xlsx
+++ b/Astro/predictions_dataset.xlsx
@@ -37,6 +37,213 @@
     <t>Lookup</t>
   </si>
   <si>
+    <t>15.09.202411</t>
+  </si>
+  <si>
+    <t>15.09.202412</t>
+  </si>
+  <si>
+    <t>15.09.202413</t>
+  </si>
+  <si>
+    <t>15.09.202414</t>
+  </si>
+  <si>
+    <t>15.09.202415</t>
+  </si>
+  <si>
+    <t>15.09.202416</t>
+  </si>
+  <si>
+    <t>15.09.202417</t>
+  </si>
+  <si>
+    <t>15.09.202418</t>
+  </si>
+  <si>
+    <t>15.09.202419</t>
+  </si>
+  <si>
+    <t>15.09.202420</t>
+  </si>
+  <si>
+    <t>15.09.202421</t>
+  </si>
+  <si>
+    <t>15.09.202422</t>
+  </si>
+  <si>
+    <t>15.09.202423</t>
+  </si>
+  <si>
+    <t>16.09.20241</t>
+  </si>
+  <si>
+    <t>16.09.20242</t>
+  </si>
+  <si>
+    <t>16.09.20243</t>
+  </si>
+  <si>
+    <t>16.09.20244</t>
+  </si>
+  <si>
+    <t>16.09.20245</t>
+  </si>
+  <si>
+    <t>16.09.20246</t>
+  </si>
+  <si>
+    <t>16.09.20247</t>
+  </si>
+  <si>
+    <t>16.09.20248</t>
+  </si>
+  <si>
+    <t>16.09.20249</t>
+  </si>
+  <si>
+    <t>16.09.202410</t>
+  </si>
+  <si>
+    <t>16.09.202411</t>
+  </si>
+  <si>
+    <t>16.09.202412</t>
+  </si>
+  <si>
+    <t>16.09.202413</t>
+  </si>
+  <si>
+    <t>16.09.202414</t>
+  </si>
+  <si>
+    <t>16.09.202415</t>
+  </si>
+  <si>
+    <t>16.09.202416</t>
+  </si>
+  <si>
+    <t>16.09.202417</t>
+  </si>
+  <si>
+    <t>16.09.202418</t>
+  </si>
+  <si>
+    <t>16.09.202419</t>
+  </si>
+  <si>
+    <t>16.09.202420</t>
+  </si>
+  <si>
+    <t>16.09.202421</t>
+  </si>
+  <si>
+    <t>16.09.202422</t>
+  </si>
+  <si>
+    <t>16.09.202423</t>
+  </si>
+  <si>
+    <t>17.09.20241</t>
+  </si>
+  <si>
+    <t>17.09.20242</t>
+  </si>
+  <si>
+    <t>17.09.20243</t>
+  </si>
+  <si>
+    <t>17.09.20244</t>
+  </si>
+  <si>
+    <t>17.09.20245</t>
+  </si>
+  <si>
+    <t>17.09.20246</t>
+  </si>
+  <si>
+    <t>17.09.20247</t>
+  </si>
+  <si>
+    <t>17.09.20248</t>
+  </si>
+  <si>
+    <t>17.09.20249</t>
+  </si>
+  <si>
+    <t>17.09.202410</t>
+  </si>
+  <si>
+    <t>17.09.202411</t>
+  </si>
+  <si>
+    <t>17.09.202412</t>
+  </si>
+  <si>
+    <t>17.09.202413</t>
+  </si>
+  <si>
+    <t>17.09.202414</t>
+  </si>
+  <si>
+    <t>17.09.202415</t>
+  </si>
+  <si>
+    <t>17.09.202416</t>
+  </si>
+  <si>
+    <t>17.09.202417</t>
+  </si>
+  <si>
+    <t>17.09.202418</t>
+  </si>
+  <si>
+    <t>17.09.202419</t>
+  </si>
+  <si>
+    <t>17.09.202420</t>
+  </si>
+  <si>
+    <t>17.09.202421</t>
+  </si>
+  <si>
+    <t>17.09.202422</t>
+  </si>
+  <si>
+    <t>17.09.202423</t>
+  </si>
+  <si>
+    <t>18.09.20241</t>
+  </si>
+  <si>
+    <t>18.09.20242</t>
+  </si>
+  <si>
+    <t>18.09.20243</t>
+  </si>
+  <si>
+    <t>18.09.20244</t>
+  </si>
+  <si>
+    <t>18.09.20245</t>
+  </si>
+  <si>
+    <t>18.09.20246</t>
+  </si>
+  <si>
+    <t>18.09.20247</t>
+  </si>
+  <si>
+    <t>18.09.20248</t>
+  </si>
+  <si>
+    <t>18.09.20249</t>
+  </si>
+  <si>
+    <t>18.09.202410</t>
+  </si>
+  <si>
     <t>18.09.202411</t>
   </si>
   <si>
@@ -311,213 +518,6 @@
   </si>
   <si>
     <t>22.09.202410</t>
-  </si>
-  <si>
-    <t>22.09.202411</t>
-  </si>
-  <si>
-    <t>22.09.202412</t>
-  </si>
-  <si>
-    <t>22.09.202413</t>
-  </si>
-  <si>
-    <t>22.09.202414</t>
-  </si>
-  <si>
-    <t>22.09.202415</t>
-  </si>
-  <si>
-    <t>22.09.202416</t>
-  </si>
-  <si>
-    <t>22.09.202417</t>
-  </si>
-  <si>
-    <t>22.09.202418</t>
-  </si>
-  <si>
-    <t>22.09.202419</t>
-  </si>
-  <si>
-    <t>22.09.202420</t>
-  </si>
-  <si>
-    <t>22.09.202421</t>
-  </si>
-  <si>
-    <t>22.09.202422</t>
-  </si>
-  <si>
-    <t>22.09.202423</t>
-  </si>
-  <si>
-    <t>23.09.20241</t>
-  </si>
-  <si>
-    <t>23.09.20242</t>
-  </si>
-  <si>
-    <t>23.09.20243</t>
-  </si>
-  <si>
-    <t>23.09.20244</t>
-  </si>
-  <si>
-    <t>23.09.20245</t>
-  </si>
-  <si>
-    <t>23.09.20246</t>
-  </si>
-  <si>
-    <t>23.09.20247</t>
-  </si>
-  <si>
-    <t>23.09.20248</t>
-  </si>
-  <si>
-    <t>23.09.20249</t>
-  </si>
-  <si>
-    <t>23.09.202410</t>
-  </si>
-  <si>
-    <t>23.09.202411</t>
-  </si>
-  <si>
-    <t>23.09.202412</t>
-  </si>
-  <si>
-    <t>23.09.202413</t>
-  </si>
-  <si>
-    <t>23.09.202414</t>
-  </si>
-  <si>
-    <t>23.09.202415</t>
-  </si>
-  <si>
-    <t>23.09.202416</t>
-  </si>
-  <si>
-    <t>23.09.202417</t>
-  </si>
-  <si>
-    <t>23.09.202418</t>
-  </si>
-  <si>
-    <t>23.09.202419</t>
-  </si>
-  <si>
-    <t>23.09.202420</t>
-  </si>
-  <si>
-    <t>23.09.202421</t>
-  </si>
-  <si>
-    <t>23.09.202422</t>
-  </si>
-  <si>
-    <t>23.09.202423</t>
-  </si>
-  <si>
-    <t>24.09.20241</t>
-  </si>
-  <si>
-    <t>24.09.20242</t>
-  </si>
-  <si>
-    <t>24.09.20243</t>
-  </si>
-  <si>
-    <t>24.09.20244</t>
-  </si>
-  <si>
-    <t>24.09.20245</t>
-  </si>
-  <si>
-    <t>24.09.20246</t>
-  </si>
-  <si>
-    <t>24.09.20247</t>
-  </si>
-  <si>
-    <t>24.09.20248</t>
-  </si>
-  <si>
-    <t>24.09.20249</t>
-  </si>
-  <si>
-    <t>24.09.202410</t>
-  </si>
-  <si>
-    <t>24.09.202411</t>
-  </si>
-  <si>
-    <t>24.09.202412</t>
-  </si>
-  <si>
-    <t>24.09.202413</t>
-  </si>
-  <si>
-    <t>24.09.202414</t>
-  </si>
-  <si>
-    <t>24.09.202415</t>
-  </si>
-  <si>
-    <t>24.09.202416</t>
-  </si>
-  <si>
-    <t>24.09.202417</t>
-  </si>
-  <si>
-    <t>24.09.202418</t>
-  </si>
-  <si>
-    <t>24.09.202419</t>
-  </si>
-  <si>
-    <t>24.09.202420</t>
-  </si>
-  <si>
-    <t>24.09.202421</t>
-  </si>
-  <si>
-    <t>24.09.202422</t>
-  </si>
-  <si>
-    <t>24.09.202423</t>
-  </si>
-  <si>
-    <t>25.09.20241</t>
-  </si>
-  <si>
-    <t>25.09.20242</t>
-  </si>
-  <si>
-    <t>25.09.20243</t>
-  </si>
-  <si>
-    <t>25.09.20244</t>
-  </si>
-  <si>
-    <t>25.09.20245</t>
-  </si>
-  <si>
-    <t>25.09.20246</t>
-  </si>
-  <si>
-    <t>25.09.20247</t>
-  </si>
-  <si>
-    <t>25.09.20248</t>
-  </si>
-  <si>
-    <t>25.09.20249</t>
-  </si>
-  <si>
-    <t>25.09.202410</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -950,16 +950,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>673</v>
+        <v>715</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.968</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
       <c r="C6">
-        <v>556</v>
+        <v>687</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2.466</v>
+        <v>3.155</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1019,22 +1019,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>448</v>
+        <v>586</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>2.119</v>
+        <v>2.66</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
       <c r="C8">
-        <v>344</v>
+        <v>460</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>1.865</v>
+        <v>2.344</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B9">
         <v>17</v>
       </c>
       <c r="C9">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>1.325</v>
+        <v>1.969</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1088,22 +1088,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B10">
         <v>18</v>
       </c>
       <c r="C10">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>0.766</v>
+        <v>1.073</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1111,22 +1111,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B11">
         <v>19</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>0.172</v>
+        <v>0.344</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>16</v>
       </c>
-      <c r="E12">
-        <v>31</v>
-      </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B15">
         <v>23</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1235,15 +1235,15 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1298,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1324,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F24">
-        <v>0.057</v>
+        <v>0.039</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25">
-        <v>316</v>
+        <v>121</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F25">
-        <v>0.51</v>
+        <v>0.18</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
@@ -1450,22 +1450,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>438</v>
+        <v>191</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F26">
-        <v>1.323</v>
+        <v>0.422</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1473,22 +1473,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27">
-        <v>494</v>
+        <v>230</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F27">
-        <v>1.792</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>499</v>
+        <v>246</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F28">
-        <v>1.999</v>
+        <v>0.84</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B29">
         <v>13</v>
       </c>
       <c r="C29">
-        <v>483</v>
+        <v>253</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F29">
-        <v>2.074</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -1542,22 +1542,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B30">
         <v>14</v>
       </c>
       <c r="C30">
-        <v>438</v>
+        <v>263</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F30">
-        <v>1.994</v>
+        <v>0.951</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -1565,22 +1565,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
       <c r="C31">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F31">
-        <v>1.892</v>
+        <v>1.005</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -1588,22 +1588,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
       <c r="C32">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>1.533</v>
+        <v>1.231</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B33">
         <v>17</v>
       </c>
       <c r="C33">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F33">
-        <v>0.98</v>
+        <v>1.141</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -1634,22 +1634,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B34">
         <v>18</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F34">
-        <v>0.482</v>
+        <v>0.71</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -1657,22 +1657,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B35">
         <v>19</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F35">
-        <v>0.118</v>
+        <v>0.234</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B36">
         <v>20</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B37">
         <v>21</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B38">
         <v>22</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1781,15 +1781,15 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1798,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1890,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1927,19 +1927,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1950,22 +1950,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F48">
-        <v>0.047</v>
+        <v>0.04</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B49">
         <v>9</v>
       </c>
       <c r="C49">
-        <v>317</v>
+        <v>196</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F49">
-        <v>0.504</v>
+        <v>0.278</v>
       </c>
       <c r="G49" t="s">
         <v>51</v>
@@ -1996,22 +1996,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
       <c r="C50">
-        <v>503</v>
+        <v>311</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F50">
-        <v>1.232</v>
+        <v>0.732</v>
       </c>
       <c r="G50" t="s">
         <v>52</v>
@@ -2019,22 +2019,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B51">
         <v>11</v>
       </c>
       <c r="C51">
-        <v>634</v>
+        <v>401</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F51">
-        <v>2.048</v>
+        <v>1.165</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B52">
         <v>12</v>
       </c>
       <c r="C52">
-        <v>705</v>
+        <v>452</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F52">
-        <v>2.794</v>
+        <v>1.562</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B53">
         <v>13</v>
       </c>
       <c r="C53">
-        <v>723</v>
+        <v>473</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F53">
-        <v>2.991</v>
+        <v>1.954</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B54">
         <v>14</v>
       </c>
       <c r="C54">
-        <v>685</v>
+        <v>460</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F54">
-        <v>3.078</v>
+        <v>2.005</v>
       </c>
       <c r="G54" t="s">
         <v>56</v>
@@ -2111,22 +2111,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B55">
         <v>15</v>
       </c>
       <c r="C55">
-        <v>596</v>
+        <v>405</v>
       </c>
       <c r="D55">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F55">
-        <v>2.911</v>
+        <v>1.978</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -2134,22 +2134,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B56">
         <v>16</v>
       </c>
       <c r="C56">
-        <v>451</v>
+        <v>306</v>
       </c>
       <c r="D56">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F56">
-        <v>2.677</v>
+        <v>1.653</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B57">
         <v>17</v>
       </c>
       <c r="C57">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F57">
-        <v>1.912</v>
+        <v>1.1</v>
       </c>
       <c r="G57" t="s">
         <v>59</v>
@@ -2180,22 +2180,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
       <c r="C58">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F58">
-        <v>0.953</v>
+        <v>0.711</v>
       </c>
       <c r="G58" t="s">
         <v>60</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B59">
         <v>19</v>
@@ -2212,13 +2212,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E59">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F59">
-        <v>0.249</v>
+        <v>0.177</v>
       </c>
       <c r="G59" t="s">
         <v>61</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B60">
         <v>20</v>
@@ -2235,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B61">
         <v>21</v>
@@ -2258,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B62">
         <v>22</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E62">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B63">
         <v>23</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2327,15 +2327,15 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -2390,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2436,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2473,19 +2473,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
       <c r="C71">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2496,22 +2496,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F72">
-        <v>0.057</v>
+        <v>0.038</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73">
-        <v>362</v>
+        <v>197</v>
       </c>
       <c r="D73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F73">
-        <v>0.658</v>
+        <v>0.277</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -2542,22 +2542,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
       <c r="C74">
-        <v>516</v>
+        <v>290</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F74">
-        <v>1.613</v>
+        <v>0.728</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -2565,22 +2565,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B75">
         <v>11</v>
       </c>
       <c r="C75">
-        <v>632</v>
+        <v>345</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F75">
-        <v>2.391</v>
+        <v>1.092</v>
       </c>
       <c r="G75" t="s">
         <v>76</v>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B76">
         <v>12</v>
       </c>
       <c r="C76">
-        <v>702</v>
+        <v>384</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F76">
-        <v>2.836</v>
+        <v>1.338</v>
       </c>
       <c r="G76" t="s">
         <v>77</v>
@@ -2611,22 +2611,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B77">
         <v>13</v>
       </c>
       <c r="C77">
-        <v>718</v>
+        <v>419</v>
       </c>
       <c r="D77">
         <v>22</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F77">
-        <v>2.992</v>
+        <v>1.605</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -2634,22 +2634,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B78">
         <v>14</v>
       </c>
       <c r="C78">
-        <v>679</v>
+        <v>415</v>
       </c>
       <c r="D78">
         <v>23</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F78">
-        <v>3.078</v>
+        <v>1.79</v>
       </c>
       <c r="G78" t="s">
         <v>79</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B79">
         <v>15</v>
       </c>
       <c r="C79">
-        <v>586</v>
+        <v>364</v>
       </c>
       <c r="D79">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F79">
-        <v>2.897</v>
+        <v>1.638</v>
       </c>
       <c r="G79" t="s">
         <v>80</v>
@@ -2680,22 +2680,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B80">
         <v>16</v>
       </c>
       <c r="C80">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="D80">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F80">
-        <v>2.579</v>
+        <v>1.429</v>
       </c>
       <c r="G80" t="s">
         <v>81</v>
@@ -2703,22 +2703,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B81">
         <v>17</v>
       </c>
       <c r="C81">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F81">
-        <v>1.942</v>
+        <v>0.968</v>
       </c>
       <c r="G81" t="s">
         <v>82</v>
@@ -2726,22 +2726,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B82">
         <v>18</v>
       </c>
       <c r="C82">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="D82">
         <v>20</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F82">
-        <v>1.094</v>
+        <v>0.543</v>
       </c>
       <c r="G82" t="s">
         <v>83</v>
@@ -2749,22 +2749,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83">
         <v>17</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F83">
-        <v>0.226</v>
+        <v>0.122</v>
       </c>
       <c r="G83" t="s">
         <v>84</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B84">
         <v>20</v>
@@ -2784,7 +2784,7 @@
         <v>16</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B85">
         <v>21</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B86">
         <v>22</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B87">
         <v>23</v>
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2873,15 +2873,15 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -2939,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -2982,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3019,19 +3019,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
       <c r="C95">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D95">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3042,22 +3042,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B96">
         <v>8</v>
       </c>
       <c r="C96">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="D96">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F96">
-        <v>0.057</v>
+        <v>0.043</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -3065,22 +3065,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B97">
         <v>9</v>
       </c>
       <c r="C97">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F97">
-        <v>0.552</v>
+        <v>0.409</v>
       </c>
       <c r="G97" t="s">
         <v>97</v>
@@ -3088,22 +3088,22 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B98">
         <v>10</v>
       </c>
       <c r="C98">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="D98">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F98">
-        <v>1.483</v>
+        <v>1.029</v>
       </c>
       <c r="G98" t="s">
         <v>98</v>
@@ -3111,22 +3111,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B99">
         <v>11</v>
       </c>
       <c r="C99">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="D99">
         <v>19</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F99">
-        <v>2.282</v>
+        <v>1.924</v>
       </c>
       <c r="G99" t="s">
         <v>99</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B100">
         <v>12</v>
       </c>
       <c r="C100">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D100">
         <v>21</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>2.798</v>
+        <v>2.333</v>
       </c>
       <c r="G100" t="s">
         <v>100</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B101">
         <v>13</v>
@@ -3169,10 +3169,10 @@
         <v>22</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>2.968</v>
+        <v>2.572</v>
       </c>
       <c r="G101" t="s">
         <v>101</v>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B102">
         <v>14</v>
       </c>
       <c r="C102">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="D102">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>2.988</v>
+        <v>2.647</v>
       </c>
       <c r="G102" t="s">
         <v>102</v>
@@ -3203,22 +3203,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B103">
         <v>15</v>
       </c>
       <c r="C103">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D103">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>2.815</v>
+        <v>2.53</v>
       </c>
       <c r="G103" t="s">
         <v>103</v>
@@ -3226,22 +3226,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B104">
         <v>16</v>
       </c>
       <c r="C104">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D104">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F104">
-        <v>2.285</v>
+        <v>2.204</v>
       </c>
       <c r="G104" t="s">
         <v>104</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B105">
         <v>17</v>
       </c>
       <c r="C105">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E105">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F105">
-        <v>1.847</v>
+        <v>1.737</v>
       </c>
       <c r="G105" t="s">
         <v>105</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B106">
         <v>18</v>
@@ -3281,13 +3281,13 @@
         <v>89</v>
       </c>
       <c r="D106">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E106">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F106">
-        <v>0.897</v>
+        <v>0.831</v>
       </c>
       <c r="G106" t="s">
         <v>106</v>
@@ -3295,22 +3295,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B107">
         <v>19</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F107">
-        <v>0.182</v>
+        <v>0.226</v>
       </c>
       <c r="G107" t="s">
         <v>107</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B108">
         <v>20</v>
@@ -3327,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B109">
         <v>21</v>
@@ -3350,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E109">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B110">
         <v>22</v>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E110">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B111">
         <v>23</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3419,15 +3419,15 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E112">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E113">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E115">
         <v>12</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E116">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -3528,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3565,16 +3565,16 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B119">
         <v>7</v>
       </c>
       <c r="C119">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D119">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B120">
         <v>8</v>
       </c>
       <c r="C120">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D120">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0.046</v>
+        <v>0.057</v>
       </c>
       <c r="G120" t="s">
         <v>119</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B121">
         <v>9</v>
       </c>
       <c r="C121">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="D121">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0.483</v>
+        <v>0.656</v>
       </c>
       <c r="G121" t="s">
         <v>120</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B122">
         <v>10</v>
       </c>
       <c r="C122">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="D122">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.477</v>
+        <v>1.557</v>
       </c>
       <c r="G122" t="s">
         <v>121</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B123">
         <v>11</v>
       </c>
       <c r="C123">
-        <v>589</v>
+        <v>637</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>2.143</v>
+        <v>2.391</v>
       </c>
       <c r="G123" t="s">
         <v>122</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B124">
         <v>12</v>
       </c>
       <c r="C124">
-        <v>661</v>
+        <v>710</v>
       </c>
       <c r="D124">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>2.685</v>
+        <v>2.817</v>
       </c>
       <c r="G124" t="s">
         <v>123</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B125">
         <v>13</v>
       </c>
       <c r="C125">
-        <v>675</v>
+        <v>726</v>
       </c>
       <c r="D125">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>2.913</v>
+        <v>3.068</v>
       </c>
       <c r="G125" t="s">
         <v>124</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B126">
         <v>14</v>
       </c>
       <c r="C126">
-        <v>636</v>
+        <v>686</v>
       </c>
       <c r="D126">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>2.954</v>
+        <v>3.1</v>
       </c>
       <c r="G126" t="s">
         <v>125</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B127">
         <v>15</v>
       </c>
       <c r="C127">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="D127">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>2.774</v>
+        <v>2.901</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
@@ -3772,22 +3772,22 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B128">
         <v>16</v>
       </c>
       <c r="C128">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="D128">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>2.28</v>
+        <v>2.579</v>
       </c>
       <c r="G128" t="s">
         <v>127</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B129">
         <v>17</v>
       </c>
       <c r="C129">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="D129">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.777</v>
+        <v>1.942</v>
       </c>
       <c r="G129" t="s">
         <v>128</v>
@@ -3818,22 +3818,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B130">
         <v>18</v>
       </c>
       <c r="C130">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D130">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0.905</v>
+        <v>1.113</v>
       </c>
       <c r="G130" t="s">
         <v>129</v>
@@ -3841,22 +3841,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B131">
         <v>19</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0.152</v>
+        <v>0.3</v>
       </c>
       <c r="G131" t="s">
         <v>130</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B132">
         <v>20</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="G132" t="s">
         <v>131</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B133">
         <v>21</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B134">
         <v>22</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B135">
         <v>23</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -4111,16 +4111,16 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D143">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B144">
         <v>8</v>
       </c>
       <c r="C144">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="D144">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0.041</v>
+        <v>0.057</v>
       </c>
       <c r="G144" t="s">
         <v>142</v>
@@ -4157,22 +4157,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B145">
         <v>9</v>
       </c>
       <c r="C145">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="D145">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0.428</v>
+        <v>0.553</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -4180,22 +4180,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B146">
         <v>10</v>
       </c>
       <c r="C146">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="D146">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.191</v>
+        <v>1.483</v>
       </c>
       <c r="G146" t="s">
         <v>144</v>
@@ -4203,22 +4203,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B147">
         <v>11</v>
       </c>
       <c r="C147">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="D147">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>2.113</v>
+        <v>2.282</v>
       </c>
       <c r="G147" t="s">
         <v>145</v>
@@ -4226,22 +4226,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B148">
         <v>12</v>
       </c>
       <c r="C148">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="D148">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2.549</v>
+        <v>2.798</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -4249,22 +4249,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B149">
         <v>13</v>
       </c>
       <c r="C149">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="D149">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>2.853</v>
+        <v>2.974</v>
       </c>
       <c r="G149" t="s">
         <v>147</v>
@@ -4272,22 +4272,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B150">
         <v>14</v>
       </c>
       <c r="C150">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="D150">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>2.898</v>
+        <v>2.992</v>
       </c>
       <c r="G150" t="s">
         <v>148</v>
@@ -4295,22 +4295,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
       <c r="C151">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="D151">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>2.772</v>
+        <v>2.833</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -4318,22 +4318,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B152">
         <v>16</v>
       </c>
       <c r="C152">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="D152">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2.27</v>
+        <v>2.285</v>
       </c>
       <c r="G152" t="s">
         <v>150</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B153">
         <v>17</v>
       </c>
       <c r="C153">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="D153">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.774</v>
+        <v>1.92</v>
       </c>
       <c r="G153" t="s">
         <v>151</v>
@@ -4364,22 +4364,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B154">
         <v>18</v>
       </c>
       <c r="C154">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D154">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>0.904</v>
+        <v>0.998</v>
       </c>
       <c r="G154" t="s">
         <v>152</v>
@@ -4387,22 +4387,22 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B155">
         <v>19</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D155">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0.14</v>
+        <v>0.179</v>
       </c>
       <c r="G155" t="s">
         <v>153</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B156">
         <v>20</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B157">
         <v>21</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B158">
         <v>22</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B159">
         <v>23</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4511,15 +4511,15 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E160">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E161">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -4574,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E163">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -4597,10 +4597,10 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E164">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -4620,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E165">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B166">
         <v>6</v>
@@ -4643,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E166">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4657,19 +4657,19 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B167">
         <v>7</v>
       </c>
       <c r="C167">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D167">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E167">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4680,22 +4680,22 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B168">
         <v>8</v>
       </c>
       <c r="C168">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D168">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E168">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="G168" t="s">
         <v>165</v>
@@ -4703,22 +4703,22 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B169">
         <v>9</v>
       </c>
       <c r="C169">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="D169">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E169">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.395</v>
+        <v>0.552</v>
       </c>
       <c r="G169" t="s">
         <v>166</v>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B170">
         <v>10</v>
       </c>
       <c r="C170">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="D170">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E170">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.114</v>
+        <v>1.479</v>
       </c>
       <c r="G170" t="s">
         <v>167</v>
